--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF2B990-3BC8-4A4C-9BF4-67D305439F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50897273-82D8-A448-A3DD-E4F204A082E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="274">
   <si>
     <t>index</t>
   </si>
@@ -679,9 +679,6 @@
     <t>Uniquely defines entity within HAAS namespace</t>
   </si>
   <si>
-    <t>Nice name for entity</t>
-  </si>
-  <si>
     <t>Nicely named entity low level domain</t>
   </si>
   <si>
@@ -845,6 +842,18 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>https://weewx.janeandgraham.com</t>
+  </si>
+  <si>
+    <t>Nice name for the entity</t>
+  </si>
+  <si>
+    <t>friendly_name</t>
+  </si>
+  <si>
+    <t>Unique name for the entity, overrides HAAS parsing of unique_id</t>
   </si>
 </sst>
 </file>
@@ -949,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -984,12 +993,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1290,40 +1311,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:AB253" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A2:AB253" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:AC253" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A2:AC253" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AC65">
     <sortCondition ref="A2:A253"/>
   </sortState>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="entity_status" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="entity_namespace" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unique_id" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="name" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="entity_domain" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entity_group" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="display_mode" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="timeseries_mode" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="device_configuration_url" dataDxfId="1"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="device_via_device" dataDxfId="0"/>
+  <tableColumns count="29">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="entity_status" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="entity_namespace" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unique_id" dataDxfId="25"/>
+    <tableColumn id="29" xr3:uid="{C9099E62-9C90-774C-B487-C1E8FC10D09D}" name="name" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="friendly_name" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="entity_domain" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entity_group" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="display_mode" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="timeseries_mode" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="device_configuration_url" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="device_via_device" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1626,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB65"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,35 +1660,35 @@
     <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="69.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="63.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="43" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="69.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="63.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="21.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>212</v>
@@ -1678,79 +1700,82 @@
         <v>214</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="6">
+        <v>1</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="6">
-        <v>1</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1767,76 +1792,79 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -1849,79 +1877,79 @@
       <c r="D3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>300</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="1" t="str">
-        <f>IF(ISBLANK(P3),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB3), "/", D3, "/config"))</f>
+      <c r="R3" s="1" t="str">
+        <f>IF(ISBLANK(Q3),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC3), "/", D3, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_temperature/config</v>
       </c>
-      <c r="R3" s="1" t="str">
-        <f>IF(ISBLANK(P3),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB3), "/", D3))</f>
+      <c r="S3" s="1" t="str">
+        <f>IF(ISBLANK(Q3),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC3), "/", D3))</f>
         <v>haas/entity/sensor/weewx/roof_temperature</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>1</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>3.15</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -1934,76 +1962,76 @@
       <c r="D4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>300</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="1" t="str">
-        <f>IF(ISBLANK(P4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB4), "/", D4, "/config"))</f>
+      <c r="R4" s="1" t="str">
+        <f>IF(ISBLANK(Q4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC4), "/", D4, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature/config</v>
       </c>
-      <c r="R4" s="1" t="str">
-        <f>IF(ISBLANK(P4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB4), "/", D4))</f>
+      <c r="S4" s="1" t="str">
+        <f>IF(ISBLANK(Q4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC4), "/", D4))</f>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>1</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>3.15</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -2016,76 +2044,76 @@
       <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>300</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="1" t="str">
-        <f>IF(ISBLANK(P5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB5), "/", D5, "/config"))</f>
+      <c r="R5" s="1" t="str">
+        <f>IF(ISBLANK(Q5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC5), "/", D5, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_dew_point/config</v>
       </c>
-      <c r="R5" s="1" t="str">
-        <f>IF(ISBLANK(P5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB5), "/", D5))</f>
+      <c r="S5" s="1" t="str">
+        <f>IF(ISBLANK(Q5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC5), "/", D5))</f>
         <v>haas/entity/sensor/weewx/roof_dew_point</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>1</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>3.15</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -2098,76 +2126,76 @@
       <c r="D6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>300</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="1" t="str">
-        <f>IF(ISBLANK(P6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB6), "/", D6, "/config"))</f>
+      <c r="R6" s="1" t="str">
+        <f>IF(ISBLANK(Q6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC6), "/", D6, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_heat_index/config</v>
       </c>
-      <c r="R6" s="1" t="str">
-        <f>IF(ISBLANK(P6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB6), "/", D6))</f>
+      <c r="S6" s="1" t="str">
+        <f>IF(ISBLANK(Q6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC6), "/", D6))</f>
         <v>haas/entity/sensor/weewx/roof_heat_index</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>1</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>3.15</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -2180,76 +2208,76 @@
       <c r="D7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>300</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q7" s="1" t="str">
-        <f>IF(ISBLANK(P7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB7), "/", D7, "/config"))</f>
+      <c r="R7" s="1" t="str">
+        <f>IF(ISBLANK(Q7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC7), "/", D7, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_high_temperature/config</v>
       </c>
-      <c r="R7" s="1" t="str">
-        <f>IF(ISBLANK(P7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB7), "/", D7))</f>
+      <c r="S7" s="1" t="str">
+        <f>IF(ISBLANK(Q7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC7), "/", D7))</f>
         <v>haas/entity/sensor/weewx/roof_high_temperature</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>1</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>3.15</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -2262,76 +2290,76 @@
       <c r="D8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>300</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" s="1" t="str">
-        <f>IF(ISBLANK(P8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB8), "/", D8, "/config"))</f>
+      <c r="R8" s="1" t="str">
+        <f>IF(ISBLANK(Q8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC8), "/", D8, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_humidity_index/config</v>
       </c>
-      <c r="R8" s="1" t="str">
-        <f>IF(ISBLANK(P8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB8), "/", D8))</f>
+      <c r="S8" s="1" t="str">
+        <f>IF(ISBLANK(Q8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC8), "/", D8))</f>
         <v>haas/entity/sensor/weewx/roof_humidity_index</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>1</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>3.15</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -2344,76 +2372,76 @@
       <c r="D9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>300</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" s="1" t="str">
-        <f>IF(ISBLANK(P9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB9), "/", D9, "/config"))</f>
+      <c r="R9" s="1" t="str">
+        <f>IF(ISBLANK(Q9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC9), "/", D9, "/config"))</f>
         <v>haas/entity/sensor/weewx/rack_dew_point/config</v>
       </c>
-      <c r="R9" s="1" t="str">
-        <f>IF(ISBLANK(P9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB9), "/", D9))</f>
+      <c r="S9" s="1" t="str">
+        <f>IF(ISBLANK(Q9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC9), "/", D9))</f>
         <v>haas/entity/sensor/weewx/rack_dew_point</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>1</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>3.15</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AB9" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
@@ -2426,76 +2454,76 @@
       <c r="D10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>300</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" s="1" t="str">
-        <f>IF(ISBLANK(P10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB10), "/", D10, "/config"))</f>
+      <c r="R10" s="1" t="str">
+        <f>IF(ISBLANK(Q10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC10), "/", D10, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_low_temperature/config</v>
       </c>
-      <c r="R10" s="1" t="str">
-        <f>IF(ISBLANK(P10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB10), "/", D10))</f>
+      <c r="S10" s="1" t="str">
+        <f>IF(ISBLANK(Q10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC10), "/", D10))</f>
         <v>haas/entity/sensor/weewx/roof_low_temperature</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>1</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>3.15</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
@@ -2508,35 +2536,35 @@
       <c r="D11" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="Q11" s="1" t="str">
-        <f>IF(ISBLANK(P11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB11), "/", D11, "/config"))</f>
+      <c r="P11" s="2"/>
+      <c r="R11" s="1" t="str">
+        <f>IF(ISBLANK(Q11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC11), "/", D11, "/config"))</f>
         <v/>
       </c>
-      <c r="R11" s="1" t="str">
-        <f>IF(ISBLANK(P11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB11), "/", D11))</f>
+      <c r="S11" s="1" t="str">
+        <f>IF(ISBLANK(Q11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC11), "/", D11))</f>
         <v/>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
@@ -2549,76 +2577,76 @@
       <c r="D12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>300</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q12" s="1" t="str">
-        <f>IF(ISBLANK(P12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB12), "/", D12, "/config"))</f>
+      <c r="R12" s="1" t="str">
+        <f>IF(ISBLANK(Q12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC12), "/", D12, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature/config</v>
       </c>
-      <c r="R12" s="1" t="str">
-        <f>IF(ISBLANK(P12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB12), "/", D12))</f>
+      <c r="S12" s="1" t="str">
+        <f>IF(ISBLANK(Q12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC12), "/", D12))</f>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>1</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>3.15</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
@@ -2629,81 +2657,81 @@
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>300</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <f>IF(ISBLANK(P13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB13), "/", D13, "/config"))</f>
+      <c r="Q13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f>IF(ISBLANK(Q13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC13), "/", D13, "/config"))</f>
         <v>haas/entity/sensor/weewx/rack_temperature/config</v>
       </c>
-      <c r="R13" s="1" t="str">
-        <f>IF(ISBLANK(P13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB13), "/", D13))</f>
+      <c r="S13" s="1" t="str">
+        <f>IF(ISBLANK(Q13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC13), "/", D13))</f>
         <v>haas/entity/sensor/weewx/rack_temperature</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>1</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>3.15</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1050</v>
       </c>
@@ -2714,28 +2742,28 @@
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1100</v>
       </c>
@@ -2748,79 +2776,79 @@
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>300</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="1" t="str">
-        <f>IF(ISBLANK(P15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB15), "/", D15, "/config"))</f>
+      <c r="R15" s="1" t="str">
+        <f>IF(ISBLANK(Q15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC15), "/", D15, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_humidity/config</v>
       </c>
-      <c r="R15" s="1" t="str">
-        <f>IF(ISBLANK(P15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB15), "/", D15))</f>
+      <c r="S15" s="1" t="str">
+        <f>IF(ISBLANK(Q15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC15), "/", D15))</f>
         <v>haas/entity/sensor/weewx/roof_humidity</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>1</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>3.15</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1101</v>
       </c>
@@ -2833,79 +2861,79 @@
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>300</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="1" t="str">
-        <f>IF(ISBLANK(P16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB16), "/", D16, "/config"))</f>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISBLANK(Q16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC16), "/", D16, "/config"))</f>
         <v>haas/entity/sensor/weewx/rack_humidity/config</v>
       </c>
-      <c r="R16" s="1" t="str">
-        <f>IF(ISBLANK(P16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB16), "/", D16))</f>
+      <c r="S16" s="1" t="str">
+        <f>IF(ISBLANK(Q16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC16), "/", D16))</f>
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>1</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>3.15</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AB16" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1150</v>
       </c>
@@ -2916,26 +2944,26 @@
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="AB17" s="1" t="s">
+      <c r="P17" s="2"/>
+      <c r="AC17" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1300</v>
       </c>
@@ -2948,76 +2976,76 @@
       <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="L18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" s="1">
         <v>300</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="1" t="str">
-        <f>IF(ISBLANK(P18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB18), "/", D18, "/config"))</f>
+      <c r="R18" s="1" t="str">
+        <f>IF(ISBLANK(Q18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC18), "/", D18, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_cloud_base/config</v>
       </c>
-      <c r="R18" s="1" t="str">
-        <f>IF(ISBLANK(P18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB18), "/", D18))</f>
+      <c r="S18" s="1" t="str">
+        <f>IF(ISBLANK(Q18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC18), "/", D18))</f>
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>1</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>3.15</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB18" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1301</v>
       </c>
@@ -3030,76 +3058,76 @@
       <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="L19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M19" s="1">
         <v>300</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="1" t="str">
-        <f>IF(ISBLANK(P19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB19), "/", D19, "/config"))</f>
+      <c r="R19" s="1" t="str">
+        <f>IF(ISBLANK(Q19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC19), "/", D19, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation/config</v>
       </c>
-      <c r="R19" s="1" t="str">
-        <f>IF(ISBLANK(P19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB19), "/", D19))</f>
+      <c r="S19" s="1" t="str">
+        <f>IF(ISBLANK(Q19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC19), "/", D19))</f>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>1</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>3.15</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AB19" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1400</v>
       </c>
@@ -3112,76 +3140,76 @@
       <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>300</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="1" t="str">
-        <f>IF(ISBLANK(P20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB20), "/", D20, "/config"))</f>
+      <c r="R20" s="1" t="str">
+        <f>IF(ISBLANK(Q20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC20), "/", D20, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_alititude_pressure/config</v>
       </c>
-      <c r="R20" s="1" t="str">
-        <f>IF(ISBLANK(P20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB20), "/", D20))</f>
+      <c r="S20" s="1" t="str">
+        <f>IF(ISBLANK(Q20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC20), "/", D20))</f>
         <v>haas/entity/sensor/weewx/roof_alititude_pressure</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>1</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>3.15</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1401</v>
       </c>
@@ -3194,76 +3222,76 @@
       <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>300</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="1" t="str">
-        <f>IF(ISBLANK(P21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB21), "/", D21, "/config"))</f>
+      <c r="R21" s="1" t="str">
+        <f>IF(ISBLANK(Q21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC21), "/", D21, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure/config</v>
       </c>
-      <c r="R21" s="1" t="str">
-        <f>IF(ISBLANK(P21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB21), "/", D21))</f>
+      <c r="S21" s="1" t="str">
+        <f>IF(ISBLANK(Q21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC21), "/", D21))</f>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>1</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>3.15</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1402</v>
       </c>
@@ -3276,76 +3304,76 @@
       <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>300</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="1" t="str">
-        <f>IF(ISBLANK(P22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB22), "/", D22, "/config"))</f>
+      <c r="R22" s="1" t="str">
+        <f>IF(ISBLANK(Q22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC22), "/", D22, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_pressure/config</v>
       </c>
-      <c r="R22" s="1" t="str">
-        <f>IF(ISBLANK(P22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB22), "/", D22))</f>
+      <c r="S22" s="1" t="str">
+        <f>IF(ISBLANK(Q22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC22), "/", D22))</f>
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>1</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>3.15</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AB22" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1450</v>
       </c>
@@ -3358,76 +3386,76 @@
       <c r="D23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="J23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M23" s="1">
         <v>300</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q23" s="1" t="str">
-        <f>IF(ISBLANK(P23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB23), "/", D23, "/config"))</f>
+      <c r="R23" s="1" t="str">
+        <f>IF(ISBLANK(Q23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC23), "/", D23, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_direction/config</v>
       </c>
-      <c r="R23" s="1" t="str">
-        <f>IF(ISBLANK(P23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB23), "/", D23))</f>
+      <c r="S23" s="1" t="str">
+        <f>IF(ISBLANK(Q23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC23), "/", D23))</f>
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>1</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>3.15</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AB23" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1451</v>
       </c>
@@ -3440,76 +3468,76 @@
       <c r="D24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="J24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M24" s="1">
         <v>300</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Q24" s="1" t="str">
-        <f>IF(ISBLANK(P24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB24), "/", D24, "/config"))</f>
+      <c r="R24" s="1" t="str">
+        <f>IF(ISBLANK(Q24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC24), "/", D24, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction/config</v>
       </c>
-      <c r="R24" s="1" t="str">
-        <f>IF(ISBLANK(P24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB24), "/", D24))</f>
+      <c r="S24" s="1" t="str">
+        <f>IF(ISBLANK(Q24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC24), "/", D24))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>1</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>3.15</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AB24" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1452</v>
       </c>
@@ -3522,76 +3550,76 @@
       <c r="D25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="J25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" s="1">
         <v>300</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q25" s="1" t="str">
-        <f>IF(ISBLANK(P25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB25), "/", D25, "/config"))</f>
+      <c r="R25" s="1" t="str">
+        <f>IF(ISBLANK(Q25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC25), "/", D25, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed/config</v>
       </c>
-      <c r="R25" s="1" t="str">
-        <f>IF(ISBLANK(P25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB25), "/", D25))</f>
+      <c r="S25" s="1" t="str">
+        <f>IF(ISBLANK(Q25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC25), "/", D25))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>1</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>3.15</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="Y25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AB25" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1453</v>
       </c>
@@ -3604,76 +3632,76 @@
       <c r="D26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="J26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M26" s="1">
         <v>300</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q26" s="1" t="str">
-        <f>IF(ISBLANK(P26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB26), "/", D26, "/config"))</f>
+      <c r="R26" s="1" t="str">
+        <f>IF(ISBLANK(Q26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC26), "/", D26, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min/config</v>
       </c>
-      <c r="R26" s="1" t="str">
-        <f>IF(ISBLANK(P26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB26), "/", D26))</f>
+      <c r="S26" s="1" t="str">
+        <f>IF(ISBLANK(Q26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC26), "/", D26))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>1</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>3.15</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="Y26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AB26" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1454</v>
       </c>
@@ -3686,73 +3714,73 @@
       <c r="D27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="L27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" s="1">
         <v>300</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q27" s="1" t="str">
-        <f>IF(ISBLANK(P27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB27), "/", D27, "/config"))</f>
+      <c r="R27" s="1" t="str">
+        <f>IF(ISBLANK(Q27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC27), "/", D27, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_samples/config</v>
       </c>
-      <c r="R27" s="1" t="str">
-        <f>IF(ISBLANK(P27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB27), "/", D27))</f>
+      <c r="S27" s="1" t="str">
+        <f>IF(ISBLANK(Q27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC27), "/", D27))</f>
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>1</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>3.15</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AB27" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1455</v>
       </c>
@@ -3765,76 +3793,76 @@
       <c r="D28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="L28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="1">
         <v>300</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Q28" s="1" t="str">
-        <f>IF(ISBLANK(P28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB28), "/", D28, "/config"))</f>
+      <c r="R28" s="1" t="str">
+        <f>IF(ISBLANK(Q28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC28), "/", D28, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_run/config</v>
       </c>
-      <c r="R28" s="1" t="str">
-        <f>IF(ISBLANK(P28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB28), "/", D28))</f>
+      <c r="S28" s="1" t="str">
+        <f>IF(ISBLANK(Q28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC28), "/", D28))</f>
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>1</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>3.15</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AB28" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1456</v>
       </c>
@@ -3847,76 +3875,76 @@
       <c r="D29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="J29" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="1">
         <v>300</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q29" s="1" t="str">
-        <f>IF(ISBLANK(P29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB29), "/", D29, "/config"))</f>
+      <c r="R29" s="1" t="str">
+        <f>IF(ISBLANK(Q29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC29), "/", D29, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed/config</v>
       </c>
-      <c r="R29" s="1" t="str">
-        <f>IF(ISBLANK(P29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB29), "/", D29))</f>
+      <c r="S29" s="1" t="str">
+        <f>IF(ISBLANK(Q29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC29), "/", D29))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>1</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>3.15</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AB29" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1500</v>
       </c>
@@ -3929,79 +3957,79 @@
       <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" s="1">
+        <v>300</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" s="1" t="str">
+        <f>IF(ISBLANK(Q30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC30), "/", D30, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_rain_rate/config</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <f>IF(ISBLANK(Q30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC30), "/", D30))</f>
+        <v>haas/entity/sensor/weewx/roof_rain_rate</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L30" s="1">
-        <v>300</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q30" s="1" t="str">
-        <f>IF(ISBLANK(P30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB30), "/", D30, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_rain_rate/config</v>
-      </c>
-      <c r="R30" s="1" t="str">
-        <f>IF(ISBLANK(P30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB30), "/", D30))</f>
-        <v>haas/entity/sensor/weewx/roof_rain_rate</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V30" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AC30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1501</v>
       </c>
@@ -4014,79 +4042,79 @@
       <c r="D31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" s="1">
+        <v>300</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R31" s="1" t="str">
+        <f>IF(ISBLANK(Q31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC31), "/", D31, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_hourly_rain/config</v>
+      </c>
+      <c r="S31" s="1" t="str">
+        <f>IF(ISBLANK(Q31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC31), "/", D31))</f>
+        <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB31" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L31" s="1">
-        <v>300</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q31" s="1" t="str">
-        <f>IF(ISBLANK(P31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB31), "/", D31, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_hourly_rain/config</v>
-      </c>
-      <c r="R31" s="1" t="str">
-        <f>IF(ISBLANK(P31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB31), "/", D31))</f>
-        <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V31" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1502</v>
       </c>
@@ -4099,79 +4127,79 @@
       <c r="D32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" s="1">
+        <v>300</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R32" s="1" t="str">
+        <f>IF(ISBLANK(Q32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC32), "/", D32, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_daily_rain/config</v>
+      </c>
+      <c r="S32" s="1" t="str">
+        <f>IF(ISBLANK(Q32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC32), "/", D32))</f>
+        <v>haas/entity/sensor/weewx/roof_daily_rain</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB32" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L32" s="1">
-        <v>300</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="1" t="str">
-        <f>IF(ISBLANK(P32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB32), "/", D32, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_daily_rain/config</v>
-      </c>
-      <c r="R32" s="1" t="str">
-        <f>IF(ISBLANK(P32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB32), "/", D32))</f>
-        <v>haas/entity/sensor/weewx/roof_daily_rain</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V32" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AC32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1503</v>
       </c>
@@ -4184,79 +4212,79 @@
       <c r="D33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" s="1">
+        <v>300</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" s="1" t="str">
+        <f>IF(ISBLANK(Q33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC33), "/", D33, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
+      </c>
+      <c r="S33" s="1" t="str">
+        <f>IF(ISBLANK(Q33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC33), "/", D33))</f>
+        <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L33" s="1">
-        <v>300</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="1" t="str">
-        <f>IF(ISBLANK(P33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB33), "/", D33, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
-      </c>
-      <c r="R33" s="1" t="str">
-        <f>IF(ISBLANK(P33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB33), "/", D33))</f>
-        <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V33" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AC33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1504</v>
       </c>
@@ -4269,79 +4297,79 @@
       <c r="D34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" s="1">
+        <v>300</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="1" t="str">
+        <f>IF(ISBLANK(Q34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC34), "/", D34, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
+      </c>
+      <c r="S34" s="1" t="str">
+        <f>IF(ISBLANK(Q34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC34), "/", D34))</f>
+        <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB34" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L34" s="1">
-        <v>300</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q34" s="1" t="str">
-        <f>IF(ISBLANK(P34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB34), "/", D34, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
-      </c>
-      <c r="R34" s="1" t="str">
-        <f>IF(ISBLANK(P34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB34), "/", D34))</f>
-        <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V34" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AC34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1505</v>
       </c>
@@ -4352,78 +4380,78 @@
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" s="1">
+        <v>300</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <f>IF(ISBLANK(Q35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC35), "/", D35, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_24hour_rain/config</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <f>IF(ISBLANK(Q35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC35), "/", D35))</f>
+        <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB35" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L35" s="1">
-        <v>300</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q35" s="1" t="str">
-        <f>IF(ISBLANK(P35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB35), "/", D35, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_24hour_rain/config</v>
-      </c>
-      <c r="R35" s="1" t="str">
-        <f>IF(ISBLANK(P35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB35), "/", D35))</f>
-        <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V35" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AC35" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1506</v>
       </c>
@@ -4436,76 +4464,76 @@
       <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M36" s="1">
+        <v>300</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <f>IF(ISBLANK(Q36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC36), "/", D36, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_rain/config</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <f>IF(ISBLANK(Q36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC36), "/", D36))</f>
+        <v>haas/entity/sensor/weewx/roof_rain</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W36" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB36" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L36" s="1">
-        <v>300</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q36" s="1" t="str">
-        <f>IF(ISBLANK(P36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB36), "/", D36, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_rain/config</v>
-      </c>
-      <c r="R36" s="1" t="str">
-        <f>IF(ISBLANK(P36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB36), "/", D36))</f>
-        <v>haas/entity/sensor/weewx/roof_rain</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T36" s="1">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V36" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1507</v>
       </c>
@@ -4518,76 +4546,76 @@
       <c r="D37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M37" s="1">
+        <v>300</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R37" s="1" t="str">
+        <f>IF(ISBLANK(Q37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC37), "/", D37, "/config"))</f>
+        <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f>IF(ISBLANK(Q37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC37), "/", D37))</f>
+        <v>haas/entity/sensor/weewx/roof_storm_rain</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W37" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB37" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L37" s="1">
-        <v>300</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q37" s="1" t="str">
-        <f>IF(ISBLANK(P37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB37), "/", D37, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
-      </c>
-      <c r="R37" s="1" t="str">
-        <f>IF(ISBLANK(P37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB37), "/", D37))</f>
-        <v>haas/entity/sensor/weewx/roof_storm_rain</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T37" s="1">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V37" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1800</v>
       </c>
@@ -4600,32 +4628,32 @@
       <c r="D38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="Q38" s="1" t="str">
-        <f>IF(ISBLANK(P38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB38), "/", D38, "/config"))</f>
+      <c r="P38" s="2"/>
+      <c r="R38" s="1" t="str">
+        <f>IF(ISBLANK(Q38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC38), "/", D38, "/config"))</f>
         <v/>
       </c>
-      <c r="R38" s="1" t="str">
-        <f>IF(ISBLANK(P38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB38), "/", D38))</f>
+      <c r="S38" s="1" t="str">
+        <f>IF(ISBLANK(Q38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC38), "/", D38))</f>
         <v/>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1900</v>
       </c>
@@ -4638,32 +4666,32 @@
       <c r="D39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O39" s="2"/>
-      <c r="Q39" s="1" t="str">
-        <f>IF(ISBLANK(P39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB39), "/", D39, "/config"))</f>
+      <c r="P39" s="2"/>
+      <c r="R39" s="1" t="str">
+        <f>IF(ISBLANK(Q39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC39), "/", D39, "/config"))</f>
         <v/>
       </c>
-      <c r="R39" s="1" t="str">
-        <f>IF(ISBLANK(P39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB39), "/", D39))</f>
+      <c r="S39" s="1" t="str">
+        <f>IF(ISBLANK(Q39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC39), "/", D39))</f>
         <v/>
       </c>
-      <c r="AB39" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2000</v>
       </c>
@@ -4676,32 +4704,32 @@
       <c r="D40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="Q40" s="1" t="str">
-        <f>IF(ISBLANK(P40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB40), "/", D40, "/config"))</f>
+      <c r="P40" s="2"/>
+      <c r="R40" s="1" t="str">
+        <f>IF(ISBLANK(Q40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC40), "/", D40, "/config"))</f>
         <v/>
       </c>
-      <c r="R40" s="1" t="str">
-        <f>IF(ISBLANK(P40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB40), "/", D40))</f>
+      <c r="S40" s="1" t="str">
+        <f>IF(ISBLANK(Q40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC40), "/", D40))</f>
         <v/>
       </c>
-      <c r="AB40" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2001</v>
       </c>
@@ -4714,32 +4742,32 @@
       <c r="D41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="Q41" s="1" t="str">
-        <f>IF(ISBLANK(P41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB41), "/", D41, "/config"))</f>
+      <c r="P41" s="2"/>
+      <c r="R41" s="1" t="str">
+        <f>IF(ISBLANK(Q41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC41), "/", D41, "/config"))</f>
         <v/>
       </c>
-      <c r="R41" s="1" t="str">
-        <f>IF(ISBLANK(P41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB41), "/", D41))</f>
+      <c r="S41" s="1" t="str">
+        <f>IF(ISBLANK(Q41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC41), "/", D41))</f>
         <v/>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2002</v>
       </c>
@@ -4752,26 +4780,26 @@
       <c r="D42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="Q42" s="1" t="str">
-        <f>IF(ISBLANK(P42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB42), "/", D42, "/config"))</f>
+      <c r="P42" s="2"/>
+      <c r="R42" s="1" t="str">
+        <f>IF(ISBLANK(Q42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC42), "/", D42, "/config"))</f>
         <v/>
       </c>
-      <c r="R42" s="1" t="str">
-        <f>IF(ISBLANK(P42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB42), "/", D42))</f>
+      <c r="S42" s="1" t="str">
+        <f>IF(ISBLANK(Q42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC42), "/", D42))</f>
         <v/>
       </c>
-      <c r="AB42" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2050</v>
       </c>
@@ -4782,26 +4810,26 @@
         <v>167</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="AC43" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="AB43" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2100</v>
       </c>
@@ -4814,35 +4842,35 @@
       <c r="D44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O44" s="2"/>
-      <c r="Q44" s="1" t="str">
-        <f>IF(ISBLANK(P44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB44), "/", D44, "/config"))</f>
+      <c r="P44" s="2"/>
+      <c r="R44" s="1" t="str">
+        <f>IF(ISBLANK(Q44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC44), "/", D44, "/config"))</f>
         <v/>
       </c>
-      <c r="R44" s="1" t="str">
-        <f>IF(ISBLANK(P44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB44), "/", D44))</f>
+      <c r="S44" s="1" t="str">
+        <f>IF(ISBLANK(Q44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC44), "/", D44))</f>
         <v/>
       </c>
-      <c r="AB44" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2101</v>
       </c>
@@ -4855,35 +4883,35 @@
       <c r="D45" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O45" s="2"/>
-      <c r="Q45" s="1" t="str">
-        <f>IF(ISBLANK(P45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB45), "/", D45, "/config"))</f>
+      <c r="P45" s="2"/>
+      <c r="R45" s="1" t="str">
+        <f>IF(ISBLANK(Q45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC45), "/", D45, "/config"))</f>
         <v/>
       </c>
-      <c r="R45" s="1" t="str">
-        <f>IF(ISBLANK(P45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB45), "/", D45))</f>
+      <c r="S45" s="1" t="str">
+        <f>IF(ISBLANK(Q45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC45), "/", D45))</f>
         <v/>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2200</v>
       </c>
@@ -4896,32 +4924,32 @@
       <c r="D46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O46" s="2"/>
-      <c r="Q46" s="1" t="str">
-        <f>IF(ISBLANK(P46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB46), "/", D46, "/config"))</f>
+      <c r="P46" s="2"/>
+      <c r="R46" s="1" t="str">
+        <f>IF(ISBLANK(Q46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC46), "/", D46, "/config"))</f>
         <v/>
       </c>
-      <c r="R46" s="1" t="str">
-        <f>IF(ISBLANK(P46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB46), "/", D46))</f>
+      <c r="S46" s="1" t="str">
+        <f>IF(ISBLANK(Q46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC46), "/", D46))</f>
         <v/>
       </c>
-      <c r="AB46" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2201</v>
       </c>
@@ -4934,35 +4962,35 @@
       <c r="D47" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O47" s="2"/>
-      <c r="Q47" s="1" t="str">
-        <f>IF(ISBLANK(P47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB47), "/", D47, "/config"))</f>
+      <c r="P47" s="2"/>
+      <c r="R47" s="1" t="str">
+        <f>IF(ISBLANK(Q47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC47), "/", D47, "/config"))</f>
         <v/>
       </c>
-      <c r="R47" s="1" t="str">
-        <f>IF(ISBLANK(P47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB47), "/", D47))</f>
+      <c r="S47" s="1" t="str">
+        <f>IF(ISBLANK(Q47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC47), "/", D47))</f>
         <v/>
       </c>
-      <c r="AB47" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2202</v>
       </c>
@@ -4975,32 +5003,32 @@
       <c r="D48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O48" s="2"/>
-      <c r="Q48" s="1" t="str">
-        <f>IF(ISBLANK(P48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB48), "/", D48, "/config"))</f>
+      <c r="P48" s="2"/>
+      <c r="R48" s="1" t="str">
+        <f>IF(ISBLANK(Q48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC48), "/", D48, "/config"))</f>
         <v/>
       </c>
-      <c r="R48" s="1" t="str">
-        <f>IF(ISBLANK(P48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB48), "/", D48))</f>
+      <c r="S48" s="1" t="str">
+        <f>IF(ISBLANK(Q48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC48), "/", D48))</f>
         <v/>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2203</v>
       </c>
@@ -5013,35 +5041,35 @@
       <c r="D49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O49" s="2"/>
-      <c r="Q49" s="1" t="str">
-        <f>IF(ISBLANK(P49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB49), "/", D49, "/config"))</f>
+      <c r="P49" s="2"/>
+      <c r="R49" s="1" t="str">
+        <f>IF(ISBLANK(Q49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC49), "/", D49, "/config"))</f>
         <v/>
       </c>
-      <c r="R49" s="1" t="str">
-        <f>IF(ISBLANK(P49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB49), "/", D49))</f>
+      <c r="S49" s="1" t="str">
+        <f>IF(ISBLANK(Q49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC49), "/", D49))</f>
         <v/>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AC49" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2300</v>
       </c>
@@ -5054,26 +5082,26 @@
       <c r="D50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O50" s="2"/>
-      <c r="Q50" s="1" t="str">
-        <f>IF(ISBLANK(P50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB50), "/", D50, "/config"))</f>
+      <c r="P50" s="2"/>
+      <c r="R50" s="1" t="str">
+        <f>IF(ISBLANK(Q50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC50), "/", D50, "/config"))</f>
         <v/>
       </c>
-      <c r="R50" s="1" t="str">
-        <f>IF(ISBLANK(P50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB50), "/", D50))</f>
+      <c r="S50" s="1" t="str">
+        <f>IF(ISBLANK(Q50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC50), "/", D50))</f>
         <v/>
       </c>
-      <c r="AB50" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2301</v>
       </c>
@@ -5086,26 +5114,26 @@
       <c r="D51" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O51" s="2"/>
-      <c r="Q51" s="1" t="str">
-        <f>IF(ISBLANK(P51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB51), "/", D51, "/config"))</f>
+      <c r="P51" s="2"/>
+      <c r="R51" s="1" t="str">
+        <f>IF(ISBLANK(Q51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC51), "/", D51, "/config"))</f>
         <v/>
       </c>
-      <c r="R51" s="1" t="str">
-        <f>IF(ISBLANK(P51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB51), "/", D51))</f>
+      <c r="S51" s="1" t="str">
+        <f>IF(ISBLANK(Q51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC51), "/", D51))</f>
         <v/>
       </c>
-      <c r="AB51" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2302</v>
       </c>
@@ -5118,26 +5146,26 @@
       <c r="D52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O52" s="2"/>
-      <c r="Q52" s="1" t="str">
-        <f>IF(ISBLANK(P52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB52), "/", D52, "/config"))</f>
+      <c r="P52" s="2"/>
+      <c r="R52" s="1" t="str">
+        <f>IF(ISBLANK(Q52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC52), "/", D52, "/config"))</f>
         <v/>
       </c>
-      <c r="R52" s="1" t="str">
-        <f>IF(ISBLANK(P52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB52), "/", D52))</f>
+      <c r="S52" s="1" t="str">
+        <f>IF(ISBLANK(Q52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC52), "/", D52))</f>
         <v/>
       </c>
-      <c r="AB52" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2303</v>
       </c>
@@ -5150,26 +5178,26 @@
       <c r="D53" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O53" s="2"/>
-      <c r="Q53" s="1" t="str">
-        <f>IF(ISBLANK(P53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB53), "/", D53, "/config"))</f>
+      <c r="P53" s="2"/>
+      <c r="R53" s="1" t="str">
+        <f>IF(ISBLANK(Q53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC53), "/", D53, "/config"))</f>
         <v/>
       </c>
-      <c r="R53" s="1" t="str">
-        <f>IF(ISBLANK(P53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB53), "/", D53))</f>
+      <c r="S53" s="1" t="str">
+        <f>IF(ISBLANK(Q53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC53), "/", D53))</f>
         <v/>
       </c>
-      <c r="AB53" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2304</v>
       </c>
@@ -5182,26 +5210,26 @@
       <c r="D54" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O54" s="2"/>
-      <c r="Q54" s="1" t="str">
-        <f>IF(ISBLANK(P54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB54), "/", D54, "/config"))</f>
+      <c r="P54" s="2"/>
+      <c r="R54" s="1" t="str">
+        <f>IF(ISBLANK(Q54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC54), "/", D54, "/config"))</f>
         <v/>
       </c>
-      <c r="R54" s="1" t="str">
-        <f>IF(ISBLANK(P54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB54), "/", D54))</f>
+      <c r="S54" s="1" t="str">
+        <f>IF(ISBLANK(Q54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC54), "/", D54))</f>
         <v/>
       </c>
-      <c r="AB54" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2400</v>
       </c>
@@ -5214,26 +5242,26 @@
       <c r="D55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O55" s="2"/>
-      <c r="Q55" s="1" t="str">
-        <f>IF(ISBLANK(P55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB55), "/", D55, "/config"))</f>
+      <c r="P55" s="2"/>
+      <c r="R55" s="1" t="str">
+        <f>IF(ISBLANK(Q55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC55), "/", D55, "/config"))</f>
         <v/>
       </c>
-      <c r="R55" s="1" t="str">
-        <f>IF(ISBLANK(P55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB55), "/", D55))</f>
+      <c r="S55" s="1" t="str">
+        <f>IF(ISBLANK(Q55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC55), "/", D55))</f>
         <v/>
       </c>
-      <c r="AB55" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2500</v>
       </c>
@@ -5244,78 +5272,78 @@
         <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>300</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="P56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q56" s="1" t="str">
-        <f>IF(ISBLANK(P56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB56), "/", D56, "/config"))</f>
+      <c r="R56" s="1" t="str">
+        <f>IF(ISBLANK(Q56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC56), "/", D56, "/config"))</f>
         <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
-      <c r="R56" s="1" t="str">
-        <f>IF(ISBLANK(P56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB56), "/", D56))</f>
+      <c r="S56" s="1" t="str">
+        <f>IF(ISBLANK(Q56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC56), "/", D56))</f>
         <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="T56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T56" s="1">
+      <c r="U56" s="1">
         <v>1</v>
       </c>
-      <c r="U56" s="1" t="s">
+      <c r="V56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>3.15</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="Y56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y56" s="1" t="s">
+      <c r="Z56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AB56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2501</v>
       </c>
@@ -5326,75 +5354,75 @@
         <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>300</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="P57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q57" s="1" t="str">
-        <f>IF(ISBLANK(P57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB57), "/", D57, "/config"))</f>
+      <c r="R57" s="1" t="str">
+        <f>IF(ISBLANK(Q57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC57), "/", D57, "/config"))</f>
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
-      <c r="R57" s="1" t="str">
-        <f>IF(ISBLANK(P57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB57), "/", D57))</f>
+      <c r="S57" s="1" t="str">
+        <f>IF(ISBLANK(Q57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC57), "/", D57))</f>
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="T57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T57" s="1">
+      <c r="U57" s="1">
         <v>1</v>
       </c>
-      <c r="U57" s="1" t="s">
+      <c r="V57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V57" s="1">
+      <c r="W57" s="1">
         <v>3.15</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="Y57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Z57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z57" s="1" t="s">
+      <c r="AA57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AB57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AC57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2600</v>
       </c>
@@ -5407,29 +5435,29 @@
       <c r="D58" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="G58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O58" s="2"/>
-      <c r="Q58" s="1" t="str">
-        <f>IF(ISBLANK(P58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB58), "/", D58, "/config"))</f>
+      <c r="P58" s="2"/>
+      <c r="R58" s="1" t="str">
+        <f>IF(ISBLANK(Q58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC58), "/", D58, "/config"))</f>
         <v/>
       </c>
-      <c r="R58" s="1" t="str">
-        <f>IF(ISBLANK(P58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB58), "/", D58))</f>
+      <c r="S58" s="1" t="str">
+        <f>IF(ISBLANK(Q58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC58), "/", D58))</f>
         <v/>
       </c>
-      <c r="AB58" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2700</v>
       </c>
@@ -5442,29 +5470,29 @@
       <c r="D59" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="G59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O59" s="2"/>
-      <c r="Q59" s="1" t="str">
-        <f>IF(ISBLANK(P59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB59), "/", D59, "/config"))</f>
+      <c r="P59" s="2"/>
+      <c r="R59" s="1" t="str">
+        <f>IF(ISBLANK(Q59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC59), "/", D59, "/config"))</f>
         <v/>
       </c>
-      <c r="R59" s="1" t="str">
-        <f>IF(ISBLANK(P59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB59), "/", D59))</f>
+      <c r="S59" s="1" t="str">
+        <f>IF(ISBLANK(Q59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC59), "/", D59))</f>
         <v/>
       </c>
-      <c r="AB59" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2800</v>
       </c>
@@ -5477,26 +5505,26 @@
       <c r="D60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O60" s="2"/>
-      <c r="Q60" s="1" t="str">
-        <f>IF(ISBLANK(P60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB60), "/", D60, "/config"))</f>
+      <c r="P60" s="2"/>
+      <c r="R60" s="1" t="str">
+        <f>IF(ISBLANK(Q60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC60), "/", D60, "/config"))</f>
         <v/>
       </c>
-      <c r="R60" s="1" t="str">
-        <f>IF(ISBLANK(P60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB60), "/", D60))</f>
+      <c r="S60" s="1" t="str">
+        <f>IF(ISBLANK(Q60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC60), "/", D60))</f>
         <v/>
       </c>
-      <c r="AB60" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2900</v>
       </c>
@@ -5509,29 +5537,29 @@
       <c r="D61" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M61" s="1" t="s">
+      <c r="G61" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O61" s="2"/>
-      <c r="Q61" s="1" t="str">
-        <f>IF(ISBLANK(P61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB61), "/", D61, "/config"))</f>
+      <c r="P61" s="2"/>
+      <c r="R61" s="1" t="str">
+        <f>IF(ISBLANK(Q61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC61), "/", D61, "/config"))</f>
         <v/>
       </c>
-      <c r="R61" s="1" t="str">
-        <f>IF(ISBLANK(P61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB61), "/", D61))</f>
+      <c r="S61" s="1" t="str">
+        <f>IF(ISBLANK(Q61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC61), "/", D61))</f>
         <v/>
       </c>
-      <c r="AB61" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>3000</v>
       </c>
@@ -5544,26 +5572,26 @@
       <c r="D62" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="Q62" s="1" t="str">
-        <f>IF(ISBLANK(P62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB62), "/", D62, "/config"))</f>
+      <c r="G62" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="R62" s="1" t="str">
+        <f>IF(ISBLANK(Q62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC62), "/", D62, "/config"))</f>
         <v/>
       </c>
-      <c r="R62" s="1" t="str">
-        <f>IF(ISBLANK(P62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB62), "/", D62))</f>
+      <c r="S62" s="1" t="str">
+        <f>IF(ISBLANK(Q62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC62), "/", D62))</f>
         <v/>
       </c>
-      <c r="AB62" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>3001</v>
       </c>
@@ -5576,26 +5604,26 @@
       <c r="D63" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="Q63" s="1" t="str">
-        <f>IF(ISBLANK(P63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB63), "/", D63, "/config"))</f>
+        <v>240</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="R63" s="1" t="str">
+        <f>IF(ISBLANK(Q63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC63), "/", D63, "/config"))</f>
         <v/>
       </c>
-      <c r="R63" s="1" t="str">
-        <f>IF(ISBLANK(P63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB63), "/", D63))</f>
+      <c r="S63" s="1" t="str">
+        <f>IF(ISBLANK(Q63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC63), "/", D63))</f>
         <v/>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>8000</v>
       </c>
@@ -5608,26 +5636,26 @@
       <c r="D64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O64" s="2"/>
-      <c r="Q64" s="1" t="str">
-        <f>IF(ISBLANK(P64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB64), "/", D64, "/config"))</f>
+      <c r="P64" s="2"/>
+      <c r="R64" s="1" t="str">
+        <f>IF(ISBLANK(Q64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC64), "/", D64, "/config"))</f>
         <v/>
       </c>
-      <c r="R64" s="1" t="str">
-        <f>IF(ISBLANK(P64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB64), "/", D64))</f>
+      <c r="S64" s="1" t="str">
+        <f>IF(ISBLANK(Q64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC64), "/", D64))</f>
         <v/>
       </c>
-      <c r="AB64" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>9000</v>
       </c>
@@ -5640,36 +5668,49 @@
       <c r="D65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O65" s="2"/>
-      <c r="Q65" s="1" t="str">
-        <f>IF(ISBLANK(P65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB65), "/", D65, "/config"))</f>
+      <c r="P65" s="2"/>
+      <c r="R65" s="1" t="str">
+        <f>IF(ISBLANK(Q65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC65), "/", D65, "/config"))</f>
         <v/>
       </c>
-      <c r="R65" s="1" t="str">
-        <f>IF(ISBLANK(P65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AB65), "/", D65))</f>
+      <c r="S65" s="1" t="str">
+        <f>IF(ISBLANK(Q65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC65), "/", D65))</f>
         <v/>
       </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" location="available-state-classes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J1" r:id="rId2" location="L273" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="S1" r:id="rId3" display="Template" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I1" r:id="rId4" location="L460" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I1" r:id="rId1" location="available-state-classes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K1" r:id="rId2" location="L273" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="T1" r:id="rId3" display="Template" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J1" r:id="rId4" location="L460" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AB3" r:id="rId5" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
+    <hyperlink ref="AB4" r:id="rId6" xr:uid="{AA7762EB-4D9F-0C4C-BBA6-16F264C5C4B4}"/>
+    <hyperlink ref="AB5" r:id="rId7" xr:uid="{DF25D59C-0A79-1249-A0D9-909020869E69}"/>
+    <hyperlink ref="AB6" r:id="rId8" xr:uid="{0BFDA579-F94A-C24C-A1AB-2AEC0E70C7E3}"/>
+    <hyperlink ref="AB7" r:id="rId9" xr:uid="{A714E0E5-9CD8-5F46-A2A3-235E9A231C78}"/>
+    <hyperlink ref="AB8" r:id="rId10" xr:uid="{BAF169C1-C55B-734F-83A3-1E700272045D}"/>
+    <hyperlink ref="AB9" r:id="rId11" xr:uid="{7483C056-5C8A-0D49-A0FC-706E9E60F618}"/>
+    <hyperlink ref="AB10" r:id="rId12" xr:uid="{66C28D98-8781-B844-8883-7F931CC8691F}"/>
+    <hyperlink ref="AB12" r:id="rId13" xr:uid="{8EADE576-5626-AD41-A703-EDF78E53D186}"/>
+    <hyperlink ref="AB13" r:id="rId14" xr:uid="{2EFB340C-5528-EC49-A673-F0A10EEEF709}"/>
+    <hyperlink ref="AB15" r:id="rId15" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
+    <hyperlink ref="AB16" r:id="rId16" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
+    <hyperlink ref="AB18:AB37" r:id="rId17" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50897273-82D8-A448-A3DD-E4F204A082E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55108CA2-B81E-1E48-A953-A0105D6077FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="273">
   <si>
     <t>index</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Roof</t>
-  </si>
-  <si>
-    <t>weewx.janeandgraham.com</t>
   </si>
   <si>
     <t>WeeWX</t>
@@ -1003,6 +1000,7 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1312,7 +1310,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:AC253" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A2:AC253" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A2:AC253" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="28">
+      <filters>
+        <filter val="WeeWX"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AC65">
     <sortCondition ref="A2:A253"/>
   </sortState>
@@ -1321,7 +1325,9 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="entity_status" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="entity_namespace" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unique_id" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{C9099E62-9C90-774C-B487-C1E8FC10D09D}" name="name" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{C9099E62-9C90-774C-B487-C1E8FC10D09D}" name="name" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[unique_id]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="friendly_name" dataDxfId="24"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="entity_domain" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entity_group" dataDxfId="22"/>
@@ -1648,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,91 +1694,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="U1" s="6">
         <v>1</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1792,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
@@ -1875,13 +1881,17 @@
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_temperature</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
@@ -1890,16 +1900,16 @@
         <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M3" s="1">
         <v>300</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>37</v>
@@ -1908,7 +1918,7 @@
         <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(ISBLANK(Q3),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC3), "/", D3, "/config"))</f>
@@ -1943,10 +1953,10 @@
         <v>45</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -1960,13 +1970,17 @@
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_apparent_temperature</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
@@ -1975,10 +1989,10 @@
         <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="1">
         <v>300</v>
@@ -1990,7 +2004,7 @@
         <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(ISBLANK(Q4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC4), "/", D4, "/config"))</f>
@@ -2025,10 +2039,10 @@
         <v>45</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2042,13 +2056,17 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_dew_point</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>33</v>
@@ -2057,10 +2075,10 @@
         <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M5" s="1">
         <v>300</v>
@@ -2072,7 +2090,7 @@
         <v>38</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R5" s="1" t="str">
         <f>IF(ISBLANK(Q5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC5), "/", D5, "/config"))</f>
@@ -2107,10 +2125,10 @@
         <v>45</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2124,13 +2142,17 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_heat_index</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>33</v>
@@ -2139,10 +2161,10 @@
         <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M6" s="1">
         <v>300</v>
@@ -2154,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R6" s="1" t="str">
         <f>IF(ISBLANK(Q6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC6), "/", D6, "/config"))</f>
@@ -2189,10 +2211,10 @@
         <v>45</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2206,13 +2228,17 @@
         <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_high_temperature</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>33</v>
@@ -2221,10 +2247,10 @@
         <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="1">
         <v>300</v>
@@ -2236,7 +2262,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R7" s="1" t="str">
         <f>IF(ISBLANK(Q7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC7), "/", D7, "/config"))</f>
@@ -2271,10 +2297,10 @@
         <v>45</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -2288,13 +2314,17 @@
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_humidity_index</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
@@ -2303,10 +2333,10 @@
         <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M8" s="1">
         <v>300</v>
@@ -2318,7 +2348,7 @@
         <v>38</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R8" s="1" t="str">
         <f>IF(ISBLANK(Q8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC8), "/", D8, "/config"))</f>
@@ -2353,10 +2383,10 @@
         <v>45</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2370,13 +2400,17 @@
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>rack_dew_point</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>33</v>
@@ -2385,10 +2419,10 @@
         <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M9" s="1">
         <v>300</v>
@@ -2400,7 +2434,7 @@
         <v>38</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R9" s="1" t="str">
         <f>IF(ISBLANK(Q9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC9), "/", D9, "/config"))</f>
@@ -2435,10 +2469,10 @@
         <v>45</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2452,13 +2486,17 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_low_temperature</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>33</v>
@@ -2467,10 +2505,10 @@
         <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M10" s="1">
         <v>300</v>
@@ -2482,7 +2520,7 @@
         <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R10" s="1" t="str">
         <f>IF(ISBLANK(Q10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC10), "/", D10, "/config"))</f>
@@ -2517,13 +2555,13 @@
         <v>45</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
@@ -2534,19 +2572,23 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>netatmo_edwin_temperature</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>37</v>
@@ -2561,7 +2603,7 @@
         <v/>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2575,13 +2617,17 @@
         <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_chill_temperature</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>33</v>
@@ -2590,10 +2636,10 @@
         <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M12" s="1">
         <v>300</v>
@@ -2605,7 +2651,7 @@
         <v>38</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R12" s="1" t="str">
         <f>IF(ISBLANK(Q12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC12), "/", D12, "/config"))</f>
@@ -2640,10 +2686,10 @@
         <v>45</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -2657,13 +2703,17 @@
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>rack_temperature</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>33</v>
@@ -2672,16 +2722,16 @@
         <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M13" s="1">
         <v>300</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>37</v>
@@ -2690,7 +2740,7 @@
         <v>38</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R13" s="1" t="str">
         <f>IF(ISBLANK(Q13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC13), "/", D13, "/config"))</f>
@@ -2725,13 +2775,13 @@
         <v>45</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1050</v>
       </c>
@@ -2742,25 +2792,29 @@
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>netatmo_edwin_co2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -2774,7 +2828,11 @@
         <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_humidity</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>45</v>
@@ -2798,7 +2856,7 @@
         <v>300</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>37</v>
@@ -2807,7 +2865,7 @@
         <v>38</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R15" s="1" t="str">
         <f>IF(ISBLANK(Q15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC15), "/", D15, "/config"))</f>
@@ -2842,10 +2900,10 @@
         <v>45</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -2861,6 +2919,10 @@
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E16" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>rack_humidity</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2883,7 +2945,7 @@
         <v>300</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>37</v>
@@ -2927,13 +2989,13 @@
         <v>45</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1150</v>
       </c>
@@ -2944,23 +3006,27 @@
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>netatmo_ada_noise</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P17" s="2"/>
       <c r="AC17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -2974,13 +3040,17 @@
         <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_cloud_base</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>33</v>
@@ -2989,10 +3059,10 @@
         <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M18" s="1">
         <v>300</v>
@@ -3004,7 +3074,7 @@
         <v>38</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R18" s="1" t="str">
         <f>IF(ISBLANK(Q18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC18), "/", D18, "/config"))</f>
@@ -3039,10 +3109,10 @@
         <v>45</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3056,13 +3126,17 @@
         <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_max_solar_radiation</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>33</v>
@@ -3071,10 +3145,10 @@
         <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M19" s="1">
         <v>300</v>
@@ -3086,7 +3160,7 @@
         <v>38</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R19" s="1" t="str">
         <f>IF(ISBLANK(Q19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC19), "/", D19, "/config"))</f>
@@ -3121,10 +3195,10 @@
         <v>45</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -3138,13 +3212,17 @@
         <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_alititude_pressure</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>33</v>
@@ -3153,10 +3231,10 @@
         <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M20" s="1">
         <v>300</v>
@@ -3168,7 +3246,7 @@
         <v>38</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R20" s="1" t="str">
         <f>IF(ISBLANK(Q20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC20), "/", D20, "/config"))</f>
@@ -3203,10 +3281,10 @@
         <v>45</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -3220,13 +3298,17 @@
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_barometer_pressure</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>33</v>
@@ -3235,10 +3317,10 @@
         <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M21" s="1">
         <v>300</v>
@@ -3250,7 +3332,7 @@
         <v>38</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R21" s="1" t="str">
         <f>IF(ISBLANK(Q21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC21), "/", D21, "/config"))</f>
@@ -3285,10 +3367,10 @@
         <v>45</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -3302,13 +3384,17 @@
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_pressure</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>33</v>
@@ -3317,10 +3403,10 @@
         <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M22" s="1">
         <v>300</v>
@@ -3332,7 +3418,7 @@
         <v>38</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R22" s="1" t="str">
         <f>IF(ISBLANK(Q22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC22), "/", D22, "/config"))</f>
@@ -3367,10 +3453,10 @@
         <v>45</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -3384,13 +3470,17 @@
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_direction</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>33</v>
@@ -3399,10 +3489,10 @@
         <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M23" s="1">
         <v>300</v>
@@ -3414,7 +3504,7 @@
         <v>38</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R23" s="1" t="str">
         <f>IF(ISBLANK(Q23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC23), "/", D23, "/config"))</f>
@@ -3449,10 +3539,10 @@
         <v>45</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -3466,13 +3556,17 @@
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_gust_direction</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>33</v>
@@ -3481,10 +3575,10 @@
         <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M24" s="1">
         <v>300</v>
@@ -3496,7 +3590,7 @@
         <v>38</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R24" s="1" t="str">
         <f>IF(ISBLANK(Q24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC24), "/", D24, "/config"))</f>
@@ -3531,10 +3625,10 @@
         <v>45</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -3548,13 +3642,17 @@
         <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_gust_speed</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>33</v>
@@ -3563,10 +3661,10 @@
         <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M25" s="1">
         <v>300</v>
@@ -3578,7 +3676,7 @@
         <v>38</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R25" s="1" t="str">
         <f>IF(ISBLANK(Q25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC25), "/", D25, "/config"))</f>
@@ -3613,10 +3711,10 @@
         <v>45</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -3630,13 +3728,17 @@
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_speed_10min</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>33</v>
@@ -3645,10 +3747,10 @@
         <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M26" s="1">
         <v>300</v>
@@ -3660,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R26" s="1" t="str">
         <f>IF(ISBLANK(Q26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC26), "/", D26, "/config"))</f>
@@ -3695,10 +3797,10 @@
         <v>45</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -3712,13 +3814,17 @@
         <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_samples</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>33</v>
@@ -3727,7 +3833,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M27" s="1">
         <v>300</v>
@@ -3739,7 +3845,7 @@
         <v>38</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R27" s="1" t="str">
         <f>IF(ISBLANK(Q27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC27), "/", D27, "/config"))</f>
@@ -3774,10 +3880,10 @@
         <v>45</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -3791,13 +3897,17 @@
         <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_run</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>33</v>
@@ -3806,10 +3916,10 @@
         <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M28" s="1">
         <v>300</v>
@@ -3821,7 +3931,7 @@
         <v>38</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R28" s="1" t="str">
         <f>IF(ISBLANK(Q28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC28), "/", D28, "/config"))</f>
@@ -3856,10 +3966,10 @@
         <v>45</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -3873,13 +3983,17 @@
         <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_speed</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>33</v>
@@ -3888,10 +4002,10 @@
         <v>34</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M29" s="1">
         <v>300</v>
@@ -3903,7 +4017,7 @@
         <v>38</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R29" s="1" t="str">
         <f>IF(ISBLANK(Q29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC29), "/", D29, "/config"))</f>
@@ -3938,10 +4052,10 @@
         <v>45</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -3955,31 +4069,35 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_rain_rate</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M30" s="1">
         <v>300</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>37</v>
@@ -3988,7 +4106,7 @@
         <v>38</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R30" s="1" t="str">
         <f>IF(ISBLANK(Q30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC30), "/", D30, "/config"))</f>
@@ -4023,10 +4141,10 @@
         <v>45</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -4040,31 +4158,35 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_hourly_rain</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M31" s="1">
         <v>300</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>37</v>
@@ -4073,7 +4195,7 @@
         <v>38</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R31" s="1" t="str">
         <f>IF(ISBLANK(Q31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC31), "/", D31, "/config"))</f>
@@ -4108,10 +4230,10 @@
         <v>45</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -4125,31 +4247,35 @@
         <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_daily_rain</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M32" s="1">
         <v>300</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>37</v>
@@ -4158,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R32" s="1" t="str">
         <f>IF(ISBLANK(Q32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC32), "/", D32, "/config"))</f>
@@ -4193,10 +4319,10 @@
         <v>45</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -4210,31 +4336,35 @@
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_monthly_rain</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M33" s="1">
         <v>300</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>37</v>
@@ -4243,7 +4373,7 @@
         <v>38</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R33" s="1" t="str">
         <f>IF(ISBLANK(Q33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC33), "/", D33, "/config"))</f>
@@ -4278,10 +4408,10 @@
         <v>45</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -4295,31 +4425,35 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_yearly_rain</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M34" s="1">
         <v>300</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>37</v>
@@ -4328,7 +4462,7 @@
         <v>38</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R34" s="1" t="str">
         <f>IF(ISBLANK(Q34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC34), "/", D34, "/config"))</f>
@@ -4363,10 +4497,10 @@
         <v>45</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -4380,25 +4514,29 @@
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_24hour_rain</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M35" s="1">
         <v>300</v>
@@ -4410,7 +4548,7 @@
         <v>38</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R35" s="1" t="str">
         <f>IF(ISBLANK(Q35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC35), "/", D35, "/config"))</f>
@@ -4445,10 +4583,10 @@
         <v>45</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -4462,25 +4600,29 @@
         <v>29</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_rain</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J36" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M36" s="1">
         <v>300</v>
@@ -4492,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R36" s="1" t="str">
         <f>IF(ISBLANK(Q36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC36), "/", D36, "/config"))</f>
@@ -4527,10 +4669,10 @@
         <v>45</v>
       </c>
       <c r="AB36" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -4544,25 +4686,29 @@
         <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_storm_rain</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M37" s="1">
         <v>300</v>
@@ -4574,7 +4720,7 @@
         <v>38</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R37" s="1" t="str">
         <f>IF(ISBLANK(Q37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC37), "/", D37, "/config"))</f>
@@ -4609,13 +4755,13 @@
         <v>45</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1800</v>
       </c>
@@ -4623,22 +4769,26 @@
         <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>ada</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="N38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P38" s="2"/>
       <c r="R38" s="1" t="str">
@@ -4650,10 +4800,10 @@
         <v/>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1900</v>
       </c>
@@ -4661,22 +4811,26 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_coffee</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="P39" s="2"/>
       <c r="R39" s="1" t="str">
@@ -4688,10 +4842,10 @@
         <v/>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2000</v>
       </c>
@@ -4699,22 +4853,26 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>dining</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P40" s="2"/>
       <c r="R40" s="1" t="str">
@@ -4726,10 +4884,10 @@
         <v/>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2001</v>
       </c>
@@ -4737,22 +4895,26 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>ada_light</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P41" s="2"/>
       <c r="R41" s="1" t="str">
@@ -4764,10 +4926,10 @@
         <v/>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2002</v>
       </c>
@@ -4775,16 +4937,20 @@
         <v>28</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>hue_color_candle_2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P42" s="2"/>
       <c r="R42" s="1" t="str">
@@ -4796,10 +4962,10 @@
         <v/>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2050</v>
       </c>
@@ -4807,29 +4973,33 @@
         <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>lounge_tv</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P43" s="2"/>
       <c r="AC43" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2100</v>
       </c>
@@ -4840,22 +5010,26 @@
         <v>29</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_coffee_current_consumption</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P44" s="2"/>
       <c r="R44" s="1" t="str">
@@ -4867,36 +5041,40 @@
         <v/>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>dining_lights_power</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P45" s="2"/>
       <c r="R45" s="1" t="str">
@@ -4908,10 +5086,10 @@
         <v/>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2200</v>
       </c>
@@ -4922,19 +5100,23 @@
         <v>29</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_coffee_total_consumption</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P46" s="2"/>
       <c r="R46" s="1" t="str">
@@ -4946,10 +5128,10 @@
         <v/>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2201</v>
       </c>
@@ -4960,22 +5142,26 @@
         <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_coffee_today_s_consumption</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P47" s="2"/>
       <c r="R47" s="1" t="str">
@@ -4987,33 +5173,37 @@
         <v/>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2202</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>dining_lights_energy</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P48" s="2"/>
       <c r="R48" s="1" t="str">
@@ -5025,36 +5215,40 @@
         <v/>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2203</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>dining_lights_energy_today</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P49" s="2"/>
       <c r="R49" s="1" t="str">
@@ -5066,10 +5260,10 @@
         <v/>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2300</v>
       </c>
@@ -5080,13 +5274,17 @@
         <v>29</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>hue_color_candle_16_power</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P50" s="2"/>
       <c r="R50" s="1" t="str">
@@ -5098,10 +5296,10 @@
         <v/>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2301</v>
       </c>
@@ -5112,13 +5310,17 @@
         <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>hue_color_candle_16_energy</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P51" s="2"/>
       <c r="R51" s="1" t="str">
@@ -5130,10 +5332,10 @@
         <v/>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2302</v>
       </c>
@@ -5144,13 +5346,17 @@
         <v>29</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>hue_color_candle_16_energy_daily</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P52" s="2"/>
       <c r="R52" s="1" t="str">
@@ -5162,10 +5368,10 @@
         <v/>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2303</v>
       </c>
@@ -5176,13 +5382,17 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>hue_color_candle_16_energy_weekly</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P53" s="2"/>
       <c r="R53" s="1" t="str">
@@ -5194,10 +5404,10 @@
         <v/>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2304</v>
       </c>
@@ -5208,13 +5418,17 @@
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>hue_color_candle_16_energy_monthly</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P54" s="2"/>
       <c r="R54" s="1" t="str">
@@ -5226,10 +5440,10 @@
         <v/>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2400</v>
       </c>
@@ -5240,13 +5454,17 @@
         <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>withings_weight_kg_graham</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="P55" s="2"/>
       <c r="R55" s="1" t="str">
@@ -5258,7 +5476,7 @@
         <v/>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -5272,25 +5490,29 @@
         <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="M56" s="1">
         <v>300</v>
@@ -5302,7 +5524,7 @@
         <v>38</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R56" s="1" t="str">
         <f>IF(ISBLANK(Q56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC56), "/", D56, "/config"))</f>
@@ -5336,11 +5558,11 @@
       <c r="AA56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AB56" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC56" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AC56" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -5354,16 +5576,20 @@
         <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>34</v>
@@ -5381,7 +5607,7 @@
         <v>38</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R57" s="1" t="str">
         <f>IF(ISBLANK(Q57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC57), "/", D57, "/config"))</f>
@@ -5415,14 +5641,14 @@
       <c r="AA57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AB57" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2600</v>
       </c>
@@ -5430,19 +5656,23 @@
         <v>28</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>200</v>
+      <c r="E58" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>ada_home</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P58" s="2"/>
       <c r="R58" s="1" t="str">
@@ -5454,10 +5684,10 @@
         <v/>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2700</v>
       </c>
@@ -5465,19 +5695,23 @@
         <v>28</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_speaker</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P59" s="2"/>
       <c r="R59" s="1" t="str">
@@ -5489,10 +5723,10 @@
         <v/>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2800</v>
       </c>
@@ -5503,13 +5737,17 @@
         <v>29</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>parents_speaker_battery</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="P60" s="2"/>
       <c r="R60" s="1" t="str">
@@ -5521,10 +5759,10 @@
         <v/>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2900</v>
       </c>
@@ -5532,19 +5770,23 @@
         <v>28</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>203</v>
+      <c r="E61" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>uvc_ada_medium</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P61" s="2"/>
       <c r="R61" s="1" t="str">
@@ -5556,10 +5798,10 @@
         <v/>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>3000</v>
       </c>
@@ -5567,16 +5809,20 @@
         <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>205</v>
+      <c r="E62" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>uvc_ada_motion</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P62" s="2"/>
       <c r="R62" s="1" t="str">
@@ -5588,10 +5834,10 @@
         <v/>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>3001</v>
       </c>
@@ -5599,16 +5845,20 @@
         <v>28</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>parents_occupancy</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P63" s="2"/>
       <c r="R63" s="1" t="str">
@@ -5620,10 +5870,10 @@
         <v/>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>8000</v>
       </c>
@@ -5631,16 +5881,20 @@
         <v>28</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>ada_energize</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="P64" s="2"/>
       <c r="R64" s="1" t="str">
@@ -5652,10 +5906,10 @@
         <v/>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>9000</v>
       </c>
@@ -5663,16 +5917,20 @@
         <v>28</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>211</v>
+      <c r="E65" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>update_bom_icons</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P65" s="2"/>
       <c r="R65" s="1" t="str">
@@ -5684,7 +5942,1135 @@
         <v/>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E107" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E109" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E116" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E118" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E119" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E122" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E123" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E124" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E128" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E129" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E132" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E133" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E134" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E137" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E138" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E139" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E140" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E141" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E142" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E143" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E144" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E145" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E146" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E147" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E148" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E149" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E150" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E151" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E152" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E153" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E154" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E155" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E156" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E157" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E158" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E159" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E160" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E161" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E162" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E163" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E164" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E165" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E166" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E167" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E168" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E170" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E172" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E173" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E174" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E175" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E176" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E178" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E179" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E180" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E181" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E182" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E183" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E184" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E185" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E186" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E187" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E188" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E189" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E190" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E191" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E192" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E193" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E194" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E195" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E196" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E197" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E198" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E199" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E200" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E201" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E202" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E203" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E204" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E205" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E206" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E207" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E208" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E209" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E210" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E211" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E212" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E213" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E214" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E215" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E216" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E217" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E218" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E219" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E220" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E221" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E223" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E224" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E225" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E226" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E227" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E228" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E229" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E230" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E231" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E232" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E233" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E234" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E235" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E237" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E238" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E239" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E240" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E241" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E242" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E245" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E246" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E247" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E248" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E249" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E250" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E252" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E253" s="1">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5706,11 +7092,13 @@
     <hyperlink ref="AB15" r:id="rId15" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
     <hyperlink ref="AB16" r:id="rId16" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
     <hyperlink ref="AB18:AB37" r:id="rId17" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
+    <hyperlink ref="AB56" r:id="rId18" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
+    <hyperlink ref="AB57" r:id="rId19" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55108CA2-B81E-1E48-A953-A0105D6077FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595915CA-B9D5-1340-8AE5-D3981F6B20C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="274">
   <si>
     <t>index</t>
   </si>
@@ -154,9 +154,6 @@
     <t>inHumidity</t>
   </si>
   <si>
-    <t>{{value}}</t>
-  </si>
-  <si>
     <t>Roof Weather Station</t>
   </si>
   <si>
@@ -851,6 +848,12 @@
   </si>
   <si>
     <t>Unique name for the entity, overrides HAAS parsing of unique_id</t>
+  </si>
+  <si>
+    <t>{{ value | round(1) }}</t>
+  </si>
+  <si>
+    <t>{{ value }}</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1682,7 @@
     <col min="17" max="17" width="22.1640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="69.6640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="63.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="33" style="1" customWidth="1"/>
     <col min="21" max="21" width="6.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="19.1640625" style="1" customWidth="1"/>
     <col min="23" max="23" width="19.5" style="1" customWidth="1"/>
@@ -1694,91 +1697,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="U1" s="6">
         <v>1</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1798,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
@@ -1881,17 +1884,17 @@
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_temperature</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_temperature</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
@@ -1900,16 +1903,16 @@
         <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M3" s="1">
         <v>300</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>37</v>
@@ -1918,7 +1921,7 @@
         <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(ISBLANK(Q3),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC3), "/", D3, "/config"))</f>
@@ -1929,34 +1932,34 @@
         <v>haas/entity/sensor/weewx/roof_temperature</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U3" s="1">
         <v>1</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W3" s="1">
         <v>3.15</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -1970,17 +1973,17 @@
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_apparent_temperature</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_apparent_temperature</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
@@ -1989,10 +1992,10 @@
         <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M4" s="1">
         <v>300</v>
@@ -2004,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(ISBLANK(Q4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC4), "/", D4, "/config"))</f>
@@ -2015,34 +2018,34 @@
         <v>haas/entity/sensor/weewx/roof_apparent_temperature</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W4" s="1">
         <v>3.15</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2056,17 +2059,17 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_dew_point</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_dew_point</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>33</v>
@@ -2075,10 +2078,10 @@
         <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M5" s="1">
         <v>300</v>
@@ -2090,7 +2093,7 @@
         <v>38</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R5" s="1" t="str">
         <f>IF(ISBLANK(Q5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC5), "/", D5, "/config"))</f>
@@ -2101,34 +2104,34 @@
         <v>haas/entity/sensor/weewx/roof_dew_point</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W5" s="1">
         <v>3.15</v>
       </c>
       <c r="X5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2142,17 +2145,17 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_heat_index</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_heat_index</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>33</v>
@@ -2161,10 +2164,10 @@
         <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M6" s="1">
         <v>300</v>
@@ -2176,7 +2179,7 @@
         <v>38</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R6" s="1" t="str">
         <f>IF(ISBLANK(Q6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC6), "/", D6, "/config"))</f>
@@ -2187,34 +2190,34 @@
         <v>haas/entity/sensor/weewx/roof_heat_index</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U6" s="1">
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W6" s="1">
         <v>3.15</v>
       </c>
       <c r="X6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2228,17 +2231,17 @@
         <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_high_temperature</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_high_temperature</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>33</v>
@@ -2247,10 +2250,10 @@
         <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M7" s="1">
         <v>300</v>
@@ -2262,7 +2265,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R7" s="1" t="str">
         <f>IF(ISBLANK(Q7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC7), "/", D7, "/config"))</f>
@@ -2273,34 +2276,34 @@
         <v>haas/entity/sensor/weewx/roof_high_temperature</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W7" s="1">
         <v>3.15</v>
       </c>
       <c r="X7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -2314,17 +2317,17 @@
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_humidity_index</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_humidity_index</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
@@ -2333,10 +2336,10 @@
         <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M8" s="1">
         <v>300</v>
@@ -2348,7 +2351,7 @@
         <v>38</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R8" s="1" t="str">
         <f>IF(ISBLANK(Q8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC8), "/", D8, "/config"))</f>
@@ -2359,34 +2362,34 @@
         <v>haas/entity/sensor/weewx/roof_humidity_index</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W8" s="1">
         <v>3.15</v>
       </c>
       <c r="X8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2400,17 +2403,17 @@
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>rack_dew_point</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>rack_dew_point</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>33</v>
@@ -2419,10 +2422,10 @@
         <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M9" s="1">
         <v>300</v>
@@ -2434,7 +2437,7 @@
         <v>38</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R9" s="1" t="str">
         <f>IF(ISBLANK(Q9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC9), "/", D9, "/config"))</f>
@@ -2445,34 +2448,34 @@
         <v>haas/entity/sensor/weewx/rack_dew_point</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U9" s="1">
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" s="1">
         <v>3.15</v>
       </c>
       <c r="X9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2486,17 +2489,17 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_low_temperature</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_low_temperature</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>33</v>
@@ -2505,10 +2508,10 @@
         <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M10" s="1">
         <v>300</v>
@@ -2520,7 +2523,7 @@
         <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R10" s="1" t="str">
         <f>IF(ISBLANK(Q10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC10), "/", D10, "/config"))</f>
@@ -2531,34 +2534,34 @@
         <v>haas/entity/sensor/weewx/roof_low_temperature</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U10" s="1">
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" s="1">
         <v>3.15</v>
       </c>
       <c r="X10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -2572,23 +2575,23 @@
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>netatmo_edwin_temperature</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>netatmo_edwin_temperature</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>37</v>
@@ -2603,7 +2606,7 @@
         <v/>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2617,17 +2620,17 @@
         <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_chill_temperature</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_chill_temperature</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>33</v>
@@ -2636,10 +2639,10 @@
         <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M12" s="1">
         <v>300</v>
@@ -2651,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R12" s="1" t="str">
         <f>IF(ISBLANK(Q12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC12), "/", D12, "/config"))</f>
@@ -2662,34 +2665,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" s="1">
         <v>3.15</v>
       </c>
       <c r="X12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -2703,7 +2706,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
@@ -2713,7 +2716,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>33</v>
@@ -2722,16 +2725,16 @@
         <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="M13" s="1">
         <v>300</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>37</v>
@@ -2740,7 +2743,7 @@
         <v>38</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R13" s="1" t="str">
         <f>IF(ISBLANK(Q13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC13), "/", D13, "/config"))</f>
@@ -2751,34 +2754,34 @@
         <v>haas/entity/sensor/weewx/rack_temperature</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="U13" s="1">
         <v>1</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W13" s="1">
         <v>3.15</v>
       </c>
       <c r="X13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -2792,29 +2795,29 @@
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>netatmo_edwin_co2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -2828,14 +2831,14 @@
         <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>roof_humidity</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>32</v>
@@ -2856,7 +2859,7 @@
         <v>300</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>37</v>
@@ -2865,7 +2868,7 @@
         <v>38</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R15" s="1" t="str">
         <f>IF(ISBLANK(Q15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC15), "/", D15, "/config"))</f>
@@ -2876,34 +2879,34 @@
         <v>haas/entity/sensor/weewx/roof_humidity</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W15" s="1">
         <v>3.15</v>
       </c>
       <c r="X15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -2945,7 +2948,7 @@
         <v>300</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>37</v>
@@ -2965,34 +2968,34 @@
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W16" s="1">
         <v>3.15</v>
       </c>
       <c r="X16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -3006,27 +3009,27 @@
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>netatmo_ada_noise</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>netatmo_ada_noise</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P17" s="2"/>
       <c r="AC17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -3040,17 +3043,17 @@
         <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_cloud_base</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_cloud_base</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>33</v>
@@ -3059,10 +3062,10 @@
         <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M18" s="1">
         <v>300</v>
@@ -3074,7 +3077,7 @@
         <v>38</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R18" s="1" t="str">
         <f>IF(ISBLANK(Q18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC18), "/", D18, "/config"))</f>
@@ -3085,34 +3088,34 @@
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W18" s="1">
         <v>3.15</v>
       </c>
       <c r="X18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB18" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3126,17 +3129,17 @@
         <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_max_solar_radiation</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_max_solar_radiation</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>33</v>
@@ -3145,10 +3148,10 @@
         <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M19" s="1">
         <v>300</v>
@@ -3160,7 +3163,7 @@
         <v>38</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R19" s="1" t="str">
         <f>IF(ISBLANK(Q19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC19), "/", D19, "/config"))</f>
@@ -3171,34 +3174,34 @@
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U19" s="1">
         <v>1</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W19" s="1">
         <v>3.15</v>
       </c>
       <c r="X19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB19" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -3212,17 +3215,17 @@
         <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_alititude_pressure</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_alititude_pressure</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>33</v>
@@ -3231,10 +3234,10 @@
         <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="M20" s="1">
         <v>300</v>
@@ -3246,7 +3249,7 @@
         <v>38</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R20" s="1" t="str">
         <f>IF(ISBLANK(Q20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC20), "/", D20, "/config"))</f>
@@ -3257,34 +3260,34 @@
         <v>haas/entity/sensor/weewx/roof_alititude_pressure</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U20" s="1">
         <v>1</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20" s="1">
         <v>3.15</v>
       </c>
       <c r="X20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB20" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -3298,17 +3301,17 @@
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_barometer_pressure</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_barometer_pressure</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>33</v>
@@ -3317,10 +3320,10 @@
         <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="M21" s="1">
         <v>300</v>
@@ -3332,7 +3335,7 @@
         <v>38</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R21" s="1" t="str">
         <f>IF(ISBLANK(Q21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC21), "/", D21, "/config"))</f>
@@ -3343,34 +3346,34 @@
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U21" s="1">
         <v>1</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W21" s="1">
         <v>3.15</v>
       </c>
       <c r="X21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB21" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -3384,17 +3387,17 @@
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>roof_pressure</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>33</v>
@@ -3403,10 +3406,10 @@
         <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="M22" s="1">
         <v>300</v>
@@ -3418,7 +3421,7 @@
         <v>38</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R22" s="1" t="str">
         <f>IF(ISBLANK(Q22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC22), "/", D22, "/config"))</f>
@@ -3429,34 +3432,34 @@
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U22" s="1">
         <v>1</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W22" s="1">
         <v>3.15</v>
       </c>
       <c r="X22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC22" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB22" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -3470,17 +3473,17 @@
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_direction</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_direction</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>33</v>
@@ -3489,10 +3492,10 @@
         <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M23" s="1">
         <v>300</v>
@@ -3504,7 +3507,7 @@
         <v>38</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R23" s="1" t="str">
         <f>IF(ISBLANK(Q23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC23), "/", D23, "/config"))</f>
@@ -3515,34 +3518,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U23" s="1">
         <v>1</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W23" s="1">
         <v>3.15</v>
       </c>
       <c r="X23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AB23" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB23" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -3556,17 +3559,17 @@
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_gust_direction</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_gust_direction</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>33</v>
@@ -3575,10 +3578,10 @@
         <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M24" s="1">
         <v>300</v>
@@ -3590,7 +3593,7 @@
         <v>38</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R24" s="1" t="str">
         <f>IF(ISBLANK(Q24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC24), "/", D24, "/config"))</f>
@@ -3601,34 +3604,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U24" s="1">
         <v>1</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W24" s="1">
         <v>3.15</v>
       </c>
       <c r="X24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB24" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -3642,17 +3645,17 @@
         <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_gust_speed</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_gust_speed</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>33</v>
@@ -3661,10 +3664,10 @@
         <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M25" s="1">
         <v>300</v>
@@ -3676,7 +3679,7 @@
         <v>38</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R25" s="1" t="str">
         <f>IF(ISBLANK(Q25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC25), "/", D25, "/config"))</f>
@@ -3687,34 +3690,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U25" s="1">
         <v>1</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W25" s="1">
         <v>3.15</v>
       </c>
       <c r="X25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AB25" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC25" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB25" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -3728,17 +3731,17 @@
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_speed_10min</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_speed_10min</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>33</v>
@@ -3747,10 +3750,10 @@
         <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M26" s="1">
         <v>300</v>
@@ -3762,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R26" s="1" t="str">
         <f>IF(ISBLANK(Q26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC26), "/", D26, "/config"))</f>
@@ -3773,34 +3776,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U26" s="1">
         <v>1</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W26" s="1">
         <v>3.15</v>
       </c>
       <c r="X26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AB26" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB26" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -3814,17 +3817,17 @@
         <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_samples</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_samples</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>33</v>
@@ -3833,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M27" s="1">
         <v>300</v>
@@ -3845,7 +3848,7 @@
         <v>38</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R27" s="1" t="str">
         <f>IF(ISBLANK(Q27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC27), "/", D27, "/config"))</f>
@@ -3856,34 +3859,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U27" s="1">
         <v>1</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W27" s="1">
         <v>3.15</v>
       </c>
       <c r="X27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB27" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC27" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB27" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -3897,17 +3900,17 @@
         <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_run</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_run</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>33</v>
@@ -3916,10 +3919,10 @@
         <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M28" s="1">
         <v>300</v>
@@ -3931,7 +3934,7 @@
         <v>38</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R28" s="1" t="str">
         <f>IF(ISBLANK(Q28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC28), "/", D28, "/config"))</f>
@@ -3942,34 +3945,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U28" s="1">
         <v>1</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W28" s="1">
         <v>3.15</v>
       </c>
       <c r="X28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AB28" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB28" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -3983,17 +3986,17 @@
         <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_wind_speed</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_wind_speed</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>33</v>
@@ -4002,10 +4005,10 @@
         <v>34</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M29" s="1">
         <v>300</v>
@@ -4017,7 +4020,7 @@
         <v>38</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R29" s="1" t="str">
         <f>IF(ISBLANK(Q29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC29), "/", D29, "/config"))</f>
@@ -4028,34 +4031,34 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U29" s="1">
         <v>1</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W29" s="1">
         <v>3.15</v>
       </c>
       <c r="X29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AB29" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC29" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB29" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -4069,35 +4072,35 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_rain_rate</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_rain_rate</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M30" s="1">
         <v>300</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>37</v>
@@ -4106,7 +4109,7 @@
         <v>38</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R30" s="1" t="str">
         <f>IF(ISBLANK(Q30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC30), "/", D30, "/config"))</f>
@@ -4117,34 +4120,34 @@
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U30" s="1">
         <v>1</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W30" s="1">
         <v>3.15</v>
       </c>
       <c r="X30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AB30" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC30" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB30" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -4158,35 +4161,35 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_hourly_rain</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_hourly_rain</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M31" s="1">
         <v>300</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>37</v>
@@ -4195,7 +4198,7 @@
         <v>38</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R31" s="1" t="str">
         <f>IF(ISBLANK(Q31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC31), "/", D31, "/config"))</f>
@@ -4206,34 +4209,34 @@
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U31" s="1">
         <v>1</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W31" s="1">
         <v>3.15</v>
       </c>
       <c r="X31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AB31" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC31" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB31" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -4247,35 +4250,35 @@
         <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_daily_rain</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_daily_rain</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M32" s="1">
         <v>300</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>37</v>
@@ -4284,7 +4287,7 @@
         <v>38</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R32" s="1" t="str">
         <f>IF(ISBLANK(Q32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC32), "/", D32, "/config"))</f>
@@ -4295,34 +4298,34 @@
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U32" s="1">
         <v>1</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W32" s="1">
         <v>3.15</v>
       </c>
       <c r="X32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AA32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AB32" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC32" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB32" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -4336,35 +4339,35 @@
         <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_monthly_rain</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_monthly_rain</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M33" s="1">
         <v>300</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>37</v>
@@ -4373,7 +4376,7 @@
         <v>38</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R33" s="1" t="str">
         <f>IF(ISBLANK(Q33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC33), "/", D33, "/config"))</f>
@@ -4384,34 +4387,34 @@
         <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U33" s="1">
         <v>1</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W33" s="1">
         <v>3.15</v>
       </c>
       <c r="X33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AA33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AB33" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC33" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB33" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -4425,35 +4428,35 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_yearly_rain</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_yearly_rain</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M34" s="1">
         <v>300</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>37</v>
@@ -4462,7 +4465,7 @@
         <v>38</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R34" s="1" t="str">
         <f>IF(ISBLANK(Q34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC34), "/", D34, "/config"))</f>
@@ -4473,34 +4476,34 @@
         <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U34" s="1">
         <v>1</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W34" s="1">
         <v>3.15</v>
       </c>
       <c r="X34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="AA34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AB34" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC34" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB34" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -4514,29 +4517,29 @@
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>roof_24hour_rain</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M35" s="1">
         <v>300</v>
@@ -4548,7 +4551,7 @@
         <v>38</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R35" s="1" t="str">
         <f>IF(ISBLANK(Q35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC35), "/", D35, "/config"))</f>
@@ -4559,34 +4562,34 @@
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U35" s="1">
         <v>1</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W35" s="1">
         <v>3.15</v>
       </c>
       <c r="X35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AA35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AB35" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC35" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB35" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -4600,29 +4603,29 @@
         <v>29</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_rain</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_rain</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="J36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M36" s="1">
         <v>300</v>
@@ -4634,7 +4637,7 @@
         <v>38</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R36" s="1" t="str">
         <f>IF(ISBLANK(Q36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC36), "/", D36, "/config"))</f>
@@ -4645,34 +4648,34 @@
         <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U36" s="1">
         <v>1</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W36" s="1">
         <v>3.15</v>
       </c>
       <c r="X36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AB36" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC36" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB36" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -4686,29 +4689,29 @@
         <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>roof_storm_rain</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>roof_storm_rain</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M37" s="1">
         <v>300</v>
@@ -4720,7 +4723,7 @@
         <v>38</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R37" s="1" t="str">
         <f>IF(ISBLANK(Q37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC37), "/", D37, "/config"))</f>
@@ -4731,34 +4734,34 @@
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U37" s="1">
         <v>1</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W37" s="1">
         <v>3.15</v>
       </c>
       <c r="X37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AB37" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC37" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB37" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -4769,26 +4772,26 @@
         <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>ada</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>ada</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="N38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P38" s="2"/>
       <c r="R38" s="1" t="str">
@@ -4800,7 +4803,7 @@
         <v/>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -4811,26 +4814,26 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_coffee</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>kitchen_coffee</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="P39" s="2"/>
       <c r="R39" s="1" t="str">
@@ -4842,7 +4845,7 @@
         <v/>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -4853,26 +4856,26 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>dining</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>dining</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P40" s="2"/>
       <c r="R40" s="1" t="str">
@@ -4884,7 +4887,7 @@
         <v/>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -4895,26 +4898,26 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>ada_light</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>ada_light</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P41" s="2"/>
       <c r="R41" s="1" t="str">
@@ -4926,7 +4929,7 @@
         <v/>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -4937,20 +4940,20 @@
         <v>28</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>hue_color_candle_2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P42" s="2"/>
       <c r="R42" s="1" t="str">
@@ -4962,7 +4965,7 @@
         <v/>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -4973,30 +4976,30 @@
         <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>lounge_tv</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>lounge_tv</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P43" s="2"/>
       <c r="AC43" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5010,26 +5013,26 @@
         <v>29</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_coffee_current_consumption</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>kitchen_coffee_current_consumption</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P44" s="2"/>
       <c r="R44" s="1" t="str">
@@ -5041,7 +5044,7 @@
         <v/>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5049,32 +5052,32 @@
         <v>2101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>dining_lights_power</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>dining_lights_power</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P45" s="2"/>
       <c r="R45" s="1" t="str">
@@ -5086,7 +5089,7 @@
         <v/>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5100,23 +5103,23 @@
         <v>29</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>kitchen_coffee_total_consumption</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>kitchen_coffee_total_consumption</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P46" s="2"/>
       <c r="R46" s="1" t="str">
@@ -5128,7 +5131,7 @@
         <v/>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5142,26 +5145,26 @@
         <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>kitchen_coffee_today_s_consumption</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P47" s="2"/>
       <c r="R47" s="1" t="str">
@@ -5173,7 +5176,7 @@
         <v/>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5181,29 +5184,29 @@
         <v>2202</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>dining_lights_energy</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P48" s="2"/>
       <c r="R48" s="1" t="str">
@@ -5215,7 +5218,7 @@
         <v/>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5223,32 +5226,32 @@
         <v>2203</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>dining_lights_energy_today</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P49" s="2"/>
       <c r="R49" s="1" t="str">
@@ -5260,7 +5263,7 @@
         <v/>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5274,17 +5277,17 @@
         <v>29</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>hue_color_candle_16_power</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P50" s="2"/>
       <c r="R50" s="1" t="str">
@@ -5296,7 +5299,7 @@
         <v/>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5310,17 +5313,17 @@
         <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>hue_color_candle_16_energy</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P51" s="2"/>
       <c r="R51" s="1" t="str">
@@ -5332,7 +5335,7 @@
         <v/>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5346,17 +5349,17 @@
         <v>29</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>hue_color_candle_16_energy_daily</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P52" s="2"/>
       <c r="R52" s="1" t="str">
@@ -5368,7 +5371,7 @@
         <v/>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5382,17 +5385,17 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>hue_color_candle_16_energy_weekly</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P53" s="2"/>
       <c r="R53" s="1" t="str">
@@ -5404,7 +5407,7 @@
         <v/>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5418,17 +5421,17 @@
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E54" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>hue_color_candle_16_energy_monthly</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P54" s="2"/>
       <c r="R54" s="1" t="str">
@@ -5440,7 +5443,7 @@
         <v/>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5454,17 +5457,17 @@
         <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>withings_weight_kg_graham</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E55" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>withings_weight_kg_graham</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="P55" s="2"/>
       <c r="R55" s="1" t="str">
@@ -5476,7 +5479,7 @@
         <v/>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -5490,29 +5493,29 @@
         <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="M56" s="1">
         <v>300</v>
@@ -5524,7 +5527,7 @@
         <v>38</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R56" s="1" t="str">
         <f>IF(ISBLANK(Q56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC56), "/", D56, "/config"))</f>
@@ -5535,34 +5538,34 @@
         <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U56" s="1">
         <v>1</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W56" s="1">
         <v>3.15</v>
       </c>
       <c r="X56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y56" s="1" t="s">
+      <c r="Z56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AB56" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC56" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB56" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC56" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -5576,20 +5579,20 @@
         <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>34</v>
@@ -5607,7 +5610,7 @@
         <v>38</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R57" s="1" t="str">
         <f>IF(ISBLANK(Q57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(AC57), "/", D57, "/config"))</f>
@@ -5618,34 +5621,34 @@
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="U57" s="1">
         <v>1</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W57" s="1">
         <v>3.15</v>
       </c>
       <c r="X57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Z57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z57" s="1" t="s">
+      <c r="AA57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AB57" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC57" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AB57" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC57" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5656,23 +5659,23 @@
         <v>28</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E58" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>ada_home</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P58" s="2"/>
       <c r="R58" s="1" t="str">
@@ -5684,7 +5687,7 @@
         <v/>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5695,23 +5698,23 @@
         <v>28</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>kitchen_speaker</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P59" s="2"/>
       <c r="R59" s="1" t="str">
@@ -5723,7 +5726,7 @@
         <v/>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5737,17 +5740,17 @@
         <v>29</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>parents_speaker_battery</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>parents_speaker_battery</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="P60" s="2"/>
       <c r="R60" s="1" t="str">
@@ -5759,7 +5762,7 @@
         <v/>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5770,23 +5773,23 @@
         <v>28</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E61" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>uvc_ada_medium</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P61" s="2"/>
       <c r="R61" s="1" t="str">
@@ -5798,7 +5801,7 @@
         <v/>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5809,20 +5812,20 @@
         <v>28</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E62" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>uvc_ada_motion</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P62" s="2"/>
       <c r="R62" s="1" t="str">
@@ -5834,7 +5837,7 @@
         <v/>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5845,20 +5848,20 @@
         <v>28</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E63" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>parents_occupancy</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P63" s="2"/>
       <c r="R63" s="1" t="str">
@@ -5870,7 +5873,7 @@
         <v/>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5881,20 +5884,20 @@
         <v>28</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="str">
+        <f>Table2[[#This Row],[unique_id]]</f>
+        <v>ada_energize</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f>Table2[[#This Row],[unique_id]]</f>
-        <v>ada_energize</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="P64" s="2"/>
       <c r="R64" s="1" t="str">
@@ -5906,7 +5909,7 @@
         <v/>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5917,20 +5920,20 @@
         <v>28</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E65" s="1" t="str">
         <f>Table2[[#This Row],[unique_id]]</f>
         <v>update_bom_icons</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P65" s="2"/>
       <c r="R65" s="1" t="str">
@@ -5942,7 +5945,7 @@
         <v/>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04332561-F588-5842-AF36-4AAC988C00E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438F5A2-4D29-C847-8431-02AE2E86FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="372">
   <si>
     <t>index</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>km/h</t>
+  </si>
+  <si>
+    <t>inTemp</t>
   </si>
   <si>
     <t>rack_temperature</t>
@@ -1762,8 +1765,12 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="20"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="19"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="17">
+      <calculatedColumnFormula>IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4, "/config"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="16">
+      <calculatedColumnFormula>IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="15"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="14"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="13"/>
@@ -2077,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B131"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2115,89 +2122,89 @@
   <sheetData>
     <row r="1" spans="1:29" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>270</v>
-      </c>
       <c r="M1" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O1" s="19"/>
       <c r="P1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -2217,10 +2224,10 @@
         <v>200</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>201</v>
@@ -2241,7 +2248,7 @@
         <v>204</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>205</v>
@@ -2309,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>5</v>
@@ -2437,7 +2444,7 @@
         <v>haas/entity/sensor/weewx/roof_temperature</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V4" s="1">
         <v>1</v>
@@ -2461,7 +2468,7 @@
         <v>43</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2478,7 +2485,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F5" s="11" t="str">
         <f>IF(ISBLANK(E5), "", Table2[[#This Row],[unique_id]])</f>
@@ -2497,6 +2504,14 @@
         <v>102</v>
       </c>
       <c r="Q5" s="2"/>
+      <c r="S5" s="1" t="str">
+        <f t="shared" ref="S5:S68" si="0">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" ref="T5:T68" si="1">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5))</f>
+        <v/>
+      </c>
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2532,6 +2547,14 @@
         <v>102</v>
       </c>
       <c r="Q6" s="2"/>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2548,14 +2571,14 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(ISBLANK(E7), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_temperature</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>99</v>
@@ -2567,6 +2590,14 @@
         <v>102</v>
       </c>
       <c r="Q7" s="2"/>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -2583,14 +2614,14 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_temperature</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>99</v>
@@ -2602,6 +2633,14 @@
         <v>158</v>
       </c>
       <c r="Q8" s="2"/>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC8" s="7"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2618,14 +2657,14 @@
         <v>29</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F9" s="11" t="str">
         <f>IF(ISBLANK(E9), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_temperature</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>99</v>
@@ -2637,6 +2676,14 @@
         <v>158</v>
       </c>
       <c r="Q9" s="2"/>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC9" s="7"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2653,14 +2700,14 @@
         <v>29</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_temperature</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>99</v>
@@ -2672,6 +2719,14 @@
         <v>158</v>
       </c>
       <c r="Q10" s="2"/>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC10" s="7"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2688,14 +2743,14 @@
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IF(ISBLANK(E11), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_temperature</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>99</v>
@@ -2707,6 +2762,14 @@
         <v>158</v>
       </c>
       <c r="Q11" s="2"/>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC11" s="7"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2723,14 +2786,14 @@
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_temperature</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>99</v>
@@ -2742,6 +2805,14 @@
         <v>158</v>
       </c>
       <c r="Q12" s="2"/>
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC12" s="7"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -2758,14 +2829,14 @@
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F13" s="11" t="str">
         <f>IF(ISBLANK(E13), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_temperature</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>99</v>
@@ -2777,6 +2848,14 @@
         <v>158</v>
       </c>
       <c r="Q13" s="2"/>
+      <c r="S13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC13" s="7"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -2793,14 +2872,14 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F14" s="11" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_basement_temperature</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>99</v>
@@ -2812,6 +2891,14 @@
         <v>158</v>
       </c>
       <c r="Q14" s="2"/>
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -2828,7 +2915,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15), "", Table2[[#This Row],[unique_id]])</f>
@@ -2846,8 +2933,59 @@
       <c r="J15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="AC15" s="7"/>
+      <c r="L15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>haas/entity/sensor/weewx/rack_temperature/config</v>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>haas/entity/sensor/weewx/rack_temperature</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2897,15 +3035,15 @@
         <v>106</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f>IF(ISBLANK(R16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C16), "/", E16, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature/config</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f>IF(ISBLANK(R16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C16), "/", E16))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V16" s="1">
         <v>1</v>
@@ -2929,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -2980,15 +3118,15 @@
         <v>109</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f>IF(ISBLANK(R17),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C17), "/", E17, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_dew_point/config</v>
       </c>
       <c r="T17" s="1" t="str">
-        <f>IF(ISBLANK(R17),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C17), "/", E17))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_dew_point</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
@@ -3012,7 +3150,7 @@
         <v>43</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -3063,15 +3201,15 @@
         <v>112</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f>IF(ISBLANK(R18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C18), "/", E18, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_heat_index/config</v>
       </c>
       <c r="T18" s="1" t="str">
-        <f>IF(ISBLANK(R18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C18), "/", E18))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_heat_index</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
@@ -3095,7 +3233,7 @@
         <v>43</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3146,15 +3284,15 @@
         <v>115</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f>IF(ISBLANK(R19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C19), "/", E19, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_humidity_index/config</v>
       </c>
       <c r="T19" s="1" t="str">
-        <f>IF(ISBLANK(R19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C19), "/", E19))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_humidity_index</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
@@ -3178,7 +3316,7 @@
         <v>43</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -3229,15 +3367,15 @@
         <v>118</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f>IF(ISBLANK(R20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C20), "/", E20, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/rack_dew_point/config</v>
       </c>
       <c r="T20" s="1" t="str">
-        <f>IF(ISBLANK(R20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C20), "/", E20))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/rack_dew_point</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V20" s="1">
         <v>1</v>
@@ -3261,7 +3399,7 @@
         <v>31</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -3312,15 +3450,15 @@
         <v>121</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f>IF(ISBLANK(R21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C21), "/", E21, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature/config</v>
       </c>
       <c r="T21" s="1" t="str">
-        <f>IF(ISBLANK(R21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C21), "/", E21))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V21" s="1">
         <v>1</v>
@@ -3344,7 +3482,7 @@
         <v>43</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -3361,7 +3499,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F22" s="11" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
@@ -3371,12 +3509,20 @@
         <v>150</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="2"/>
+      <c r="S22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="AC22" s="7"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -3393,7 +3539,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>IF(ISBLANK(E23), "", Table2[[#This Row],[unique_id]])</f>
@@ -3403,13 +3549,21 @@
         <v>146</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="S23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -3426,23 +3580,31 @@
         <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F24" s="11" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_co2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="S24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -3459,23 +3621,31 @@
         <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F25" s="11" t="str">
         <f>IF(ISBLANK(E25), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_co2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="S25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -3492,23 +3662,31 @@
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F26" s="11" t="str">
         <f>IF(ISBLANK(E26), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_co2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="S26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -3525,23 +3703,31 @@
         <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F27" s="11" t="str">
         <f>IF(ISBLANK(E27), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_co2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="S27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -3558,23 +3744,31 @@
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F28" s="11" t="str">
         <f>IF(ISBLANK(E28), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_co2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -3591,23 +3785,31 @@
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F29" s="11" t="str">
         <f>IF(ISBLANK(E29), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_co2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="S29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -3624,20 +3826,28 @@
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F30" s="11" t="str">
         <f>IF(ISBLANK(E30), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_co2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -3688,15 +3898,15 @@
         <v>46</v>
       </c>
       <c r="S31" s="1" t="str">
-        <f>IF(ISBLANK(R31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C31), "/", E31, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_humidity/config</v>
       </c>
       <c r="T31" s="1" t="str">
-        <f>IF(ISBLANK(R31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C31), "/", E31))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_humidity</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V31" s="1">
         <v>1</v>
@@ -3720,7 +3930,7 @@
         <v>43</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -3771,15 +3981,15 @@
         <v>38</v>
       </c>
       <c r="S32" s="1" t="str">
-        <f>IF(ISBLANK(R32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C32), "/", E32, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/rack_humidity/config</v>
       </c>
       <c r="T32" s="1" t="str">
-        <f>IF(ISBLANK(R32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C32), "/", E32))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V32" s="1">
         <v>1</v>
@@ -3803,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="AC32" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -3817,7 +4027,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>IF(ISBLANK(E33), "", Table2[[#This Row],[unique_id]])</f>
@@ -3827,7 +4037,7 @@
         <v>150</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>33</v>
@@ -3836,6 +4046,14 @@
         <v>102</v>
       </c>
       <c r="Q33" s="2"/>
+      <c r="S33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -3870,7 +4088,7 @@
         <v>50</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P34" s="1">
         <v>300</v>
@@ -3882,15 +4100,15 @@
         <v>51</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f>IF(ISBLANK(R34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C34), "/", E34, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_cloud_base/config</v>
       </c>
       <c r="T34" s="1" t="str">
-        <f>IF(ISBLANK(R34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C34), "/", E34))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V34" s="1">
         <v>1</v>
@@ -3914,7 +4132,7 @@
         <v>43</v>
       </c>
       <c r="AC34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -3950,7 +4168,7 @@
         <v>54</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P35" s="1">
         <v>300</v>
@@ -3962,15 +4180,15 @@
         <v>55</v>
       </c>
       <c r="S35" s="1" t="str">
-        <f>IF(ISBLANK(R35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation/config</v>
       </c>
       <c r="T35" s="1" t="str">
-        <f>IF(ISBLANK(R35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V35" s="1">
         <v>1</v>
@@ -3994,7 +4212,7 @@
         <v>43</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -4042,15 +4260,15 @@
         <v>61</v>
       </c>
       <c r="S36" s="1" t="str">
-        <f>IF(ISBLANK(R36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure/config</v>
       </c>
       <c r="T36" s="1" t="str">
-        <f>IF(ISBLANK(R36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V36" s="1">
         <v>1</v>
@@ -4074,7 +4292,7 @@
         <v>43</v>
       </c>
       <c r="AC36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -4122,15 +4340,15 @@
         <v>58</v>
       </c>
       <c r="S37" s="1" t="str">
-        <f>IF(ISBLANK(R37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C37), "/", E37, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_pressure/config</v>
       </c>
       <c r="T37" s="1" t="str">
-        <f>IF(ISBLANK(R37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C37), "/", E37))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V37" s="1">
         <v>1</v>
@@ -4154,7 +4372,7 @@
         <v>43</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -4190,7 +4408,7 @@
         <v>228</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P38" s="1">
         <v>300</v>
@@ -4202,15 +4420,15 @@
         <v>128</v>
       </c>
       <c r="S38" s="1" t="str">
-        <f>IF(ISBLANK(R38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C38), "/", E38, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_direction/config</v>
       </c>
       <c r="T38" s="1" t="str">
-        <f>IF(ISBLANK(R38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C38), "/", E38))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V38" s="1">
         <v>1</v>
@@ -4234,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="AC38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
@@ -4270,7 +4488,7 @@
         <v>228</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P39" s="1">
         <v>300</v>
@@ -4282,15 +4500,15 @@
         <v>131</v>
       </c>
       <c r="S39" s="1" t="str">
-        <f>IF(ISBLANK(R39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C39), "/", E39, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction/config</v>
       </c>
       <c r="T39" s="1" t="str">
-        <f>IF(ISBLANK(R39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C39), "/", E39))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V39" s="1">
         <v>1</v>
@@ -4314,7 +4532,7 @@
         <v>43</v>
       </c>
       <c r="AC39" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -4350,7 +4568,7 @@
         <v>229</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P40" s="1">
         <v>300</v>
@@ -4362,15 +4580,15 @@
         <v>134</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f>IF(ISBLANK(R40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C40), "/", E40, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed/config</v>
       </c>
       <c r="T40" s="1" t="str">
-        <f>IF(ISBLANK(R40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C40), "/", E40))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V40" s="1">
         <v>1</v>
@@ -4394,7 +4612,7 @@
         <v>43</v>
       </c>
       <c r="AC40" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -4430,7 +4648,7 @@
         <v>229</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P41" s="1">
         <v>300</v>
@@ -4442,15 +4660,15 @@
         <v>137</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f>IF(ISBLANK(R41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C41), "/", E41, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min/config</v>
       </c>
       <c r="T41" s="1" t="str">
-        <f>IF(ISBLANK(R41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C41), "/", E41))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V41" s="1">
         <v>1</v>
@@ -4474,7 +4692,7 @@
         <v>43</v>
       </c>
       <c r="AC41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -4507,7 +4725,7 @@
         <v>34</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P42" s="1">
         <v>300</v>
@@ -4519,15 +4737,15 @@
         <v>140</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f>IF(ISBLANK(R42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C42), "/", E42, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_samples/config</v>
       </c>
       <c r="T42" s="1" t="str">
-        <f>IF(ISBLANK(R42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C42), "/", E42))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V42" s="1">
         <v>1</v>
@@ -4551,7 +4769,7 @@
         <v>43</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -4587,7 +4805,7 @@
         <v>143</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P43" s="1">
         <v>300</v>
@@ -4599,15 +4817,15 @@
         <v>144</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f>IF(ISBLANK(R43),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C43), "/", E43, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_run/config</v>
       </c>
       <c r="T43" s="1" t="str">
-        <f>IF(ISBLANK(R43),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C43), "/", E43))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V43" s="1">
         <v>1</v>
@@ -4631,7 +4849,7 @@
         <v>43</v>
       </c>
       <c r="AC43" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
@@ -4667,7 +4885,7 @@
         <v>229</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P44" s="1">
         <v>300</v>
@@ -4679,15 +4897,15 @@
         <v>124</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f>IF(ISBLANK(R44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C44), "/", E44, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed/config</v>
       </c>
       <c r="T44" s="1" t="str">
-        <f>IF(ISBLANK(R44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C44), "/", E44))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V44" s="1">
         <v>1</v>
@@ -4711,7 +4929,7 @@
         <v>43</v>
       </c>
       <c r="AC44" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -4738,7 +4956,7 @@
         <v>65</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>158</v>
@@ -4750,7 +4968,7 @@
         <v>79</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P45" s="1">
         <v>300</v>
@@ -4762,15 +4980,15 @@
         <v>80</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f>IF(ISBLANK(R45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C45), "/", E45, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_rain_rate/config</v>
       </c>
       <c r="T45" s="1" t="str">
-        <f>IF(ISBLANK(R45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C45), "/", E45))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V45" s="1">
         <v>1</v>
@@ -4794,7 +5012,7 @@
         <v>43</v>
       </c>
       <c r="AC45" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
@@ -4821,7 +5039,7 @@
         <v>65</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>158</v>
@@ -4833,7 +5051,7 @@
         <v>67</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P46" s="1">
         <v>300</v>
@@ -4845,15 +5063,15 @@
         <v>71</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f>IF(ISBLANK(R46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_hourly_rain/config</v>
       </c>
       <c r="T46" s="1" t="str">
-        <f>IF(ISBLANK(R46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V46" s="1">
         <v>1</v>
@@ -4877,7 +5095,7 @@
         <v>43</v>
       </c>
       <c r="AC46" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -4904,7 +5122,7 @@
         <v>65</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>158</v>
@@ -4916,7 +5134,7 @@
         <v>67</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P47" s="1">
         <v>300</v>
@@ -4928,15 +5146,15 @@
         <v>68</v>
       </c>
       <c r="S47" s="1" t="str">
-        <f>IF(ISBLANK(R47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C47), "/", E47, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_daily_rain/config</v>
       </c>
       <c r="T47" s="1" t="str">
-        <f>IF(ISBLANK(R47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C47), "/", E47))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V47" s="1">
         <v>1</v>
@@ -4960,7 +5178,7 @@
         <v>43</v>
       </c>
       <c r="AC47" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
@@ -4974,7 +5192,7 @@
         <v>29</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
@@ -4987,7 +5205,7 @@
         <v>65</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>66</v>
@@ -4996,7 +5214,7 @@
         <v>67</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P48" s="1">
         <v>300</v>
@@ -5008,15 +5226,15 @@
         <v>76</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f>IF(ISBLANK(R48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C48), "/", E48, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_24hour_rain/config</v>
       </c>
       <c r="T48" s="1" t="str">
-        <f>IF(ISBLANK(R48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C48), "/", E48))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V48" s="1">
         <v>1</v>
@@ -5040,7 +5258,7 @@
         <v>43</v>
       </c>
       <c r="AC48" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
@@ -5067,7 +5285,7 @@
         <v>65</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>158</v>
@@ -5079,7 +5297,7 @@
         <v>67</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P49" s="1">
         <v>300</v>
@@ -5091,15 +5309,15 @@
         <v>74</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f>IF(ISBLANK(R49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C49), "/", E49, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f>IF(ISBLANK(R49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C49), "/", E49))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V49" s="1">
         <v>1</v>
@@ -5123,7 +5341,7 @@
         <v>43</v>
       </c>
       <c r="AC49" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
@@ -5150,7 +5368,7 @@
         <v>65</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>158</v>
@@ -5162,7 +5380,7 @@
         <v>67</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P50" s="1">
         <v>300</v>
@@ -5171,18 +5389,18 @@
         <v>37</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f>IF(ISBLANK(R50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C50), "/", E50, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
       </c>
       <c r="T50" s="1" t="str">
-        <f>IF(ISBLANK(R50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C50), "/", E50))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V50" s="1">
         <v>1</v>
@@ -5206,7 +5424,7 @@
         <v>43</v>
       </c>
       <c r="AC50" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -5233,7 +5451,7 @@
         <v>65</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>83</v>
@@ -5242,7 +5460,7 @@
         <v>67</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P51" s="1">
         <v>300</v>
@@ -5254,15 +5472,15 @@
         <v>84</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f>IF(ISBLANK(R51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C51), "/", E51, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_rain/config</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f>IF(ISBLANK(R51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C51), "/", E51))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V51" s="1">
         <v>1</v>
@@ -5286,7 +5504,7 @@
         <v>43</v>
       </c>
       <c r="AC51" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -5313,7 +5531,7 @@
         <v>65</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>34</v>
@@ -5322,7 +5540,7 @@
         <v>67</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P52" s="1">
         <v>300</v>
@@ -5334,15 +5552,15 @@
         <v>87</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f>IF(ISBLANK(R52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C52), "/", E52, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
       </c>
       <c r="T52" s="1" t="str">
-        <f>IF(ISBLANK(R52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C52), "/", E52))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V52" s="1">
         <v>1</v>
@@ -5366,7 +5584,7 @@
         <v>43</v>
       </c>
       <c r="AC52" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -5400,11 +5618,11 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="S53" s="1" t="str">
-        <f>IF(ISBLANK(R53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C53), "/", E53, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T53" s="1" t="str">
-        <f>IF(ISBLANK(R53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C53), "/", E53))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5413,7 +5631,7 @@
         <v>1900</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>154</v>
@@ -5439,11 +5657,11 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="S54" s="1" t="str">
-        <f>IF(ISBLANK(R54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C54), "/", E54, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T54" s="1" t="str">
-        <f>IF(ISBLANK(R54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C54), "/", E54))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5452,7 +5670,7 @@
         <v>2000</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>159</v>
@@ -5478,11 +5696,11 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="S55" s="1" t="str">
-        <f>IF(ISBLANK(R55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C55), "/", E55, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T55" s="1" t="str">
-        <f>IF(ISBLANK(R55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C55), "/", E55))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5517,11 +5735,11 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="S56" s="1" t="str">
-        <f>IF(ISBLANK(R56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C56), "/", E56, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T56" s="1" t="str">
-        <f>IF(ISBLANK(R56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C56), "/", E56))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5536,14 +5754,14 @@
         <v>159</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F57" s="11" t="str">
         <f>IF(ISBLANK(E57), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_light</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>162</v>
@@ -5555,6 +5773,14 @@
         <v>158</v>
       </c>
       <c r="Q57" s="2"/>
+      <c r="S57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -5567,14 +5793,14 @@
         <v>159</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F58" s="11" t="str">
         <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_light</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>162</v>
@@ -5587,26 +5813,34 @@
       </c>
       <c r="M58" s="6"/>
       <c r="Q58" s="2"/>
+      <c r="S58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2004</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F59" s="11" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
         <v>hallway</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>162</v>
@@ -5618,13 +5852,21 @@
         <v>158</v>
       </c>
       <c r="Q59" s="2"/>
+      <c r="S59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2005</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>159</v>
@@ -5637,7 +5879,7 @@
         <v>hue_color_candle_2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>162</v>
@@ -5646,26 +5888,34 @@
         <v>152</v>
       </c>
       <c r="Q60" s="2"/>
+      <c r="S60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2006</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F61" s="11" t="str">
         <f>IF(ISBLANK(E61), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>162</v>
@@ -5674,26 +5924,34 @@
         <v>152</v>
       </c>
       <c r="Q61" s="2"/>
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2007</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F62" s="11" t="str">
         <f>IF(ISBLANK(E62), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_4</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>162</v>
@@ -5702,26 +5960,34 @@
         <v>152</v>
       </c>
       <c r="Q62" s="2"/>
+      <c r="S62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2008</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F63" s="11" t="str">
         <f>IF(ISBLANK(E63), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>162</v>
@@ -5730,13 +5996,21 @@
         <v>152</v>
       </c>
       <c r="Q63" s="2"/>
+      <c r="S63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2009</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>159</v>
@@ -5761,19 +6035,27 @@
         <v>158</v>
       </c>
       <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2010</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F65" s="11" t="str">
         <f>IF(ISBLANK(E65), "", Table2[[#This Row],[unique_id]])</f>
@@ -5789,19 +6071,27 @@
         <v>152</v>
       </c>
       <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2011</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F66" s="11" t="str">
         <f>IF(ISBLANK(E66), "", Table2[[#This Row],[unique_id]])</f>
@@ -5817,19 +6107,27 @@
         <v>152</v>
       </c>
       <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2012</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F67" s="11" t="str">
         <f>IF(ISBLANK(E67), "", Table2[[#This Row],[unique_id]])</f>
@@ -5845,19 +6143,27 @@
         <v>152</v>
       </c>
       <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2013</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F68" s="11" t="str">
         <f>IF(ISBLANK(E68), "", Table2[[#This Row],[unique_id]])</f>
@@ -5873,19 +6179,27 @@
         <v>152</v>
       </c>
       <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2014</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F69" s="11" t="str">
         <f>IF(ISBLANK(E69), "", Table2[[#This Row],[unique_id]])</f>
@@ -5901,19 +6215,27 @@
         <v>152</v>
       </c>
       <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S69" s="1" t="str">
+        <f t="shared" ref="S69:S132" si="2">IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T69" s="1" t="str">
+        <f t="shared" ref="T69:T132" si="3">IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2015</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F70" s="11" t="str">
         <f>IF(ISBLANK(E70), "", Table2[[#This Row],[unique_id]])</f>
@@ -5929,26 +6251,34 @@
         <v>152</v>
       </c>
       <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F71" s="11" t="str">
         <f>IF(ISBLANK(E71), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>162</v>
@@ -5960,26 +6290,34 @@
         <v>158</v>
       </c>
       <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2017</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F72" s="11" t="str">
         <f>IF(ISBLANK(E72), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_12</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>162</v>
@@ -5988,26 +6326,34 @@
         <v>152</v>
       </c>
       <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2018</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F73" s="11" t="str">
         <f>IF(ISBLANK(E73), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_13</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>162</v>
@@ -6016,26 +6362,34 @@
         <v>152</v>
       </c>
       <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2019</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" s="11" t="str">
         <f>IF(ISBLANK(E74), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>162</v>
@@ -6044,26 +6398,34 @@
         <v>152</v>
       </c>
       <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2020</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F75" s="11" t="str">
         <f>IF(ISBLANK(E75), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>162</v>
@@ -6075,26 +6437,34 @@
         <v>158</v>
       </c>
       <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2021</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F76" s="11" t="str">
         <f>IF(ISBLANK(E76), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_15</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>162</v>
@@ -6103,26 +6473,34 @@
         <v>152</v>
       </c>
       <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2022</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F77" s="11" t="str">
         <f>IF(ISBLANK(E77), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_16</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>162</v>
@@ -6131,26 +6509,34 @@
         <v>152</v>
       </c>
       <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2023</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F78" s="11" t="str">
         <f>IF(ISBLANK(E78), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_17</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>162</v>
@@ -6159,26 +6545,34 @@
         <v>152</v>
       </c>
       <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S78" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2024</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F79" s="11" t="str">
         <f>IF(ISBLANK(E79), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>162</v>
@@ -6190,26 +6584,34 @@
         <v>158</v>
       </c>
       <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S79" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2025</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F80" s="11" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>162</v>
@@ -6218,26 +6620,34 @@
         <v>152</v>
       </c>
       <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2026</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F81" s="11" t="str">
         <f>IF(ISBLANK(E81), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>162</v>
@@ -6246,26 +6656,34 @@
         <v>152</v>
       </c>
       <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2027</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F82" s="11" t="str">
         <f>IF(ISBLANK(E82), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>162</v>
@@ -6274,26 +6692,34 @@
         <v>152</v>
       </c>
       <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S82" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2028</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F83" s="11" t="str">
         <f>IF(ISBLANK(E83), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_12</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>162</v>
@@ -6302,26 +6728,34 @@
         <v>152</v>
       </c>
       <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S83" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2029</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" s="11" t="str">
         <f>IF(ISBLANK(E84), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>162</v>
@@ -6333,26 +6767,34 @@
         <v>158</v>
       </c>
       <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S84" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2030</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F85" s="11" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_4</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>162</v>
@@ -6361,26 +6803,34 @@
         <v>152</v>
       </c>
       <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S85" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T85" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2031</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F86" s="11" t="str">
         <f>IF(ISBLANK(E86), "", Table2[[#This Row],[unique_id]])</f>
         <v>pantry</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>162</v>
@@ -6392,26 +6842,34 @@
         <v>158</v>
       </c>
       <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S86" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2032</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F87" s="11" t="str">
         <f>IF(ISBLANK(E87), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_5</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>162</v>
@@ -6420,26 +6878,34 @@
         <v>152</v>
       </c>
       <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S87" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T87" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2033</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F88" s="11" t="str">
         <f>IF(ISBLANK(E88), "", Table2[[#This Row],[unique_id]])</f>
         <v>office</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>162</v>
@@ -6451,26 +6917,34 @@
         <v>158</v>
       </c>
       <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T88" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2034</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F89" s="11" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_6</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>162</v>
@@ -6479,26 +6953,34 @@
         <v>152</v>
       </c>
       <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2035</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F90" s="11" t="str">
         <f>IF(ISBLANK(E90), "", Table2[[#This Row],[unique_id]])</f>
         <v>bathroom</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>162</v>
@@ -6510,26 +6992,34 @@
         <v>158</v>
       </c>
       <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2036</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F91" s="11" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_7</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>162</v>
@@ -6538,26 +7028,34 @@
         <v>152</v>
       </c>
       <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T91" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2037</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F92" s="11" t="str">
         <f>IF(ISBLANK(E92), "", Table2[[#This Row],[unique_id]])</f>
         <v>ensuite</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>162</v>
@@ -6569,26 +7067,34 @@
         <v>158</v>
       </c>
       <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T92" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2038</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F93" s="11" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_8</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>162</v>
@@ -6597,26 +7103,34 @@
         <v>152</v>
       </c>
       <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T93" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2039</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F94" s="11" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
         <v>wardrobe</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>162</v>
@@ -6628,26 +7142,34 @@
         <v>158</v>
       </c>
       <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T94" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2040</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F95" s="11" t="str">
         <f>IF(ISBLANK(E95), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_9</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>162</v>
@@ -6656,26 +7178,34 @@
         <v>152</v>
       </c>
       <c r="Q95" s="2"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T95" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2041</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F96" s="11" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>162</v>
@@ -6687,26 +7217,34 @@
         <v>158</v>
       </c>
       <c r="Q96" s="2"/>
+      <c r="S96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T96" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2042</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F97" s="11" t="str">
         <f>IF(ISBLANK(E97), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_10</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>162</v>
@@ -6715,13 +7253,21 @@
         <v>152</v>
       </c>
       <c r="Q97" s="2"/>
+      <c r="S97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T97" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2043</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>159</v>
@@ -6734,7 +7280,7 @@
         <v>ada</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>162</v>
@@ -6746,26 +7292,34 @@
         <v>158</v>
       </c>
       <c r="Q98" s="2"/>
+      <c r="S98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T98" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>2044</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F99" s="11" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_11</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>162</v>
@@ -6774,26 +7328,34 @@
         <v>152</v>
       </c>
       <c r="Q99" s="2"/>
+      <c r="S99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T99" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2044</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F100" s="11" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
         <v>lamp</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>162</v>
@@ -6805,26 +7367,34 @@
         <v>158</v>
       </c>
       <c r="Q100" s="2"/>
+      <c r="S100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T100" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2044</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F101" s="11" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_13</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>162</v>
@@ -6833,29 +7403,37 @@
         <v>152</v>
       </c>
       <c r="Q101" s="2"/>
+      <c r="S101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T101" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2080</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F102" s="1" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_tv</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>152</v>
@@ -6864,13 +7442,21 @@
         <v>158</v>
       </c>
       <c r="Q102" s="2"/>
+      <c r="S102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T102" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2100</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>29</v>
@@ -6896,11 +7482,11 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="S103" s="1" t="str">
-        <f>IF(ISBLANK(R103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T103" s="1" t="str">
-        <f>IF(ISBLANK(R103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6935,11 +7521,11 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="S104" s="1" t="str">
-        <f>IF(ISBLANK(R104),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C104), "/", E104, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T104" s="1" t="str">
-        <f>IF(ISBLANK(R104),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C104), "/", E104))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6948,7 +7534,7 @@
         <v>2200</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>29</v>
@@ -6971,11 +7557,11 @@
       </c>
       <c r="Q105" s="2"/>
       <c r="S105" s="1" t="str">
-        <f>IF(ISBLANK(R105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T105" s="1" t="str">
-        <f>IF(ISBLANK(R105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6984,7 +7570,7 @@
         <v>2201</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>29</v>
@@ -7010,11 +7596,11 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="S106" s="1" t="str">
-        <f>IF(ISBLANK(R106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T106" s="1" t="str">
-        <f>IF(ISBLANK(R106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7046,11 +7632,11 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="S107" s="1" t="str">
-        <f>IF(ISBLANK(R107),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C107), "/", E107, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T107" s="1" t="str">
-        <f>IF(ISBLANK(R107),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C107), "/", E107))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7085,11 +7671,11 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="S108" s="1" t="str">
-        <f>IF(ISBLANK(R108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T108" s="1" t="str">
-        <f>IF(ISBLANK(R108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7098,7 +7684,7 @@
         <v>2300</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>29</v>
@@ -7118,11 +7704,11 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="S109" s="1" t="str">
-        <f>IF(ISBLANK(R109),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C109), "/", E109, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T109" s="1" t="str">
-        <f>IF(ISBLANK(R109),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C109), "/", E109))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7131,7 +7717,7 @@
         <v>2301</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>29</v>
@@ -7151,11 +7737,11 @@
       </c>
       <c r="Q110" s="2"/>
       <c r="S110" s="1" t="str">
-        <f>IF(ISBLANK(R110),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C110), "/", E110, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T110" s="1" t="str">
-        <f>IF(ISBLANK(R110),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C110), "/", E110))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7164,7 +7750,7 @@
         <v>2302</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>29</v>
@@ -7184,11 +7770,11 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="S111" s="1" t="str">
-        <f>IF(ISBLANK(R111),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C111), "/", E111, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T111" s="1" t="str">
-        <f>IF(ISBLANK(R111),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C111), "/", E111))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7197,7 +7783,7 @@
         <v>2303</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>29</v>
@@ -7217,11 +7803,11 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="S112" s="1" t="str">
-        <f>IF(ISBLANK(R112),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C112), "/", E112, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T112" s="1" t="str">
-        <f>IF(ISBLANK(R112),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C112), "/", E112))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7230,7 +7816,7 @@
         <v>2304</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>29</v>
@@ -7250,11 +7836,11 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="S113" s="1" t="str">
-        <f>IF(ISBLANK(R113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T113" s="1" t="str">
-        <f>IF(ISBLANK(R113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7263,7 +7849,7 @@
         <v>2400</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>29</v>
@@ -7283,11 +7869,11 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="S114" s="1" t="str">
-        <f>IF(ISBLANK(R114),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C114), "/", E114, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T114" s="1" t="str">
-        <f>IF(ISBLANK(R114),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C114), "/", E114))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7302,7 +7888,7 @@
         <v>29</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F115" s="1" t="str">
         <f>IF(ISBLANK(E115), "", Table2[[#This Row],[unique_id]])</f>
@@ -7336,15 +7922,15 @@
         <v>95</v>
       </c>
       <c r="S115" s="1" t="str">
-        <f>IF(ISBLANK(R115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115, "/config"))</f>
+        <f t="shared" si="2"/>
         <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T115" s="1" t="str">
-        <f>IF(ISBLANK(R115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115))</f>
+        <f t="shared" si="3"/>
         <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V115" s="1">
         <v>1</v>
@@ -7368,7 +7954,7 @@
         <v>31</v>
       </c>
       <c r="AC115" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.2">
@@ -7382,7 +7968,7 @@
         <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F116" s="1" t="str">
         <f>IF(ISBLANK(E116), "", Table2[[#This Row],[unique_id]])</f>
@@ -7404,7 +7990,7 @@
         <v>35</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P116" s="1">
         <v>300</v>
@@ -7416,15 +8002,15 @@
         <v>97</v>
       </c>
       <c r="S116" s="1" t="str">
-        <f>IF(ISBLANK(R116),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C116), "/", E116, "/config"))</f>
+        <f t="shared" si="2"/>
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T116" s="1" t="str">
-        <f>IF(ISBLANK(R116),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C116), "/", E116))</f>
+        <f t="shared" si="3"/>
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V116" s="1">
         <v>1</v>
@@ -7448,7 +8034,7 @@
         <v>31</v>
       </c>
       <c r="AC116" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.2">
@@ -7456,7 +8042,7 @@
         <v>2600</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>185</v>
@@ -7469,7 +8055,7 @@
         <v>ada_home</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>224</v>
@@ -7482,11 +8068,11 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="S117" s="1" t="str">
-        <f>IF(ISBLANK(R117),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C117), "/", E117, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T117" s="1" t="str">
-        <f>IF(ISBLANK(R117),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C117), "/", E117))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7495,7 +8081,7 @@
         <v>2700</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>185</v>
@@ -7508,7 +8094,7 @@
         <v>kitchen_speaker</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>223</v>
@@ -7521,11 +8107,11 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="S118" s="1" t="str">
-        <f>IF(ISBLANK(R118),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C118), "/", E118, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T118" s="1" t="str">
-        <f>IF(ISBLANK(R118),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C118), "/", E118))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7534,7 +8120,7 @@
         <v>2800</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>29</v>
@@ -7547,7 +8133,7 @@
         <v>parents_speaker_battery</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>91</v>
@@ -7557,11 +8143,11 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="S119" s="1" t="str">
-        <f>IF(ISBLANK(R119),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C119), "/", E119, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T119" s="1" t="str">
-        <f>IF(ISBLANK(R119),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C119), "/", E119))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7570,7 +8156,7 @@
         <v>3000</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>188</v>
@@ -7589,18 +8175,18 @@
         <v>225</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="S120" s="1" t="str">
-        <f>IF(ISBLANK(R120),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C120), "/", E120, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T120" s="1" t="str">
-        <f>IF(ISBLANK(R120),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C120), "/", E120))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7609,13 +8195,13 @@
         <v>3001</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F121" s="1" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
@@ -7628,12 +8214,20 @@
         <v>225</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q121" s="2"/>
+      <c r="S121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
@@ -7646,32 +8240,40 @@
         <v>190</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F122" s="1" t="str">
         <f>IF(ISBLANK(E122), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_occupancy</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>226</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q122" s="2"/>
+      <c r="S122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>3051</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>190</v>
@@ -7684,24 +8286,24 @@
         <v>uvc_ada_motion</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>226</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="S123" s="1" t="str">
-        <f>IF(ISBLANK(R123),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C123), "/", E123, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T123" s="1" t="str">
-        <f>IF(ISBLANK(R123),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C123), "/", E123))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7716,62 +8318,70 @@
         <v>190</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F124" s="1" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_occupancy</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>226</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q124" s="2"/>
+      <c r="S124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>3053</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F125" s="1" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
         <v>uvc_edwin_motion</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>226</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="1" t="str">
-        <f>IF(ISBLANK(R125),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C125), "/", E125, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T125" s="1" t="str">
-        <f>IF(ISBLANK(R125),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C125), "/", E125))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7793,18 +8403,26 @@
         <v>parents_occupancy</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>226</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q126" s="2"/>
+      <c r="S126" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
@@ -7817,25 +8435,33 @@
         <v>190</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F127" s="1" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_occupancy</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>226</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q127" s="2"/>
+      <c r="S127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
@@ -7848,25 +8474,33 @@
         <v>190</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F128" s="1" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck2_occupancy</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>226</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q128" s="2"/>
+      <c r="S128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
@@ -7879,32 +8513,40 @@
         <v>190</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F129" s="1" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck1_occupancy</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>226</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q129" s="2"/>
+      <c r="S129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>8000</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>193</v>
@@ -7917,7 +8559,7 @@
         <v>ada_energize</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>162</v>
@@ -7927,11 +8569,11 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="S130" s="1" t="str">
-        <f>IF(ISBLANK(R130),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C130), "/", E130, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T130" s="1" t="str">
-        <f>IF(ISBLANK(R130),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C130), "/", E130))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7953,7 +8595,7 @@
         <v>update_bom_icons</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>91</v>
@@ -7963,11 +8605,11 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="S131" s="1" t="str">
-        <f>IF(ISBLANK(R131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T131" s="1" t="str">
-        <f>IF(ISBLANK(R131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7976,30 +8618,70 @@
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T132" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F133" s="11" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S133" s="1" t="str">
+        <f t="shared" ref="S133:S196" si="4">IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T133" s="1" t="str">
+        <f t="shared" ref="T133:T196" si="5">IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133))</f>
+        <v/>
+      </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F134" s="11" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S134" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T134" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F135" s="11" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S135" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T135" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F136" s="11" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S136" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T136" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F137" s="11" t="str">
@@ -8007,1138 +8689,2658 @@
         <v/>
       </c>
       <c r="G137" s="6"/>
+      <c r="S137" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T137" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F138" s="11" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S138" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T138" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F139" s="1" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S139" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T139" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F140" s="1" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S140" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T140" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F141" s="1" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S141" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T141" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F142" s="1" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S142" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T142" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F143" s="1" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="S143" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T143" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F144" s="1" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S144" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T144" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F145" s="1" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S145" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T145" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F146" s="1" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S146" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T146" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F147" s="1" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S147" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T147" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F148" s="1" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S148" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T148" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F149" s="1" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S149" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T149" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F150" s="1" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S150" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T150" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F151" s="1" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S151" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T151" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F152" s="1" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S152" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T152" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F153" s="1" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S153" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T153" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F154" s="1" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S154" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T154" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F155" s="1" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S155" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T155" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F156" s="1" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S156" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T156" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F157" s="1" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S157" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T157" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F158" s="1" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S158" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T158" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F159" s="1" t="str">
         <f>IF(ISBLANK(E159), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S159" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T159" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F160" s="1" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S160" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T160" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F161" s="1" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S161" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T161" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F162" s="1" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S162" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T162" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F163" s="1" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S163" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T163" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F164" s="1" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S164" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T164" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F165" s="1" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S165" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T165" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F166" s="1" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S166" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T166" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F167" s="1" t="str">
         <f>IF(ISBLANK(E167), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S167" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T167" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F168" s="1" t="str">
         <f>IF(ISBLANK(E168), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S168" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T168" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F169" s="1" t="str">
         <f>IF(ISBLANK(E169), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S169" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T169" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F170" s="1" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S170" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T170" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F171" s="1" t="str">
         <f>IF(ISBLANK(E171), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S171" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T171" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F172" s="1" t="str">
         <f>IF(ISBLANK(E172), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S172" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T172" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F173" s="1" t="str">
         <f>IF(ISBLANK(E173), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S173" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T173" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F174" s="1" t="str">
         <f>IF(ISBLANK(E174), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S174" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T174" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F175" s="1" t="str">
         <f>IF(ISBLANK(E175), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S175" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T175" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F176" s="1" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S176" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T176" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F177" s="1" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S177" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T177" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F178" s="1" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S178" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T178" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F179" s="1" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S179" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T179" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F180" s="1" t="str">
         <f>IF(ISBLANK(E180), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S180" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T180" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F181" s="1" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S181" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T181" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F182" s="1" t="str">
         <f>IF(ISBLANK(E182), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S182" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T182" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F183" s="1" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S183" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T183" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F184" s="1" t="str">
         <f>IF(ISBLANK(E184), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S184" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T184" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F185" s="1" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S185" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T185" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F186" s="1" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S186" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T186" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F187" s="1" t="str">
         <f>IF(ISBLANK(E187), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S187" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T187" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F188" s="1" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S188" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T188" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F189" s="1" t="str">
         <f>IF(ISBLANK(E189), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S189" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T189" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F190" s="1" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S190" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T190" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F191" s="1" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S191" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T191" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F192" s="1" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S192" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T192" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F193" s="1" t="str">
         <f>IF(ISBLANK(E193), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S193" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T193" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F194" s="1" t="str">
         <f>IF(ISBLANK(E194), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S194" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T194" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F195" s="1" t="str">
         <f>IF(ISBLANK(E195), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S195" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T195" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F196" s="1" t="str">
         <f>IF(ISBLANK(E196), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S196" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T196" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F197" s="1" t="str">
         <f>IF(ISBLANK(E197), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S197" s="1" t="str">
+        <f t="shared" ref="S197:S260" si="6">IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T197" s="1" t="str">
+        <f t="shared" ref="T197:T260" si="7">IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F198" s="1" t="str">
         <f>IF(ISBLANK(E198), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S198" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T198" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F199" s="1" t="str">
         <f>IF(ISBLANK(E199), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S199" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T199" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F200" s="1" t="str">
         <f>IF(ISBLANK(E200), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S200" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T200" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F201" s="1" t="str">
         <f>IF(ISBLANK(E201), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S201" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T201" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F202" s="1" t="str">
         <f>IF(ISBLANK(E202), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S202" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T202" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F203" s="1" t="str">
         <f>IF(ISBLANK(E203), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S203" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T203" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F204" s="1" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S204" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T204" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F205" s="1" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S205" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T205" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F206" s="1" t="str">
         <f>IF(ISBLANK(E206), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S206" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T206" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F207" s="1" t="str">
         <f>IF(ISBLANK(E207), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S207" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T207" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F208" s="1" t="str">
         <f>IF(ISBLANK(E208), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S208" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T208" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F209" s="1" t="str">
         <f>IF(ISBLANK(E209), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S209" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T209" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F210" s="1" t="str">
         <f>IF(ISBLANK(E210), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S210" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T210" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F211" s="1" t="str">
         <f>IF(ISBLANK(E211), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S211" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T211" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F212" s="1" t="str">
         <f>IF(ISBLANK(E212), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S212" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T212" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F213" s="1" t="str">
         <f>IF(ISBLANK(E213), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S213" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T213" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F214" s="1" t="str">
         <f>IF(ISBLANK(E214), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S214" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T214" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F215" s="1" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S215" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T215" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F216" s="1" t="str">
         <f>IF(ISBLANK(E216), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S216" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T216" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F217" s="1" t="str">
         <f>IF(ISBLANK(E217), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S217" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T217" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F218" s="1" t="str">
         <f>IF(ISBLANK(E218), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S218" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T218" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F219" s="1" t="str">
         <f>IF(ISBLANK(E219), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S219" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T219" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F220" s="1" t="str">
         <f>IF(ISBLANK(E220), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S220" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T220" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F221" s="1" t="str">
         <f>IF(ISBLANK(E221), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S221" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T221" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F222" s="1" t="str">
         <f>IF(ISBLANK(E222), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S222" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T222" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F223" s="1" t="str">
         <f>IF(ISBLANK(E223), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S223" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T223" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F224" s="1" t="str">
         <f>IF(ISBLANK(E224), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S224" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T224" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F225" s="1" t="str">
         <f>IF(ISBLANK(E225), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S225" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T225" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F226" s="1" t="str">
         <f>IF(ISBLANK(E226), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S226" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T226" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F227" s="1" t="str">
         <f>IF(ISBLANK(E227), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S227" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T227" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F228" s="1" t="str">
         <f>IF(ISBLANK(E228), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S228" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T228" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F229" s="1" t="str">
         <f>IF(ISBLANK(E229), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S229" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T229" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F230" s="1" t="str">
         <f>IF(ISBLANK(E230), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S230" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T230" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F231" s="1" t="str">
         <f>IF(ISBLANK(E231), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S231" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T231" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F232" s="1" t="str">
         <f>IF(ISBLANK(E232), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S232" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T232" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F233" s="1" t="str">
         <f>IF(ISBLANK(E233), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S233" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T233" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F234" s="1" t="str">
         <f>IF(ISBLANK(E234), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S234" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T234" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F235" s="1" t="str">
         <f>IF(ISBLANK(E235), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S235" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T235" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F236" s="1" t="str">
         <f>IF(ISBLANK(E236), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S236" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T236" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F237" s="1" t="str">
         <f>IF(ISBLANK(E237), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S237" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T237" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F238" s="1" t="str">
         <f>IF(ISBLANK(E238), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S238" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T238" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F239" s="1" t="str">
         <f>IF(ISBLANK(E239), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S239" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T239" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F240" s="1" t="str">
         <f>IF(ISBLANK(E240), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S240" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T240" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F241" s="1" t="str">
         <f>IF(ISBLANK(E241), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S241" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T241" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F242" s="1" t="str">
         <f>IF(ISBLANK(E242), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S242" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T242" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F243" s="1" t="str">
         <f>IF(ISBLANK(E243), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S243" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T243" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F244" s="1" t="str">
         <f>IF(ISBLANK(E244), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S244" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T244" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F245" s="1" t="str">
         <f>IF(ISBLANK(E245), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S245" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T245" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F246" s="1" t="str">
         <f>IF(ISBLANK(E246), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S246" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T246" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F247" s="1" t="str">
         <f>IF(ISBLANK(E247), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S247" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T247" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F248" s="1" t="str">
         <f>IF(ISBLANK(E248), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S248" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T248" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F249" s="1" t="str">
         <f>IF(ISBLANK(E249), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S249" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T249" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F250" s="1" t="str">
         <f>IF(ISBLANK(E250), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S250" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T250" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F251" s="1" t="str">
         <f>IF(ISBLANK(E251), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S251" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T251" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F252" s="1" t="str">
         <f>IF(ISBLANK(E252), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S252" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T252" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F253" s="1" t="str">
         <f>IF(ISBLANK(E253), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S253" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T253" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F254" s="1" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S254" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T254" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F255" s="1" t="str">
         <f>IF(ISBLANK(E255), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S255" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T255" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F256" s="1" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S256" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T256" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F257" s="1" t="str">
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S257" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T257" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F258" s="1" t="str">
         <f>IF(ISBLANK(E258), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S258" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T258" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F259" s="1" t="str">
         <f>IF(ISBLANK(E259), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S259" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T259" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F260" s="1" t="str">
         <f>IF(ISBLANK(E260), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S260" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T260" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F261" s="1" t="str">
         <f>IF(ISBLANK(E261), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S261" s="1" t="str">
+        <f t="shared" ref="S261:S324" si="8">IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T261" s="1" t="str">
+        <f t="shared" ref="T261:T324" si="9">IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F262" s="1" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S262" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T262" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F263" s="1" t="str">
         <f>IF(ISBLANK(E263), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S263" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T263" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F264" s="1" t="str">
         <f>IF(ISBLANK(E264), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S264" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T264" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F265" s="1" t="str">
         <f>IF(ISBLANK(E265), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S265" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T265" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F266" s="1" t="str">
         <f>IF(ISBLANK(E266), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S266" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T266" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F267" s="1" t="str">
         <f>IF(ISBLANK(E267), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S267" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T267" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F268" s="1" t="str">
         <f>IF(ISBLANK(E268), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S268" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T268" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F269" s="1" t="str">
         <f>IF(ISBLANK(E269), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S269" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T269" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F270" s="1" t="str">
         <f>IF(ISBLANK(E270), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S270" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T270" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F271" s="1" t="str">
         <f>IF(ISBLANK(E271), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S271" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T271" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F272" s="1" t="str">
         <f>IF(ISBLANK(E272), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S272" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T272" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F273" s="1" t="str">
         <f>IF(ISBLANK(E273), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S273" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T273" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F274" s="1" t="str">
         <f>IF(ISBLANK(E274), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S274" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T274" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F275" s="1" t="str">
         <f>IF(ISBLANK(E275), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S275" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T275" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F276" s="1" t="str">
         <f>IF(ISBLANK(E276), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S276" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T276" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F277" s="1" t="str">
         <f>IF(ISBLANK(E277), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S277" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T277" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F278" s="1" t="str">
         <f>IF(ISBLANK(E278), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S278" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T278" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F279" s="1" t="str">
         <f>IF(ISBLANK(E279), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S279" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T279" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F280" s="1" t="str">
         <f>IF(ISBLANK(E280), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S280" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T280" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F281" s="1" t="str">
         <f>IF(ISBLANK(E281), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S281" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T281" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F282" s="1" t="str">
         <f>IF(ISBLANK(E282), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S282" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T282" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F283" s="1" t="str">
         <f>IF(ISBLANK(E283), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S283" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T283" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F284" s="1" t="str">
         <f>IF(ISBLANK(E284), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S284" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T284" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F285" s="1" t="str">
         <f>IF(ISBLANK(E285), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S285" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T285" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F286" s="1" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S286" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T286" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F287" s="1" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S287" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T287" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F288" s="1" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S288" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T288" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F289" s="1" t="str">
         <f>IF(ISBLANK(E289), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S289" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T289" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F290" s="1" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S290" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T290" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F291" s="1" t="str">
         <f>IF(ISBLANK(E291), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S291" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T291" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F292" s="1" t="str">
         <f>IF(ISBLANK(E292), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S292" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T292" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F293" s="1" t="str">
         <f>IF(ISBLANK(E293), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S293" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T293" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F294" s="1" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S294" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T294" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F295" s="1" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S295" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T295" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F296" s="1" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S296" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T296" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F297" s="1" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S297" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T297" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F298" s="1" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S298" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T298" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F299" s="1" t="str">
         <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S299" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T299" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F300" s="1" t="str">
         <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S300" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T300" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F301" s="1" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S301" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T301" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F302" s="1" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S302" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T302" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F303" s="1" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S303" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T303" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F304" s="1" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S304" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T304" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F305" s="1" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S305" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T305" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F306" s="1" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S306" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T306" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F307" s="1" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S307" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T307" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F308" s="1" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S308" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T308" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F309" s="1" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S309" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T309" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F310" s="1" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S310" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T310" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F311" s="1" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S311" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T311" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F312" s="1" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S312" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T312" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F313" s="1" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S313" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T313" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F314" s="1" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S314" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T314" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F315" s="1" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S315" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T315" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F316" s="1" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S316" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T316" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F317" s="1" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S317" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T317" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F318" s="1" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S318" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T318" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F319" s="1" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S319" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T319" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F320" s="1" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S320" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T320" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F321" s="1" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S321" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T321" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F322" s="1" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S322" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T322" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F323" s="1" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S323" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T323" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F324" s="1" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="325" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S324" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T324" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F325" s="1" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-    </row>
-    <row r="326" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="S325" s="1" t="str">
+        <f t="shared" ref="S325:S326" si="10">IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T325" s="1" t="str">
+        <f t="shared" ref="T325:T326" si="11">IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F326" s="1" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S326" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T326" s="1" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9166,11 +11368,12 @@
     <hyperlink ref="AC116" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
     <hyperlink ref="AC49" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="AC50" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
+    <hyperlink ref="AC15" r:id="rId19" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438F5A2-4D29-C847-8431-02AE2E86FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB76922-DB76-5F49-A7AD-891229AA69B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="387">
   <si>
     <t>index</t>
   </si>
@@ -1148,6 +1148,51 @@
   </si>
   <si>
     <t>netatmo_laundry_co2</t>
+  </si>
+  <si>
+    <t>netatmo_ada_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_edwin_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_parents_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_office_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_kitchen_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_office_pantry_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_office_lounge_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_office_dining_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_laundry_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_office_basement_humidity</t>
+  </si>
+  <si>
+    <t>netatmo_edwin_noise</t>
+  </si>
+  <si>
+    <t>netatmo_parents_noise</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_office_noise</t>
+  </si>
+  <si>
+    <t>netatmo_bertram_2_kitchen_noise</t>
+  </si>
+  <si>
+    <t>netatmo_laundry_noise</t>
   </si>
 </sst>
 </file>
@@ -1739,10 +1784,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC326" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
-  <autoFilter ref="A3:AC326" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC326">
-    <sortCondition ref="A3:A326"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC341" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A3:AC341" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC341">
+    <sortCondition ref="A3:A341"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="31"/>
@@ -2082,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC326"/>
+  <dimension ref="A1:AC341"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2505,11 +2550,11 @@
       </c>
       <c r="Q5" s="2"/>
       <c r="S5" s="1" t="str">
-        <f t="shared" ref="S5:S68" si="0">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5, "/config"))</f>
+        <f t="shared" ref="S5:S83" si="0">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5, "/config"))</f>
         <v/>
       </c>
       <c r="T5" s="1" t="str">
-        <f t="shared" ref="T5:T68" si="1">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5))</f>
+        <f t="shared" ref="T5:T83" si="1">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5))</f>
         <v/>
       </c>
       <c r="AC5" s="7"/>
@@ -3854,6 +3899,9 @@
       <c r="A31" s="1">
         <v>1100</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
@@ -3937,21 +3985,24 @@
       <c r="A32" s="1">
         <v>1101</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1" t="str">
+        <v>372</v>
+      </c>
+      <c r="F32" s="11" t="str">
         <f>IF(ISBLANK(E32), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_humidity</v>
+        <v>netatmo_ada_humidity</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
@@ -3960,2223 +4011,2361 @@
         <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="S32" s="1" t="str">
+        <f>IF(ISBLANK(R32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C32), "/", E32, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T32" s="1" t="str">
+        <f>IF(ISBLANK(R32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C32), "/", E32))</f>
+        <v/>
+      </c>
+      <c r="AC32" s="7"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="11" t="str">
+        <f>IF(ISBLANK(E33), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_edwin_humidity</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="S33" s="1" t="str">
+        <f>IF(ISBLANK(R33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C33), "/", E33, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T33" s="1" t="str">
+        <f>IF(ISBLANK(R33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C33), "/", E33))</f>
+        <v/>
+      </c>
+      <c r="AC33" s="7"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="11" t="str">
+        <f>IF(ISBLANK(E34), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_parents_humidity</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="S34" s="1" t="str">
+        <f>IF(ISBLANK(R34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C34), "/", E34, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T34" s="1" t="str">
+        <f>IF(ISBLANK(R34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C34), "/", E34))</f>
+        <v/>
+      </c>
+      <c r="AC34" s="7"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F35" s="11" t="str">
+        <f>IF(ISBLANK(E35), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_office_humidity</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="Q35" s="2"/>
+      <c r="S35" s="1" t="str">
+        <f>IF(ISBLANK(R35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T35" s="1" t="str">
+        <f>IF(ISBLANK(R35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="7"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F36" s="11" t="str">
+        <f>IF(ISBLANK(E36), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_kitchen_humidity</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="S36" s="1" t="str">
+        <f>IF(ISBLANK(R36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T36" s="1" t="str">
+        <f>IF(ISBLANK(R36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36))</f>
+        <v/>
+      </c>
+      <c r="AC36" s="7"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f>IF(ISBLANK(E37), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_office_pantry_humidity</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="S37" s="1" t="str">
+        <f>IF(ISBLANK(R37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C37), "/", E37, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f>IF(ISBLANK(R37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C37), "/", E37))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="7"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F38" s="11" t="str">
+        <f>IF(ISBLANK(E38), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_office_lounge_humidity</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="S38" s="1" t="str">
+        <f>IF(ISBLANK(R38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C38), "/", E38, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f>IF(ISBLANK(R38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C38), "/", E38))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="7"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F39" s="11" t="str">
+        <f>IF(ISBLANK(E39), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_office_dining_humidity</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="S39" s="1" t="str">
+        <f>IF(ISBLANK(R39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C39), "/", E39, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T39" s="1" t="str">
+        <f>IF(ISBLANK(R39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C39), "/", E39))</f>
+        <v/>
+      </c>
+      <c r="AC39" s="7"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F40" s="11" t="str">
+        <f>IF(ISBLANK(E40), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_laundry_humidity</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="S40" s="1" t="str">
+        <f>IF(ISBLANK(R40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C40), "/", E40, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T40" s="1" t="str">
+        <f>IF(ISBLANK(R40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C40), "/", E40))</f>
+        <v/>
+      </c>
+      <c r="AC40" s="7"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F41" s="11" t="str">
+        <f>IF(ISBLANK(E41), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_office_basement_humidity</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="S41" s="1" t="str">
+        <f>IF(ISBLANK(R41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C41), "/", E41, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T41" s="1" t="str">
+        <f>IF(ISBLANK(R41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C41), "/", E41))</f>
+        <v/>
+      </c>
+      <c r="AC41" s="7"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>IF(ISBLANK(E42), "", Table2[[#This Row],[unique_id]])</f>
+        <v>rack_humidity</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P42" s="1">
         <v>300</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S32" s="1" t="str">
+      <c r="S42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/rack_humidity/config</v>
       </c>
-      <c r="T32" s="1" t="str">
+      <c r="T42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U42" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V42" s="1">
         <v>1</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X42" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Y42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="Z42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AA42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AB42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC32" s="7" t="s">
+      <c r="AC42" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>1150</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f>IF(ISBLANK(E33), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F43" s="1" t="str">
+        <f>IF(ISBLANK(E43), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_ada_noise</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q33" s="2"/>
-      <c r="S33" s="1" t="str">
+      <c r="Q43" s="2"/>
+      <c r="S43" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T33" s="1" t="str">
+      <c r="T43" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F44" s="11" t="str">
+        <f>IF(ISBLANK(E44), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_edwin_noise</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="S44" s="1" t="str">
+        <f>IF(ISBLANK(R44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C44), "/", E44, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T44" s="1" t="str">
+        <f>IF(ISBLANK(R44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C44), "/", E44))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F45" s="11" t="str">
+        <f>IF(ISBLANK(E45), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_parents_noise</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="S45" s="1" t="str">
+        <f>IF(ISBLANK(R45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C45), "/", E45, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T45" s="1" t="str">
+        <f>IF(ISBLANK(R45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C45), "/", E45))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46" s="11" t="str">
+        <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_office_noise</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="S46" s="1" t="str">
+        <f>IF(ISBLANK(R46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T46" s="1" t="str">
+        <f>IF(ISBLANK(R46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F47" s="11" t="str">
+        <f>IF(ISBLANK(E47), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_bertram_2_kitchen_noise</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="S47" s="1" t="str">
+        <f>IF(ISBLANK(R47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C47), "/", E47, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T47" s="1" t="str">
+        <f>IF(ISBLANK(R47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C47), "/", E47))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F48" s="11" t="str">
+        <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
+        <v>netatmo_laundry_noise</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="S48" s="1" t="str">
+        <f>IF(ISBLANK(R48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C48), "/", E48, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T48" s="1" t="str">
+        <f>IF(ISBLANK(R48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C48), "/", E48))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f>IF(ISBLANK(E34), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F49" s="1" t="str">
+        <f>IF(ISBLANK(E49), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_cloud_base</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P49" s="1">
         <v>300</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S34" s="1" t="str">
+      <c r="S49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_cloud_base/config</v>
       </c>
-      <c r="T34" s="1" t="str">
+      <c r="T49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U49" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V49" s="1">
         <v>1</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X49" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Y49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AA49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AB49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC34" s="7" t="s">
+      <c r="AC49" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>1301</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f>IF(ISBLANK(E35), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F50" s="1" t="str">
+        <f>IF(ISBLANK(E50), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_max_solar_radiation</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P50" s="1">
         <v>300</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S35" s="1" t="str">
+      <c r="S50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation/config</v>
       </c>
-      <c r="T35" s="1" t="str">
+      <c r="T50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="U50" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V50" s="1">
         <v>1</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X50" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Y50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Z50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AA50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AB50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC35" s="7" t="s">
+      <c r="AC50" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>1400</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f>IF(ISBLANK(E36), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F51" s="1" t="str">
+        <f>IF(ISBLANK(E51), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_barometer_pressure</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P51" s="1">
         <v>300</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S36" s="1" t="str">
+      <c r="S51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure/config</v>
       </c>
-      <c r="T36" s="1" t="str">
+      <c r="T51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V51" s="1">
         <v>1</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X51" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Y51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AA51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AB51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC36" s="7" t="s">
+      <c r="AC51" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>1401</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="1" t="str">
-        <f>IF(ISBLANK(E37), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F52" s="1" t="str">
+        <f>IF(ISBLANK(E52), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_pressure</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P52" s="1">
         <v>300</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S37" s="1" t="str">
+      <c r="S52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_pressure/config</v>
       </c>
-      <c r="T37" s="1" t="str">
+      <c r="T52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V52" s="1">
         <v>1</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X52" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Y52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="Z52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AA52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC37" s="7" t="s">
+      <c r="AC52" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>1450</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="1" t="str">
-        <f>IF(ISBLANK(E38), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F53" s="1" t="str">
+        <f>IF(ISBLANK(E53), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_direction</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P53" s="1">
         <v>300</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S38" s="1" t="str">
+      <c r="S53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_direction/config</v>
       </c>
-      <c r="T38" s="1" t="str">
+      <c r="T53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="U53" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V53" s="1">
         <v>1</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X53" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Y53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="Z53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA38" s="1" t="s">
+      <c r="AA53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AB53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC38" s="7" t="s">
+      <c r="AC53" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>1451</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="1" t="str">
-        <f>IF(ISBLANK(E39), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F54" s="1" t="str">
+        <f>IF(ISBLANK(E54), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_gust_direction</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P54" s="1">
         <v>300</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="S39" s="1" t="str">
+      <c r="S54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction/config</v>
       </c>
-      <c r="T39" s="1" t="str">
+      <c r="T54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V54" s="1">
         <v>1</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X54" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA39" s="1" t="s">
+      <c r="AA54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB39" s="1" t="s">
+      <c r="AB54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC39" s="7" t="s">
+      <c r="AC54" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>1452</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="1" t="str">
-        <f>IF(ISBLANK(E40), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F55" s="1" t="str">
+        <f>IF(ISBLANK(E55), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_gust_speed</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P55" s="1">
         <v>300</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="Q55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S40" s="1" t="str">
+      <c r="S55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed/config</v>
       </c>
-      <c r="T40" s="1" t="str">
+      <c r="T55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U55" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V55" s="1">
         <v>1</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X55" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Y55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="Z55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA40" s="1" t="s">
+      <c r="AA55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AB55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC40" s="7" t="s">
+      <c r="AC55" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>1453</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="1" t="str">
-        <f>IF(ISBLANK(E41), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F56" s="1" t="str">
+        <f>IF(ISBLANK(E56), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_speed_10min</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P56" s="1">
         <v>300</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S41" s="1" t="str">
+      <c r="S56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min/config</v>
       </c>
-      <c r="T41" s="1" t="str">
+      <c r="T56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U56" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V56" s="1">
         <v>1</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X56" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Y56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="Z56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AB56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC41" s="7" t="s">
+      <c r="AC56" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>1454</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1304</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="1" t="str">
-        <f>IF(ISBLANK(E42), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F57" s="1" t="str">
+        <f>IF(ISBLANK(E57), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_samples</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P57" s="1">
         <v>300</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="S42" s="1" t="str">
+      <c r="S57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_samples/config</v>
       </c>
-      <c r="T42" s="1" t="str">
+      <c r="T57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="U57" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V57" s="1">
         <v>1</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X57" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AA57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AB57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC42" s="7" t="s">
+      <c r="AC57" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>1455</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>1305</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="1" t="str">
-        <f>IF(ISBLANK(E43), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F58" s="1" t="str">
+        <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_run</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P58" s="1">
         <v>300</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S43" s="1" t="str">
+      <c r="S58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_run/config</v>
       </c>
-      <c r="T43" s="1" t="str">
+      <c r="T58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="U58" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="V43" s="1">
+      <c r="V58" s="1">
         <v>1</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X58" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Y58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="Z58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AA58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AB58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC43" s="7" t="s">
+      <c r="AC58" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>1456</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1306</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="1" t="str">
-        <f>IF(ISBLANK(E44), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F59" s="1" t="str">
+        <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_speed</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M59" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P59" s="1">
         <v>300</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="Q59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S44" s="1" t="str">
+      <c r="S59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed/config</v>
       </c>
-      <c r="T44" s="1" t="str">
+      <c r="T59" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="U59" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V59" s="1">
         <v>1</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X59" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Y59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="Z59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AA59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AB59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC44" s="7" t="s">
+      <c r="AC59" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="1" t="str">
-        <f>IF(ISBLANK(E45), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F60" s="1" t="str">
+        <f>IF(ISBLANK(E60), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_rain_rate</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P60" s="1">
         <v>300</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S45" s="1" t="str">
+      <c r="S60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_rain_rate/config</v>
       </c>
-      <c r="T45" s="1" t="str">
+      <c r="T60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="U60" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V45" s="1">
+      <c r="V60" s="1">
         <v>1</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X60" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Y60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="Z60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AA60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AB60" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC45" s="7" t="s">
+      <c r="AC60" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>1501</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>1351</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="1" t="str">
-        <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F61" s="1" t="str">
+        <f>IF(ISBLANK(E61), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_hourly_rain</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P61" s="1">
         <v>300</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S46" s="1" t="str">
+      <c r="S61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_hourly_rain/config</v>
       </c>
-      <c r="T46" s="1" t="str">
+      <c r="T61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="U61" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V61" s="1">
         <v>1</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X61" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y46" s="1" t="s">
+      <c r="Y61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="Z61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AA61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AB61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC46" s="7" t="s">
+      <c r="AC61" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>1502</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>1352</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f>IF(ISBLANK(E47), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F62" s="1" t="str">
+        <f>IF(ISBLANK(E62), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_daily_rain</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P62" s="1">
         <v>300</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S47" s="1" t="str">
+      <c r="S62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_daily_rain/config</v>
       </c>
-      <c r="T47" s="1" t="str">
+      <c r="T62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="U62" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V47" s="1">
+      <c r="V62" s="1">
         <v>1</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X62" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y47" s="1" t="s">
+      <c r="Y62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z47" s="1" t="s">
+      <c r="Z62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AA62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC47" s="7" t="s">
+      <c r="AC62" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>1503</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>1353</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F63" s="1" t="str">
+        <f>IF(ISBLANK(E63), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_24hour_rain</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P63" s="1">
         <v>300</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S48" s="1" t="str">
+      <c r="S63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_24hour_rain/config</v>
       </c>
-      <c r="T48" s="1" t="str">
+      <c r="T63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="U63" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V48" s="1">
+      <c r="V63" s="1">
         <v>1</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X63" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y48" s="1" t="s">
+      <c r="Y63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="Z63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA48" s="1" t="s">
+      <c r="AA63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC48" s="7" t="s">
+      <c r="AC63" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>1504</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>1354</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="11" t="str">
-        <f>IF(ISBLANK(E49), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F64" s="11" t="str">
+        <f>IF(ISBLANK(E64), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_monthly_rain</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P64" s="1">
         <v>300</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S49" s="1" t="str">
+      <c r="S64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
       </c>
-      <c r="T49" s="1" t="str">
+      <c r="T64" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="U64" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V49" s="1">
+      <c r="V64" s="1">
         <v>1</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X49" s="1">
+      <c r="X64" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y49" s="1" t="s">
+      <c r="Y64" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z49" s="1" t="s">
+      <c r="Z64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA49" s="1" t="s">
+      <c r="AA64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AB64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC49" s="7" t="s">
+      <c r="AC64" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>1504</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>1355</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="11" t="str">
-        <f>IF(ISBLANK(E50), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F65" s="11" t="str">
+        <f>IF(ISBLANK(E65), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_yearly_rain</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P65" s="1">
         <v>300</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="R65" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="S50" s="1" t="str">
+      <c r="S65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
       </c>
-      <c r="T50" s="1" t="str">
+      <c r="T65" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="U65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V65" s="1">
         <v>1</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X65" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y50" s="1" t="s">
+      <c r="Y65" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="Z65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AA65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AB65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC50" s="7" t="s">
+      <c r="AC65" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>1505</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1356</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="1" t="str">
-        <f>IF(ISBLANK(E51), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F66" s="1" t="str">
+        <f>IF(ISBLANK(E66), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_rain</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P66" s="1">
         <v>300</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S51" s="1" t="str">
+      <c r="S66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_rain/config</v>
       </c>
-      <c r="T51" s="1" t="str">
+      <c r="T66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
-      <c r="U51" s="1" t="s">
+      <c r="U66" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V51" s="1">
+      <c r="V66" s="1">
         <v>1</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X66" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y51" s="1" t="s">
+      <c r="Y66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="Z66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AA66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AB66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC51" s="7" t="s">
+      <c r="AC66" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>1506</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>1357</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="1" t="str">
-        <f>IF(ISBLANK(E52), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F67" s="1" t="str">
+        <f>IF(ISBLANK(E67), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_storm_rain</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P67" s="1">
         <v>300</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S52" s="1" t="str">
+      <c r="S67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
       </c>
-      <c r="T52" s="1" t="str">
+      <c r="T67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="U67" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="V52" s="1">
+      <c r="V67" s="1">
         <v>1</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="W67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X52" s="1">
+      <c r="X67" s="1">
         <v>3.15</v>
       </c>
-      <c r="Y52" s="1" t="s">
+      <c r="Y67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z52" s="1" t="s">
+      <c r="Z67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA52" s="1" t="s">
+      <c r="AA67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AB67" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC52" s="7" t="s">
+      <c r="AC67" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>1800</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="1" t="str">
-        <f>IF(ISBLANK(E53), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F68" s="1" t="str">
+        <f>IF(ISBLANK(E68), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="S53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>1900</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="1" t="str">
-        <f>IF(ISBLANK(E54), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="S54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <f>IF(ISBLANK(E55), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="S55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="1" t="str">
-        <f>IF(ISBLANK(E56), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_light</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="S56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>2002</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F57" s="11" t="str">
-        <f>IF(ISBLANK(E57), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_light</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="S57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>2003</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F58" s="11" t="str">
-        <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_light</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M58" s="6"/>
-      <c r="Q58" s="2"/>
-      <c r="S58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F59" s="11" t="str">
-        <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hallway</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="S59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60" s="11" t="str">
-        <f>IF(ISBLANK(E60), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_2</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="S60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F61" s="11" t="str">
-        <f>IF(ISBLANK(E61), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_3</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="S61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F62" s="11" t="str">
-        <f>IF(ISBLANK(E62), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_4</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="S62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F63" s="11" t="str">
-        <f>IF(ISBLANK(E63), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_5</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="S63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F64" s="11" t="str">
-        <f>IF(ISBLANK(E64), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="S64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F65" s="11" t="str">
-        <f>IF(ISBLANK(E65), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_6</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="S65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F66" s="11" t="str">
-        <f>IF(ISBLANK(E66), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_7</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="S66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F67" s="11" t="str">
-        <f>IF(ISBLANK(E67), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_8</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="S67" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F68" s="11" t="str">
-        <f>IF(ISBLANK(E68), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_9</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>152</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="S68" s="1" t="str">
@@ -6188,45 +6377,48 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>2014</v>
+        <v>1900</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F69" s="11" t="str">
+        <v>155</v>
+      </c>
+      <c r="F69" s="1" t="str">
         <f>IF(ISBLANK(E69), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_10</v>
+        <v>kitchen_coffee</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J69" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="1" t="str">
-        <f t="shared" ref="S69:S132" si="2">IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T69" s="1" t="str">
-        <f t="shared" ref="T69:T132" si="3">IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>247</v>
@@ -6235,11 +6427,11 @@
         <v>159</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F70" s="11" t="str">
+        <v>160</v>
+      </c>
+      <c r="F70" s="1" t="str">
         <f>IF(ISBLANK(E70), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_11</v>
+        <v>dining</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>161</v>
@@ -6250,35 +6442,38 @@
       <c r="I70" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J70" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q70" s="2"/>
       <c r="S70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F71" s="11" t="str">
+        <v>163</v>
+      </c>
+      <c r="F71" s="1" t="str">
         <f>IF(ISBLANK(E71), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge</v>
+        <v>ada_light</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>335</v>
+        <v>164</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>162</v>
@@ -6291,33 +6486,33 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="S71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F72" s="11" t="str">
         <f>IF(ISBLANK(E72), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_12</v>
+        <v>edwin_light</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>162</v>
@@ -6325,35 +6520,38 @@
       <c r="I72" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J72" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q72" s="2"/>
       <c r="S72" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T72" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="F73" s="11" t="str">
         <f>IF(ISBLANK(E73), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_13</v>
+        <v>lounge_light</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>162</v>
@@ -6361,19 +6559,23 @@
       <c r="I73" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M73" s="6"/>
       <c r="Q73" s="2"/>
       <c r="S73" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>247</v>
@@ -6382,14 +6584,14 @@
         <v>159</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="F74" s="11" t="str">
         <f>IF(ISBLANK(E74), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_14</v>
+        <v>hallway</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>162</v>
@@ -6397,19 +6599,22 @@
       <c r="I74" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J74" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T74" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>247</v>
@@ -6418,14 +6623,14 @@
         <v>159</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="F75" s="11" t="str">
         <f>IF(ISBLANK(E75), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents</v>
+        <v>hue_color_candle_2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>162</v>
@@ -6433,22 +6638,19 @@
       <c r="I75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q75" s="2"/>
       <c r="S75" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T75" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>247</v>
@@ -6457,14 +6659,14 @@
         <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F76" s="11" t="str">
         <f>IF(ISBLANK(E76), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_15</v>
+        <v>hue_color_candle_3</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>162</v>
@@ -6474,17 +6676,17 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T76" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>247</v>
@@ -6493,14 +6695,14 @@
         <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F77" s="11" t="str">
         <f>IF(ISBLANK(E77), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16</v>
+        <v>hue_color_candle_4</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>162</v>
@@ -6510,17 +6712,17 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="S77" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T77" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>247</v>
@@ -6529,14 +6731,14 @@
         <v>159</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F78" s="11" t="str">
         <f>IF(ISBLANK(E78), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_17</v>
+        <v>hue_color_candle_5</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>162</v>
@@ -6546,17 +6748,17 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="S78" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T78" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>247</v>
@@ -6565,14 +6767,14 @@
         <v>159</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>326</v>
+        <v>160</v>
       </c>
       <c r="F79" s="11" t="str">
         <f>IF(ISBLANK(E79), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen</v>
+        <v>dining</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>162</v>
@@ -6585,17 +6787,17 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="S79" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>247</v>
@@ -6604,14 +6806,14 @@
         <v>159</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F80" s="11" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_1</v>
+        <v>hue_color_candle_6</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>162</v>
@@ -6621,17 +6823,17 @@
       </c>
       <c r="Q80" s="2"/>
       <c r="S80" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2026</v>
+        <v>2011</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>247</v>
@@ -6640,14 +6842,14 @@
         <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F81" s="11" t="str">
         <f>IF(ISBLANK(E81), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_2</v>
+        <v>hue_color_candle_7</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>162</v>
@@ -6657,17 +6859,17 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="S81" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T81" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2027</v>
+        <v>2012</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>247</v>
@@ -6676,14 +6878,14 @@
         <v>159</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F82" s="11" t="str">
         <f>IF(ISBLANK(E82), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_3</v>
+        <v>hue_color_candle_8</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>162</v>
@@ -6693,17 +6895,17 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="S82" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T82" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2028</v>
+        <v>2013</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>247</v>
@@ -6712,14 +6914,14 @@
         <v>159</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="F83" s="11" t="str">
         <f>IF(ISBLANK(E83), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_12</v>
+        <v>hue_color_candle_9</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>162</v>
@@ -6729,17 +6931,17 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="S83" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T83" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>2029</v>
+        <v>2014</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>247</v>
@@ -6748,14 +6950,14 @@
         <v>159</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="F84" s="11" t="str">
         <f>IF(ISBLANK(E84), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry</v>
+        <v>hue_color_candle_10</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>162</v>
@@ -6763,22 +6965,19 @@
       <c r="I84" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q84" s="2"/>
       <c r="S84" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S84:S147" si="2">IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84, "/config"))</f>
         <v/>
       </c>
       <c r="T84" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T84:T147" si="3">IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>2030</v>
+        <v>2015</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>247</v>
@@ -6787,14 +6986,14 @@
         <v>159</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F85" s="11" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_4</v>
+        <v>hue_color_candle_11</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>162</v>
@@ -6814,7 +7013,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>2031</v>
+        <v>2016</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>247</v>
@@ -6823,14 +7022,14 @@
         <v>159</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F86" s="11" t="str">
         <f>IF(ISBLANK(E86), "", Table2[[#This Row],[unique_id]])</f>
-        <v>pantry</v>
+        <v>lounge</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>162</v>
@@ -6853,7 +7052,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>2032</v>
+        <v>2017</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>247</v>
@@ -6862,14 +7061,14 @@
         <v>159</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F87" s="11" t="str">
         <f>IF(ISBLANK(E87), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_5</v>
+        <v>hue_color_candle_12</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>162</v>
@@ -6889,7 +7088,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>247</v>
@@ -6898,23 +7097,20 @@
         <v>159</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="F88" s="11" t="str">
         <f>IF(ISBLANK(E88), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office</v>
+        <v>hue_color_candle_13</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="S88" s="1" t="str">
@@ -6928,7 +7124,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>2034</v>
+        <v>2019</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>247</v>
@@ -6937,14 +7133,14 @@
         <v>159</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F89" s="11" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_6</v>
+        <v>hue_color_candle_14</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>162</v>
@@ -6964,7 +7160,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>247</v>
@@ -6973,14 +7169,14 @@
         <v>159</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F90" s="11" t="str">
         <f>IF(ISBLANK(E90), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom</v>
+        <v>parents</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>162</v>
@@ -7003,7 +7199,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>2036</v>
+        <v>2021</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>247</v>
@@ -7012,14 +7208,14 @@
         <v>159</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F91" s="11" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_7</v>
+        <v>hue_color_candle_15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>162</v>
@@ -7039,7 +7235,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>2037</v>
+        <v>2022</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>247</v>
@@ -7048,23 +7244,20 @@
         <v>159</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="F92" s="11" t="str">
         <f>IF(ISBLANK(E92), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ensuite</v>
+        <v>hue_color_candle_16</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="S92" s="1" t="str">
@@ -7078,7 +7271,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>2038</v>
+        <v>2023</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>247</v>
@@ -7087,14 +7280,14 @@
         <v>159</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F93" s="11" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_8</v>
+        <v>hue_color_candle_17</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>162</v>
@@ -7114,7 +7307,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>2039</v>
+        <v>2024</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>247</v>
@@ -7123,14 +7316,14 @@
         <v>159</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F94" s="11" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
-        <v>wardrobe</v>
+        <v>kitchen</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>162</v>
@@ -7153,7 +7346,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>247</v>
@@ -7162,14 +7355,14 @@
         <v>159</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F95" s="11" t="str">
         <f>IF(ISBLANK(E95), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_9</v>
+        <v>hue_ambiance_lamp_1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>162</v>
@@ -7189,7 +7382,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2041</v>
+        <v>2026</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>247</v>
@@ -7198,23 +7391,20 @@
         <v>159</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F96" s="11" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin</v>
+        <v>hue_ambiance_lamp_2</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="S96" s="1" t="str">
@@ -7228,7 +7418,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2042</v>
+        <v>2027</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>247</v>
@@ -7237,14 +7427,14 @@
         <v>159</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F97" s="11" t="str">
         <f>IF(ISBLANK(E97), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_10</v>
+        <v>hue_ambiance_lamp_3</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>162</v>
@@ -7264,7 +7454,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>2043</v>
+        <v>2028</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>247</v>
@@ -7273,23 +7463,20 @@
         <v>159</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>149</v>
+        <v>303</v>
       </c>
       <c r="F98" s="11" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada</v>
+        <v>hue_ambiance_lamp_12</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="S98" s="1" t="str">
@@ -7303,7 +7490,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2044</v>
+        <v>2029</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>247</v>
@@ -7312,20 +7499,23 @@
         <v>159</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="F99" s="11" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_11</v>
+        <v>laundry</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>152</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="S99" s="1" t="str">
@@ -7339,7 +7529,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>2044</v>
+        <v>2030</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>247</v>
@@ -7348,23 +7538,20 @@
         <v>159</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="F100" s="11" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lamp</v>
+        <v>hue_ambiance_lamp_4</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="S100" s="1" t="str">
@@ -7378,7 +7565,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>2044</v>
+        <v>2031</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>247</v>
@@ -7387,20 +7574,23 @@
         <v>159</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="F101" s="11" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_13</v>
+        <v>pantry</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>152</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="S101" s="1" t="str">
@@ -7414,32 +7604,29 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>2080</v>
+        <v>2032</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F102" s="1" t="str">
+        <v>296</v>
+      </c>
+      <c r="F102" s="11" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>hue_ambiance_lamp_5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="S102" s="1" t="str">
@@ -7453,29 +7640,29 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>2100</v>
+        <v>2033</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F103" s="1" t="str">
+        <v>329</v>
+      </c>
+      <c r="F103" s="11" t="str">
         <f>IF(ISBLANK(E103), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_current_consumption</v>
+        <v>office</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>158</v>
@@ -7492,32 +7679,29 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>2101</v>
+        <v>2034</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F104" s="1" t="str">
+        <v>297</v>
+      </c>
+      <c r="F104" s="11" t="str">
         <f>IF(ISBLANK(E104), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_power</v>
+        <v>hue_ambiance_lamp_6</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="S104" s="1" t="str">
@@ -7531,29 +7715,32 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>2200</v>
+        <v>2035</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F105" s="1" t="str">
+        <v>330</v>
+      </c>
+      <c r="F105" s="11" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_total_consumption</v>
+        <v>bathroom</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="S105" s="1" t="str">
@@ -7567,32 +7754,29 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>2201</v>
+        <v>2036</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F106" s="1" t="str">
+        <v>298</v>
+      </c>
+      <c r="F106" s="11" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_today_s_consumption</v>
+        <v>hue_ambiance_lamp_7</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="S106" s="1" t="str">
@@ -7606,29 +7790,32 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>2202</v>
+        <v>2037</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F107" s="1" t="str">
+        <v>331</v>
+      </c>
+      <c r="F107" s="11" t="str">
         <f>IF(ISBLANK(E107), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy</v>
+        <v>ensuite</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="S107" s="1" t="str">
@@ -7642,32 +7829,29 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>2203</v>
+        <v>2038</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F108" s="1" t="str">
+        <v>299</v>
+      </c>
+      <c r="F108" s="11" t="str">
         <f>IF(ISBLANK(E108), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy_today</v>
+        <v>hue_ambiance_lamp_8</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="S108" s="1" t="str">
@@ -7681,26 +7865,32 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>2300</v>
+        <v>2039</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F109" s="1" t="str">
+        <v>332</v>
+      </c>
+      <c r="F109" s="11" t="str">
         <f>IF(ISBLANK(E109), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_power</v>
+        <v>wardrobe</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="S109" s="1" t="str">
@@ -7714,26 +7904,29 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>2301</v>
+        <v>2040</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F110" s="1" t="str">
+        <v>300</v>
+      </c>
+      <c r="F110" s="11" t="str">
         <f>IF(ISBLANK(E110), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy</v>
+        <v>hue_ambiance_lamp_9</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="S110" s="1" t="str">
@@ -7747,26 +7940,32 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>2302</v>
+        <v>2041</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F111" s="1" t="str">
+        <v>333</v>
+      </c>
+      <c r="F111" s="11" t="str">
         <f>IF(ISBLANK(E111), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_daily</v>
+        <v>edwin</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="S111" s="1" t="str">
@@ -7780,26 +7979,29 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>2303</v>
+        <v>2042</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F112" s="1" t="str">
+        <v>301</v>
+      </c>
+      <c r="F112" s="11" t="str">
         <f>IF(ISBLANK(E112), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_weekly</v>
+        <v>hue_ambiance_lamp_10</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="S112" s="1" t="str">
@@ -7811,28 +8013,34 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>2304</v>
+        <v>2043</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F113" s="1" t="str">
+        <v>149</v>
+      </c>
+      <c r="F113" s="11" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_monthly</v>
+        <v>ada</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="S113" s="1" t="str">
@@ -7844,28 +8052,31 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>2400</v>
+        <v>2044</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F114" s="1" t="str">
+        <v>302</v>
+      </c>
+      <c r="F114" s="11" t="str">
         <f>IF(ISBLANK(E114), "", Table2[[#This Row],[unique_id]])</f>
-        <v>withings_weight_kg_graham</v>
+        <v>hue_ambiance_lamp_11</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="S114" s="1" t="str">
@@ -7877,191 +8088,106 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>2500</v>
+        <v>2044</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F115" s="1" t="str">
+        <v>336</v>
+      </c>
+      <c r="F115" s="11" t="str">
         <f>IF(ISBLANK(E115), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
+        <v>lamp</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P115" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q115" s="2"/>
       <c r="S115" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="T115" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="U115" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V115" s="1">
-        <v>1</v>
-      </c>
-      <c r="W115" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X115" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB115" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC115" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>2501</v>
+        <v>2044</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F116" s="1" t="str">
+        <v>291</v>
+      </c>
+      <c r="F116" s="11" t="str">
         <f>IF(ISBLANK(E116), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
+        <v>hue_ambiance_lamp_13</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="P116" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q116" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R116" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="Q116" s="2"/>
       <c r="S116" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
+        <v/>
       </c>
       <c r="T116" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="U116" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="V116" s="1">
-        <v>1</v>
-      </c>
-      <c r="W116" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X116" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y116" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z116" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB116" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC116" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>2600</v>
+        <v>2080</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="F117" s="1" t="str">
         <f>IF(ISBLANK(E117), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>158</v>
@@ -8076,31 +8202,31 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F118" s="1" t="str">
         <f>IF(ISBLANK(E118), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
+        <v>kitchen_coffee_current_consumption</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>158</v>
@@ -8115,31 +8241,34 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>2800</v>
+        <v>2101</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F119" s="1" t="str">
         <f>IF(ISBLANK(E119), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
+        <v>dining_lights_power</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="S119" s="1" t="str">
@@ -8151,34 +8280,31 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F120" s="1" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>kitchen_coffee_total_consumption</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="S120" s="1" t="str">
@@ -8190,31 +8316,31 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>3001</v>
+        <v>2201</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>337</v>
+        <v>171</v>
       </c>
       <c r="F121" s="1" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>kitchen_coffee_today_s_consumption</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>158</v>
@@ -8229,34 +8355,31 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>3050</v>
+        <v>2202</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="F122" s="1" t="str">
         <f>IF(ISBLANK(E122), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_occupancy</v>
+        <v>dining_lights_energy</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="S122" s="1" t="str">
@@ -8268,31 +8391,31 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>3051</v>
+        <v>2203</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F123" s="1" t="str">
         <f>IF(ISBLANK(E123), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
+        <v>dining_lights_energy_today</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>226</v>
+        <v>173</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>158</v>
@@ -8307,34 +8430,28 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>3052</v>
+        <v>2300</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="F124" s="1" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_occupancy</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>347</v>
+        <v>hue_color_candle_16_power</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="1" t="str">
@@ -8346,34 +8463,28 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>3053</v>
+        <v>2301</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>338</v>
+        <v>177</v>
       </c>
       <c r="F125" s="1" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>226</v>
+        <v>hue_color_candle_16_energy</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="1" t="str">
@@ -8385,34 +8496,28 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>3054</v>
+        <v>2302</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F126" s="1" t="str">
         <f>IF(ISBLANK(E126), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_occupancy</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>348</v>
+        <v>hue_color_candle_16_energy_daily</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="S126" s="1" t="str">
@@ -8424,34 +8529,28 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>3055</v>
+        <v>2303</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
       <c r="F127" s="1" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_occupancy</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>226</v>
+        <v>hue_color_candle_16_energy_weekly</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="S127" s="1" t="str">
@@ -8463,34 +8562,28 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>3056</v>
+        <v>2304</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="F128" s="1" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck2_occupancy</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>226</v>
+        <v>hue_color_candle_16_energy_monthly</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="S128" s="1" t="str">
@@ -8502,34 +8595,28 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>3057</v>
+        <v>2400</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c r="F129" s="1" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck1_occupancy</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>349</v>
+        <v>withings_weight_kg_graham</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="S129" s="1" t="str">
@@ -8541,83 +8628,196 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="F130" s="1" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_energize</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>268</v>
+        <v>weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q130" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P130" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="S130" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T130" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V130" s="1">
+        <v>1</v>
+      </c>
+      <c r="W130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X130" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC130" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>9000</v>
+        <v>2501</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>196</v>
+        <v>44</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="F131" s="1" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>update_bom_icons</v>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q131" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P131" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="S131" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T131" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F132" s="11" t="str">
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V131" s="1">
+        <v>1</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X131" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC131" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F132" s="1" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>ada_home</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q132" s="2"/>
       <c r="S132" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8627,233 +8827,573 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F133" s="11" t="str">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F133" s="1" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>kitchen_speaker</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q133" s="2"/>
       <c r="S133" s="1" t="str">
-        <f t="shared" ref="S133:S196" si="4">IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T133" s="1" t="str">
-        <f t="shared" ref="T133:T196" si="5">IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F134" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F134" s="1" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>parents_speaker_battery</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q134" s="2"/>
       <c r="S134" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T134" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F135" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F135" s="1" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_ada_medium</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q135" s="2"/>
       <c r="S135" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T135" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F136" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>3001</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F136" s="1" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_edwin_medium</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q136" s="2"/>
       <c r="S136" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T136" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F137" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>3050</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F137" s="1" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G137" s="6"/>
+        <v>ada_occupancy</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q137" s="2"/>
       <c r="S137" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T137" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F138" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>3051</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F138" s="1" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_ada_motion</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q138" s="2"/>
       <c r="S138" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T138" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>3052</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="F139" s="1" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>edwin_occupancy</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q139" s="2"/>
       <c r="S139" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T139" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>3053</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="F140" s="1" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_edwin_motion</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q140" s="2"/>
       <c r="S140" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T140" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>3054</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="F141" s="1" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>parents_occupancy</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q141" s="2"/>
       <c r="S141" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T141" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>3055</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="F142" s="1" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>lounge_occupancy</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q142" s="2"/>
       <c r="S142" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T142" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>3056</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="F143" s="1" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>deck2_occupancy</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q143" s="2"/>
       <c r="S143" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T143" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>3057</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="F144" s="1" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>deck1_occupancy</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q144" s="2"/>
       <c r="S144" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T144" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="F145" s="1" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>ada_energize</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q145" s="2"/>
       <c r="S145" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T145" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="F146" s="1" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>update_bom_icons</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q146" s="2"/>
       <c r="S146" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T146" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F147" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F147" s="11" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="S147" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T147" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F148" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F148" s="11" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="S148" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S148:S211" si="4">IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148, "/config"))</f>
         <v/>
       </c>
       <c r="T148" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F149" s="1" t="str">
+        <f t="shared" ref="T148:T211" si="5">IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F149" s="11" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -8866,8 +9406,8 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F150" s="1" t="str">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F150" s="11" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -8880,8 +9420,8 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F151" s="1" t="str">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F151" s="11" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -8894,11 +9434,12 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F152" s="1" t="str">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F152" s="11" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G152" s="6"/>
       <c r="S152" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8908,8 +9449,8 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F153" s="1" t="str">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F153" s="11" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -8922,7 +9463,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F154" s="1" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -8936,7 +9477,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F155" s="1" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -8950,7 +9491,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F156" s="1" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -8964,7 +9505,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F157" s="1" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -8978,7 +9519,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F158" s="1" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -8992,7 +9533,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F159" s="1" t="str">
         <f>IF(ISBLANK(E159), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -9006,7 +9547,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F160" s="1" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -9530,11 +10071,11 @@
         <v/>
       </c>
       <c r="S197" s="1" t="str">
-        <f t="shared" ref="S197:S260" si="6">IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T197" s="1" t="str">
-        <f t="shared" ref="T197:T260" si="7">IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9544,11 +10085,11 @@
         <v/>
       </c>
       <c r="S198" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T198" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9558,11 +10099,11 @@
         <v/>
       </c>
       <c r="S199" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T199" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9572,11 +10113,11 @@
         <v/>
       </c>
       <c r="S200" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T200" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9586,11 +10127,11 @@
         <v/>
       </c>
       <c r="S201" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T201" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9600,11 +10141,11 @@
         <v/>
       </c>
       <c r="S202" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T202" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9614,11 +10155,11 @@
         <v/>
       </c>
       <c r="S203" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T203" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9628,11 +10169,11 @@
         <v/>
       </c>
       <c r="S204" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T204" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9642,11 +10183,11 @@
         <v/>
       </c>
       <c r="S205" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T205" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9656,11 +10197,11 @@
         <v/>
       </c>
       <c r="S206" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T206" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9670,11 +10211,11 @@
         <v/>
       </c>
       <c r="S207" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T207" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9684,11 +10225,11 @@
         <v/>
       </c>
       <c r="S208" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T208" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9698,11 +10239,11 @@
         <v/>
       </c>
       <c r="S209" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T209" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9712,11 +10253,11 @@
         <v/>
       </c>
       <c r="S210" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T210" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9726,11 +10267,11 @@
         <v/>
       </c>
       <c r="S211" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T211" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9740,11 +10281,11 @@
         <v/>
       </c>
       <c r="S212" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="S212:S275" si="6">IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212, "/config"))</f>
         <v/>
       </c>
       <c r="T212" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T212:T275" si="7">IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212))</f>
         <v/>
       </c>
     </row>
@@ -10426,11 +10967,11 @@
         <v/>
       </c>
       <c r="S261" s="1" t="str">
-        <f t="shared" ref="S261:S324" si="8">IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T261" s="1" t="str">
-        <f t="shared" ref="T261:T324" si="9">IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10440,11 +10981,11 @@
         <v/>
       </c>
       <c r="S262" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T262" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10454,11 +10995,11 @@
         <v/>
       </c>
       <c r="S263" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T263" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10468,11 +11009,11 @@
         <v/>
       </c>
       <c r="S264" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T264" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10482,11 +11023,11 @@
         <v/>
       </c>
       <c r="S265" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T265" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10496,11 +11037,11 @@
         <v/>
       </c>
       <c r="S266" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T266" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10510,11 +11051,11 @@
         <v/>
       </c>
       <c r="S267" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T267" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10524,11 +11065,11 @@
         <v/>
       </c>
       <c r="S268" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T268" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10538,11 +11079,11 @@
         <v/>
       </c>
       <c r="S269" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T269" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10552,11 +11093,11 @@
         <v/>
       </c>
       <c r="S270" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T270" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10566,11 +11107,11 @@
         <v/>
       </c>
       <c r="S271" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T271" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10580,11 +11121,11 @@
         <v/>
       </c>
       <c r="S272" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T272" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10594,11 +11135,11 @@
         <v/>
       </c>
       <c r="S273" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T273" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10608,11 +11149,11 @@
         <v/>
       </c>
       <c r="S274" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T274" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10622,11 +11163,11 @@
         <v/>
       </c>
       <c r="S275" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T275" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10636,11 +11177,11 @@
         <v/>
       </c>
       <c r="S276" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S276:S339" si="8">IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276, "/config"))</f>
         <v/>
       </c>
       <c r="T276" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T276:T339" si="9">IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276))</f>
         <v/>
       </c>
     </row>
@@ -11322,11 +11863,11 @@
         <v/>
       </c>
       <c r="S325" s="1" t="str">
-        <f t="shared" ref="S325:S326" si="10">IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T325" s="1" t="str">
-        <f t="shared" ref="T325:T326" si="11">IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11336,10 +11877,220 @@
         <v/>
       </c>
       <c r="S326" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T326" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F327" s="1" t="str">
+        <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S327" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T327" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F328" s="1" t="str">
+        <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S328" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T328" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F329" s="1" t="str">
+        <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S329" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T329" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F330" s="1" t="str">
+        <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S330" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T330" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F331" s="1" t="str">
+        <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S331" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T331" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F332" s="1" t="str">
+        <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S332" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T332" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F333" s="1" t="str">
+        <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S333" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T333" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F334" s="1" t="str">
+        <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S334" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T334" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F335" s="1" t="str">
+        <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S335" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T335" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F336" s="1" t="str">
+        <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S336" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T336" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F337" s="1" t="str">
+        <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S337" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T337" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F338" s="1" t="str">
+        <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S338" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T338" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F339" s="1" t="str">
+        <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S339" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T339" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F340" s="1" t="str">
+        <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S340" s="1" t="str">
+        <f t="shared" ref="S340:S341" si="10">IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T340" s="1" t="str">
+        <f t="shared" ref="T340:T341" si="11">IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F341" s="1" t="str">
+        <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S341" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="T326" s="1" t="str">
+      <c r="T341" s="1" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
@@ -11362,12 +12113,12 @@
     <hyperlink ref="AC20" r:id="rId10" xr:uid="{7483C056-5C8A-0D49-A0FC-706E9E60F618}"/>
     <hyperlink ref="AC21" r:id="rId11" xr:uid="{8EADE576-5626-AD41-A703-EDF78E53D186}"/>
     <hyperlink ref="AC31" r:id="rId12" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
-    <hyperlink ref="AC32" r:id="rId13" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
-    <hyperlink ref="AC41:AC59" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
-    <hyperlink ref="AC115" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
-    <hyperlink ref="AC116" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
-    <hyperlink ref="AC49" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
-    <hyperlink ref="AC50" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
+    <hyperlink ref="AC42" r:id="rId13" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
+    <hyperlink ref="AC56:AC74" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
+    <hyperlink ref="AC130" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
+    <hyperlink ref="AC131" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
+    <hyperlink ref="AC64" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
+    <hyperlink ref="AC65" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AC15" r:id="rId19" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB76922-DB76-5F49-A7AD-891229AA69B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144B2CC-FC1B-F443-A891-B23CD41507BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="391">
   <si>
     <t>index</t>
   </si>
@@ -1193,6 +1193,18 @@
   </si>
   <si>
     <t>netatmo_laundry_noise</t>
+  </si>
+  <si>
+    <t>deck1</t>
+  </si>
+  <si>
+    <t>deck2</t>
+  </si>
+  <si>
+    <t>Deck West</t>
+  </si>
+  <si>
+    <t>Deck East</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1796,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC341" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
-  <autoFilter ref="A3:AC341" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC341">
-    <sortCondition ref="A3:A341"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC346" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A3:AC346" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC346">
+    <sortCondition ref="A3:A346"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="31"/>
@@ -2127,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC341"/>
+  <dimension ref="A1:AC346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2550,11 +2562,11 @@
       </c>
       <c r="Q5" s="2"/>
       <c r="S5" s="1" t="str">
-        <f t="shared" ref="S5:S83" si="0">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5, "/config"))</f>
+        <f>IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5, "/config"))</f>
         <v/>
       </c>
       <c r="T5" s="1" t="str">
-        <f t="shared" ref="T5:T83" si="1">IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5))</f>
+        <f>IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5))</f>
         <v/>
       </c>
       <c r="AC5" s="7"/>
@@ -2593,11 +2605,11 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="S6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C6), "/", E6, "/config"))</f>
         <v/>
       </c>
       <c r="T6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C6), "/", E6))</f>
         <v/>
       </c>
       <c r="AC6" s="7"/>
@@ -2636,11 +2648,11 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="S7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C7), "/", E7, "/config"))</f>
         <v/>
       </c>
       <c r="T7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C7), "/", E7))</f>
         <v/>
       </c>
       <c r="AC7" s="7"/>
@@ -2679,11 +2691,11 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="S8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C8), "/", E8, "/config"))</f>
         <v/>
       </c>
       <c r="T8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C8), "/", E8))</f>
         <v/>
       </c>
       <c r="AC8" s="7"/>
@@ -2722,11 +2734,11 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="S9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C9), "/", E9, "/config"))</f>
         <v/>
       </c>
       <c r="T9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C9), "/", E9))</f>
         <v/>
       </c>
       <c r="AC9" s="7"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="S10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C10), "/", E10, "/config"))</f>
         <v/>
       </c>
       <c r="T10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C10), "/", E10))</f>
         <v/>
       </c>
       <c r="AC10" s="7"/>
@@ -2808,11 +2820,11 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="S11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C11), "/", E11, "/config"))</f>
         <v/>
       </c>
       <c r="T11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C11), "/", E11))</f>
         <v/>
       </c>
       <c r="AC11" s="7"/>
@@ -2851,11 +2863,11 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="S12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C12), "/", E12, "/config"))</f>
         <v/>
       </c>
       <c r="T12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C12), "/", E12))</f>
         <v/>
       </c>
       <c r="AC12" s="7"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="S13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C13), "/", E13, "/config"))</f>
         <v/>
       </c>
       <c r="T13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C13), "/", E13))</f>
         <v/>
       </c>
       <c r="AC13" s="7"/>
@@ -2937,11 +2949,11 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="S14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R14),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C14), "/", E14, "/config"))</f>
         <v/>
       </c>
       <c r="T14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R14),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C14), "/", E14))</f>
         <v/>
       </c>
       <c r="AC14" s="7"/>
@@ -2997,11 +3009,11 @@
         <v>230</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C15), "/", E15, "/config"))</f>
         <v>haas/entity/sensor/weewx/rack_temperature/config</v>
       </c>
       <c r="T15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C15), "/", E15))</f>
         <v>haas/entity/sensor/weewx/rack_temperature</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -3080,11 +3092,11 @@
         <v>106</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C16), "/", E16, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature/config</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C16), "/", E16))</f>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -3163,11 +3175,11 @@
         <v>109</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R17),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C17), "/", E17, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_dew_point/config</v>
       </c>
       <c r="T17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R17),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C17), "/", E17))</f>
         <v>haas/entity/sensor/weewx/roof_dew_point</v>
       </c>
       <c r="U17" s="1" t="s">
@@ -3246,11 +3258,11 @@
         <v>112</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C18), "/", E18, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_heat_index/config</v>
       </c>
       <c r="T18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C18), "/", E18))</f>
         <v>haas/entity/sensor/weewx/roof_heat_index</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -3329,11 +3341,11 @@
         <v>115</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C19), "/", E19, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_humidity_index/config</v>
       </c>
       <c r="T19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C19), "/", E19))</f>
         <v>haas/entity/sensor/weewx/roof_humidity_index</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -3412,11 +3424,11 @@
         <v>118</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C20), "/", E20, "/config"))</f>
         <v>haas/entity/sensor/weewx/rack_dew_point/config</v>
       </c>
       <c r="T20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C20), "/", E20))</f>
         <v>haas/entity/sensor/weewx/rack_dew_point</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -3495,11 +3507,11 @@
         <v>121</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C21), "/", E21, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature/config</v>
       </c>
       <c r="T21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C21), "/", E21))</f>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -3561,11 +3573,11 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="S22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C22), "/", E22, "/config"))</f>
         <v/>
       </c>
       <c r="T22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C22), "/", E22))</f>
         <v/>
       </c>
       <c r="AC22" s="7"/>
@@ -3603,11 +3615,11 @@
         <v>102</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C23), "/", E23, "/config"))</f>
         <v/>
       </c>
       <c r="T23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C23), "/", E23))</f>
         <v/>
       </c>
     </row>
@@ -3644,11 +3656,11 @@
         <v>102</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C24), "/", E24, "/config"))</f>
         <v/>
       </c>
       <c r="T24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C24), "/", E24))</f>
         <v/>
       </c>
     </row>
@@ -3685,11 +3697,11 @@
         <v>158</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C25), "/", E25, "/config"))</f>
         <v/>
       </c>
       <c r="T25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C25), "/", E25))</f>
         <v/>
       </c>
     </row>
@@ -3726,11 +3738,11 @@
         <v>102</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C26), "/", E26, "/config"))</f>
         <v/>
       </c>
       <c r="T26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C26), "/", E26))</f>
         <v/>
       </c>
     </row>
@@ -3767,11 +3779,11 @@
         <v>102</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C27), "/", E27, "/config"))</f>
         <v/>
       </c>
       <c r="T27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C27), "/", E27))</f>
         <v/>
       </c>
     </row>
@@ -3808,11 +3820,11 @@
         <v>158</v>
       </c>
       <c r="S28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C28), "/", E28, "/config"))</f>
         <v/>
       </c>
       <c r="T28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C28), "/", E28))</f>
         <v/>
       </c>
     </row>
@@ -3849,11 +3861,11 @@
         <v>158</v>
       </c>
       <c r="S29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C29), "/", E29, "/config"))</f>
         <v/>
       </c>
       <c r="T29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C29), "/", E29))</f>
         <v/>
       </c>
     </row>
@@ -3887,11 +3899,11 @@
         <v>33</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C30), "/", E30, "/config"))</f>
         <v/>
       </c>
       <c r="T30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C30), "/", E30))</f>
         <v/>
       </c>
     </row>
@@ -3946,11 +3958,11 @@
         <v>46</v>
       </c>
       <c r="S31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C31), "/", E31, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_humidity/config</v>
       </c>
       <c r="T31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C31), "/", E31))</f>
         <v>haas/entity/sensor/weewx/roof_humidity</v>
       </c>
       <c r="U31" s="1" t="s">
@@ -4462,11 +4474,11 @@
         <v>38</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C42), "/", E42, "/config"))</f>
         <v>haas/entity/sensor/weewx/rack_humidity/config</v>
       </c>
       <c r="T42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C42), "/", E42))</f>
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
       <c r="U42" s="1" t="s">
@@ -4531,11 +4543,11 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="S43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R43),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C43), "/", E43, "/config"))</f>
         <v/>
       </c>
       <c r="T43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R43),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C43), "/", E43))</f>
         <v/>
       </c>
     </row>
@@ -4797,11 +4809,11 @@
         <v>51</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C49), "/", E49, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_cloud_base/config</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C49), "/", E49))</f>
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
       <c r="U49" s="1" t="s">
@@ -4880,11 +4892,11 @@
         <v>55</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C50), "/", E50, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation/config</v>
       </c>
       <c r="T50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C50), "/", E50))</f>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
       <c r="U50" s="1" t="s">
@@ -4963,11 +4975,11 @@
         <v>61</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C51), "/", E51, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure/config</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C51), "/", E51))</f>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
       <c r="U51" s="1" t="s">
@@ -5046,11 +5058,11 @@
         <v>58</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C52), "/", E52, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_pressure/config</v>
       </c>
       <c r="T52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C52), "/", E52))</f>
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
       <c r="U52" s="1" t="s">
@@ -5129,11 +5141,11 @@
         <v>128</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C53), "/", E53, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_direction/config</v>
       </c>
       <c r="T53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C53), "/", E53))</f>
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
       <c r="U53" s="1" t="s">
@@ -5212,11 +5224,11 @@
         <v>131</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C54), "/", E54, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction/config</v>
       </c>
       <c r="T54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C54), "/", E54))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
       <c r="U54" s="1" t="s">
@@ -5295,11 +5307,11 @@
         <v>134</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C55), "/", E55, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed/config</v>
       </c>
       <c r="T55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C55), "/", E55))</f>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
       <c r="U55" s="1" t="s">
@@ -5378,11 +5390,11 @@
         <v>137</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C56), "/", E56, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min/config</v>
       </c>
       <c r="T56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C56), "/", E56))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
       <c r="U56" s="1" t="s">
@@ -5458,11 +5470,11 @@
         <v>140</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C57), "/", E57, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_samples/config</v>
       </c>
       <c r="T57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C57), "/", E57))</f>
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
       <c r="U57" s="1" t="s">
@@ -5541,11 +5553,11 @@
         <v>144</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C58), "/", E58, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_run/config</v>
       </c>
       <c r="T58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C58), "/", E58))</f>
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
       <c r="U58" s="1" t="s">
@@ -5624,11 +5636,11 @@
         <v>124</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C59), "/", E59, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed/config</v>
       </c>
       <c r="T59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C59), "/", E59))</f>
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
       <c r="U59" s="1" t="s">
@@ -5710,11 +5722,11 @@
         <v>80</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C60), "/", E60, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_rain_rate/config</v>
       </c>
       <c r="T60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C60), "/", E60))</f>
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
       <c r="U60" s="1" t="s">
@@ -5775,7 +5787,7 @@
         <v>253</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>66</v>
@@ -5796,11 +5808,11 @@
         <v>71</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C61), "/", E61, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_hourly_rain/config</v>
       </c>
       <c r="T61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C61), "/", E61))</f>
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
       <c r="U61" s="1" t="s">
@@ -5882,11 +5894,11 @@
         <v>68</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C62), "/", E62, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_daily_rain/config</v>
       </c>
       <c r="T62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C62), "/", E62))</f>
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
       <c r="U62" s="1" t="s">
@@ -5965,11 +5977,11 @@
         <v>76</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C63), "/", E63, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_24hour_rain/config</v>
       </c>
       <c r="T63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C63), "/", E63))</f>
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
       <c r="U63" s="1" t="s">
@@ -6051,11 +6063,11 @@
         <v>74</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C64), "/", E64, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
       </c>
       <c r="T64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C64), "/", E64))</f>
         <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
       <c r="U64" s="1" t="s">
@@ -6137,11 +6149,11 @@
         <v>275</v>
       </c>
       <c r="S65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C65), "/", E65, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
       </c>
       <c r="T65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C65), "/", E65))</f>
         <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
       <c r="U65" s="1" t="s">
@@ -6220,11 +6232,11 @@
         <v>84</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R66),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C66), "/", E66, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_rain/config</v>
       </c>
       <c r="T66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R66),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C66), "/", E66))</f>
         <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
       <c r="U66" s="1" t="s">
@@ -6303,11 +6315,11 @@
         <v>87</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R67),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C67), "/", E67, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
       </c>
       <c r="T67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R67),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C67), "/", E67))</f>
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
       <c r="U67" s="1" t="s">
@@ -6340,7 +6352,7 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>153</v>
@@ -6369,36 +6381,36 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="S68" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68, "/config"))</f>
         <v/>
       </c>
       <c r="T68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>1900</v>
+        <v>1401</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="1" t="str">
+        <v>333</v>
+      </c>
+      <c r="F69" s="11" t="str">
         <f>IF(ISBLANK(E69), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee</v>
+        <v>edwin</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>152</v>
@@ -6408,36 +6420,36 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69, "/config"))</f>
         <v/>
       </c>
       <c r="T69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>2000</v>
+        <v>1402</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="1" t="str">
+        <v>325</v>
+      </c>
+      <c r="F70" s="11" t="str">
         <f>IF(ISBLANK(E70), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
+        <v>parents</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>152</v>
@@ -6447,36 +6459,36 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="S70" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R70),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C70), "/", E70, "/config"))</f>
         <v/>
       </c>
       <c r="T70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R70),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C70), "/", E70))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>2001</v>
+        <v>1403</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F71" s="1" t="str">
+        <v>324</v>
+      </c>
+      <c r="F71" s="11" t="str">
         <f>IF(ISBLANK(E71), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_light</v>
+        <v>lounge</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>152</v>
@@ -6486,36 +6498,36 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="S71" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R71),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C71), "/", E71, "/config"))</f>
         <v/>
       </c>
       <c r="T71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R71),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C71), "/", E71))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>2002</v>
+        <v>1404</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>304</v>
+        <v>387</v>
       </c>
       <c r="F72" s="11" t="str">
         <f>IF(ISBLANK(E72), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_light</v>
+        <v>deck1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>152</v>
@@ -6525,36 +6537,36 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="S72" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R72),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C72), "/", E72, "/config"))</f>
         <v/>
       </c>
       <c r="T72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R72),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C72), "/", E72))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>2003</v>
+        <v>1405</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="F73" s="11" t="str">
         <f>IF(ISBLANK(E73), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_light</v>
+        <v>deck2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>152</v>
@@ -6562,39 +6574,38 @@
       <c r="J73" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M73" s="6"/>
       <c r="Q73" s="2"/>
       <c r="S73" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R73),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C73), "/", E73, "/config"))</f>
         <v/>
       </c>
       <c r="T73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R73),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C73), "/", E73))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>2004</v>
+        <v>1900</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F74" s="11" t="str">
+        <v>155</v>
+      </c>
+      <c r="F74" s="1" t="str">
         <f>IF(ISBLANK(E74), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hallway</v>
+        <v>kitchen_coffee</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>152</v>
@@ -6604,17 +6615,17 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R74),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C74), "/", E74, "/config"))</f>
         <v/>
       </c>
       <c r="T74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R74),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C74), "/", E74))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>247</v>
@@ -6623,14 +6634,14 @@
         <v>159</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="11" t="str">
+        <v>160</v>
+      </c>
+      <c r="F75" s="1" t="str">
         <f>IF(ISBLANK(E75), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_2</v>
+        <v>dining</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>162</v>
@@ -6638,35 +6649,38 @@
       <c r="I75" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J75" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q75" s="2"/>
       <c r="S75" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R75),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C75), "/", E75, "/config"))</f>
         <v/>
       </c>
       <c r="T75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R75),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C75), "/", E75))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F76" s="11" t="str">
+        <v>163</v>
+      </c>
+      <c r="F76" s="1" t="str">
         <f>IF(ISBLANK(E76), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_3</v>
+        <v>ada_light</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>162</v>
@@ -6674,35 +6688,38 @@
       <c r="I76" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J76" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R76),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C76), "/", E76, "/config"))</f>
         <v/>
       </c>
       <c r="T76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R76),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C76), "/", E76))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="F77" s="11" t="str">
         <f>IF(ISBLANK(E77), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_4</v>
+        <v>edwin_light</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>162</v>
@@ -6710,35 +6727,38 @@
       <c r="I77" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J77" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q77" s="2"/>
       <c r="S77" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R77),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C77), "/", E77, "/config"))</f>
         <v/>
       </c>
       <c r="T77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R77),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C77), "/", E77))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="F78" s="11" t="str">
         <f>IF(ISBLANK(E78), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_5</v>
+        <v>lounge_light</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>162</v>
@@ -6746,19 +6766,23 @@
       <c r="I78" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M78" s="6"/>
       <c r="Q78" s="2"/>
       <c r="S78" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R78),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C78), "/", E78, "/config"))</f>
         <v/>
       </c>
       <c r="T78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R78),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C78), "/", E78))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>247</v>
@@ -6767,14 +6791,14 @@
         <v>159</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>160</v>
+        <v>323</v>
       </c>
       <c r="F79" s="11" t="str">
         <f>IF(ISBLANK(E79), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
+        <v>hallway</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>162</v>
@@ -6787,17 +6811,17 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="S79" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R79),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C79), "/", E79, "/config"))</f>
         <v/>
       </c>
       <c r="T79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R79),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C79), "/", E79))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>247</v>
@@ -6806,14 +6830,14 @@
         <v>159</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="F80" s="11" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_6</v>
+        <v>hue_color_candle_2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>162</v>
@@ -6823,17 +6847,17 @@
       </c>
       <c r="Q80" s="2"/>
       <c r="S80" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R80),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C80), "/", E80, "/config"))</f>
         <v/>
       </c>
       <c r="T80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R80),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C80), "/", E80))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>247</v>
@@ -6842,14 +6866,14 @@
         <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F81" s="11" t="str">
         <f>IF(ISBLANK(E81), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_7</v>
+        <v>hue_color_candle_3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>162</v>
@@ -6859,17 +6883,17 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="S81" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R81),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C81), "/", E81, "/config"))</f>
         <v/>
       </c>
       <c r="T81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R81),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C81), "/", E81))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>247</v>
@@ -6878,14 +6902,14 @@
         <v>159</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F82" s="11" t="str">
         <f>IF(ISBLANK(E82), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_8</v>
+        <v>hue_color_candle_4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>162</v>
@@ -6895,17 +6919,17 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="S82" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R82),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C82), "/", E82, "/config"))</f>
         <v/>
       </c>
       <c r="T82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R82),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C82), "/", E82))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>247</v>
@@ -6914,14 +6938,14 @@
         <v>159</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F83" s="11" t="str">
         <f>IF(ISBLANK(E83), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_9</v>
+        <v>hue_color_candle_5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>162</v>
@@ -6931,17 +6955,17 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="S83" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R83),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C83), "/", E83, "/config"))</f>
         <v/>
       </c>
       <c r="T83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R83),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C83), "/", E83))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>247</v>
@@ -6950,11 +6974,11 @@
         <v>159</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="F84" s="11" t="str">
         <f>IF(ISBLANK(E84), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_10</v>
+        <v>dining</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>161</v>
@@ -6965,19 +6989,22 @@
       <c r="I84" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J84" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q84" s="2"/>
       <c r="S84" s="1" t="str">
-        <f t="shared" ref="S84:S147" si="2">IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84, "/config"))</f>
+        <f>IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84, "/config"))</f>
         <v/>
       </c>
       <c r="T84" s="1" t="str">
-        <f t="shared" ref="T84:T147" si="3">IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84))</f>
+        <f>IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>247</v>
@@ -6986,11 +7013,11 @@
         <v>159</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F85" s="11" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_11</v>
+        <v>hue_color_candle_6</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>161</v>
@@ -7003,17 +7030,17 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="S85" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R85),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C85), "/", E85, "/config"))</f>
         <v/>
       </c>
       <c r="T85" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R85),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C85), "/", E85))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>247</v>
@@ -7022,14 +7049,14 @@
         <v>159</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="F86" s="11" t="str">
         <f>IF(ISBLANK(E86), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge</v>
+        <v>hue_color_candle_7</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>335</v>
+        <v>161</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>162</v>
@@ -7037,22 +7064,19 @@
       <c r="I86" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q86" s="2"/>
       <c r="S86" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R86),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C86), "/", E86, "/config"))</f>
         <v/>
       </c>
       <c r="T86" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R86),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C86), "/", E86))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>247</v>
@@ -7061,14 +7085,14 @@
         <v>159</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F87" s="11" t="str">
         <f>IF(ISBLANK(E87), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_12</v>
+        <v>hue_color_candle_8</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>335</v>
+        <v>161</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>162</v>
@@ -7078,17 +7102,17 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="S87" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R87),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C87), "/", E87, "/config"))</f>
         <v/>
       </c>
       <c r="T87" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R87),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C87), "/", E87))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>247</v>
@@ -7097,14 +7121,14 @@
         <v>159</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F88" s="11" t="str">
         <f>IF(ISBLANK(E88), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_13</v>
+        <v>hue_color_candle_9</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>335</v>
+        <v>161</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>162</v>
@@ -7114,17 +7138,17 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="S88" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R88),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C88), "/", E88, "/config"))</f>
         <v/>
       </c>
       <c r="T88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R88),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C88), "/", E88))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>247</v>
@@ -7133,14 +7157,14 @@
         <v>159</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F89" s="11" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_14</v>
+        <v>hue_color_candle_10</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>335</v>
+        <v>161</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>162</v>
@@ -7150,17 +7174,17 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="S89" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R89),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C89), "/", E89, "/config"))</f>
         <v/>
       </c>
       <c r="T89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R89),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C89), "/", E89))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>247</v>
@@ -7169,14 +7193,14 @@
         <v>159</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="F90" s="11" t="str">
         <f>IF(ISBLANK(E90), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents</v>
+        <v>hue_color_candle_11</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>162</v>
@@ -7184,22 +7208,19 @@
       <c r="I90" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q90" s="2"/>
       <c r="S90" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R90),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C90), "/", E90, "/config"))</f>
         <v/>
       </c>
       <c r="T90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R90),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C90), "/", E90))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>247</v>
@@ -7208,14 +7229,14 @@
         <v>159</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="F91" s="11" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_15</v>
+        <v>lounge</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>162</v>
@@ -7223,19 +7244,22 @@
       <c r="I91" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J91" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q91" s="2"/>
       <c r="S91" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R91),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C91), "/", E91, "/config"))</f>
         <v/>
       </c>
       <c r="T91" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R91),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C91), "/", E91))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>247</v>
@@ -7244,14 +7268,14 @@
         <v>159</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F92" s="11" t="str">
         <f>IF(ISBLANK(E92), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16</v>
+        <v>hue_color_candle_12</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>162</v>
@@ -7261,17 +7285,17 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="S92" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R92),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C92), "/", E92, "/config"))</f>
         <v/>
       </c>
       <c r="T92" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R92),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C92), "/", E92))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>247</v>
@@ -7280,14 +7304,14 @@
         <v>159</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F93" s="11" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_17</v>
+        <v>hue_color_candle_13</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>162</v>
@@ -7297,17 +7321,17 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="S93" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R93),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C93), "/", E93, "/config"))</f>
         <v/>
       </c>
       <c r="T93" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R93),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C93), "/", E93))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>247</v>
@@ -7316,14 +7340,14 @@
         <v>159</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="F94" s="11" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen</v>
+        <v>hue_color_candle_14</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>162</v>
@@ -7331,22 +7355,19 @@
       <c r="I94" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q94" s="2"/>
       <c r="S94" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R94),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C94), "/", E94, "/config"))</f>
         <v/>
       </c>
       <c r="T94" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R94),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C94), "/", E94))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>247</v>
@@ -7355,14 +7376,14 @@
         <v>159</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="F95" s="11" t="str">
         <f>IF(ISBLANK(E95), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_1</v>
+        <v>parents</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>162</v>
@@ -7370,19 +7391,22 @@
       <c r="I95" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J95" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q95" s="2"/>
       <c r="S95" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R95),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C95), "/", E95, "/config"))</f>
         <v/>
       </c>
       <c r="T95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R95),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C95), "/", E95))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>247</v>
@@ -7391,14 +7415,14 @@
         <v>159</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F96" s="11" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_2</v>
+        <v>hue_color_candle_15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>162</v>
@@ -7408,17 +7432,17 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="S96" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R96),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C96), "/", E96, "/config"))</f>
         <v/>
       </c>
       <c r="T96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R96),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C96), "/", E96))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>247</v>
@@ -7427,14 +7451,14 @@
         <v>159</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F97" s="11" t="str">
         <f>IF(ISBLANK(E97), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_3</v>
+        <v>hue_color_candle_16</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>162</v>
@@ -7444,17 +7468,17 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="S97" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R97),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C97), "/", E97, "/config"))</f>
         <v/>
       </c>
       <c r="T97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R97),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C97), "/", E97))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>247</v>
@@ -7463,14 +7487,14 @@
         <v>159</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F98" s="11" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_12</v>
+        <v>hue_color_candle_17</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>162</v>
@@ -7480,17 +7504,17 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="S98" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R98),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C98), "/", E98, "/config"))</f>
         <v/>
       </c>
       <c r="T98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R98),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C98), "/", E98))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>247</v>
@@ -7499,14 +7523,14 @@
         <v>159</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F99" s="11" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry</v>
+        <v>kitchen</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>162</v>
@@ -7519,17 +7543,17 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="S99" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R99),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C99), "/", E99, "/config"))</f>
         <v/>
       </c>
       <c r="T99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R99),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C99), "/", E99))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>247</v>
@@ -7538,14 +7562,14 @@
         <v>159</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F100" s="11" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_4</v>
+        <v>hue_ambiance_lamp_1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>162</v>
@@ -7555,17 +7579,17 @@
       </c>
       <c r="Q100" s="2"/>
       <c r="S100" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100, "/config"))</f>
         <v/>
       </c>
       <c r="T100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>247</v>
@@ -7574,14 +7598,14 @@
         <v>159</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="F101" s="11" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
-        <v>pantry</v>
+        <v>hue_ambiance_lamp_2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>162</v>
@@ -7589,22 +7613,19 @@
       <c r="I101" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q101" s="2"/>
       <c r="S101" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R101),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C101), "/", E101, "/config"))</f>
         <v/>
       </c>
       <c r="T101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R101),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C101), "/", E101))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>247</v>
@@ -7613,14 +7634,14 @@
         <v>159</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F102" s="11" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_5</v>
+        <v>hue_ambiance_lamp_3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>162</v>
@@ -7630,17 +7651,17 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="S102" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R102),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C102), "/", E102, "/config"))</f>
         <v/>
       </c>
       <c r="T102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R102),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C102), "/", E102))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>247</v>
@@ -7649,14 +7670,14 @@
         <v>159</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="F103" s="11" t="str">
         <f>IF(ISBLANK(E103), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office</v>
+        <v>hue_ambiance_lamp_12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>162</v>
@@ -7664,22 +7685,19 @@
       <c r="I103" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q103" s="2"/>
       <c r="S103" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103, "/config"))</f>
         <v/>
       </c>
       <c r="T103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>247</v>
@@ -7688,14 +7706,14 @@
         <v>159</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="F104" s="11" t="str">
         <f>IF(ISBLANK(E104), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_6</v>
+        <v>laundry</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>162</v>
@@ -7703,19 +7721,22 @@
       <c r="I104" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J104" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q104" s="2"/>
       <c r="S104" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R104),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C104), "/", E104, "/config"))</f>
         <v/>
       </c>
       <c r="T104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R104),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C104), "/", E104))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>247</v>
@@ -7724,14 +7745,14 @@
         <v>159</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="F105" s="11" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom</v>
+        <v>hue_ambiance_lamp_4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>162</v>
@@ -7739,22 +7760,19 @@
       <c r="I105" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q105" s="2"/>
       <c r="S105" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105, "/config"))</f>
         <v/>
       </c>
       <c r="T105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>247</v>
@@ -7763,14 +7781,14 @@
         <v>159</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="F106" s="11" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_7</v>
+        <v>pantry</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>162</v>
@@ -7778,19 +7796,22 @@
       <c r="I106" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J106" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q106" s="2"/>
       <c r="S106" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106, "/config"))</f>
         <v/>
       </c>
       <c r="T106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>247</v>
@@ -7799,14 +7820,14 @@
         <v>159</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F107" s="11" t="str">
         <f>IF(ISBLANK(E107), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ensuite</v>
+        <v>hue_ambiance_lamp_5</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>162</v>
@@ -7814,22 +7835,19 @@
       <c r="I107" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q107" s="2"/>
       <c r="S107" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R107),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C107), "/", E107, "/config"))</f>
         <v/>
       </c>
       <c r="T107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R107),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C107), "/", E107))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>247</v>
@@ -7838,14 +7856,14 @@
         <v>159</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="F108" s="11" t="str">
         <f>IF(ISBLANK(E108), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_8</v>
+        <v>office</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>162</v>
@@ -7853,19 +7871,22 @@
       <c r="I108" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J108" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q108" s="2"/>
       <c r="S108" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108, "/config"))</f>
         <v/>
       </c>
       <c r="T108" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>247</v>
@@ -7874,14 +7895,14 @@
         <v>159</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="F109" s="11" t="str">
         <f>IF(ISBLANK(E109), "", Table2[[#This Row],[unique_id]])</f>
-        <v>wardrobe</v>
+        <v>hue_ambiance_lamp_6</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>162</v>
@@ -7889,22 +7910,19 @@
       <c r="I109" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q109" s="2"/>
       <c r="S109" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R109),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C109), "/", E109, "/config"))</f>
         <v/>
       </c>
       <c r="T109" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R109),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C109), "/", E109))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>247</v>
@@ -7913,14 +7931,14 @@
         <v>159</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="F110" s="11" t="str">
         <f>IF(ISBLANK(E110), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_9</v>
+        <v>bathroom</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>162</v>
@@ -7928,19 +7946,22 @@
       <c r="I110" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J110" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q110" s="2"/>
       <c r="S110" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R110),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C110), "/", E110, "/config"))</f>
         <v/>
       </c>
       <c r="T110" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R110),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C110), "/", E110))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>247</v>
@@ -7949,14 +7970,14 @@
         <v>159</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="F111" s="11" t="str">
         <f>IF(ISBLANK(E111), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin</v>
+        <v>hue_ambiance_lamp_7</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>162</v>
@@ -7964,22 +7985,19 @@
       <c r="I111" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q111" s="2"/>
       <c r="S111" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R111),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C111), "/", E111, "/config"))</f>
         <v/>
       </c>
       <c r="T111" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R111),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C111), "/", E111))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>247</v>
@@ -7988,14 +8006,14 @@
         <v>159</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="F112" s="11" t="str">
         <f>IF(ISBLANK(E112), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_10</v>
+        <v>ensuite</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>162</v>
@@ -8003,19 +8021,22 @@
       <c r="I112" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J112" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q112" s="2"/>
       <c r="S112" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R112),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C112), "/", E112, "/config"))</f>
         <v/>
       </c>
       <c r="T112" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R112),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C112), "/", E112))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>247</v>
@@ -8024,14 +8045,14 @@
         <v>159</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="F113" s="11" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada</v>
+        <v>hue_ambiance_lamp_8</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>162</v>
@@ -8039,22 +8060,19 @@
       <c r="I113" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q113" s="2"/>
       <c r="S113" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113, "/config"))</f>
         <v/>
       </c>
       <c r="T113" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>247</v>
@@ -8063,14 +8081,14 @@
         <v>159</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F114" s="11" t="str">
         <f>IF(ISBLANK(E114), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_11</v>
+        <v>wardrobe</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>162</v>
@@ -8078,19 +8096,22 @@
       <c r="I114" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J114" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q114" s="2"/>
       <c r="S114" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R114),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C114), "/", E114, "/config"))</f>
         <v/>
       </c>
       <c r="T114" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R114),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C114), "/", E114))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>247</v>
@@ -8099,14 +8120,14 @@
         <v>159</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="F115" s="11" t="str">
         <f>IF(ISBLANK(E115), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lamp</v>
+        <v>hue_ambiance_lamp_9</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>162</v>
@@ -8114,22 +8135,19 @@
       <c r="I115" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q115" s="2"/>
       <c r="S115" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115, "/config"))</f>
         <v/>
       </c>
       <c r="T115" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>247</v>
@@ -8138,14 +8156,14 @@
         <v>159</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F116" s="11" t="str">
         <f>IF(ISBLANK(E116), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_13</v>
+        <v>edwin</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>162</v>
@@ -8153,266 +8171,266 @@
       <c r="I116" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J116" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q116" s="2"/>
       <c r="S116" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R116),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C116), "/", E116, "/config"))</f>
         <v/>
       </c>
       <c r="T116" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R116),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C116), "/", E116))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>2080</v>
+        <v>2042</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F117" s="1" t="str">
+        <v>301</v>
+      </c>
+      <c r="F117" s="11" t="str">
         <f>IF(ISBLANK(E117), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>hue_ambiance_lamp_10</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q117" s="2"/>
       <c r="S117" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R117),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C117), "/", E117, "/config"))</f>
         <v/>
       </c>
       <c r="T117" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R117),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C117), "/", E117))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>2100</v>
+        <v>2043</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F118" s="1" t="str">
+        <v>149</v>
+      </c>
+      <c r="F118" s="11" t="str">
         <f>IF(ISBLANK(E118), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_current_consumption</v>
+        <v>ada</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="S118" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R118),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C118), "/", E118, "/config"))</f>
         <v/>
       </c>
       <c r="T118" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R118),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C118), "/", E118))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>2101</v>
+        <v>2044</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F119" s="1" t="str">
+        <v>302</v>
+      </c>
+      <c r="F119" s="11" t="str">
         <f>IF(ISBLANK(E119), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_power</v>
+        <v>hue_ambiance_lamp_11</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="S119" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R119),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C119), "/", E119, "/config"))</f>
         <v/>
       </c>
       <c r="T119" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R119),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C119), "/", E119))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>2200</v>
+        <v>2044</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F120" s="1" t="str">
+        <v>336</v>
+      </c>
+      <c r="F120" s="11" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_total_consumption</v>
+        <v>lamp</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="S120" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R120),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C120), "/", E120, "/config"))</f>
         <v/>
       </c>
       <c r="T120" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R120),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C120), "/", E120))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>2201</v>
+        <v>2044</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F121" s="1" t="str">
+        <v>291</v>
+      </c>
+      <c r="F121" s="11" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_today_s_consumption</v>
+        <v>hue_ambiance_lamp_13</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="S121" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R121),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C121), "/", E121, "/config"))</f>
         <v/>
       </c>
       <c r="T121" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R121),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C121), "/", E121))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>2202</v>
+        <v>2080</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="F122" s="1" t="str">
         <f>IF(ISBLANK(E122), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="S122" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R122),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C122), "/", E122, "/config"))</f>
         <v/>
       </c>
       <c r="T122" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R122),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C122), "/", E122))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>2203</v>
+        <v>2100</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F123" s="1" t="str">
         <f>IF(ISBLANK(E123), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy_today</v>
+        <v>kitchen_coffee_current_consumption</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>168</v>
@@ -8422,703 +8440,697 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="S123" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R123),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C123), "/", E123, "/config"))</f>
         <v/>
       </c>
       <c r="T123" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R123),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C123), "/", E123))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>2300</v>
+        <v>2101</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F124" s="1" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_power</v>
+        <v>dining_lights_power</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="J124" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R124),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C124), "/", E124, "/config"))</f>
         <v/>
       </c>
       <c r="T124" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R124),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C124), "/", E124))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>2301</v>
+        <v>2200</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F125" s="1" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy</v>
+        <v>kitchen_coffee_total_consumption</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>168</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R125),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C125), "/", E125, "/config"))</f>
         <v/>
       </c>
       <c r="T125" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R125),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C125), "/", E125))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>2302</v>
+        <v>2201</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F126" s="1" t="str">
         <f>IF(ISBLANK(E126), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_daily</v>
+        <v>kitchen_coffee_today_s_consumption</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="J126" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q126" s="2"/>
       <c r="S126" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R126),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C126), "/", E126, "/config"))</f>
         <v/>
       </c>
       <c r="T126" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R126),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C126), "/", E126))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>2303</v>
+        <v>2202</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F127" s="1" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_weekly</v>
+        <v>dining_lights_energy</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>168</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="S127" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R127),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C127), "/", E127, "/config"))</f>
         <v/>
       </c>
       <c r="T127" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R127),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C127), "/", E127))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>2304</v>
+        <v>2203</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F128" s="1" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_monthly</v>
+        <v>dining_lights_energy_today</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="J128" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q128" s="2"/>
       <c r="S128" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R128),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C128), "/", E128, "/config"))</f>
         <v/>
       </c>
       <c r="T128" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R128),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C128), "/", E128))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F129" s="1" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>withings_weight_kg_graham</v>
+        <v>hue_color_candle_16_power</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="S129" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R129),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C129), "/", E129, "/config"))</f>
         <v/>
       </c>
       <c r="T129" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R129),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C129), "/", E129))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>2500</v>
+        <v>2301</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="F130" s="1" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>90</v>
+        <v>hue_color_candle_16_energy</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P130" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q130" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Q130" s="2"/>
       <c r="S130" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <f>IF(ISBLANK(R130),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C130), "/", E130, "/config"))</f>
+        <v/>
       </c>
       <c r="T130" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V130" s="1">
-        <v>1</v>
-      </c>
-      <c r="W130" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X130" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y130" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z130" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB130" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC130" s="7" t="s">
-        <v>254</v>
+        <f>IF(ISBLANK(R130),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C130), "/", E130))</f>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>2501</v>
+        <v>2302</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="F131" s="1" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>96</v>
+        <v>hue_color_candle_16_energy_daily</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="P131" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q131" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R131" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Q131" s="2"/>
       <c r="S131" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
+        <f>IF(ISBLANK(R131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131, "/config"))</f>
+        <v/>
       </c>
       <c r="T131" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="U131" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="V131" s="1">
-        <v>1</v>
-      </c>
-      <c r="W131" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X131" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y131" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z131" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB131" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC131" s="7" t="s">
-        <v>254</v>
+        <f>IF(ISBLANK(R131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131))</f>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>2600</v>
+        <v>2303</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F132" s="1" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>264</v>
+        <v>hue_color_candle_16_energy_weekly</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="S132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132, "/config"))</f>
         <v/>
       </c>
       <c r="T132" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>2700</v>
+        <v>2304</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F133" s="1" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>265</v>
+        <v>hue_color_candle_16_energy_monthly</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="S133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133, "/config"))</f>
         <v/>
       </c>
       <c r="T133" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F134" s="1" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>266</v>
+        <v>withings_weight_kg_graham</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="S134" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R134),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C134), "/", E134, "/config"))</f>
         <v/>
       </c>
       <c r="T134" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R134),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C134), "/", E134))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="F135" s="1" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q135" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P135" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="S135" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(ISBLANK(R135),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C135), "/", E135, "/config"))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T135" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(ISBLANK(R135),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C135), "/", E135))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="U135" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V135" s="1">
+        <v>1</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X135" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z135" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC135" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>3001</v>
+        <v>2501</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="F136" s="1" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q136" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P136" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="S136" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(ISBLANK(R136),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C136), "/", E136, "/config"))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T136" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(ISBLANK(R136),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C136), "/", E136))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V136" s="1">
+        <v>1</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X136" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z136" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC136" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>3050</v>
+        <v>2600</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="F137" s="1" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_occupancy</v>
+        <v>ada_home</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="S137" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R137),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C137), "/", E137, "/config"))</f>
         <v/>
       </c>
       <c r="T137" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R137),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C137), "/", E137))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>3051</v>
+        <v>2700</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F138" s="1" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
+        <v>kitchen_speaker</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>226</v>
+        <v>265</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="S138" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R138),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C138), "/", E138, "/config"))</f>
         <v/>
       </c>
       <c r="T138" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R138),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C138), "/", E138))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>3052</v>
+        <v>2800</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>340</v>
+        <v>183</v>
       </c>
       <c r="F139" s="1" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_occupancy</v>
+        <v>parents_speaker_battery</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="S139" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R139),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C139), "/", E139, "/config"))</f>
         <v/>
       </c>
       <c r="T139" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R139),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C139), "/", E139))</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>3053</v>
+        <v>3000</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>338</v>
+        <v>189</v>
       </c>
       <c r="F140" s="1" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
+        <v>uvc_ada_medium</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>226</v>
+        <v>150</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>344</v>
@@ -9128,36 +9140,36 @@
       </c>
       <c r="Q140" s="2"/>
       <c r="S140" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R140),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C140), "/", E140, "/config"))</f>
         <v/>
       </c>
       <c r="T140" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R140),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C140), "/", E140))</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>3054</v>
+        <v>3001</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>192</v>
+        <v>337</v>
       </c>
       <c r="F141" s="1" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_occupancy</v>
+        <v>uvc_edwin_medium</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>348</v>
+        <v>146</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>344</v>
@@ -9167,17 +9179,17 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="S141" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R141),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C141), "/", E141, "/config"))</f>
         <v/>
       </c>
       <c r="T141" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R141),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C141), "/", E141))</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>153</v>
@@ -9186,16 +9198,16 @@
         <v>190</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F142" s="1" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_occupancy</v>
+        <v>ada_occupancy</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H142" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>226</v>
       </c>
       <c r="I142" s="1" t="s">
@@ -9206,35 +9218,35 @@
       </c>
       <c r="Q142" s="2"/>
       <c r="S142" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R142),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C142), "/", E142, "/config"))</f>
         <v/>
       </c>
       <c r="T142" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R142),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C142), "/", E142))</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="F143" s="1" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck2_occupancy</v>
+        <v>uvc_ada_motion</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H143" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H143" s="5" t="s">
         <v>226</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -9245,17 +9257,17 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="S143" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R143),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C143), "/", E143, "/config"))</f>
         <v/>
       </c>
       <c r="T143" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R143),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C143), "/", E143))</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>153</v>
@@ -9264,14 +9276,14 @@
         <v>190</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F144" s="1" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck1_occupancy</v>
+        <v>edwin_occupancy</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>226</v>
@@ -9284,153 +9296,278 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="S144" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R144),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C144), "/", E144, "/config"))</f>
         <v/>
       </c>
       <c r="T144" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R144),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C144), "/", E144))</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>8000</v>
+        <v>3053</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="F145" s="1" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_energize</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>162</v>
+        <v>uvc_edwin_motion</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>195</v>
+        <v>344</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="S145" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R145),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C145), "/", E145, "/config"))</f>
         <v/>
       </c>
       <c r="T145" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R145),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C145), "/", E145))</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>9000</v>
+        <v>3054</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F146" s="1" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v>update_bom_icons</v>
+        <v>parents_occupancy</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>195</v>
+        <v>344</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="S146" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R146),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C146), "/", E146, "/config"))</f>
         <v/>
       </c>
       <c r="T146" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R146),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C146), "/", E146))</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F147" s="11" t="str">
+      <c r="A147" s="1">
+        <v>3055</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F147" s="1" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>lounge_occupancy</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q147" s="2"/>
       <c r="S147" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(R147),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C147), "/", E147, "/config"))</f>
         <v/>
       </c>
       <c r="T147" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(R147),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C147), "/", E147))</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F148" s="11" t="str">
+      <c r="A148" s="1">
+        <v>3056</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F148" s="1" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>deck2_occupancy</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q148" s="2"/>
       <c r="S148" s="1" t="str">
-        <f t="shared" ref="S148:S211" si="4">IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148, "/config"))</f>
+        <f>IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148, "/config"))</f>
         <v/>
       </c>
       <c r="T148" s="1" t="str">
-        <f t="shared" ref="T148:T211" si="5">IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148))</f>
+        <f>IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148))</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F149" s="11" t="str">
+      <c r="A149" s="1">
+        <v>3057</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F149" s="1" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>deck1_occupancy</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q149" s="2"/>
       <c r="S149" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R149),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C149), "/", E149, "/config"))</f>
         <v/>
       </c>
       <c r="T149" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R149),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C149), "/", E149))</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F150" s="11" t="str">
+      <c r="A150" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F150" s="1" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>ada_energize</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q150" s="2"/>
       <c r="S150" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R150),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C150), "/", E150, "/config"))</f>
         <v/>
       </c>
       <c r="T150" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R150),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C150), "/", E150))</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F151" s="11" t="str">
+      <c r="A151" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F151" s="1" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>update_bom_icons</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q151" s="2"/>
       <c r="S151" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R151),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C151), "/", E151, "/config"))</f>
         <v/>
       </c>
       <c r="T151" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R151),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C151), "/", E151))</f>
         <v/>
       </c>
     </row>
@@ -9439,13 +9576,12 @@
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G152" s="6"/>
       <c r="S152" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R152),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C152), "/", E152, "/config"))</f>
         <v/>
       </c>
       <c r="T152" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R152),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C152), "/", E152))</f>
         <v/>
       </c>
     </row>
@@ -9455,81 +9591,82 @@
         <v/>
       </c>
       <c r="S153" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R153),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C153), "/", E153, "/config"))</f>
         <v/>
       </c>
       <c r="T153" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R153),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C153), "/", E153))</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F154" s="1" t="str">
+      <c r="F154" s="11" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="S154" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R154),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C154), "/", E154, "/config"))</f>
         <v/>
       </c>
       <c r="T154" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R154),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C154), "/", E154))</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F155" s="1" t="str">
+      <c r="F155" s="11" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="S155" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R155),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C155), "/", E155, "/config"))</f>
         <v/>
       </c>
       <c r="T155" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R155),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C155), "/", E155))</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F156" s="1" t="str">
+      <c r="F156" s="11" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="S156" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156, "/config"))</f>
         <v/>
       </c>
       <c r="T156" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156))</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F157" s="1" t="str">
+      <c r="F157" s="11" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G157" s="6"/>
       <c r="S157" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157, "/config"))</f>
         <v/>
       </c>
       <c r="T157" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157))</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F158" s="1" t="str">
+      <c r="F158" s="11" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="S158" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R158),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C158), "/", E158, "/config"))</f>
         <v/>
       </c>
       <c r="T158" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R158),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C158), "/", E158))</f>
         <v/>
       </c>
     </row>
@@ -9539,11 +9676,11 @@
         <v/>
       </c>
       <c r="S159" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R159),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C159), "/", E159, "/config"))</f>
         <v/>
       </c>
       <c r="T159" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R159),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C159), "/", E159))</f>
         <v/>
       </c>
     </row>
@@ -9553,11 +9690,11 @@
         <v/>
       </c>
       <c r="S160" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160, "/config"))</f>
         <v/>
       </c>
       <c r="T160" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160))</f>
         <v/>
       </c>
     </row>
@@ -9567,11 +9704,11 @@
         <v/>
       </c>
       <c r="S161" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R161),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C161), "/", E161, "/config"))</f>
         <v/>
       </c>
       <c r="T161" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R161),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C161), "/", E161))</f>
         <v/>
       </c>
     </row>
@@ -9581,11 +9718,11 @@
         <v/>
       </c>
       <c r="S162" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R162),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C162), "/", E162, "/config"))</f>
         <v/>
       </c>
       <c r="T162" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R162),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C162), "/", E162))</f>
         <v/>
       </c>
     </row>
@@ -9595,11 +9732,11 @@
         <v/>
       </c>
       <c r="S163" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R163),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C163), "/", E163, "/config"))</f>
         <v/>
       </c>
       <c r="T163" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R163),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C163), "/", E163))</f>
         <v/>
       </c>
     </row>
@@ -9609,11 +9746,11 @@
         <v/>
       </c>
       <c r="S164" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R164),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C164), "/", E164, "/config"))</f>
         <v/>
       </c>
       <c r="T164" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R164),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C164), "/", E164))</f>
         <v/>
       </c>
     </row>
@@ -9623,11 +9760,11 @@
         <v/>
       </c>
       <c r="S165" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R165),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C165), "/", E165, "/config"))</f>
         <v/>
       </c>
       <c r="T165" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R165),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C165), "/", E165))</f>
         <v/>
       </c>
     </row>
@@ -9637,11 +9774,11 @@
         <v/>
       </c>
       <c r="S166" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R166),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C166), "/", E166, "/config"))</f>
         <v/>
       </c>
       <c r="T166" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R166),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C166), "/", E166))</f>
         <v/>
       </c>
     </row>
@@ -9651,11 +9788,11 @@
         <v/>
       </c>
       <c r="S167" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R167),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C167), "/", E167, "/config"))</f>
         <v/>
       </c>
       <c r="T167" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R167),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C167), "/", E167))</f>
         <v/>
       </c>
     </row>
@@ -9665,11 +9802,11 @@
         <v/>
       </c>
       <c r="S168" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R168),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C168), "/", E168, "/config"))</f>
         <v/>
       </c>
       <c r="T168" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R168),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C168), "/", E168))</f>
         <v/>
       </c>
     </row>
@@ -9679,11 +9816,11 @@
         <v/>
       </c>
       <c r="S169" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169, "/config"))</f>
         <v/>
       </c>
       <c r="T169" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169))</f>
         <v/>
       </c>
     </row>
@@ -9693,11 +9830,11 @@
         <v/>
       </c>
       <c r="S170" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170, "/config"))</f>
         <v/>
       </c>
       <c r="T170" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170))</f>
         <v/>
       </c>
     </row>
@@ -9707,11 +9844,11 @@
         <v/>
       </c>
       <c r="S171" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171, "/config"))</f>
         <v/>
       </c>
       <c r="T171" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171))</f>
         <v/>
       </c>
     </row>
@@ -9721,11 +9858,11 @@
         <v/>
       </c>
       <c r="S172" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R172),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C172), "/", E172, "/config"))</f>
         <v/>
       </c>
       <c r="T172" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R172),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C172), "/", E172))</f>
         <v/>
       </c>
     </row>
@@ -9735,11 +9872,11 @@
         <v/>
       </c>
       <c r="S173" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R173),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C173), "/", E173, "/config"))</f>
         <v/>
       </c>
       <c r="T173" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R173),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C173), "/", E173))</f>
         <v/>
       </c>
     </row>
@@ -9749,11 +9886,11 @@
         <v/>
       </c>
       <c r="S174" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R174),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C174), "/", E174, "/config"))</f>
         <v/>
       </c>
       <c r="T174" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R174),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C174), "/", E174))</f>
         <v/>
       </c>
     </row>
@@ -9763,11 +9900,11 @@
         <v/>
       </c>
       <c r="S175" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R175),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C175), "/", E175, "/config"))</f>
         <v/>
       </c>
       <c r="T175" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R175),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C175), "/", E175))</f>
         <v/>
       </c>
     </row>
@@ -9777,11 +9914,11 @@
         <v/>
       </c>
       <c r="S176" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R176),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C176), "/", E176, "/config"))</f>
         <v/>
       </c>
       <c r="T176" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R176),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C176), "/", E176))</f>
         <v/>
       </c>
     </row>
@@ -9791,11 +9928,11 @@
         <v/>
       </c>
       <c r="S177" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R177),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C177), "/", E177, "/config"))</f>
         <v/>
       </c>
       <c r="T177" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R177),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C177), "/", E177))</f>
         <v/>
       </c>
     </row>
@@ -9805,11 +9942,11 @@
         <v/>
       </c>
       <c r="S178" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R178),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C178), "/", E178, "/config"))</f>
         <v/>
       </c>
       <c r="T178" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R178),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C178), "/", E178))</f>
         <v/>
       </c>
     </row>
@@ -9819,11 +9956,11 @@
         <v/>
       </c>
       <c r="S179" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179, "/config"))</f>
         <v/>
       </c>
       <c r="T179" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179))</f>
         <v/>
       </c>
     </row>
@@ -9833,11 +9970,11 @@
         <v/>
       </c>
       <c r="S180" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180, "/config"))</f>
         <v/>
       </c>
       <c r="T180" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180))</f>
         <v/>
       </c>
     </row>
@@ -9847,11 +9984,11 @@
         <v/>
       </c>
       <c r="S181" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181, "/config"))</f>
         <v/>
       </c>
       <c r="T181" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181))</f>
         <v/>
       </c>
     </row>
@@ -9861,11 +9998,11 @@
         <v/>
       </c>
       <c r="S182" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182, "/config"))</f>
         <v/>
       </c>
       <c r="T182" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182))</f>
         <v/>
       </c>
     </row>
@@ -9875,11 +10012,11 @@
         <v/>
       </c>
       <c r="S183" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183, "/config"))</f>
         <v/>
       </c>
       <c r="T183" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183))</f>
         <v/>
       </c>
     </row>
@@ -9889,11 +10026,11 @@
         <v/>
       </c>
       <c r="S184" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184, "/config"))</f>
         <v/>
       </c>
       <c r="T184" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184))</f>
         <v/>
       </c>
     </row>
@@ -9903,11 +10040,11 @@
         <v/>
       </c>
       <c r="S185" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185, "/config"))</f>
         <v/>
       </c>
       <c r="T185" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185))</f>
         <v/>
       </c>
     </row>
@@ -9917,11 +10054,11 @@
         <v/>
       </c>
       <c r="S186" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186, "/config"))</f>
         <v/>
       </c>
       <c r="T186" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186))</f>
         <v/>
       </c>
     </row>
@@ -9931,11 +10068,11 @@
         <v/>
       </c>
       <c r="S187" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187, "/config"))</f>
         <v/>
       </c>
       <c r="T187" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187))</f>
         <v/>
       </c>
     </row>
@@ -9945,11 +10082,11 @@
         <v/>
       </c>
       <c r="S188" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188, "/config"))</f>
         <v/>
       </c>
       <c r="T188" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188))</f>
         <v/>
       </c>
     </row>
@@ -9959,11 +10096,11 @@
         <v/>
       </c>
       <c r="S189" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189, "/config"))</f>
         <v/>
       </c>
       <c r="T189" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189))</f>
         <v/>
       </c>
     </row>
@@ -9973,11 +10110,11 @@
         <v/>
       </c>
       <c r="S190" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190, "/config"))</f>
         <v/>
       </c>
       <c r="T190" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190))</f>
         <v/>
       </c>
     </row>
@@ -9987,11 +10124,11 @@
         <v/>
       </c>
       <c r="S191" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191, "/config"))</f>
         <v/>
       </c>
       <c r="T191" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191))</f>
         <v/>
       </c>
     </row>
@@ -10001,11 +10138,11 @@
         <v/>
       </c>
       <c r="S192" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192, "/config"))</f>
         <v/>
       </c>
       <c r="T192" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192))</f>
         <v/>
       </c>
     </row>
@@ -10015,11 +10152,11 @@
         <v/>
       </c>
       <c r="S193" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193, "/config"))</f>
         <v/>
       </c>
       <c r="T193" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193))</f>
         <v/>
       </c>
     </row>
@@ -10029,11 +10166,11 @@
         <v/>
       </c>
       <c r="S194" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R194),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C194), "/", E194, "/config"))</f>
         <v/>
       </c>
       <c r="T194" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R194),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C194), "/", E194))</f>
         <v/>
       </c>
     </row>
@@ -10043,11 +10180,11 @@
         <v/>
       </c>
       <c r="S195" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R195),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C195), "/", E195, "/config"))</f>
         <v/>
       </c>
       <c r="T195" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R195),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C195), "/", E195))</f>
         <v/>
       </c>
     </row>
@@ -10057,11 +10194,11 @@
         <v/>
       </c>
       <c r="S196" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196, "/config"))</f>
         <v/>
       </c>
       <c r="T196" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196))</f>
         <v/>
       </c>
     </row>
@@ -10071,11 +10208,11 @@
         <v/>
       </c>
       <c r="S197" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
         <v/>
       </c>
       <c r="T197" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197))</f>
         <v/>
       </c>
     </row>
@@ -10085,11 +10222,11 @@
         <v/>
       </c>
       <c r="S198" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R198),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C198), "/", E198, "/config"))</f>
         <v/>
       </c>
       <c r="T198" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R198),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C198), "/", E198))</f>
         <v/>
       </c>
     </row>
@@ -10099,11 +10236,11 @@
         <v/>
       </c>
       <c r="S199" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R199),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C199), "/", E199, "/config"))</f>
         <v/>
       </c>
       <c r="T199" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R199),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C199), "/", E199))</f>
         <v/>
       </c>
     </row>
@@ -10113,11 +10250,11 @@
         <v/>
       </c>
       <c r="S200" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R200),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C200), "/", E200, "/config"))</f>
         <v/>
       </c>
       <c r="T200" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R200),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C200), "/", E200))</f>
         <v/>
       </c>
     </row>
@@ -10127,11 +10264,11 @@
         <v/>
       </c>
       <c r="S201" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R201),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C201), "/", E201, "/config"))</f>
         <v/>
       </c>
       <c r="T201" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R201),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C201), "/", E201))</f>
         <v/>
       </c>
     </row>
@@ -10141,11 +10278,11 @@
         <v/>
       </c>
       <c r="S202" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R202),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C202), "/", E202, "/config"))</f>
         <v/>
       </c>
       <c r="T202" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R202),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C202), "/", E202))</f>
         <v/>
       </c>
     </row>
@@ -10155,11 +10292,11 @@
         <v/>
       </c>
       <c r="S203" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R203),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C203), "/", E203, "/config"))</f>
         <v/>
       </c>
       <c r="T203" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R203),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C203), "/", E203))</f>
         <v/>
       </c>
     </row>
@@ -10169,11 +10306,11 @@
         <v/>
       </c>
       <c r="S204" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R204),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C204), "/", E204, "/config"))</f>
         <v/>
       </c>
       <c r="T204" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R204),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C204), "/", E204))</f>
         <v/>
       </c>
     </row>
@@ -10183,11 +10320,11 @@
         <v/>
       </c>
       <c r="S205" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R205),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C205), "/", E205, "/config"))</f>
         <v/>
       </c>
       <c r="T205" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R205),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C205), "/", E205))</f>
         <v/>
       </c>
     </row>
@@ -10197,11 +10334,11 @@
         <v/>
       </c>
       <c r="S206" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R206),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C206), "/", E206, "/config"))</f>
         <v/>
       </c>
       <c r="T206" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R206),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C206), "/", E206))</f>
         <v/>
       </c>
     </row>
@@ -10211,11 +10348,11 @@
         <v/>
       </c>
       <c r="S207" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R207),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C207), "/", E207, "/config"))</f>
         <v/>
       </c>
       <c r="T207" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R207),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C207), "/", E207))</f>
         <v/>
       </c>
     </row>
@@ -10225,11 +10362,11 @@
         <v/>
       </c>
       <c r="S208" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R208),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C208), "/", E208, "/config"))</f>
         <v/>
       </c>
       <c r="T208" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R208),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C208), "/", E208))</f>
         <v/>
       </c>
     </row>
@@ -10239,11 +10376,11 @@
         <v/>
       </c>
       <c r="S209" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R209),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C209), "/", E209, "/config"))</f>
         <v/>
       </c>
       <c r="T209" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R209),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C209), "/", E209))</f>
         <v/>
       </c>
     </row>
@@ -10253,11 +10390,11 @@
         <v/>
       </c>
       <c r="S210" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R210),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C210), "/", E210, "/config"))</f>
         <v/>
       </c>
       <c r="T210" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R210),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C210), "/", E210))</f>
         <v/>
       </c>
     </row>
@@ -10267,11 +10404,11 @@
         <v/>
       </c>
       <c r="S211" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(R211),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C211), "/", E211, "/config"))</f>
         <v/>
       </c>
       <c r="T211" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(R211),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C211), "/", E211))</f>
         <v/>
       </c>
     </row>
@@ -10281,11 +10418,11 @@
         <v/>
       </c>
       <c r="S212" s="1" t="str">
-        <f t="shared" ref="S212:S275" si="6">IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212, "/config"))</f>
+        <f>IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212, "/config"))</f>
         <v/>
       </c>
       <c r="T212" s="1" t="str">
-        <f t="shared" ref="T212:T275" si="7">IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212))</f>
+        <f>IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212))</f>
         <v/>
       </c>
     </row>
@@ -10295,11 +10432,11 @@
         <v/>
       </c>
       <c r="S213" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R213),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C213), "/", E213, "/config"))</f>
         <v/>
       </c>
       <c r="T213" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R213),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C213), "/", E213))</f>
         <v/>
       </c>
     </row>
@@ -10309,11 +10446,11 @@
         <v/>
       </c>
       <c r="S214" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R214),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C214), "/", E214, "/config"))</f>
         <v/>
       </c>
       <c r="T214" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R214),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C214), "/", E214))</f>
         <v/>
       </c>
     </row>
@@ -10323,11 +10460,11 @@
         <v/>
       </c>
       <c r="S215" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R215),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C215), "/", E215, "/config"))</f>
         <v/>
       </c>
       <c r="T215" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R215),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C215), "/", E215))</f>
         <v/>
       </c>
     </row>
@@ -10337,11 +10474,11 @@
         <v/>
       </c>
       <c r="S216" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R216),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C216), "/", E216, "/config"))</f>
         <v/>
       </c>
       <c r="T216" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R216),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C216), "/", E216))</f>
         <v/>
       </c>
     </row>
@@ -10351,11 +10488,11 @@
         <v/>
       </c>
       <c r="S217" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R217),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C217), "/", E217, "/config"))</f>
         <v/>
       </c>
       <c r="T217" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R217),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C217), "/", E217))</f>
         <v/>
       </c>
     </row>
@@ -10365,11 +10502,11 @@
         <v/>
       </c>
       <c r="S218" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R218),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C218), "/", E218, "/config"))</f>
         <v/>
       </c>
       <c r="T218" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R218),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C218), "/", E218))</f>
         <v/>
       </c>
     </row>
@@ -10379,11 +10516,11 @@
         <v/>
       </c>
       <c r="S219" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R219),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C219), "/", E219, "/config"))</f>
         <v/>
       </c>
       <c r="T219" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R219),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C219), "/", E219))</f>
         <v/>
       </c>
     </row>
@@ -10393,11 +10530,11 @@
         <v/>
       </c>
       <c r="S220" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R220),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C220), "/", E220, "/config"))</f>
         <v/>
       </c>
       <c r="T220" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R220),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C220), "/", E220))</f>
         <v/>
       </c>
     </row>
@@ -10407,11 +10544,11 @@
         <v/>
       </c>
       <c r="S221" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R221),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C221), "/", E221, "/config"))</f>
         <v/>
       </c>
       <c r="T221" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R221),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C221), "/", E221))</f>
         <v/>
       </c>
     </row>
@@ -10421,11 +10558,11 @@
         <v/>
       </c>
       <c r="S222" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R222),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C222), "/", E222, "/config"))</f>
         <v/>
       </c>
       <c r="T222" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R222),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C222), "/", E222))</f>
         <v/>
       </c>
     </row>
@@ -10435,11 +10572,11 @@
         <v/>
       </c>
       <c r="S223" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R223),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C223), "/", E223, "/config"))</f>
         <v/>
       </c>
       <c r="T223" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R223),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C223), "/", E223))</f>
         <v/>
       </c>
     </row>
@@ -10449,11 +10586,11 @@
         <v/>
       </c>
       <c r="S224" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R224),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C224), "/", E224, "/config"))</f>
         <v/>
       </c>
       <c r="T224" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R224),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C224), "/", E224))</f>
         <v/>
       </c>
     </row>
@@ -10463,11 +10600,11 @@
         <v/>
       </c>
       <c r="S225" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R225),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C225), "/", E225, "/config"))</f>
         <v/>
       </c>
       <c r="T225" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R225),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C225), "/", E225))</f>
         <v/>
       </c>
     </row>
@@ -10477,11 +10614,11 @@
         <v/>
       </c>
       <c r="S226" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R226),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C226), "/", E226, "/config"))</f>
         <v/>
       </c>
       <c r="T226" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R226),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C226), "/", E226))</f>
         <v/>
       </c>
     </row>
@@ -10491,11 +10628,11 @@
         <v/>
       </c>
       <c r="S227" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R227),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C227), "/", E227, "/config"))</f>
         <v/>
       </c>
       <c r="T227" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R227),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C227), "/", E227))</f>
         <v/>
       </c>
     </row>
@@ -10505,11 +10642,11 @@
         <v/>
       </c>
       <c r="S228" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R228),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C228), "/", E228, "/config"))</f>
         <v/>
       </c>
       <c r="T228" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R228),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C228), "/", E228))</f>
         <v/>
       </c>
     </row>
@@ -10519,11 +10656,11 @@
         <v/>
       </c>
       <c r="S229" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R229),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C229), "/", E229, "/config"))</f>
         <v/>
       </c>
       <c r="T229" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R229),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C229), "/", E229))</f>
         <v/>
       </c>
     </row>
@@ -10533,11 +10670,11 @@
         <v/>
       </c>
       <c r="S230" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R230),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C230), "/", E230, "/config"))</f>
         <v/>
       </c>
       <c r="T230" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R230),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C230), "/", E230))</f>
         <v/>
       </c>
     </row>
@@ -10547,11 +10684,11 @@
         <v/>
       </c>
       <c r="S231" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R231),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C231), "/", E231, "/config"))</f>
         <v/>
       </c>
       <c r="T231" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R231),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C231), "/", E231))</f>
         <v/>
       </c>
     </row>
@@ -10561,11 +10698,11 @@
         <v/>
       </c>
       <c r="S232" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R232),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C232), "/", E232, "/config"))</f>
         <v/>
       </c>
       <c r="T232" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R232),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C232), "/", E232))</f>
         <v/>
       </c>
     </row>
@@ -10575,11 +10712,11 @@
         <v/>
       </c>
       <c r="S233" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R233),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C233), "/", E233, "/config"))</f>
         <v/>
       </c>
       <c r="T233" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R233),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C233), "/", E233))</f>
         <v/>
       </c>
     </row>
@@ -10589,11 +10726,11 @@
         <v/>
       </c>
       <c r="S234" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R234),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C234), "/", E234, "/config"))</f>
         <v/>
       </c>
       <c r="T234" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R234),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C234), "/", E234))</f>
         <v/>
       </c>
     </row>
@@ -10603,11 +10740,11 @@
         <v/>
       </c>
       <c r="S235" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R235),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C235), "/", E235, "/config"))</f>
         <v/>
       </c>
       <c r="T235" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R235),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C235), "/", E235))</f>
         <v/>
       </c>
     </row>
@@ -10617,11 +10754,11 @@
         <v/>
       </c>
       <c r="S236" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R236),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C236), "/", E236, "/config"))</f>
         <v/>
       </c>
       <c r="T236" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R236),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C236), "/", E236))</f>
         <v/>
       </c>
     </row>
@@ -10631,11 +10768,11 @@
         <v/>
       </c>
       <c r="S237" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R237),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C237), "/", E237, "/config"))</f>
         <v/>
       </c>
       <c r="T237" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R237),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C237), "/", E237))</f>
         <v/>
       </c>
     </row>
@@ -10645,11 +10782,11 @@
         <v/>
       </c>
       <c r="S238" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R238),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C238), "/", E238, "/config"))</f>
         <v/>
       </c>
       <c r="T238" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R238),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C238), "/", E238))</f>
         <v/>
       </c>
     </row>
@@ -10659,11 +10796,11 @@
         <v/>
       </c>
       <c r="S239" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R239),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C239), "/", E239, "/config"))</f>
         <v/>
       </c>
       <c r="T239" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R239),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C239), "/", E239))</f>
         <v/>
       </c>
     </row>
@@ -10673,11 +10810,11 @@
         <v/>
       </c>
       <c r="S240" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R240),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C240), "/", E240, "/config"))</f>
         <v/>
       </c>
       <c r="T240" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R240),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C240), "/", E240))</f>
         <v/>
       </c>
     </row>
@@ -10687,11 +10824,11 @@
         <v/>
       </c>
       <c r="S241" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R241),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C241), "/", E241, "/config"))</f>
         <v/>
       </c>
       <c r="T241" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R241),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C241), "/", E241))</f>
         <v/>
       </c>
     </row>
@@ -10701,11 +10838,11 @@
         <v/>
       </c>
       <c r="S242" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R242),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C242), "/", E242, "/config"))</f>
         <v/>
       </c>
       <c r="T242" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R242),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C242), "/", E242))</f>
         <v/>
       </c>
     </row>
@@ -10715,11 +10852,11 @@
         <v/>
       </c>
       <c r="S243" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R243),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C243), "/", E243, "/config"))</f>
         <v/>
       </c>
       <c r="T243" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R243),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C243), "/", E243))</f>
         <v/>
       </c>
     </row>
@@ -10729,11 +10866,11 @@
         <v/>
       </c>
       <c r="S244" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R244),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C244), "/", E244, "/config"))</f>
         <v/>
       </c>
       <c r="T244" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R244),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C244), "/", E244))</f>
         <v/>
       </c>
     </row>
@@ -10743,11 +10880,11 @@
         <v/>
       </c>
       <c r="S245" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R245),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C245), "/", E245, "/config"))</f>
         <v/>
       </c>
       <c r="T245" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R245),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C245), "/", E245))</f>
         <v/>
       </c>
     </row>
@@ -10757,11 +10894,11 @@
         <v/>
       </c>
       <c r="S246" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246, "/config"))</f>
         <v/>
       </c>
       <c r="T246" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246))</f>
         <v/>
       </c>
     </row>
@@ -10771,11 +10908,11 @@
         <v/>
       </c>
       <c r="S247" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R247),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C247), "/", E247, "/config"))</f>
         <v/>
       </c>
       <c r="T247" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R247),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C247), "/", E247))</f>
         <v/>
       </c>
     </row>
@@ -10785,11 +10922,11 @@
         <v/>
       </c>
       <c r="S248" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R248),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C248), "/", E248, "/config"))</f>
         <v/>
       </c>
       <c r="T248" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R248),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C248), "/", E248))</f>
         <v/>
       </c>
     </row>
@@ -10799,11 +10936,11 @@
         <v/>
       </c>
       <c r="S249" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R249),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C249), "/", E249, "/config"))</f>
         <v/>
       </c>
       <c r="T249" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R249),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C249), "/", E249))</f>
         <v/>
       </c>
     </row>
@@ -10813,11 +10950,11 @@
         <v/>
       </c>
       <c r="S250" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R250),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C250), "/", E250, "/config"))</f>
         <v/>
       </c>
       <c r="T250" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R250),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C250), "/", E250))</f>
         <v/>
       </c>
     </row>
@@ -10827,11 +10964,11 @@
         <v/>
       </c>
       <c r="S251" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R251),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C251), "/", E251, "/config"))</f>
         <v/>
       </c>
       <c r="T251" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R251),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C251), "/", E251))</f>
         <v/>
       </c>
     </row>
@@ -10841,11 +10978,11 @@
         <v/>
       </c>
       <c r="S252" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R252),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C252), "/", E252, "/config"))</f>
         <v/>
       </c>
       <c r="T252" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R252),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C252), "/", E252))</f>
         <v/>
       </c>
     </row>
@@ -10855,11 +10992,11 @@
         <v/>
       </c>
       <c r="S253" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R253),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C253), "/", E253, "/config"))</f>
         <v/>
       </c>
       <c r="T253" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R253),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C253), "/", E253))</f>
         <v/>
       </c>
     </row>
@@ -10869,11 +11006,11 @@
         <v/>
       </c>
       <c r="S254" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R254),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C254), "/", E254, "/config"))</f>
         <v/>
       </c>
       <c r="T254" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R254),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C254), "/", E254))</f>
         <v/>
       </c>
     </row>
@@ -10883,11 +11020,11 @@
         <v/>
       </c>
       <c r="S255" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R255),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C255), "/", E255, "/config"))</f>
         <v/>
       </c>
       <c r="T255" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R255),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C255), "/", E255))</f>
         <v/>
       </c>
     </row>
@@ -10897,11 +11034,11 @@
         <v/>
       </c>
       <c r="S256" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R256),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C256), "/", E256, "/config"))</f>
         <v/>
       </c>
       <c r="T256" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R256),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C256), "/", E256))</f>
         <v/>
       </c>
     </row>
@@ -10911,11 +11048,11 @@
         <v/>
       </c>
       <c r="S257" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R257),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C257), "/", E257, "/config"))</f>
         <v/>
       </c>
       <c r="T257" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R257),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C257), "/", E257))</f>
         <v/>
       </c>
     </row>
@@ -10925,11 +11062,11 @@
         <v/>
       </c>
       <c r="S258" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R258),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C258), "/", E258, "/config"))</f>
         <v/>
       </c>
       <c r="T258" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R258),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C258), "/", E258))</f>
         <v/>
       </c>
     </row>
@@ -10939,11 +11076,11 @@
         <v/>
       </c>
       <c r="S259" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R259),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C259), "/", E259, "/config"))</f>
         <v/>
       </c>
       <c r="T259" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R259),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C259), "/", E259))</f>
         <v/>
       </c>
     </row>
@@ -10953,11 +11090,11 @@
         <v/>
       </c>
       <c r="S260" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R260),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C260), "/", E260, "/config"))</f>
         <v/>
       </c>
       <c r="T260" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R260),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C260), "/", E260))</f>
         <v/>
       </c>
     </row>
@@ -10967,11 +11104,11 @@
         <v/>
       </c>
       <c r="S261" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261, "/config"))</f>
         <v/>
       </c>
       <c r="T261" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261))</f>
         <v/>
       </c>
     </row>
@@ -10981,11 +11118,11 @@
         <v/>
       </c>
       <c r="S262" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R262),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C262), "/", E262, "/config"))</f>
         <v/>
       </c>
       <c r="T262" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R262),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C262), "/", E262))</f>
         <v/>
       </c>
     </row>
@@ -10995,11 +11132,11 @@
         <v/>
       </c>
       <c r="S263" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R263),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C263), "/", E263, "/config"))</f>
         <v/>
       </c>
       <c r="T263" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R263),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C263), "/", E263))</f>
         <v/>
       </c>
     </row>
@@ -11009,11 +11146,11 @@
         <v/>
       </c>
       <c r="S264" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R264),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C264), "/", E264, "/config"))</f>
         <v/>
       </c>
       <c r="T264" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R264),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C264), "/", E264))</f>
         <v/>
       </c>
     </row>
@@ -11023,11 +11160,11 @@
         <v/>
       </c>
       <c r="S265" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R265),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C265), "/", E265, "/config"))</f>
         <v/>
       </c>
       <c r="T265" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R265),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C265), "/", E265))</f>
         <v/>
       </c>
     </row>
@@ -11037,11 +11174,11 @@
         <v/>
       </c>
       <c r="S266" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R266),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C266), "/", E266, "/config"))</f>
         <v/>
       </c>
       <c r="T266" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R266),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C266), "/", E266))</f>
         <v/>
       </c>
     </row>
@@ -11051,11 +11188,11 @@
         <v/>
       </c>
       <c r="S267" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R267),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C267), "/", E267, "/config"))</f>
         <v/>
       </c>
       <c r="T267" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R267),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C267), "/", E267))</f>
         <v/>
       </c>
     </row>
@@ -11065,11 +11202,11 @@
         <v/>
       </c>
       <c r="S268" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R268),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C268), "/", E268, "/config"))</f>
         <v/>
       </c>
       <c r="T268" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R268),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C268), "/", E268))</f>
         <v/>
       </c>
     </row>
@@ -11079,11 +11216,11 @@
         <v/>
       </c>
       <c r="S269" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R269),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C269), "/", E269, "/config"))</f>
         <v/>
       </c>
       <c r="T269" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R269),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C269), "/", E269))</f>
         <v/>
       </c>
     </row>
@@ -11093,11 +11230,11 @@
         <v/>
       </c>
       <c r="S270" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R270),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C270), "/", E270, "/config"))</f>
         <v/>
       </c>
       <c r="T270" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R270),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C270), "/", E270))</f>
         <v/>
       </c>
     </row>
@@ -11107,11 +11244,11 @@
         <v/>
       </c>
       <c r="S271" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R271),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C271), "/", E271, "/config"))</f>
         <v/>
       </c>
       <c r="T271" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R271),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C271), "/", E271))</f>
         <v/>
       </c>
     </row>
@@ -11121,11 +11258,11 @@
         <v/>
       </c>
       <c r="S272" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R272),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C272), "/", E272, "/config"))</f>
         <v/>
       </c>
       <c r="T272" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R272),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C272), "/", E272))</f>
         <v/>
       </c>
     </row>
@@ -11135,11 +11272,11 @@
         <v/>
       </c>
       <c r="S273" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R273),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C273), "/", E273, "/config"))</f>
         <v/>
       </c>
       <c r="T273" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R273),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C273), "/", E273))</f>
         <v/>
       </c>
     </row>
@@ -11149,11 +11286,11 @@
         <v/>
       </c>
       <c r="S274" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R274),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C274), "/", E274, "/config"))</f>
         <v/>
       </c>
       <c r="T274" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R274),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C274), "/", E274))</f>
         <v/>
       </c>
     </row>
@@ -11163,11 +11300,11 @@
         <v/>
       </c>
       <c r="S275" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(R275),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C275), "/", E275, "/config"))</f>
         <v/>
       </c>
       <c r="T275" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(R275),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C275), "/", E275))</f>
         <v/>
       </c>
     </row>
@@ -11177,11 +11314,11 @@
         <v/>
       </c>
       <c r="S276" s="1" t="str">
-        <f t="shared" ref="S276:S339" si="8">IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276, "/config"))</f>
+        <f>IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276, "/config"))</f>
         <v/>
       </c>
       <c r="T276" s="1" t="str">
-        <f t="shared" ref="T276:T339" si="9">IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276))</f>
+        <f>IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276))</f>
         <v/>
       </c>
     </row>
@@ -11191,11 +11328,11 @@
         <v/>
       </c>
       <c r="S277" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R277),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C277), "/", E277, "/config"))</f>
         <v/>
       </c>
       <c r="T277" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R277),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C277), "/", E277))</f>
         <v/>
       </c>
     </row>
@@ -11205,11 +11342,11 @@
         <v/>
       </c>
       <c r="S278" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R278),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C278), "/", E278, "/config"))</f>
         <v/>
       </c>
       <c r="T278" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R278),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C278), "/", E278))</f>
         <v/>
       </c>
     </row>
@@ -11219,11 +11356,11 @@
         <v/>
       </c>
       <c r="S279" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R279),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C279), "/", E279, "/config"))</f>
         <v/>
       </c>
       <c r="T279" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R279),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C279), "/", E279))</f>
         <v/>
       </c>
     </row>
@@ -11233,11 +11370,11 @@
         <v/>
       </c>
       <c r="S280" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R280),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C280), "/", E280, "/config"))</f>
         <v/>
       </c>
       <c r="T280" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R280),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C280), "/", E280))</f>
         <v/>
       </c>
     </row>
@@ -11247,11 +11384,11 @@
         <v/>
       </c>
       <c r="S281" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R281),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C281), "/", E281, "/config"))</f>
         <v/>
       </c>
       <c r="T281" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R281),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C281), "/", E281))</f>
         <v/>
       </c>
     </row>
@@ -11261,11 +11398,11 @@
         <v/>
       </c>
       <c r="S282" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R282),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C282), "/", E282, "/config"))</f>
         <v/>
       </c>
       <c r="T282" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R282),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C282), "/", E282))</f>
         <v/>
       </c>
     </row>
@@ -11275,11 +11412,11 @@
         <v/>
       </c>
       <c r="S283" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R283),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C283), "/", E283, "/config"))</f>
         <v/>
       </c>
       <c r="T283" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R283),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C283), "/", E283))</f>
         <v/>
       </c>
     </row>
@@ -11289,11 +11426,11 @@
         <v/>
       </c>
       <c r="S284" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R284),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C284), "/", E284, "/config"))</f>
         <v/>
       </c>
       <c r="T284" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R284),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C284), "/", E284))</f>
         <v/>
       </c>
     </row>
@@ -11303,11 +11440,11 @@
         <v/>
       </c>
       <c r="S285" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R285),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C285), "/", E285, "/config"))</f>
         <v/>
       </c>
       <c r="T285" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R285),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C285), "/", E285))</f>
         <v/>
       </c>
     </row>
@@ -11317,11 +11454,11 @@
         <v/>
       </c>
       <c r="S286" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R286),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C286), "/", E286, "/config"))</f>
         <v/>
       </c>
       <c r="T286" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R286),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C286), "/", E286))</f>
         <v/>
       </c>
     </row>
@@ -11331,11 +11468,11 @@
         <v/>
       </c>
       <c r="S287" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R287),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C287), "/", E287, "/config"))</f>
         <v/>
       </c>
       <c r="T287" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R287),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C287), "/", E287))</f>
         <v/>
       </c>
     </row>
@@ -11345,11 +11482,11 @@
         <v/>
       </c>
       <c r="S288" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R288),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C288), "/", E288, "/config"))</f>
         <v/>
       </c>
       <c r="T288" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R288),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C288), "/", E288))</f>
         <v/>
       </c>
     </row>
@@ -11359,11 +11496,11 @@
         <v/>
       </c>
       <c r="S289" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R289),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C289), "/", E289, "/config"))</f>
         <v/>
       </c>
       <c r="T289" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R289),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C289), "/", E289))</f>
         <v/>
       </c>
     </row>
@@ -11373,11 +11510,11 @@
         <v/>
       </c>
       <c r="S290" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R290),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C290), "/", E290, "/config"))</f>
         <v/>
       </c>
       <c r="T290" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R290),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C290), "/", E290))</f>
         <v/>
       </c>
     </row>
@@ -11387,11 +11524,11 @@
         <v/>
       </c>
       <c r="S291" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R291),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C291), "/", E291, "/config"))</f>
         <v/>
       </c>
       <c r="T291" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R291),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C291), "/", E291))</f>
         <v/>
       </c>
     </row>
@@ -11401,11 +11538,11 @@
         <v/>
       </c>
       <c r="S292" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R292),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C292), "/", E292, "/config"))</f>
         <v/>
       </c>
       <c r="T292" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R292),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C292), "/", E292))</f>
         <v/>
       </c>
     </row>
@@ -11415,11 +11552,11 @@
         <v/>
       </c>
       <c r="S293" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R293),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C293), "/", E293, "/config"))</f>
         <v/>
       </c>
       <c r="T293" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R293),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C293), "/", E293))</f>
         <v/>
       </c>
     </row>
@@ -11429,11 +11566,11 @@
         <v/>
       </c>
       <c r="S294" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R294),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C294), "/", E294, "/config"))</f>
         <v/>
       </c>
       <c r="T294" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R294),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C294), "/", E294))</f>
         <v/>
       </c>
     </row>
@@ -11443,11 +11580,11 @@
         <v/>
       </c>
       <c r="S295" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R295),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C295), "/", E295, "/config"))</f>
         <v/>
       </c>
       <c r="T295" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R295),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C295), "/", E295))</f>
         <v/>
       </c>
     </row>
@@ -11457,11 +11594,11 @@
         <v/>
       </c>
       <c r="S296" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296, "/config"))</f>
         <v/>
       </c>
       <c r="T296" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296))</f>
         <v/>
       </c>
     </row>
@@ -11471,11 +11608,11 @@
         <v/>
       </c>
       <c r="S297" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R297),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C297), "/", E297, "/config"))</f>
         <v/>
       </c>
       <c r="T297" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R297),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C297), "/", E297))</f>
         <v/>
       </c>
     </row>
@@ -11485,11 +11622,11 @@
         <v/>
       </c>
       <c r="S298" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R298),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C298), "/", E298, "/config"))</f>
         <v/>
       </c>
       <c r="T298" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R298),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C298), "/", E298))</f>
         <v/>
       </c>
     </row>
@@ -11499,11 +11636,11 @@
         <v/>
       </c>
       <c r="S299" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R299),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C299), "/", E299, "/config"))</f>
         <v/>
       </c>
       <c r="T299" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R299),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C299), "/", E299))</f>
         <v/>
       </c>
     </row>
@@ -11513,11 +11650,11 @@
         <v/>
       </c>
       <c r="S300" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R300),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C300), "/", E300, "/config"))</f>
         <v/>
       </c>
       <c r="T300" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R300),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C300), "/", E300))</f>
         <v/>
       </c>
     </row>
@@ -11527,11 +11664,11 @@
         <v/>
       </c>
       <c r="S301" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R301),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C301), "/", E301, "/config"))</f>
         <v/>
       </c>
       <c r="T301" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R301),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C301), "/", E301))</f>
         <v/>
       </c>
     </row>
@@ -11541,11 +11678,11 @@
         <v/>
       </c>
       <c r="S302" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R302),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C302), "/", E302, "/config"))</f>
         <v/>
       </c>
       <c r="T302" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R302),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C302), "/", E302))</f>
         <v/>
       </c>
     </row>
@@ -11555,11 +11692,11 @@
         <v/>
       </c>
       <c r="S303" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R303),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C303), "/", E303, "/config"))</f>
         <v/>
       </c>
       <c r="T303" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R303),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C303), "/", E303))</f>
         <v/>
       </c>
     </row>
@@ -11569,11 +11706,11 @@
         <v/>
       </c>
       <c r="S304" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R304),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C304), "/", E304, "/config"))</f>
         <v/>
       </c>
       <c r="T304" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R304),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C304), "/", E304))</f>
         <v/>
       </c>
     </row>
@@ -11583,11 +11720,11 @@
         <v/>
       </c>
       <c r="S305" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R305),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C305), "/", E305, "/config"))</f>
         <v/>
       </c>
       <c r="T305" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R305),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C305), "/", E305))</f>
         <v/>
       </c>
     </row>
@@ -11597,11 +11734,11 @@
         <v/>
       </c>
       <c r="S306" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R306),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C306), "/", E306, "/config"))</f>
         <v/>
       </c>
       <c r="T306" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R306),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C306), "/", E306))</f>
         <v/>
       </c>
     </row>
@@ -11611,11 +11748,11 @@
         <v/>
       </c>
       <c r="S307" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R307),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C307), "/", E307, "/config"))</f>
         <v/>
       </c>
       <c r="T307" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R307),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C307), "/", E307))</f>
         <v/>
       </c>
     </row>
@@ -11625,11 +11762,11 @@
         <v/>
       </c>
       <c r="S308" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R308),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C308), "/", E308, "/config"))</f>
         <v/>
       </c>
       <c r="T308" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R308),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C308), "/", E308))</f>
         <v/>
       </c>
     </row>
@@ -11639,11 +11776,11 @@
         <v/>
       </c>
       <c r="S309" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R309),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C309), "/", E309, "/config"))</f>
         <v/>
       </c>
       <c r="T309" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R309),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C309), "/", E309))</f>
         <v/>
       </c>
     </row>
@@ -11653,11 +11790,11 @@
         <v/>
       </c>
       <c r="S310" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R310),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C310), "/", E310, "/config"))</f>
         <v/>
       </c>
       <c r="T310" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R310),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C310), "/", E310))</f>
         <v/>
       </c>
     </row>
@@ -11667,11 +11804,11 @@
         <v/>
       </c>
       <c r="S311" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R311),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C311), "/", E311, "/config"))</f>
         <v/>
       </c>
       <c r="T311" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R311),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C311), "/", E311))</f>
         <v/>
       </c>
     </row>
@@ -11681,11 +11818,11 @@
         <v/>
       </c>
       <c r="S312" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R312),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C312), "/", E312, "/config"))</f>
         <v/>
       </c>
       <c r="T312" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R312),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C312), "/", E312))</f>
         <v/>
       </c>
     </row>
@@ -11695,11 +11832,11 @@
         <v/>
       </c>
       <c r="S313" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313, "/config"))</f>
         <v/>
       </c>
       <c r="T313" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313))</f>
         <v/>
       </c>
     </row>
@@ -11709,11 +11846,11 @@
         <v/>
       </c>
       <c r="S314" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R314),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C314), "/", E314, "/config"))</f>
         <v/>
       </c>
       <c r="T314" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R314),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C314), "/", E314))</f>
         <v/>
       </c>
     </row>
@@ -11723,11 +11860,11 @@
         <v/>
       </c>
       <c r="S315" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R315),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C315), "/", E315, "/config"))</f>
         <v/>
       </c>
       <c r="T315" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R315),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C315), "/", E315))</f>
         <v/>
       </c>
     </row>
@@ -11737,11 +11874,11 @@
         <v/>
       </c>
       <c r="S316" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R316),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C316), "/", E316, "/config"))</f>
         <v/>
       </c>
       <c r="T316" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R316),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C316), "/", E316))</f>
         <v/>
       </c>
     </row>
@@ -11751,11 +11888,11 @@
         <v/>
       </c>
       <c r="S317" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317, "/config"))</f>
         <v/>
       </c>
       <c r="T317" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317))</f>
         <v/>
       </c>
     </row>
@@ -11765,11 +11902,11 @@
         <v/>
       </c>
       <c r="S318" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R318),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C318), "/", E318, "/config"))</f>
         <v/>
       </c>
       <c r="T318" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R318),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C318), "/", E318))</f>
         <v/>
       </c>
     </row>
@@ -11779,11 +11916,11 @@
         <v/>
       </c>
       <c r="S319" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R319),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C319), "/", E319, "/config"))</f>
         <v/>
       </c>
       <c r="T319" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R319),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C319), "/", E319))</f>
         <v/>
       </c>
     </row>
@@ -11793,11 +11930,11 @@
         <v/>
       </c>
       <c r="S320" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R320),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C320), "/", E320, "/config"))</f>
         <v/>
       </c>
       <c r="T320" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R320),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C320), "/", E320))</f>
         <v/>
       </c>
     </row>
@@ -11807,11 +11944,11 @@
         <v/>
       </c>
       <c r="S321" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R321),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C321), "/", E321, "/config"))</f>
         <v/>
       </c>
       <c r="T321" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R321),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C321), "/", E321))</f>
         <v/>
       </c>
     </row>
@@ -11821,11 +11958,11 @@
         <v/>
       </c>
       <c r="S322" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R322),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C322), "/", E322, "/config"))</f>
         <v/>
       </c>
       <c r="T322" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R322),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C322), "/", E322))</f>
         <v/>
       </c>
     </row>
@@ -11835,11 +11972,11 @@
         <v/>
       </c>
       <c r="S323" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323, "/config"))</f>
         <v/>
       </c>
       <c r="T323" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323))</f>
         <v/>
       </c>
     </row>
@@ -11849,11 +11986,11 @@
         <v/>
       </c>
       <c r="S324" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R324),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C324), "/", E324, "/config"))</f>
         <v/>
       </c>
       <c r="T324" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R324),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C324), "/", E324))</f>
         <v/>
       </c>
     </row>
@@ -11863,11 +12000,11 @@
         <v/>
       </c>
       <c r="S325" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
         <v/>
       </c>
       <c r="T325" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325))</f>
         <v/>
       </c>
     </row>
@@ -11877,11 +12014,11 @@
         <v/>
       </c>
       <c r="S326" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R326),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C326), "/", E326, "/config"))</f>
         <v/>
       </c>
       <c r="T326" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R326),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C326), "/", E326))</f>
         <v/>
       </c>
     </row>
@@ -11891,11 +12028,11 @@
         <v/>
       </c>
       <c r="S327" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R327),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C327), "/", E327, "/config"))</f>
         <v/>
       </c>
       <c r="T327" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R327),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C327), "/", E327))</f>
         <v/>
       </c>
     </row>
@@ -11905,11 +12042,11 @@
         <v/>
       </c>
       <c r="S328" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R328),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C328), "/", E328, "/config"))</f>
         <v/>
       </c>
       <c r="T328" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R328),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C328), "/", E328))</f>
         <v/>
       </c>
     </row>
@@ -11919,11 +12056,11 @@
         <v/>
       </c>
       <c r="S329" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R329),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C329), "/", E329, "/config"))</f>
         <v/>
       </c>
       <c r="T329" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R329),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C329), "/", E329))</f>
         <v/>
       </c>
     </row>
@@ -11933,11 +12070,11 @@
         <v/>
       </c>
       <c r="S330" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R330),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C330), "/", E330, "/config"))</f>
         <v/>
       </c>
       <c r="T330" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R330),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C330), "/", E330))</f>
         <v/>
       </c>
     </row>
@@ -11947,11 +12084,11 @@
         <v/>
       </c>
       <c r="S331" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R331),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C331), "/", E331, "/config"))</f>
         <v/>
       </c>
       <c r="T331" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R331),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C331), "/", E331))</f>
         <v/>
       </c>
     </row>
@@ -11961,11 +12098,11 @@
         <v/>
       </c>
       <c r="S332" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R332),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C332), "/", E332, "/config"))</f>
         <v/>
       </c>
       <c r="T332" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R332),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C332), "/", E332))</f>
         <v/>
       </c>
     </row>
@@ -11975,11 +12112,11 @@
         <v/>
       </c>
       <c r="S333" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333, "/config"))</f>
         <v/>
       </c>
       <c r="T333" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333))</f>
         <v/>
       </c>
     </row>
@@ -11989,11 +12126,11 @@
         <v/>
       </c>
       <c r="S334" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R334),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C334), "/", E334, "/config"))</f>
         <v/>
       </c>
       <c r="T334" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R334),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C334), "/", E334))</f>
         <v/>
       </c>
     </row>
@@ -12003,11 +12140,11 @@
         <v/>
       </c>
       <c r="S335" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R335),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C335), "/", E335, "/config"))</f>
         <v/>
       </c>
       <c r="T335" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R335),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C335), "/", E335))</f>
         <v/>
       </c>
     </row>
@@ -12017,11 +12154,11 @@
         <v/>
       </c>
       <c r="S336" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R336),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C336), "/", E336, "/config"))</f>
         <v/>
       </c>
       <c r="T336" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R336),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C336), "/", E336))</f>
         <v/>
       </c>
     </row>
@@ -12031,11 +12168,11 @@
         <v/>
       </c>
       <c r="S337" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R337),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C337), "/", E337, "/config"))</f>
         <v/>
       </c>
       <c r="T337" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R337),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C337), "/", E337))</f>
         <v/>
       </c>
     </row>
@@ -12045,11 +12182,11 @@
         <v/>
       </c>
       <c r="S338" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R338),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C338), "/", E338, "/config"))</f>
         <v/>
       </c>
       <c r="T338" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R338),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C338), "/", E338))</f>
         <v/>
       </c>
     </row>
@@ -12059,11 +12196,11 @@
         <v/>
       </c>
       <c r="S339" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(R339),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C339), "/", E339, "/config"))</f>
         <v/>
       </c>
       <c r="T339" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(R339),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C339), "/", E339))</f>
         <v/>
       </c>
     </row>
@@ -12073,11 +12210,11 @@
         <v/>
       </c>
       <c r="S340" s="1" t="str">
-        <f t="shared" ref="S340:S341" si="10">IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340, "/config"))</f>
+        <f>IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340, "/config"))</f>
         <v/>
       </c>
       <c r="T340" s="1" t="str">
-        <f t="shared" ref="T340:T341" si="11">IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340))</f>
+        <f>IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340))</f>
         <v/>
       </c>
     </row>
@@ -12087,11 +12224,81 @@
         <v/>
       </c>
       <c r="S341" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISBLANK(R341),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C341), "/", E341, "/config"))</f>
         <v/>
       </c>
       <c r="T341" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(ISBLANK(R341),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C341), "/", E341))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F342" s="1" t="str">
+        <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S342" s="1" t="str">
+        <f>IF(ISBLANK(R342),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C342), "/", E342, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T342" s="1" t="str">
+        <f>IF(ISBLANK(R342),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C342), "/", E342))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F343" s="1" t="str">
+        <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S343" s="1" t="str">
+        <f>IF(ISBLANK(R343),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C343), "/", E343, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T343" s="1" t="str">
+        <f>IF(ISBLANK(R343),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C343), "/", E343))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F344" s="1" t="str">
+        <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S344" s="1" t="str">
+        <f>IF(ISBLANK(R344),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C344), "/", E344, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T344" s="1" t="str">
+        <f>IF(ISBLANK(R344),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C344), "/", E344))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F345" s="1" t="str">
+        <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S345" s="1" t="str">
+        <f>IF(ISBLANK(R345),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C345), "/", E345, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T345" s="1" t="str">
+        <f>IF(ISBLANK(R345),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C345), "/", E345))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F346" s="1" t="str">
+        <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S346" s="1" t="str">
+        <f>IF(ISBLANK(R346),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C346), "/", E346, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T346" s="1" t="str">
+        <f>IF(ISBLANK(R346),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C346), "/", E346))</f>
         <v/>
       </c>
     </row>
@@ -12114,9 +12321,9 @@
     <hyperlink ref="AC21" r:id="rId11" xr:uid="{8EADE576-5626-AD41-A703-EDF78E53D186}"/>
     <hyperlink ref="AC31" r:id="rId12" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
     <hyperlink ref="AC42" r:id="rId13" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
-    <hyperlink ref="AC56:AC74" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
-    <hyperlink ref="AC130" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
-    <hyperlink ref="AC131" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
+    <hyperlink ref="AC56:AC79" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
+    <hyperlink ref="AC135" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
+    <hyperlink ref="AC136" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
     <hyperlink ref="AC64" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="AC65" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AC15" r:id="rId19" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144B2CC-FC1B-F443-A891-B23CD41507BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BED8F-39EE-6047-8FD3-51238526FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="418">
   <si>
     <t>index</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>cm/h</t>
-  </si>
-  <si>
     <t>rainRate</t>
   </si>
   <si>
@@ -535,18 +532,9 @@
     <t>kitchen_coffee_current_consumption</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
-    <t>kitchen_coffee_total_consumption</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>kitchen_coffee_today_s_consumption</t>
   </si>
   <si>
@@ -628,9 +616,6 @@
     <t>update_bom_icons</t>
   </si>
   <si>
-    <t>Entity status, "Enabled", "Disabled", "To-Build"</t>
-  </si>
-  <si>
     <t>HAAS entity namespace prefix, sensor/fan etc</t>
   </si>
   <si>
@@ -1205,6 +1190,102 @@
   </si>
   <si>
     <t>Deck East</t>
+  </si>
+  <si>
+    <t>mm/h</t>
+  </si>
+  <si>
+    <t>{{ value | float * 10 | round(2) }}</t>
+  </si>
+  <si>
+    <t>Entity status, "Enabled", "Disabled", "Todo"</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>lights_energy</t>
+  </si>
+  <si>
+    <t>lights_energy_today</t>
+  </si>
+  <si>
+    <t>lights_power</t>
+  </si>
+  <si>
+    <t>LIghts</t>
+  </si>
+  <si>
+    <t>Daily Energy Consumption</t>
+  </si>
+  <si>
+    <t>bathroom_towelrails_current_consumption</t>
+  </si>
+  <si>
+    <t>deck_festoons_current_consumption</t>
+  </si>
+  <si>
+    <t>deck_freezer_current_consumption</t>
+  </si>
+  <si>
+    <t>kitchen_fan_current_consumption</t>
+  </si>
+  <si>
+    <t>kitchen_fridge_current_consumption</t>
+  </si>
+  <si>
+    <t>lounge_tv_current_consumption</t>
+  </si>
+  <si>
+    <t>office_power_current_consumption</t>
+  </si>
+  <si>
+    <t>rack_modem_current_consumption</t>
+  </si>
+  <si>
+    <t>rack_power_current_consumption</t>
+  </si>
+  <si>
+    <t>roof_switch_current_consumption</t>
+  </si>
+  <si>
+    <t>study_power_current_consumption</t>
+  </si>
+  <si>
+    <t>various_adhoc_current_consumption</t>
+  </si>
+  <si>
+    <t>Network Switch</t>
+  </si>
+  <si>
+    <t>Kitchen Fan</t>
+  </si>
+  <si>
+    <t>Adhoc</t>
+  </si>
+  <si>
+    <t>Internet Modem</t>
+  </si>
+  <si>
+    <t>Server Rack</t>
+  </si>
+  <si>
+    <t>Kitchen Fridge</t>
+  </si>
+  <si>
+    <t>Deck Freezer</t>
+  </si>
+  <si>
+    <t>Deck Lights</t>
+  </si>
+  <si>
+    <t>Office Outlet</t>
+  </si>
+  <si>
+    <t>Study Outlet</t>
+  </si>
+  <si>
+    <t>Bathroom Towel Rails</t>
   </si>
 </sst>
 </file>
@@ -1796,10 +1877,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC346" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
-  <autoFilter ref="A3:AC346" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC346">
-    <sortCondition ref="A3:A346"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC396" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A3:AC396" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC396">
+    <sortCondition ref="A3:A396"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="31"/>
@@ -2139,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC346"/>
+  <dimension ref="A1:AC396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2179,178 +2260,178 @@
   <sheetData>
     <row r="1" spans="1:29" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O1" s="19"/>
       <c r="P1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="M2" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="N2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="P2" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="Q2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="T2" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="U2" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="V2" s="21">
         <v>1</v>
       </c>
       <c r="W2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB2" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="AC2" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC2" s="23" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2373,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>5</v>
@@ -2456,7 +2537,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>IF(ISBLANK(E4), "", Table2[[#This Row],[unique_id]])</f>
@@ -2466,22 +2547,22 @@
         <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P4" s="1">
         <v>300</v>
@@ -2490,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S4" s="1" t="str">
         <f>IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4, "/config"))</f>
@@ -2501,7 +2582,7 @@
         <v>haas/entity/sensor/weewx/roof_temperature</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V4" s="1">
         <v>1</v>
@@ -2525,7 +2606,7 @@
         <v>43</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2536,29 +2617,29 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F5" s="11" t="str">
         <f>IF(ISBLANK(E5), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_ada_temperature</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="S5" s="1" t="str">
@@ -2579,29 +2660,29 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="11" t="str">
         <f>IF(ISBLANK(E6), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_edwin_temperature</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="S6" s="1" t="str">
@@ -2622,29 +2703,29 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(ISBLANK(E7), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_temperature</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="S7" s="1" t="str">
@@ -2665,29 +2746,29 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_temperature</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="S8" s="1" t="str">
@@ -2708,29 +2789,29 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F9" s="11" t="str">
         <f>IF(ISBLANK(E9), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_temperature</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="S9" s="1" t="str">
@@ -2751,29 +2832,29 @@
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_temperature</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="S10" s="1" t="str">
@@ -2794,29 +2875,29 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IF(ISBLANK(E11), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_temperature</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="S11" s="1" t="str">
@@ -2837,29 +2918,29 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_temperature</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="S12" s="1" t="str">
@@ -2880,29 +2961,29 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F13" s="11" t="str">
         <f>IF(ISBLANK(E13), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_temperature</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="S13" s="1" t="str">
@@ -2923,29 +3004,29 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F14" s="11" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_basement_temperature</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="S14" s="1" t="str">
@@ -2972,7 +3053,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15), "", Table2[[#This Row],[unique_id]])</f>
@@ -2982,22 +3063,22 @@
         <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P15" s="1">
         <v>300</v>
@@ -3006,7 +3087,7 @@
         <v>37</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S15" s="1" t="str">
         <f>IF(ISBLANK(R15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C15), "/", E15, "/config"))</f>
@@ -3017,7 +3098,7 @@
         <v>haas/entity/sensor/weewx/rack_temperature</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
@@ -3041,7 +3122,7 @@
         <v>43</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -3058,17 +3139,17 @@
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF(ISBLANK(E16), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_apparent_temperature</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>33</v>
@@ -3077,10 +3158,10 @@
         <v>34</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P16" s="1">
         <v>300</v>
@@ -3089,7 +3170,7 @@
         <v>37</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S16" s="1" t="str">
         <f>IF(ISBLANK(R16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C16), "/", E16, "/config"))</f>
@@ -3100,7 +3181,7 @@
         <v>haas/entity/sensor/weewx/roof_apparent_temperature</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V16" s="1">
         <v>1</v>
@@ -3124,7 +3205,7 @@
         <v>43</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -3141,17 +3222,17 @@
         <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>IF(ISBLANK(E17), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_dew_point</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>33</v>
@@ -3160,10 +3241,10 @@
         <v>34</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P17" s="1">
         <v>300</v>
@@ -3172,7 +3253,7 @@
         <v>37</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S17" s="1" t="str">
         <f>IF(ISBLANK(R17),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C17), "/", E17, "/config"))</f>
@@ -3183,7 +3264,7 @@
         <v>haas/entity/sensor/weewx/roof_dew_point</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
@@ -3207,7 +3288,7 @@
         <v>43</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -3224,17 +3305,17 @@
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>IF(ISBLANK(E18), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_heat_index</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>33</v>
@@ -3243,10 +3324,10 @@
         <v>34</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P18" s="1">
         <v>300</v>
@@ -3255,7 +3336,7 @@
         <v>37</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S18" s="1" t="str">
         <f>IF(ISBLANK(R18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C18), "/", E18, "/config"))</f>
@@ -3266,7 +3347,7 @@
         <v>haas/entity/sensor/weewx/roof_heat_index</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
@@ -3290,7 +3371,7 @@
         <v>43</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3307,17 +3388,17 @@
         <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>IF(ISBLANK(E19), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_humidity_index</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>33</v>
@@ -3326,10 +3407,10 @@
         <v>34</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P19" s="1">
         <v>300</v>
@@ -3338,7 +3419,7 @@
         <v>37</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S19" s="1" t="str">
         <f>IF(ISBLANK(R19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C19), "/", E19, "/config"))</f>
@@ -3349,7 +3430,7 @@
         <v>haas/entity/sensor/weewx/roof_humidity_index</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
@@ -3373,7 +3454,7 @@
         <v>43</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -3390,17 +3471,17 @@
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>IF(ISBLANK(E20), "", Table2[[#This Row],[unique_id]])</f>
         <v>rack_dew_point</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>33</v>
@@ -3409,10 +3490,10 @@
         <v>34</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P20" s="1">
         <v>300</v>
@@ -3421,7 +3502,7 @@
         <v>37</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S20" s="1" t="str">
         <f>IF(ISBLANK(R20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C20), "/", E20, "/config"))</f>
@@ -3432,7 +3513,7 @@
         <v>haas/entity/sensor/weewx/rack_dew_point</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V20" s="1">
         <v>1</v>
@@ -3456,7 +3537,7 @@
         <v>31</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -3473,17 +3554,17 @@
         <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>IF(ISBLANK(E21), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_chill_temperature</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>33</v>
@@ -3492,10 +3573,10 @@
         <v>34</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="P21" s="1">
         <v>300</v>
@@ -3504,7 +3585,7 @@
         <v>37</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S21" s="1" t="str">
         <f>IF(ISBLANK(R21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C21), "/", E21, "/config"))</f>
@@ -3515,7 +3596,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V21" s="1">
         <v>1</v>
@@ -3539,7 +3620,7 @@
         <v>43</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -3550,23 +3631,23 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F22" s="11" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_ada_co2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>33</v>
@@ -3590,29 +3671,29 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>IF(ISBLANK(E23), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_edwin_co2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S23" s="1" t="str">
         <f>IF(ISBLANK(R23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C23), "/", E23, "/config"))</f>
@@ -3631,29 +3712,29 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F24" s="11" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_co2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S24" s="1" t="str">
         <f>IF(ISBLANK(R24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C24), "/", E24, "/config"))</f>
@@ -3672,29 +3753,29 @@
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F25" s="11" t="str">
         <f>IF(ISBLANK(E25), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_co2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S25" s="1" t="str">
         <f>IF(ISBLANK(R25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C25), "/", E25, "/config"))</f>
@@ -3713,29 +3794,29 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F26" s="11" t="str">
         <f>IF(ISBLANK(E26), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_co2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S26" s="1" t="str">
         <f>IF(ISBLANK(R26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C26), "/", E26, "/config"))</f>
@@ -3754,29 +3835,29 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F27" s="11" t="str">
         <f>IF(ISBLANK(E27), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_co2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S27" s="1" t="str">
         <f>IF(ISBLANK(R27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C27), "/", E27, "/config"))</f>
@@ -3795,29 +3876,29 @@
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F28" s="11" t="str">
         <f>IF(ISBLANK(E28), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_co2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S28" s="1" t="str">
         <f>IF(ISBLANK(R28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C28), "/", E28, "/config"))</f>
@@ -3836,29 +3917,29 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F29" s="11" t="str">
         <f>IF(ISBLANK(E29), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_co2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S29" s="1" t="str">
         <f>IF(ISBLANK(R29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C29), "/", E29, "/config"))</f>
@@ -3877,23 +3958,23 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F30" s="11" t="str">
         <f>IF(ISBLANK(E30), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_co2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>33</v>
@@ -3937,7 +4018,7 @@
         <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>34</v>
@@ -3966,7 +4047,7 @@
         <v>haas/entity/sensor/weewx/roof_humidity</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V31" s="1">
         <v>1</v>
@@ -3990,7 +4071,7 @@
         <v>43</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -4001,20 +4082,20 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F32" s="11" t="str">
         <f>IF(ISBLANK(E32), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_ada_humidity</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
@@ -4023,7 +4104,7 @@
         <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="S32" s="1" t="str">
@@ -4044,20 +4125,20 @@
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F33" s="11" t="str">
         <f>IF(ISBLANK(E33), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_edwin_humidity</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>32</v>
@@ -4066,7 +4147,7 @@
         <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="S33" s="1" t="str">
@@ -4087,20 +4168,20 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F34" s="11" t="str">
         <f>IF(ISBLANK(E34), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_humidity</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>32</v>
@@ -4109,7 +4190,7 @@
         <v>33</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="S34" s="1" t="str">
@@ -4130,20 +4211,20 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F35" s="11" t="str">
         <f>IF(ISBLANK(E35), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_humidity</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>32</v>
@@ -4152,7 +4233,7 @@
         <v>33</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="S35" s="1" t="str">
@@ -4173,20 +4254,20 @@
         <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F36" s="11" t="str">
         <f>IF(ISBLANK(E36), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_humidity</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>32</v>
@@ -4195,7 +4276,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="S36" s="1" t="str">
@@ -4216,20 +4297,20 @@
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F37" s="11" t="str">
         <f>IF(ISBLANK(E37), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_humidity</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
@@ -4238,7 +4319,7 @@
         <v>33</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="S37" s="1" t="str">
@@ -4259,20 +4340,20 @@
         <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F38" s="11" t="str">
         <f>IF(ISBLANK(E38), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_humidity</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -4281,7 +4362,7 @@
         <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="S38" s="1" t="str">
@@ -4302,20 +4383,20 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F39" s="11" t="str">
         <f>IF(ISBLANK(E39), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_humidity</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
@@ -4324,7 +4405,7 @@
         <v>33</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="S39" s="1" t="str">
@@ -4345,20 +4426,20 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F40" s="11" t="str">
         <f>IF(ISBLANK(E40), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_humidity</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
@@ -4367,7 +4448,7 @@
         <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="S40" s="1" t="str">
@@ -4388,20 +4469,20 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F41" s="11" t="str">
         <f>IF(ISBLANK(E41), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_basement_humidity</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>32</v>
@@ -4410,7 +4491,7 @@
         <v>33</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="S41" s="1" t="str">
@@ -4453,7 +4534,7 @@
         <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>34</v>
@@ -4482,7 +4563,7 @@
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V42" s="1">
         <v>1</v>
@@ -4506,7 +4587,7 @@
         <v>31</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -4517,29 +4598,29 @@
         <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F43" s="1" t="str">
         <f>IF(ISBLANK(E43), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_ada_noise</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="S43" s="1" t="str">
@@ -4559,29 +4640,29 @@
         <v>28</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F44" s="11" t="str">
         <f>IF(ISBLANK(E44), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_edwin_noise</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="S44" s="1" t="str">
@@ -4601,29 +4682,29 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F45" s="11" t="str">
         <f>IF(ISBLANK(E45), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_noise</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="1" t="str">
@@ -4643,29 +4724,29 @@
         <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F46" s="11" t="str">
         <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_noise</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="S46" s="1" t="str">
@@ -4685,29 +4766,29 @@
         <v>28</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F47" s="11" t="str">
         <f>IF(ISBLANK(E47), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_noise</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="S47" s="1" t="str">
@@ -4727,29 +4808,29 @@
         <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F48" s="11" t="str">
         <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_noise</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="S48" s="1" t="str">
@@ -4797,7 +4878,7 @@
         <v>50</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P49" s="1">
         <v>300</v>
@@ -4817,7 +4898,7 @@
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V49" s="1">
         <v>1</v>
@@ -4841,7 +4922,7 @@
         <v>43</v>
       </c>
       <c r="AC49" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
@@ -4880,7 +4961,7 @@
         <v>54</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P50" s="1">
         <v>300</v>
@@ -4900,7 +4981,7 @@
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V50" s="1">
         <v>1</v>
@@ -4924,7 +5005,7 @@
         <v>43</v>
       </c>
       <c r="AC50" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -4983,7 +5064,7 @@
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V51" s="1">
         <v>1</v>
@@ -5007,7 +5088,7 @@
         <v>43</v>
       </c>
       <c r="AC51" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -5066,7 +5147,7 @@
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V52" s="1">
         <v>1</v>
@@ -5090,7 +5171,7 @@
         <v>43</v>
       </c>
       <c r="AC52" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -5107,17 +5188,17 @@
         <v>29</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="str">
         <f>IF(ISBLANK(E53), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_direction</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>33</v>
@@ -5126,10 +5207,10 @@
         <v>34</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P53" s="1">
         <v>300</v>
@@ -5138,7 +5219,7 @@
         <v>37</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S53" s="1" t="str">
         <f>IF(ISBLANK(R53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C53), "/", E53, "/config"))</f>
@@ -5149,7 +5230,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V53" s="1">
         <v>1</v>
@@ -5173,7 +5254,7 @@
         <v>43</v>
       </c>
       <c r="AC53" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -5190,17 +5271,17 @@
         <v>29</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="1" t="str">
         <f>IF(ISBLANK(E54), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_gust_direction</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>33</v>
@@ -5209,10 +5290,10 @@
         <v>34</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P54" s="1">
         <v>300</v>
@@ -5221,7 +5302,7 @@
         <v>37</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S54" s="1" t="str">
         <f>IF(ISBLANK(R54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C54), "/", E54, "/config"))</f>
@@ -5232,7 +5313,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V54" s="1">
         <v>1</v>
@@ -5256,7 +5337,7 @@
         <v>43</v>
       </c>
       <c r="AC54" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -5273,17 +5354,17 @@
         <v>29</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F55" s="1" t="str">
         <f>IF(ISBLANK(E55), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_gust_speed</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>33</v>
@@ -5292,10 +5373,10 @@
         <v>34</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P55" s="1">
         <v>300</v>
@@ -5304,7 +5385,7 @@
         <v>37</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S55" s="1" t="str">
         <f>IF(ISBLANK(R55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C55), "/", E55, "/config"))</f>
@@ -5315,7 +5396,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V55" s="1">
         <v>1</v>
@@ -5339,7 +5420,7 @@
         <v>43</v>
       </c>
       <c r="AC55" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -5356,17 +5437,17 @@
         <v>29</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F56" s="1" t="str">
         <f>IF(ISBLANK(E56), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_speed_10min</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>33</v>
@@ -5375,10 +5456,10 @@
         <v>34</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P56" s="1">
         <v>300</v>
@@ -5387,7 +5468,7 @@
         <v>37</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S56" s="1" t="str">
         <f>IF(ISBLANK(R56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C56), "/", E56, "/config"))</f>
@@ -5398,7 +5479,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V56" s="1">
         <v>1</v>
@@ -5422,7 +5503,7 @@
         <v>43</v>
       </c>
       <c r="AC56" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -5439,17 +5520,17 @@
         <v>29</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" s="1" t="str">
         <f>IF(ISBLANK(E57), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_samples</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>33</v>
@@ -5458,7 +5539,7 @@
         <v>34</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P57" s="1">
         <v>300</v>
@@ -5467,7 +5548,7 @@
         <v>37</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S57" s="1" t="str">
         <f>IF(ISBLANK(R57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C57), "/", E57, "/config"))</f>
@@ -5478,7 +5559,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="V57" s="1">
         <v>1</v>
@@ -5502,7 +5583,7 @@
         <v>43</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -5519,17 +5600,17 @@
         <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1" t="str">
         <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_run</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
@@ -5538,10 +5619,10 @@
         <v>34</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P58" s="1">
         <v>300</v>
@@ -5550,7 +5631,7 @@
         <v>37</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S58" s="1" t="str">
         <f>IF(ISBLANK(R58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C58), "/", E58, "/config"))</f>
@@ -5561,7 +5642,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V58" s="1">
         <v>1</v>
@@ -5585,7 +5666,7 @@
         <v>43</v>
       </c>
       <c r="AC58" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -5602,17 +5683,17 @@
         <v>29</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_wind_speed</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>33</v>
@@ -5621,10 +5702,10 @@
         <v>34</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P59" s="1">
         <v>300</v>
@@ -5633,7 +5714,7 @@
         <v>37</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S59" s="1" t="str">
         <f>IF(ISBLANK(R59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C59), "/", E59, "/config"))</f>
@@ -5644,7 +5725,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V59" s="1">
         <v>1</v>
@@ -5668,7 +5749,7 @@
         <v>43</v>
       </c>
       <c r="AC59" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -5698,19 +5779,19 @@
         <v>65</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P60" s="1">
         <v>300</v>
@@ -5719,7 +5800,7 @@
         <v>37</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S60" s="1" t="str">
         <f>IF(ISBLANK(R60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C60), "/", E60, "/config"))</f>
@@ -5730,7 +5811,7 @@
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="V60" s="1">
         <v>1</v>
@@ -5754,7 +5835,7 @@
         <v>43</v>
       </c>
       <c r="AC60" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -5784,10 +5865,10 @@
         <v>65</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>66</v>
@@ -5796,7 +5877,7 @@
         <v>67</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P61" s="1">
         <v>300</v>
@@ -5816,7 +5897,7 @@
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V61" s="1">
         <v>1</v>
@@ -5840,7 +5921,7 @@
         <v>43</v>
       </c>
       <c r="AC61" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -5870,10 +5951,10 @@
         <v>65</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>66</v>
@@ -5882,7 +5963,7 @@
         <v>67</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P62" s="1">
         <v>300</v>
@@ -5902,7 +5983,7 @@
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V62" s="1">
         <v>1</v>
@@ -5926,7 +6007,7 @@
         <v>43</v>
       </c>
       <c r="AC62" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -5943,7 +6024,7 @@
         <v>29</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F63" s="1" t="str">
         <f>IF(ISBLANK(E63), "", Table2[[#This Row],[unique_id]])</f>
@@ -5956,7 +6037,7 @@
         <v>65</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>66</v>
@@ -5965,7 +6046,7 @@
         <v>67</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P63" s="1">
         <v>300</v>
@@ -5985,7 +6066,7 @@
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V63" s="1">
         <v>1</v>
@@ -6009,7 +6090,7 @@
         <v>43</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -6039,10 +6120,10 @@
         <v>65</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>66</v>
@@ -6051,7 +6132,7 @@
         <v>67</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P64" s="1">
         <v>300</v>
@@ -6071,7 +6152,7 @@
         <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V64" s="1">
         <v>1</v>
@@ -6095,7 +6176,7 @@
         <v>43</v>
       </c>
       <c r="AC64" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
@@ -6112,23 +6193,23 @@
         <v>29</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F65" s="11" t="str">
         <f>IF(ISBLANK(E65), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_yearly_rain</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>66</v>
@@ -6137,7 +6218,7 @@
         <v>67</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P65" s="1">
         <v>300</v>
@@ -6146,7 +6227,7 @@
         <v>37</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S65" s="1" t="str">
         <f>IF(ISBLANK(R65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C65), "/", E65, "/config"))</f>
@@ -6157,7 +6238,7 @@
         <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V65" s="1">
         <v>1</v>
@@ -6181,7 +6262,7 @@
         <v>43</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
@@ -6198,29 +6279,29 @@
         <v>29</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F66" s="1" t="str">
         <f>IF(ISBLANK(E66), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_rain</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P66" s="1">
         <v>300</v>
@@ -6229,7 +6310,7 @@
         <v>37</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S66" s="1" t="str">
         <f>IF(ISBLANK(R66),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C66), "/", E66, "/config"))</f>
@@ -6240,7 +6321,7 @@
         <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V66" s="1">
         <v>1</v>
@@ -6264,7 +6345,7 @@
         <v>43</v>
       </c>
       <c r="AC66" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
@@ -6281,20 +6362,20 @@
         <v>29</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" s="1" t="str">
         <f>IF(ISBLANK(E67), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_storm_rain</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>34</v>
@@ -6303,7 +6384,7 @@
         <v>67</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P67" s="1">
         <v>300</v>
@@ -6312,7 +6393,7 @@
         <v>37</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S67" s="1" t="str">
         <f>IF(ISBLANK(R67),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C67), "/", E67, "/config"))</f>
@@ -6323,7 +6404,7 @@
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V67" s="1">
         <v>1</v>
@@ -6347,7 +6428,7 @@
         <v>43</v>
       </c>
       <c r="AC67" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
@@ -6355,29 +6436,29 @@
         <v>1400</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F68" s="1" t="str">
         <f>IF(ISBLANK(E68), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J68" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="S68" s="1" t="str">
@@ -6394,29 +6475,29 @@
         <v>1401</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F69" s="11" t="str">
         <f>IF(ISBLANK(E69), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="1" t="str">
@@ -6433,29 +6514,29 @@
         <v>1402</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F70" s="11" t="str">
         <f>IF(ISBLANK(E70), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="S70" s="1" t="str">
@@ -6472,29 +6553,29 @@
         <v>1403</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F71" s="11" t="str">
         <f>IF(ISBLANK(E71), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J71" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="S71" s="1" t="str">
@@ -6511,29 +6592,29 @@
         <v>1404</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F72" s="11" t="str">
         <f>IF(ISBLANK(E72), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="S72" s="1" t="str">
@@ -6550,29 +6631,29 @@
         <v>1405</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F73" s="11" t="str">
         <f>IF(ISBLANK(E73), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J73" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="1" t="str">
@@ -6589,29 +6670,29 @@
         <v>1900</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F74" s="1" t="str">
         <f>IF(ISBLANK(E74), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_coffee</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="1" t="str">
@@ -6628,29 +6709,29 @@
         <v>2000</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F75" s="1" t="str">
         <f>IF(ISBLANK(E75), "", Table2[[#This Row],[unique_id]])</f>
         <v>dining</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="S75" s="1" t="str">
@@ -6667,29 +6748,29 @@
         <v>2001</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F76" s="1" t="str">
         <f>IF(ISBLANK(E76), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_light</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="1" t="str">
@@ -6706,29 +6787,29 @@
         <v>2002</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F77" s="11" t="str">
         <f>IF(ISBLANK(E77), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_light</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="S77" s="1" t="str">
@@ -6745,29 +6826,29 @@
         <v>2003</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F78" s="11" t="str">
         <f>IF(ISBLANK(E78), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_light</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M78" s="6"/>
       <c r="Q78" s="2"/>
@@ -6785,29 +6866,29 @@
         <v>2004</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F79" s="11" t="str">
         <f>IF(ISBLANK(E79), "", Table2[[#This Row],[unique_id]])</f>
         <v>hallway</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="S79" s="1" t="str">
@@ -6824,26 +6905,26 @@
         <v>2005</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F80" s="11" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="S80" s="1" t="str">
@@ -6860,26 +6941,26 @@
         <v>2006</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F81" s="11" t="str">
         <f>IF(ISBLANK(E81), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_3</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="S81" s="1" t="str">
@@ -6896,26 +6977,26 @@
         <v>2007</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F82" s="11" t="str">
         <f>IF(ISBLANK(E82), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="S82" s="1" t="str">
@@ -6932,26 +7013,26 @@
         <v>2008</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F83" s="11" t="str">
         <f>IF(ISBLANK(E83), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="S83" s="1" t="str">
@@ -6968,29 +7049,29 @@
         <v>2009</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F84" s="11" t="str">
         <f>IF(ISBLANK(E84), "", Table2[[#This Row],[unique_id]])</f>
         <v>dining</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="S84" s="1" t="str">
@@ -7007,26 +7088,26 @@
         <v>2010</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F85" s="11" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_6</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="S85" s="1" t="str">
@@ -7043,26 +7124,26 @@
         <v>2011</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F86" s="11" t="str">
         <f>IF(ISBLANK(E86), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_7</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="S86" s="1" t="str">
@@ -7079,26 +7160,26 @@
         <v>2012</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F87" s="11" t="str">
         <f>IF(ISBLANK(E87), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_8</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="S87" s="1" t="str">
@@ -7115,26 +7196,26 @@
         <v>2013</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F88" s="11" t="str">
         <f>IF(ISBLANK(E88), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_9</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I88" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="S88" s="1" t="str">
@@ -7151,26 +7232,26 @@
         <v>2014</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F89" s="11" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_10</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="S89" s="1" t="str">
@@ -7187,26 +7268,26 @@
         <v>2015</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F90" s="11" t="str">
         <f>IF(ISBLANK(E90), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_11</v>
       </c>
       <c r="G90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I90" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="S90" s="1" t="str">
@@ -7223,29 +7304,29 @@
         <v>2016</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F91" s="11" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="S91" s="1" t="str">
@@ -7262,26 +7343,26 @@
         <v>2017</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F92" s="11" t="str">
         <f>IF(ISBLANK(E92), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_12</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="S92" s="1" t="str">
@@ -7298,26 +7379,26 @@
         <v>2018</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F93" s="11" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_13</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="S93" s="1" t="str">
@@ -7334,26 +7415,26 @@
         <v>2019</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F94" s="11" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_14</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="S94" s="1" t="str">
@@ -7370,29 +7451,29 @@
         <v>2020</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F95" s="11" t="str">
         <f>IF(ISBLANK(E95), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="S95" s="1" t="str">
@@ -7409,26 +7490,26 @@
         <v>2021</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F96" s="11" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="S96" s="1" t="str">
@@ -7445,26 +7526,26 @@
         <v>2022</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F97" s="11" t="str">
         <f>IF(ISBLANK(E97), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_16</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="S97" s="1" t="str">
@@ -7481,26 +7562,26 @@
         <v>2023</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F98" s="11" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_color_candle_17</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="S98" s="1" t="str">
@@ -7517,29 +7598,29 @@
         <v>2024</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F99" s="11" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="S99" s="1" t="str">
@@ -7556,26 +7637,26 @@
         <v>2025</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F100" s="11" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="S100" s="1" t="str">
@@ -7592,26 +7673,26 @@
         <v>2026</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F101" s="11" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="S101" s="1" t="str">
@@ -7628,26 +7709,26 @@
         <v>2027</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F102" s="11" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="S102" s="1" t="str">
@@ -7664,26 +7745,26 @@
         <v>2028</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F103" s="11" t="str">
         <f>IF(ISBLANK(E103), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="S103" s="1" t="str">
@@ -7700,29 +7781,29 @@
         <v>2029</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F104" s="11" t="str">
         <f>IF(ISBLANK(E104), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="S104" s="1" t="str">
@@ -7739,26 +7820,26 @@
         <v>2030</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F105" s="11" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="S105" s="1" t="str">
@@ -7775,29 +7856,29 @@
         <v>2031</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F106" s="11" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
         <v>pantry</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="S106" s="1" t="str">
@@ -7814,26 +7895,26 @@
         <v>2032</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F107" s="11" t="str">
         <f>IF(ISBLANK(E107), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_5</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="S107" s="1" t="str">
@@ -7850,29 +7931,29 @@
         <v>2033</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F108" s="11" t="str">
         <f>IF(ISBLANK(E108), "", Table2[[#This Row],[unique_id]])</f>
         <v>office</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="S108" s="1" t="str">
@@ -7889,26 +7970,26 @@
         <v>2034</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F109" s="11" t="str">
         <f>IF(ISBLANK(E109), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_6</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="S109" s="1" t="str">
@@ -7925,29 +8006,29 @@
         <v>2035</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F110" s="11" t="str">
         <f>IF(ISBLANK(E110), "", Table2[[#This Row],[unique_id]])</f>
         <v>bathroom</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="S110" s="1" t="str">
@@ -7964,26 +8045,26 @@
         <v>2036</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F111" s="11" t="str">
         <f>IF(ISBLANK(E111), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_7</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="S111" s="1" t="str">
@@ -8000,29 +8081,29 @@
         <v>2037</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F112" s="11" t="str">
         <f>IF(ISBLANK(E112), "", Table2[[#This Row],[unique_id]])</f>
         <v>ensuite</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="S112" s="1" t="str">
@@ -8039,26 +8120,26 @@
         <v>2038</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F113" s="11" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_8</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="S113" s="1" t="str">
@@ -8075,29 +8156,29 @@
         <v>2039</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F114" s="11" t="str">
         <f>IF(ISBLANK(E114), "", Table2[[#This Row],[unique_id]])</f>
         <v>wardrobe</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="S114" s="1" t="str">
@@ -8114,26 +8195,26 @@
         <v>2040</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F115" s="11" t="str">
         <f>IF(ISBLANK(E115), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_9</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q115" s="2"/>
       <c r="S115" s="1" t="str">
@@ -8150,29 +8231,29 @@
         <v>2041</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F116" s="11" t="str">
         <f>IF(ISBLANK(E116), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="S116" s="1" t="str">
@@ -8189,26 +8270,26 @@
         <v>2042</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F117" s="11" t="str">
         <f>IF(ISBLANK(E117), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_10</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="S117" s="1" t="str">
@@ -8225,29 +8306,29 @@
         <v>2043</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F118" s="11" t="str">
         <f>IF(ISBLANK(E118), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="S118" s="1" t="str">
@@ -8264,26 +8345,26 @@
         <v>2044</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F119" s="11" t="str">
         <f>IF(ISBLANK(E119), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_11</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="S119" s="1" t="str">
@@ -8300,29 +8381,29 @@
         <v>2044</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F120" s="11" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
         <v>lamp</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="S120" s="1" t="str">
@@ -8339,26 +8420,26 @@
         <v>2044</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F121" s="11" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
         <v>hue_ambiance_lamp_13</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="S121" s="1" t="str">
@@ -8375,29 +8456,29 @@
         <v>2080</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F122" s="1" t="str">
         <f>IF(ISBLANK(E122), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_tv</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="S122" s="1" t="str">
@@ -8410,33 +8491,9 @@
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F123" s="1" t="str">
+      <c r="F123" s="11" t="str">
         <f>IF(ISBLANK(E123), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_current_consumption</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q123" s="2"/>
       <c r="S123" s="1" t="str">
@@ -8450,32 +8507,35 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>2101</v>
+        <v>2100</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="F124" s="1" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_power</v>
+        <v>various_adhoc_current_consumption</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="1" t="str">
@@ -8489,29 +8549,35 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>2200</v>
+        <v>2101</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F125" s="1" t="str">
+        <v>402</v>
+      </c>
+      <c r="F125" s="11" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_total_consumption</v>
+        <v>rack_modem_current_consumption</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>156</v>
+        <v>410</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="1" t="str">
@@ -8525,32 +8591,35 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>2201</v>
+        <v>2102</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F126" s="1" t="str">
+        <v>403</v>
+      </c>
+      <c r="F126" s="11" t="str">
         <f>IF(ISBLANK(E126), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_today_s_consumption</v>
+        <v>rack_power_current_consumption</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>156</v>
+        <v>411</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="S126" s="1" t="str">
@@ -8564,29 +8633,35 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>2202</v>
+        <v>2103</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F127" s="1" t="str">
+        <v>404</v>
+      </c>
+      <c r="F127" s="11" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy</v>
+        <v>roof_switch_current_consumption</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>173</v>
+        <v>407</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="S127" s="1" t="str">
@@ -8600,32 +8675,35 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>2203</v>
+        <v>2104</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F128" s="1" t="str">
+        <v>398</v>
+      </c>
+      <c r="F128" s="11" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy_today</v>
+        <v>kitchen_fan_current_consumption</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="S128" s="1" t="str">
@@ -8637,28 +8715,37 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>2300</v>
+        <v>2105</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F129" s="1" t="str">
+        <v>399</v>
+      </c>
+      <c r="F129" s="11" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_power</v>
+        <v>kitchen_fridge_current_consumption</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="S129" s="1" t="str">
@@ -8670,28 +8757,37 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>2301</v>
+        <v>2106</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F130" s="1" t="str">
+        <v>165</v>
+      </c>
+      <c r="F130" s="11" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy</v>
+        <v>kitchen_coffee_current_consumption</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="S130" s="1" t="str">
@@ -8703,28 +8799,37 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>2302</v>
+        <v>2107</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F131" s="1" t="str">
+        <v>397</v>
+      </c>
+      <c r="F131" s="11" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_daily</v>
+        <v>deck_freezer_current_consumption</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="S131" s="1" t="str">
@@ -8736,28 +8841,37 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>2303</v>
+        <v>2108</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F132" s="1" t="str">
+        <v>396</v>
+      </c>
+      <c r="F132" s="11" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_weekly</v>
+        <v>deck_festoons_current_consumption</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="S132" s="1" t="str">
@@ -8769,28 +8883,37 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>2304</v>
+        <v>2109</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F133" s="1" t="str">
+        <v>401</v>
+      </c>
+      <c r="F133" s="11" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_monthly</v>
+        <v>office_power_current_consumption</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="S133" s="1" t="str">
@@ -8802,28 +8925,37 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>2400</v>
+        <v>2110</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F134" s="1" t="str">
+        <v>400</v>
+      </c>
+      <c r="F134" s="11" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v>withings_weight_kg_graham</v>
+        <v>lounge_tv_current_consumption</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="S134" s="1" t="str">
@@ -8835,194 +8967,94 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>2500</v>
+        <v>2111</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F135" s="1" t="str">
+        <v>405</v>
+      </c>
+      <c r="F135" s="11" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
+        <v>study_power_current_consumption</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>90</v>
+        <v>416</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P135" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q135" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q135" s="2"/>
       <c r="S135" s="1" t="str">
         <f>IF(ISBLANK(R135),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C135), "/", E135, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="T135" s="1" t="str">
         <f>IF(ISBLANK(R135),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C135), "/", E135))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V135" s="1">
-        <v>1</v>
-      </c>
-      <c r="W135" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X135" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z135" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB135" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC135" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>2501</v>
+        <v>2112</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F136" s="1" t="str">
+        <v>395</v>
+      </c>
+      <c r="F136" s="11" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
+        <v>bathroom_towelrails_current_consumption</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>96</v>
+        <v>417</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="P136" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R136" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q136" s="2"/>
       <c r="S136" s="1" t="str">
         <f>IF(ISBLANK(R136),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C136), "/", E136, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
+        <v/>
       </c>
       <c r="T136" s="1" t="str">
         <f>IF(ISBLANK(R136),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C136), "/", E136))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="V136" s="1">
-        <v>1</v>
-      </c>
-      <c r="W136" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X136" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y136" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z136" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC136" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>2600</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F137" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F137" s="11" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q137" s="2"/>
       <c r="S137" s="1" t="str">
@@ -9034,34 +9066,10 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>2700</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F138" s="1" t="str">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F138" s="11" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q138" s="2"/>
       <c r="S138" s="1" t="str">
@@ -9073,31 +9081,10 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F139" s="1" t="str">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F139" s="11" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>184</v>
+        <v/>
       </c>
       <c r="Q139" s="2"/>
       <c r="S139" s="1" t="str">
@@ -9109,34 +9096,10 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F140" s="1" t="str">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F140" s="11" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q140" s="2"/>
       <c r="S140" s="1" t="str">
@@ -9148,34 +9111,10 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>3001</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F141" s="1" t="str">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F141" s="11" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q141" s="2"/>
       <c r="S141" s="1" t="str">
@@ -9187,34 +9126,34 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>3050</v>
+        <v>2201</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="F142" s="1" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_occupancy</v>
+        <v>kitchen_coffee_today_s_consumption</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>226</v>
+        <v>394</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="S142" s="1" t="str">
@@ -9226,34 +9165,10 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>3051</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F143" s="1" t="str">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F143" s="11" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q143" s="2"/>
       <c r="S143" s="1" t="str">
@@ -9265,34 +9180,10 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>3052</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F144" s="1" t="str">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F144" s="11" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_occupancy</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q144" s="2"/>
       <c r="S144" s="1" t="str">
@@ -9305,33 +9196,9 @@
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>3053</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F145" s="1" t="str">
+      <c r="F145" s="11" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q145" s="2"/>
       <c r="S145" s="1" t="str">
@@ -9344,33 +9211,9 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>3054</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F146" s="1" t="str">
+      <c r="F146" s="11" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_occupancy</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q146" s="2"/>
       <c r="S146" s="1" t="str">
@@ -9383,33 +9226,9 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>3055</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F147" s="1" t="str">
+      <c r="F147" s="11" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_occupancy</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q147" s="2"/>
       <c r="S147" s="1" t="str">
@@ -9422,33 +9241,9 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>3056</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F148" s="1" t="str">
+      <c r="F148" s="11" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck2_occupancy</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q148" s="2"/>
       <c r="S148" s="1" t="str">
@@ -9461,33 +9256,9 @@
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>3057</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F149" s="1" t="str">
+      <c r="F149" s="11" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck1_occupancy</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>158</v>
+        <v/>
       </c>
       <c r="Q149" s="2"/>
       <c r="S149" s="1" t="str">
@@ -9500,30 +9271,9 @@
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F150" s="1" t="str">
+      <c r="F150" s="11" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_energize</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>195</v>
+        <v/>
       </c>
       <c r="Q150" s="2"/>
       <c r="S150" s="1" t="str">
@@ -9536,30 +9286,9 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>9000</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F151" s="1" t="str">
+      <c r="F151" s="11" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
-        <v>update_bom_icons</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>195</v>
+        <v/>
       </c>
       <c r="Q151" s="2"/>
       <c r="S151" s="1" t="str">
@@ -9576,6 +9305,7 @@
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q152" s="2"/>
       <c r="S152" s="1" t="str">
         <f>IF(ISBLANK(R152),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C152), "/", E152, "/config"))</f>
         <v/>
@@ -9590,6 +9320,7 @@
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q153" s="2"/>
       <c r="S153" s="1" t="str">
         <f>IF(ISBLANK(R153),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C153), "/", E153, "/config"))</f>
         <v/>
@@ -9604,6 +9335,7 @@
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q154" s="2"/>
       <c r="S154" s="1" t="str">
         <f>IF(ISBLANK(R154),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C154), "/", E154, "/config"))</f>
         <v/>
@@ -9618,6 +9350,7 @@
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q155" s="2"/>
       <c r="S155" s="1" t="str">
         <f>IF(ISBLANK(R155),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C155), "/", E155, "/config"))</f>
         <v/>
@@ -9632,6 +9365,7 @@
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q156" s="2"/>
       <c r="S156" s="1" t="str">
         <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156, "/config"))</f>
         <v/>
@@ -9646,7 +9380,7 @@
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G157" s="6"/>
+      <c r="Q157" s="2"/>
       <c r="S157" s="1" t="str">
         <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157, "/config"))</f>
         <v/>
@@ -9657,10 +9391,35 @@
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="F158" s="11" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>lights_power</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q158" s="2"/>
       <c r="S158" s="1" t="str">
         <f>IF(ISBLANK(R158),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C158), "/", E158, "/config"))</f>
         <v/>
@@ -9671,10 +9430,35 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F159" s="1" t="str">
+      <c r="A159" s="1">
+        <v>2201</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F159" s="11" t="str">
         <f>IF(ISBLANK(E159), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>lights_energy</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q159" s="2"/>
       <c r="S159" s="1" t="str">
         <f>IF(ISBLANK(R159),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C159), "/", E159, "/config"))</f>
         <v/>
@@ -9685,10 +9469,35 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F160" s="1" t="str">
+      <c r="A160" s="1">
+        <v>2202</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F160" s="11" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>lights_energy_today</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q160" s="2"/>
       <c r="S160" s="1" t="str">
         <f>IF(ISBLANK(R160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160, "/config"))</f>
         <v/>
@@ -9698,11 +9507,36 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>2203</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F161" s="1" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>dining_lights_power</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q161" s="2"/>
       <c r="S161" s="1" t="str">
         <f>IF(ISBLANK(R161),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C161), "/", E161, "/config"))</f>
         <v/>
@@ -9712,11 +9546,36 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>2204</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="F162" s="1" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>dining_lights_energy</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q162" s="2"/>
       <c r="S162" s="1" t="str">
         <f>IF(ISBLANK(R162),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C162), "/", E162, "/config"))</f>
         <v/>
@@ -9726,11 +9585,36 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>2205</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="F163" s="1" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>dining_lights_energy_today</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q163" s="2"/>
       <c r="S163" s="1" t="str">
         <f>IF(ISBLANK(R163),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C163), "/", E163, "/config"))</f>
         <v/>
@@ -9740,11 +9624,33 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>2206</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F164" s="1" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>hue_color_candle_16_power</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q164" s="2"/>
       <c r="S164" s="1" t="str">
         <f>IF(ISBLANK(R164),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C164), "/", E164, "/config"))</f>
         <v/>
@@ -9754,11 +9660,33 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>2207</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F165" s="1" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>hue_color_candle_16_energy</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q165" s="2"/>
       <c r="S165" s="1" t="str">
         <f>IF(ISBLANK(R165),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C165), "/", E165, "/config"))</f>
         <v/>
@@ -9768,11 +9696,33 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>2208</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="F166" s="1" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>hue_color_candle_16_energy_daily</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q166" s="2"/>
       <c r="S166" s="1" t="str">
         <f>IF(ISBLANK(R166),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C166), "/", E166, "/config"))</f>
         <v/>
@@ -9782,11 +9732,33 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>2209</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F167" s="1" t="str">
         <f>IF(ISBLANK(E167), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>hue_color_candle_16_energy_weekly</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q167" s="2"/>
       <c r="S167" s="1" t="str">
         <f>IF(ISBLANK(R167),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C167), "/", E167, "/config"))</f>
         <v/>
@@ -9796,11 +9768,33 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>2210</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F168" s="1" t="str">
         <f>IF(ISBLANK(E168), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>hue_color_candle_16_energy_monthly</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q168" s="2"/>
       <c r="S168" s="1" t="str">
         <f>IF(ISBLANK(R168),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C168), "/", E168, "/config"))</f>
         <v/>
@@ -9810,11 +9804,12 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F169" s="1" t="str">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F169" s="11" t="str">
         <f>IF(ISBLANK(E169), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q169" s="2"/>
       <c r="S169" s="1" t="str">
         <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169, "/config"))</f>
         <v/>
@@ -9824,11 +9819,12 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F170" s="1" t="str">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F170" s="11" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q170" s="2"/>
       <c r="S170" s="1" t="str">
         <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170, "/config"))</f>
         <v/>
@@ -9838,11 +9834,12 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F171" s="1" t="str">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F171" s="11" t="str">
         <f>IF(ISBLANK(E171), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q171" s="2"/>
       <c r="S171" s="1" t="str">
         <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171, "/config"))</f>
         <v/>
@@ -9852,11 +9849,12 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F172" s="1" t="str">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F172" s="11" t="str">
         <f>IF(ISBLANK(E172), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q172" s="2"/>
       <c r="S172" s="1" t="str">
         <f>IF(ISBLANK(R172),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C172), "/", E172, "/config"))</f>
         <v/>
@@ -9866,11 +9864,12 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F173" s="1" t="str">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F173" s="11" t="str">
         <f>IF(ISBLANK(E173), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q173" s="2"/>
       <c r="S173" s="1" t="str">
         <f>IF(ISBLANK(R173),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C173), "/", E173, "/config"))</f>
         <v/>
@@ -9880,11 +9879,12 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F174" s="1" t="str">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F174" s="11" t="str">
         <f>IF(ISBLANK(E174), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q174" s="2"/>
       <c r="S174" s="1" t="str">
         <f>IF(ISBLANK(R174),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C174), "/", E174, "/config"))</f>
         <v/>
@@ -9894,11 +9894,12 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F175" s="1" t="str">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F175" s="11" t="str">
         <f>IF(ISBLANK(E175), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q175" s="2"/>
       <c r="S175" s="1" t="str">
         <f>IF(ISBLANK(R175),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C175), "/", E175, "/config"))</f>
         <v/>
@@ -9908,11 +9909,12 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F176" s="1" t="str">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F176" s="11" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q176" s="2"/>
       <c r="S176" s="1" t="str">
         <f>IF(ISBLANK(R176),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C176), "/", E176, "/config"))</f>
         <v/>
@@ -9922,11 +9924,12 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F177" s="1" t="str">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F177" s="11" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q177" s="2"/>
       <c r="S177" s="1" t="str">
         <f>IF(ISBLANK(R177),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C177), "/", E177, "/config"))</f>
         <v/>
@@ -9936,11 +9939,12 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F178" s="1" t="str">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F178" s="11" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q178" s="2"/>
       <c r="S178" s="1" t="str">
         <f>IF(ISBLANK(R178),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C178), "/", E178, "/config"))</f>
         <v/>
@@ -9950,11 +9954,12 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F179" s="1" t="str">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F179" s="11" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q179" s="2"/>
       <c r="S179" s="1" t="str">
         <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179, "/config"))</f>
         <v/>
@@ -9964,11 +9969,12 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F180" s="1" t="str">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F180" s="11" t="str">
         <f>IF(ISBLANK(E180), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q180" s="2"/>
       <c r="S180" s="1" t="str">
         <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180, "/config"))</f>
         <v/>
@@ -9978,11 +9984,12 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F181" s="1" t="str">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F181" s="11" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q181" s="2"/>
       <c r="S181" s="1" t="str">
         <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181, "/config"))</f>
         <v/>
@@ -9992,11 +9999,12 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F182" s="1" t="str">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F182" s="11" t="str">
         <f>IF(ISBLANK(E182), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q182" s="2"/>
       <c r="S182" s="1" t="str">
         <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182, "/config"))</f>
         <v/>
@@ -10006,11 +10014,12 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F183" s="1" t="str">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F183" s="11" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q183" s="2"/>
       <c r="S183" s="1" t="str">
         <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183, "/config"))</f>
         <v/>
@@ -10020,11 +10029,30 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F184" s="1" t="str">
         <f>IF(ISBLANK(E184), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>withings_weight_kg_graham</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q184" s="2"/>
       <c r="S184" s="1" t="str">
         <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184, "/config"))</f>
         <v/>
@@ -10034,39 +10062,196 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F185" s="1" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P185" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q185" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="S185" s="1" t="str">
         <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T185" s="1" t="str">
         <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="6:20" x14ac:dyDescent="0.2">
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V185" s="1">
+        <v>1</v>
+      </c>
+      <c r="W185" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X185" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z185" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA185" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC185" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>2501</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="F186" s="1" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P186" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q186" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="S186" s="1" t="str">
         <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T186" s="1" t="str">
         <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="6:20" x14ac:dyDescent="0.2">
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V186" s="1">
+        <v>1</v>
+      </c>
+      <c r="W186" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X186" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y186" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z186" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC186" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F187" s="1" t="str">
         <f>IF(ISBLANK(E187), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>ada_home</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q187" s="2"/>
       <c r="S187" s="1" t="str">
         <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187, "/config"))</f>
         <v/>
@@ -10076,11 +10261,36 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="F188" s="1" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>kitchen_speaker</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q188" s="2"/>
       <c r="S188" s="1" t="str">
         <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188, "/config"))</f>
         <v/>
@@ -10090,11 +10300,33 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F189" s="1" t="str">
         <f>IF(ISBLANK(E189), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>parents_speaker_battery</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q189" s="2"/>
       <c r="S189" s="1" t="str">
         <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189, "/config"))</f>
         <v/>
@@ -10104,11 +10336,36 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="F190" s="1" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_ada_medium</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q190" s="2"/>
       <c r="S190" s="1" t="str">
         <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190, "/config"))</f>
         <v/>
@@ -10118,11 +10375,36 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>3001</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="F191" s="1" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_edwin_medium</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q191" s="2"/>
       <c r="S191" s="1" t="str">
         <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191, "/config"))</f>
         <v/>
@@ -10132,11 +10414,36 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>3050</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="F192" s="1" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>ada_occupancy</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q192" s="2"/>
       <c r="S192" s="1" t="str">
         <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192, "/config"))</f>
         <v/>
@@ -10146,11 +10453,36 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>3051</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F193" s="1" t="str">
         <f>IF(ISBLANK(E193), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_ada_motion</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q193" s="2"/>
       <c r="S193" s="1" t="str">
         <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193, "/config"))</f>
         <v/>
@@ -10160,11 +10492,36 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>3052</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="F194" s="1" t="str">
         <f>IF(ISBLANK(E194), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>edwin_occupancy</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q194" s="2"/>
       <c r="S194" s="1" t="str">
         <f>IF(ISBLANK(R194),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C194), "/", E194, "/config"))</f>
         <v/>
@@ -10174,11 +10531,36 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>3053</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="F195" s="1" t="str">
         <f>IF(ISBLANK(E195), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>uvc_edwin_motion</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q195" s="2"/>
       <c r="S195" s="1" t="str">
         <f>IF(ISBLANK(R195),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C195), "/", E195, "/config"))</f>
         <v/>
@@ -10188,11 +10570,36 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>3054</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="F196" s="1" t="str">
         <f>IF(ISBLANK(E196), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>parents_occupancy</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q196" s="2"/>
       <c r="S196" s="1" t="str">
         <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196, "/config"))</f>
         <v/>
@@ -10202,11 +10609,36 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>3055</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="F197" s="1" t="str">
         <f>IF(ISBLANK(E197), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>lounge_occupancy</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q197" s="2"/>
       <c r="S197" s="1" t="str">
         <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
         <v/>
@@ -10216,11 +10648,36 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>3056</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="F198" s="1" t="str">
         <f>IF(ISBLANK(E198), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>deck2_occupancy</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q198" s="2"/>
       <c r="S198" s="1" t="str">
         <f>IF(ISBLANK(R198),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C198), "/", E198, "/config"))</f>
         <v/>
@@ -10230,11 +10687,36 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>3057</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="F199" s="1" t="str">
         <f>IF(ISBLANK(E199), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>deck1_occupancy</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q199" s="2"/>
       <c r="S199" s="1" t="str">
         <f>IF(ISBLANK(R199),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C199), "/", E199, "/config"))</f>
         <v/>
@@ -10244,11 +10726,33 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F200" s="1" t="str">
         <f>IF(ISBLANK(E200), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>ada_energize</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q200" s="2"/>
       <c r="S200" s="1" t="str">
         <f>IF(ISBLANK(R200),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C200), "/", E200, "/config"))</f>
         <v/>
@@ -10258,11 +10762,33 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="F201" s="1" t="str">
         <f>IF(ISBLANK(E201), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>update_bom_icons</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q201" s="2"/>
       <c r="S201" s="1" t="str">
         <f>IF(ISBLANK(R201),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C201), "/", E201, "/config"))</f>
         <v/>
@@ -10272,8 +10798,8 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F202" s="1" t="str">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F202" s="11" t="str">
         <f>IF(ISBLANK(E202), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -10286,8 +10812,8 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F203" s="1" t="str">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F203" s="11" t="str">
         <f>IF(ISBLANK(E203), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -10300,8 +10826,8 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F204" s="1" t="str">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F204" s="11" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -10314,8 +10840,8 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F205" s="1" t="str">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F205" s="11" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -10328,8 +10854,8 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F206" s="1" t="str">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F206" s="11" t="str">
         <f>IF(ISBLANK(E206), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -10342,11 +10868,12 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F207" s="1" t="str">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F207" s="11" t="str">
         <f>IF(ISBLANK(E207), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G207" s="6"/>
       <c r="S207" s="1" t="str">
         <f>IF(ISBLANK(R207),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C207), "/", E207, "/config"))</f>
         <v/>
@@ -10356,8 +10883,8 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F208" s="1" t="str">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F208" s="11" t="str">
         <f>IF(ISBLANK(E208), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -12299,6 +12826,706 @@
       </c>
       <c r="T346" s="1" t="str">
         <f>IF(ISBLANK(R346),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C346), "/", E346))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F347" s="1" t="str">
+        <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S347" s="1" t="str">
+        <f>IF(ISBLANK(R347),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C347), "/", E347, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T347" s="1" t="str">
+        <f>IF(ISBLANK(R347),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C347), "/", E347))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F348" s="1" t="str">
+        <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S348" s="1" t="str">
+        <f>IF(ISBLANK(R348),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C348), "/", E348, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T348" s="1" t="str">
+        <f>IF(ISBLANK(R348),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C348), "/", E348))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F349" s="1" t="str">
+        <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S349" s="1" t="str">
+        <f>IF(ISBLANK(R349),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C349), "/", E349, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T349" s="1" t="str">
+        <f>IF(ISBLANK(R349),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C349), "/", E349))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F350" s="1" t="str">
+        <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S350" s="1" t="str">
+        <f>IF(ISBLANK(R350),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C350), "/", E350, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T350" s="1" t="str">
+        <f>IF(ISBLANK(R350),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C350), "/", E350))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F351" s="1" t="str">
+        <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S351" s="1" t="str">
+        <f>IF(ISBLANK(R351),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C351), "/", E351, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T351" s="1" t="str">
+        <f>IF(ISBLANK(R351),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C351), "/", E351))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F352" s="1" t="str">
+        <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S352" s="1" t="str">
+        <f>IF(ISBLANK(R352),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C352), "/", E352, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T352" s="1" t="str">
+        <f>IF(ISBLANK(R352),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C352), "/", E352))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F353" s="1" t="str">
+        <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S353" s="1" t="str">
+        <f>IF(ISBLANK(R353),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C353), "/", E353, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T353" s="1" t="str">
+        <f>IF(ISBLANK(R353),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C353), "/", E353))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F354" s="1" t="str">
+        <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S354" s="1" t="str">
+        <f>IF(ISBLANK(R354),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C354), "/", E354, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T354" s="1" t="str">
+        <f>IF(ISBLANK(R354),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C354), "/", E354))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F355" s="1" t="str">
+        <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S355" s="1" t="str">
+        <f>IF(ISBLANK(R355),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C355), "/", E355, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T355" s="1" t="str">
+        <f>IF(ISBLANK(R355),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C355), "/", E355))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F356" s="1" t="str">
+        <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S356" s="1" t="str">
+        <f>IF(ISBLANK(R356),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C356), "/", E356, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T356" s="1" t="str">
+        <f>IF(ISBLANK(R356),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C356), "/", E356))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F357" s="1" t="str">
+        <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S357" s="1" t="str">
+        <f>IF(ISBLANK(R357),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C357), "/", E357, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T357" s="1" t="str">
+        <f>IF(ISBLANK(R357),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C357), "/", E357))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F358" s="1" t="str">
+        <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S358" s="1" t="str">
+        <f>IF(ISBLANK(R358),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C358), "/", E358, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T358" s="1" t="str">
+        <f>IF(ISBLANK(R358),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C358), "/", E358))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F359" s="1" t="str">
+        <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S359" s="1" t="str">
+        <f>IF(ISBLANK(R359),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C359), "/", E359, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T359" s="1" t="str">
+        <f>IF(ISBLANK(R359),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C359), "/", E359))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F360" s="1" t="str">
+        <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S360" s="1" t="str">
+        <f>IF(ISBLANK(R360),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C360), "/", E360, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T360" s="1" t="str">
+        <f>IF(ISBLANK(R360),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C360), "/", E360))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F361" s="1" t="str">
+        <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S361" s="1" t="str">
+        <f>IF(ISBLANK(R361),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C361), "/", E361, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T361" s="1" t="str">
+        <f>IF(ISBLANK(R361),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C361), "/", E361))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F362" s="1" t="str">
+        <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S362" s="1" t="str">
+        <f>IF(ISBLANK(R362),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C362), "/", E362, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T362" s="1" t="str">
+        <f>IF(ISBLANK(R362),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C362), "/", E362))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F363" s="1" t="str">
+        <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S363" s="1" t="str">
+        <f>IF(ISBLANK(R363),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C363), "/", E363, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T363" s="1" t="str">
+        <f>IF(ISBLANK(R363),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C363), "/", E363))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F364" s="1" t="str">
+        <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S364" s="1" t="str">
+        <f>IF(ISBLANK(R364),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C364), "/", E364, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T364" s="1" t="str">
+        <f>IF(ISBLANK(R364),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C364), "/", E364))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F365" s="1" t="str">
+        <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S365" s="1" t="str">
+        <f>IF(ISBLANK(R365),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C365), "/", E365, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T365" s="1" t="str">
+        <f>IF(ISBLANK(R365),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C365), "/", E365))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F366" s="1" t="str">
+        <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S366" s="1" t="str">
+        <f>IF(ISBLANK(R366),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C366), "/", E366, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T366" s="1" t="str">
+        <f>IF(ISBLANK(R366),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C366), "/", E366))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F367" s="1" t="str">
+        <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S367" s="1" t="str">
+        <f>IF(ISBLANK(R367),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C367), "/", E367, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T367" s="1" t="str">
+        <f>IF(ISBLANK(R367),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C367), "/", E367))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F368" s="1" t="str">
+        <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S368" s="1" t="str">
+        <f>IF(ISBLANK(R368),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C368), "/", E368, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T368" s="1" t="str">
+        <f>IF(ISBLANK(R368),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C368), "/", E368))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F369" s="1" t="str">
+        <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S369" s="1" t="str">
+        <f>IF(ISBLANK(R369),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C369), "/", E369, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T369" s="1" t="str">
+        <f>IF(ISBLANK(R369),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C369), "/", E369))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F370" s="1" t="str">
+        <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S370" s="1" t="str">
+        <f>IF(ISBLANK(R370),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C370), "/", E370, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T370" s="1" t="str">
+        <f>IF(ISBLANK(R370),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C370), "/", E370))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F371" s="1" t="str">
+        <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S371" s="1" t="str">
+        <f>IF(ISBLANK(R371),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C371), "/", E371, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T371" s="1" t="str">
+        <f>IF(ISBLANK(R371),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C371), "/", E371))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F372" s="1" t="str">
+        <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S372" s="1" t="str">
+        <f>IF(ISBLANK(R372),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C372), "/", E372, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T372" s="1" t="str">
+        <f>IF(ISBLANK(R372),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C372), "/", E372))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F373" s="1" t="str">
+        <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S373" s="1" t="str">
+        <f>IF(ISBLANK(R373),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C373), "/", E373, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T373" s="1" t="str">
+        <f>IF(ISBLANK(R373),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C373), "/", E373))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F374" s="1" t="str">
+        <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S374" s="1" t="str">
+        <f>IF(ISBLANK(R374),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C374), "/", E374, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T374" s="1" t="str">
+        <f>IF(ISBLANK(R374),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C374), "/", E374))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F375" s="1" t="str">
+        <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S375" s="1" t="str">
+        <f>IF(ISBLANK(R375),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C375), "/", E375, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T375" s="1" t="str">
+        <f>IF(ISBLANK(R375),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C375), "/", E375))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F376" s="1" t="str">
+        <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S376" s="1" t="str">
+        <f>IF(ISBLANK(R376),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C376), "/", E376, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T376" s="1" t="str">
+        <f>IF(ISBLANK(R376),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C376), "/", E376))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F377" s="1" t="str">
+        <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S377" s="1" t="str">
+        <f>IF(ISBLANK(R377),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C377), "/", E377, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T377" s="1" t="str">
+        <f>IF(ISBLANK(R377),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C377), "/", E377))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F378" s="1" t="str">
+        <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S378" s="1" t="str">
+        <f>IF(ISBLANK(R378),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C378), "/", E378, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T378" s="1" t="str">
+        <f>IF(ISBLANK(R378),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C378), "/", E378))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F379" s="1" t="str">
+        <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S379" s="1" t="str">
+        <f>IF(ISBLANK(R379),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C379), "/", E379, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T379" s="1" t="str">
+        <f>IF(ISBLANK(R379),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C379), "/", E379))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F380" s="1" t="str">
+        <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S380" s="1" t="str">
+        <f>IF(ISBLANK(R380),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C380), "/", E380, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T380" s="1" t="str">
+        <f>IF(ISBLANK(R380),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C380), "/", E380))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F381" s="1" t="str">
+        <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S381" s="1" t="str">
+        <f>IF(ISBLANK(R381),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C381), "/", E381, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T381" s="1" t="str">
+        <f>IF(ISBLANK(R381),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C381), "/", E381))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F382" s="1" t="str">
+        <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S382" s="1" t="str">
+        <f>IF(ISBLANK(R382),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C382), "/", E382, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T382" s="1" t="str">
+        <f>IF(ISBLANK(R382),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C382), "/", E382))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F383" s="1" t="str">
+        <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S383" s="1" t="str">
+        <f>IF(ISBLANK(R383),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C383), "/", E383, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T383" s="1" t="str">
+        <f>IF(ISBLANK(R383),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C383), "/", E383))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F384" s="1" t="str">
+        <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S384" s="1" t="str">
+        <f>IF(ISBLANK(R384),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C384), "/", E384, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T384" s="1" t="str">
+        <f>IF(ISBLANK(R384),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C384), "/", E384))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F385" s="1" t="str">
+        <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S385" s="1" t="str">
+        <f>IF(ISBLANK(R385),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C385), "/", E385, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T385" s="1" t="str">
+        <f>IF(ISBLANK(R385),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C385), "/", E385))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F386" s="1" t="str">
+        <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S386" s="1" t="str">
+        <f>IF(ISBLANK(R386),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C386), "/", E386, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T386" s="1" t="str">
+        <f>IF(ISBLANK(R386),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C386), "/", E386))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F387" s="1" t="str">
+        <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S387" s="1" t="str">
+        <f>IF(ISBLANK(R387),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C387), "/", E387, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T387" s="1" t="str">
+        <f>IF(ISBLANK(R387),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C387), "/", E387))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F388" s="1" t="str">
+        <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S388" s="1" t="str">
+        <f>IF(ISBLANK(R388),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C388), "/", E388, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T388" s="1" t="str">
+        <f>IF(ISBLANK(R388),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C388), "/", E388))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F389" s="1" t="str">
+        <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S389" s="1" t="str">
+        <f>IF(ISBLANK(R389),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C389), "/", E389, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T389" s="1" t="str">
+        <f>IF(ISBLANK(R389),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C389), "/", E389))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F390" s="1" t="str">
+        <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S390" s="1" t="str">
+        <f>IF(ISBLANK(R390),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C390), "/", E390, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T390" s="1" t="str">
+        <f>IF(ISBLANK(R390),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C390), "/", E390))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F391" s="1" t="str">
+        <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S391" s="1" t="str">
+        <f>IF(ISBLANK(R391),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C391), "/", E391, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T391" s="1" t="str">
+        <f>IF(ISBLANK(R391),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C391), "/", E391))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F392" s="1" t="str">
+        <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S392" s="1" t="str">
+        <f>IF(ISBLANK(R392),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C392), "/", E392, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T392" s="1" t="str">
+        <f>IF(ISBLANK(R392),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C392), "/", E392))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F393" s="1" t="str">
+        <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S393" s="1" t="str">
+        <f>IF(ISBLANK(R393),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C393), "/", E393, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T393" s="1" t="str">
+        <f>IF(ISBLANK(R393),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C393), "/", E393))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F394" s="1" t="str">
+        <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S394" s="1" t="str">
+        <f>IF(ISBLANK(R394),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C394), "/", E394, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T394" s="1" t="str">
+        <f>IF(ISBLANK(R394),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C394), "/", E394))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F395" s="1" t="str">
+        <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S395" s="1" t="str">
+        <f>IF(ISBLANK(R395),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C395), "/", E395, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T395" s="1" t="str">
+        <f>IF(ISBLANK(R395),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C395), "/", E395))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F396" s="1" t="str">
+        <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S396" s="1" t="str">
+        <f>IF(ISBLANK(R396),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C396), "/", E396, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T396" s="1" t="str">
+        <f>IF(ISBLANK(R396),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C396), "/", E396))</f>
         <v/>
       </c>
     </row>
@@ -12322,8 +13549,8 @@
     <hyperlink ref="AC31" r:id="rId12" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
     <hyperlink ref="AC42" r:id="rId13" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
     <hyperlink ref="AC56:AC79" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
-    <hyperlink ref="AC135" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
-    <hyperlink ref="AC136" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
+    <hyperlink ref="AC185" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
+    <hyperlink ref="AC186" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
     <hyperlink ref="AC64" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="AC65" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AC15" r:id="rId19" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BED8F-39EE-6047-8FD3-51238526FE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCEE90-6686-7E48-91E0-71E928818CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1509,9 +1509,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1530,106 +1527,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dotted">
-          <color theme="4"/>
-        </left>
-        <right style="dotted">
-          <color theme="4"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="dotted">
-          <color theme="4"/>
-        </vertical>
-        <horizontal style="dotted">
-          <color theme="4"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dotted">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -1800,7 +1706,16 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1830,6 +1745,43 @@
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1856,6 +1808,54 @@
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="dotted">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dotted">
+          <color theme="4"/>
+        </left>
+        <right style="dotted">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="dotted">
+          <color theme="4"/>
+        </vertical>
+        <horizontal style="dotted">
+          <color theme="4"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1877,47 +1877,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC396" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC396" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
   <autoFilter ref="A3:AC396" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC396">
     <sortCondition ref="A3:A396"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="entity_status" dataDxfId="30"/>
-    <tableColumn id="30" xr3:uid="{9A7EFF98-BFE6-E446-8CFB-C6A8F1F4C72D}" name="device_via_device" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="entity_namespace" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unique_id" dataDxfId="28"/>
-    <tableColumn id="29" xr3:uid="{C9099E62-9C90-774C-B487-C1E8FC10D09D}" name="name" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="entity_status" dataDxfId="27"/>
+    <tableColumn id="30" xr3:uid="{9A7EFF98-BFE6-E446-8CFB-C6A8F1F4C72D}" name="device_via_device" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="entity_namespace" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unique_id" dataDxfId="24"/>
+    <tableColumn id="29" xr3:uid="{C9099E62-9C90-774C-B487-C1E8FC10D09D}" name="name" dataDxfId="23">
       <calculatedColumnFormula>IF(ISBLANK(E4), "", Table2[[#This Row],[unique_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="friendly_name" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="entity_domain" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entity_group" dataDxfId="25"/>
-    <tableColumn id="32" xr3:uid="{9FB83457-10AD-D34A-B0A0-C03B121132D6}" name="display_mode" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{0D8A1BBE-51B4-E147-A44E-9683CA8C518F}" name="timeseries_mode" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="friendly_name" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="entity_domain" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entity_group" dataDxfId="20"/>
+    <tableColumn id="32" xr3:uid="{9FB83457-10AD-D34A-B0A0-C03B121132D6}" name="display_mode" dataDxfId="19"/>
+    <tableColumn id="31" xr3:uid="{0D8A1BBE-51B4-E147-A44E-9683CA8C518F}" name="timeseries_mode" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="state_class" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unit_of_measurement" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="device_class" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="icon" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="sample_period" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="force_update" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="unique_id_device" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="discovery_topic" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4, "/config"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="16">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="state_topic" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="8"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="device_configuration_url" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="value_template" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="qos" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="device_name" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="device_sw_version" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="device_identifiers" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="device_model" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="device_manufacturer" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="device_suggested_area" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="device_configuration_url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2223,7 +2223,7 @@
   <dimension ref="A1:AC396"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2298,10 +2298,10 @@
       <c r="M1" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="19"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="18" t="s">
         <v>266</v>
       </c>
@@ -2379,58 +2379,58 @@
       <c r="K2" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="V2" s="21">
+      <c r="V2" s="20">
         <v>1</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="22" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2468,58 +2468,58 @@
       <c r="K3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="W3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2574,11 +2574,11 @@
         <v>102</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f>IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4, "/config"))</f>
+        <f t="shared" ref="S4:S67" si="0">IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_temperature/config</v>
       </c>
       <c r="T4" s="1" t="str">
-        <f>IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4))</f>
+        <f t="shared" ref="T4:T67" si="1">IF(ISBLANK(R4),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C4), "/", E4))</f>
         <v>haas/entity/sensor/weewx/roof_temperature</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -2643,11 +2643,11 @@
       </c>
       <c r="Q5" s="2"/>
       <c r="S5" s="1" t="str">
-        <f>IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T5" s="1" t="str">
-        <f>IF(ISBLANK(R5),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C5), "/", E5))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC5" s="7"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="S6" s="1" t="str">
-        <f>IF(ISBLANK(R6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C6), "/", E6, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T6" s="1" t="str">
-        <f>IF(ISBLANK(R6),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C6), "/", E6))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC6" s="7"/>
@@ -2729,11 +2729,11 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="S7" s="1" t="str">
-        <f>IF(ISBLANK(R7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C7), "/", E7, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T7" s="1" t="str">
-        <f>IF(ISBLANK(R7),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C7), "/", E7))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC7" s="7"/>
@@ -2772,11 +2772,11 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="S8" s="1" t="str">
-        <f>IF(ISBLANK(R8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C8), "/", E8, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T8" s="1" t="str">
-        <f>IF(ISBLANK(R8),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C8), "/", E8))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC8" s="7"/>
@@ -2794,7 +2794,7 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>357</v>
       </c>
       <c r="F9" s="11" t="str">
@@ -2815,11 +2815,11 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="S9" s="1" t="str">
-        <f>IF(ISBLANK(R9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C9), "/", E9, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T9" s="1" t="str">
-        <f>IF(ISBLANK(R9),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C9), "/", E9))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC9" s="7"/>
@@ -2837,7 +2837,7 @@
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>358</v>
       </c>
       <c r="F10" s="11" t="str">
@@ -2858,11 +2858,11 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="S10" s="1" t="str">
-        <f>IF(ISBLANK(R10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C10), "/", E10, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T10" s="1" t="str">
-        <f>IF(ISBLANK(R10),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C10), "/", E10))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC10" s="7"/>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="S11" s="1" t="str">
-        <f>IF(ISBLANK(R11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C11), "/", E11, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T11" s="1" t="str">
-        <f>IF(ISBLANK(R11),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C11), "/", E11))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC11" s="7"/>
@@ -2944,11 +2944,11 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="S12" s="1" t="str">
-        <f>IF(ISBLANK(R12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C12), "/", E12, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T12" s="1" t="str">
-        <f>IF(ISBLANK(R12),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C12), "/", E12))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC12" s="7"/>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="S13" s="1" t="str">
-        <f>IF(ISBLANK(R13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C13), "/", E13, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T13" s="1" t="str">
-        <f>IF(ISBLANK(R13),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C13), "/", E13))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC13" s="7"/>
@@ -3030,11 +3030,11 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="S14" s="1" t="str">
-        <f>IF(ISBLANK(R14),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C14), "/", E14, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T14" s="1" t="str">
-        <f>IF(ISBLANK(R14),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C14), "/", E14))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC14" s="7"/>
@@ -3090,11 +3090,11 @@
         <v>225</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f>IF(ISBLANK(R15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C15), "/", E15, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/rack_temperature/config</v>
       </c>
       <c r="T15" s="1" t="str">
-        <f>IF(ISBLANK(R15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C15), "/", E15))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/rack_temperature</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -3173,11 +3173,11 @@
         <v>105</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f>IF(ISBLANK(R16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C16), "/", E16, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature/config</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f>IF(ISBLANK(R16),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C16), "/", E16))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_apparent_temperature</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -3256,11 +3256,11 @@
         <v>108</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f>IF(ISBLANK(R17),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C17), "/", E17, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_dew_point/config</v>
       </c>
       <c r="T17" s="1" t="str">
-        <f>IF(ISBLANK(R17),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C17), "/", E17))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_dew_point</v>
       </c>
       <c r="U17" s="1" t="s">
@@ -3339,11 +3339,11 @@
         <v>111</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f>IF(ISBLANK(R18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C18), "/", E18, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_heat_index/config</v>
       </c>
       <c r="T18" s="1" t="str">
-        <f>IF(ISBLANK(R18),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C18), "/", E18))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_heat_index</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -3422,11 +3422,11 @@
         <v>114</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f>IF(ISBLANK(R19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C19), "/", E19, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_humidity_index/config</v>
       </c>
       <c r="T19" s="1" t="str">
-        <f>IF(ISBLANK(R19),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C19), "/", E19))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_humidity_index</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -3505,11 +3505,11 @@
         <v>117</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f>IF(ISBLANK(R20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C20), "/", E20, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/rack_dew_point/config</v>
       </c>
       <c r="T20" s="1" t="str">
-        <f>IF(ISBLANK(R20),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C20), "/", E20))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/rack_dew_point</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -3588,11 +3588,11 @@
         <v>120</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f>IF(ISBLANK(R21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C21), "/", E21, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature/config</v>
       </c>
       <c r="T21" s="1" t="str">
-        <f>IF(ISBLANK(R21),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C21), "/", E21))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -3654,11 +3654,11 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="S22" s="1" t="str">
-        <f>IF(ISBLANK(R22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C22), "/", E22, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T22" s="1" t="str">
-        <f>IF(ISBLANK(R22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C22), "/", E22))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC22" s="7"/>
@@ -3696,11 +3696,11 @@
         <v>101</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f>IF(ISBLANK(R23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C23), "/", E23, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T23" s="1" t="str">
-        <f>IF(ISBLANK(R23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C23), "/", E23))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3737,11 +3737,11 @@
         <v>101</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f>IF(ISBLANK(R24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C24), "/", E24, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T24" s="1" t="str">
-        <f>IF(ISBLANK(R24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C24), "/", E24))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3778,11 +3778,11 @@
         <v>157</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f>IF(ISBLANK(R25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C25), "/", E25, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T25" s="1" t="str">
-        <f>IF(ISBLANK(R25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C25), "/", E25))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3819,11 +3819,11 @@
         <v>101</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f>IF(ISBLANK(R26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C26), "/", E26, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T26" s="1" t="str">
-        <f>IF(ISBLANK(R26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C26), "/", E26))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3860,11 +3860,11 @@
         <v>101</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f>IF(ISBLANK(R27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C27), "/", E27, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T27" s="1" t="str">
-        <f>IF(ISBLANK(R27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C27), "/", E27))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3901,11 +3901,11 @@
         <v>157</v>
       </c>
       <c r="S28" s="1" t="str">
-        <f>IF(ISBLANK(R28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C28), "/", E28, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T28" s="1" t="str">
-        <f>IF(ISBLANK(R28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C28), "/", E28))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3942,11 +3942,11 @@
         <v>157</v>
       </c>
       <c r="S29" s="1" t="str">
-        <f>IF(ISBLANK(R29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C29), "/", E29, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T29" s="1" t="str">
-        <f>IF(ISBLANK(R29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C29), "/", E29))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3980,11 +3980,11 @@
         <v>33</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f>IF(ISBLANK(R30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C30), "/", E30, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T30" s="1" t="str">
-        <f>IF(ISBLANK(R30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C30), "/", E30))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4039,11 +4039,11 @@
         <v>46</v>
       </c>
       <c r="S31" s="1" t="str">
-        <f>IF(ISBLANK(R31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C31), "/", E31, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_humidity/config</v>
       </c>
       <c r="T31" s="1" t="str">
-        <f>IF(ISBLANK(R31),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C31), "/", E31))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_humidity</v>
       </c>
       <c r="U31" s="1" t="s">
@@ -4108,11 +4108,11 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="S32" s="1" t="str">
-        <f>IF(ISBLANK(R32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C32), "/", E32, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T32" s="1" t="str">
-        <f>IF(ISBLANK(R32),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C32), "/", E32))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC32" s="7"/>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="S33" s="1" t="str">
-        <f>IF(ISBLANK(R33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C33), "/", E33, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T33" s="1" t="str">
-        <f>IF(ISBLANK(R33),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C33), "/", E33))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC33" s="7"/>
@@ -4194,11 +4194,11 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="S34" s="1" t="str">
-        <f>IF(ISBLANK(R34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C34), "/", E34, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T34" s="1" t="str">
-        <f>IF(ISBLANK(R34),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C34), "/", E34))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC34" s="7"/>
@@ -4237,11 +4237,11 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="S35" s="1" t="str">
-        <f>IF(ISBLANK(R35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T35" s="1" t="str">
-        <f>IF(ISBLANK(R35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC35" s="7"/>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="S36" s="1" t="str">
-        <f>IF(ISBLANK(R36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T36" s="1" t="str">
-        <f>IF(ISBLANK(R36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC36" s="7"/>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="S37" s="1" t="str">
-        <f>IF(ISBLANK(R37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C37), "/", E37, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T37" s="1" t="str">
-        <f>IF(ISBLANK(R37),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C37), "/", E37))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC37" s="7"/>
@@ -4366,11 +4366,11 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="S38" s="1" t="str">
-        <f>IF(ISBLANK(R38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C38), "/", E38, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T38" s="1" t="str">
-        <f>IF(ISBLANK(R38),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C38), "/", E38))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC38" s="7"/>
@@ -4409,11 +4409,11 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="S39" s="1" t="str">
-        <f>IF(ISBLANK(R39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C39), "/", E39, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T39" s="1" t="str">
-        <f>IF(ISBLANK(R39),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C39), "/", E39))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC39" s="7"/>
@@ -4452,11 +4452,11 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="S40" s="1" t="str">
-        <f>IF(ISBLANK(R40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C40), "/", E40, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T40" s="1" t="str">
-        <f>IF(ISBLANK(R40),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C40), "/", E40))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC40" s="7"/>
@@ -4495,11 +4495,11 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="S41" s="1" t="str">
-        <f>IF(ISBLANK(R41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C41), "/", E41, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T41" s="1" t="str">
-        <f>IF(ISBLANK(R41),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C41), "/", E41))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC41" s="7"/>
@@ -4555,11 +4555,11 @@
         <v>38</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f>IF(ISBLANK(R42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C42), "/", E42, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/rack_humidity/config</v>
       </c>
       <c r="T42" s="1" t="str">
-        <f>IF(ISBLANK(R42),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C42), "/", E42))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
       <c r="U42" s="1" t="s">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="S43" s="1" t="str">
-        <f>IF(ISBLANK(R43),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C43), "/", E43, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T43" s="1" t="str">
-        <f>IF(ISBLANK(R43),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C43), "/", E43))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4666,11 +4666,11 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="S44" s="1" t="str">
-        <f>IF(ISBLANK(R44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C44), "/", E44, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T44" s="1" t="str">
-        <f>IF(ISBLANK(R44),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C44), "/", E44))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4708,11 +4708,11 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="1" t="str">
-        <f>IF(ISBLANK(R45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C45), "/", E45, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T45" s="1" t="str">
-        <f>IF(ISBLANK(R45),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C45), "/", E45))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4750,11 +4750,11 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="S46" s="1" t="str">
-        <f>IF(ISBLANK(R46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T46" s="1" t="str">
-        <f>IF(ISBLANK(R46),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C46), "/", E46))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4792,11 +4792,11 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="S47" s="1" t="str">
-        <f>IF(ISBLANK(R47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C47), "/", E47, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T47" s="1" t="str">
-        <f>IF(ISBLANK(R47),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C47), "/", E47))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4834,11 +4834,11 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="S48" s="1" t="str">
-        <f>IF(ISBLANK(R48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C48), "/", E48, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T48" s="1" t="str">
-        <f>IF(ISBLANK(R48),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C48), "/", E48))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4890,11 +4890,11 @@
         <v>51</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f>IF(ISBLANK(R49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C49), "/", E49, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_cloud_base/config</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f>IF(ISBLANK(R49),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C49), "/", E49))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
       <c r="U49" s="1" t="s">
@@ -4973,11 +4973,11 @@
         <v>55</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f>IF(ISBLANK(R50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C50), "/", E50, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation/config</v>
       </c>
       <c r="T50" s="1" t="str">
-        <f>IF(ISBLANK(R50),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C50), "/", E50))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
       <c r="U50" s="1" t="s">
@@ -5056,11 +5056,11 @@
         <v>61</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f>IF(ISBLANK(R51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C51), "/", E51, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure/config</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f>IF(ISBLANK(R51),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C51), "/", E51))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
       <c r="U51" s="1" t="s">
@@ -5139,11 +5139,11 @@
         <v>58</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f>IF(ISBLANK(R52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C52), "/", E52, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_pressure/config</v>
       </c>
       <c r="T52" s="1" t="str">
-        <f>IF(ISBLANK(R52),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C52), "/", E52))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
       <c r="U52" s="1" t="s">
@@ -5222,11 +5222,11 @@
         <v>127</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f>IF(ISBLANK(R53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C53), "/", E53, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_direction/config</v>
       </c>
       <c r="T53" s="1" t="str">
-        <f>IF(ISBLANK(R53),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C53), "/", E53))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
       <c r="U53" s="1" t="s">
@@ -5305,11 +5305,11 @@
         <v>130</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f>IF(ISBLANK(R54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C54), "/", E54, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction/config</v>
       </c>
       <c r="T54" s="1" t="str">
-        <f>IF(ISBLANK(R54),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C54), "/", E54))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
       <c r="U54" s="1" t="s">
@@ -5388,11 +5388,11 @@
         <v>133</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f>IF(ISBLANK(R55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C55), "/", E55, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed/config</v>
       </c>
       <c r="T55" s="1" t="str">
-        <f>IF(ISBLANK(R55),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C55), "/", E55))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
       <c r="U55" s="1" t="s">
@@ -5471,11 +5471,11 @@
         <v>136</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f>IF(ISBLANK(R56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C56), "/", E56, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min/config</v>
       </c>
       <c r="T56" s="1" t="str">
-        <f>IF(ISBLANK(R56),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C56), "/", E56))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
       <c r="U56" s="1" t="s">
@@ -5551,11 +5551,11 @@
         <v>139</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f>IF(ISBLANK(R57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C57), "/", E57, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_samples/config</v>
       </c>
       <c r="T57" s="1" t="str">
-        <f>IF(ISBLANK(R57),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C57), "/", E57))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
       <c r="U57" s="1" t="s">
@@ -5634,11 +5634,11 @@
         <v>143</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f>IF(ISBLANK(R58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C58), "/", E58, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_run/config</v>
       </c>
       <c r="T58" s="1" t="str">
-        <f>IF(ISBLANK(R58),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C58), "/", E58))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
       <c r="U58" s="1" t="s">
@@ -5717,11 +5717,11 @@
         <v>123</v>
       </c>
       <c r="S59" s="1" t="str">
-        <f>IF(ISBLANK(R59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C59), "/", E59, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed/config</v>
       </c>
       <c r="T59" s="1" t="str">
-        <f>IF(ISBLANK(R59),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C59), "/", E59))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
       <c r="U59" s="1" t="s">
@@ -5803,11 +5803,11 @@
         <v>79</v>
       </c>
       <c r="S60" s="1" t="str">
-        <f>IF(ISBLANK(R60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C60), "/", E60, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_rain_rate/config</v>
       </c>
       <c r="T60" s="1" t="str">
-        <f>IF(ISBLANK(R60),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C60), "/", E60))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
       <c r="U60" s="1" t="s">
@@ -5889,11 +5889,11 @@
         <v>71</v>
       </c>
       <c r="S61" s="1" t="str">
-        <f>IF(ISBLANK(R61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C61), "/", E61, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_hourly_rain/config</v>
       </c>
       <c r="T61" s="1" t="str">
-        <f>IF(ISBLANK(R61),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C61), "/", E61))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
       <c r="U61" s="1" t="s">
@@ -5975,11 +5975,11 @@
         <v>68</v>
       </c>
       <c r="S62" s="1" t="str">
-        <f>IF(ISBLANK(R62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C62), "/", E62, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_daily_rain/config</v>
       </c>
       <c r="T62" s="1" t="str">
-        <f>IF(ISBLANK(R62),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C62), "/", E62))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
       <c r="U62" s="1" t="s">
@@ -6058,11 +6058,11 @@
         <v>76</v>
       </c>
       <c r="S63" s="1" t="str">
-        <f>IF(ISBLANK(R63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C63), "/", E63, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_24hour_rain/config</v>
       </c>
       <c r="T63" s="1" t="str">
-        <f>IF(ISBLANK(R63),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C63), "/", E63))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
       <c r="U63" s="1" t="s">
@@ -6144,11 +6144,11 @@
         <v>74</v>
       </c>
       <c r="S64" s="1" t="str">
-        <f>IF(ISBLANK(R64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C64), "/", E64, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
       </c>
       <c r="T64" s="1" t="str">
-        <f>IF(ISBLANK(R64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C64), "/", E64))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
       <c r="U64" s="1" t="s">
@@ -6230,11 +6230,11 @@
         <v>270</v>
       </c>
       <c r="S65" s="1" t="str">
-        <f>IF(ISBLANK(R65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C65), "/", E65, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
       </c>
       <c r="T65" s="1" t="str">
-        <f>IF(ISBLANK(R65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C65), "/", E65))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
       <c r="U65" s="1" t="s">
@@ -6313,11 +6313,11 @@
         <v>83</v>
       </c>
       <c r="S66" s="1" t="str">
-        <f>IF(ISBLANK(R66),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C66), "/", E66, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_rain/config</v>
       </c>
       <c r="T66" s="1" t="str">
-        <f>IF(ISBLANK(R66),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C66), "/", E66))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
       <c r="U66" s="1" t="s">
@@ -6396,11 +6396,11 @@
         <v>86</v>
       </c>
       <c r="S67" s="1" t="str">
-        <f>IF(ISBLANK(R67),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C67), "/", E67, "/config"))</f>
+        <f t="shared" si="0"/>
         <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
       </c>
       <c r="T67" s="1" t="str">
-        <f>IF(ISBLANK(R67),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C67), "/", E67))</f>
+        <f t="shared" si="1"/>
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
       <c r="U67" s="1" t="s">
@@ -6462,11 +6462,11 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="S68" s="1" t="str">
-        <f>IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68, "/config"))</f>
+        <f t="shared" ref="S68:S131" si="2">IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68, "/config"))</f>
         <v/>
       </c>
       <c r="T68" s="1" t="str">
-        <f>IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68))</f>
+        <f t="shared" ref="T68:T131" si="3">IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68))</f>
         <v/>
       </c>
     </row>
@@ -6501,11 +6501,11 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="1" t="str">
-        <f>IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T69" s="1" t="str">
-        <f>IF(ISBLANK(R69),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C69), "/", E69))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6540,11 +6540,11 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="S70" s="1" t="str">
-        <f>IF(ISBLANK(R70),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C70), "/", E70, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T70" s="1" t="str">
-        <f>IF(ISBLANK(R70),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C70), "/", E70))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6579,11 +6579,11 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="S71" s="1" t="str">
-        <f>IF(ISBLANK(R71),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C71), "/", E71, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T71" s="1" t="str">
-        <f>IF(ISBLANK(R71),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C71), "/", E71))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="S72" s="1" t="str">
-        <f>IF(ISBLANK(R72),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C72), "/", E72, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T72" s="1" t="str">
-        <f>IF(ISBLANK(R72),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C72), "/", E72))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6657,11 +6657,11 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="1" t="str">
-        <f>IF(ISBLANK(R73),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C73), "/", E73, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T73" s="1" t="str">
-        <f>IF(ISBLANK(R73),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C73), "/", E73))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6696,11 +6696,11 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="1" t="str">
-        <f>IF(ISBLANK(R74),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C74), "/", E74, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T74" s="1" t="str">
-        <f>IF(ISBLANK(R74),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C74), "/", E74))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6735,11 +6735,11 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="S75" s="1" t="str">
-        <f>IF(ISBLANK(R75),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C75), "/", E75, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T75" s="1" t="str">
-        <f>IF(ISBLANK(R75),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C75), "/", E75))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6774,11 +6774,11 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="1" t="str">
-        <f>IF(ISBLANK(R76),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C76), "/", E76, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T76" s="1" t="str">
-        <f>IF(ISBLANK(R76),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C76), "/", E76))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6813,11 +6813,11 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="S77" s="1" t="str">
-        <f>IF(ISBLANK(R77),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C77), "/", E77, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T77" s="1" t="str">
-        <f>IF(ISBLANK(R77),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C77), "/", E77))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6853,11 +6853,11 @@
       <c r="M78" s="6"/>
       <c r="Q78" s="2"/>
       <c r="S78" s="1" t="str">
-        <f>IF(ISBLANK(R78),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C78), "/", E78, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T78" s="1" t="str">
-        <f>IF(ISBLANK(R78),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C78), "/", E78))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6892,11 +6892,11 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="S79" s="1" t="str">
-        <f>IF(ISBLANK(R79),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C79), "/", E79, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T79" s="1" t="str">
-        <f>IF(ISBLANK(R79),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C79), "/", E79))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6928,11 +6928,11 @@
       </c>
       <c r="Q80" s="2"/>
       <c r="S80" s="1" t="str">
-        <f>IF(ISBLANK(R80),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C80), "/", E80, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T80" s="1" t="str">
-        <f>IF(ISBLANK(R80),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C80), "/", E80))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6964,11 +6964,11 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="S81" s="1" t="str">
-        <f>IF(ISBLANK(R81),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C81), "/", E81, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T81" s="1" t="str">
-        <f>IF(ISBLANK(R81),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C81), "/", E81))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7000,11 +7000,11 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="S82" s="1" t="str">
-        <f>IF(ISBLANK(R82),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C82), "/", E82, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T82" s="1" t="str">
-        <f>IF(ISBLANK(R82),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C82), "/", E82))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7036,11 +7036,11 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="S83" s="1" t="str">
-        <f>IF(ISBLANK(R83),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C83), "/", E83, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T83" s="1" t="str">
-        <f>IF(ISBLANK(R83),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C83), "/", E83))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7075,11 +7075,11 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="S84" s="1" t="str">
-        <f>IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T84" s="1" t="str">
-        <f>IF(ISBLANK(R84),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C84), "/", E84))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7111,11 +7111,11 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="S85" s="1" t="str">
-        <f>IF(ISBLANK(R85),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C85), "/", E85, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T85" s="1" t="str">
-        <f>IF(ISBLANK(R85),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C85), "/", E85))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7147,11 +7147,11 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="S86" s="1" t="str">
-        <f>IF(ISBLANK(R86),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C86), "/", E86, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T86" s="1" t="str">
-        <f>IF(ISBLANK(R86),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C86), "/", E86))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7183,11 +7183,11 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="S87" s="1" t="str">
-        <f>IF(ISBLANK(R87),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C87), "/", E87, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T87" s="1" t="str">
-        <f>IF(ISBLANK(R87),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C87), "/", E87))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7219,11 +7219,11 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="S88" s="1" t="str">
-        <f>IF(ISBLANK(R88),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C88), "/", E88, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T88" s="1" t="str">
-        <f>IF(ISBLANK(R88),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C88), "/", E88))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7255,11 +7255,11 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="S89" s="1" t="str">
-        <f>IF(ISBLANK(R89),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C89), "/", E89, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T89" s="1" t="str">
-        <f>IF(ISBLANK(R89),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C89), "/", E89))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7291,11 +7291,11 @@
       </c>
       <c r="Q90" s="2"/>
       <c r="S90" s="1" t="str">
-        <f>IF(ISBLANK(R90),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C90), "/", E90, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T90" s="1" t="str">
-        <f>IF(ISBLANK(R90),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C90), "/", E90))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7330,11 +7330,11 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="S91" s="1" t="str">
-        <f>IF(ISBLANK(R91),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C91), "/", E91, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T91" s="1" t="str">
-        <f>IF(ISBLANK(R91),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C91), "/", E91))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7366,11 +7366,11 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="S92" s="1" t="str">
-        <f>IF(ISBLANK(R92),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C92), "/", E92, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T92" s="1" t="str">
-        <f>IF(ISBLANK(R92),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C92), "/", E92))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="S93" s="1" t="str">
-        <f>IF(ISBLANK(R93),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C93), "/", E93, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T93" s="1" t="str">
-        <f>IF(ISBLANK(R93),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C93), "/", E93))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7438,11 +7438,11 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="S94" s="1" t="str">
-        <f>IF(ISBLANK(R94),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C94), "/", E94, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T94" s="1" t="str">
-        <f>IF(ISBLANK(R94),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C94), "/", E94))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7477,11 +7477,11 @@
       </c>
       <c r="Q95" s="2"/>
       <c r="S95" s="1" t="str">
-        <f>IF(ISBLANK(R95),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C95), "/", E95, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T95" s="1" t="str">
-        <f>IF(ISBLANK(R95),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C95), "/", E95))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7513,11 +7513,11 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="S96" s="1" t="str">
-        <f>IF(ISBLANK(R96),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C96), "/", E96, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T96" s="1" t="str">
-        <f>IF(ISBLANK(R96),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C96), "/", E96))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7549,11 +7549,11 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="S97" s="1" t="str">
-        <f>IF(ISBLANK(R97),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C97), "/", E97, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T97" s="1" t="str">
-        <f>IF(ISBLANK(R97),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C97), "/", E97))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7585,11 +7585,11 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="S98" s="1" t="str">
-        <f>IF(ISBLANK(R98),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C98), "/", E98, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T98" s="1" t="str">
-        <f>IF(ISBLANK(R98),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C98), "/", E98))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7624,11 +7624,11 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="S99" s="1" t="str">
-        <f>IF(ISBLANK(R99),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C99), "/", E99, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T99" s="1" t="str">
-        <f>IF(ISBLANK(R99),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C99), "/", E99))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7660,11 +7660,11 @@
       </c>
       <c r="Q100" s="2"/>
       <c r="S100" s="1" t="str">
-        <f>IF(ISBLANK(R100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T100" s="1" t="str">
-        <f>IF(ISBLANK(R100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7696,11 +7696,11 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="S101" s="1" t="str">
-        <f>IF(ISBLANK(R101),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C101), "/", E101, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T101" s="1" t="str">
-        <f>IF(ISBLANK(R101),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C101), "/", E101))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7732,11 +7732,11 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="S102" s="1" t="str">
-        <f>IF(ISBLANK(R102),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C102), "/", E102, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T102" s="1" t="str">
-        <f>IF(ISBLANK(R102),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C102), "/", E102))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7768,11 +7768,11 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="S103" s="1" t="str">
-        <f>IF(ISBLANK(R103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T103" s="1" t="str">
-        <f>IF(ISBLANK(R103),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C103), "/", E103))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7807,11 +7807,11 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="S104" s="1" t="str">
-        <f>IF(ISBLANK(R104),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C104), "/", E104, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T104" s="1" t="str">
-        <f>IF(ISBLANK(R104),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C104), "/", E104))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7843,11 +7843,11 @@
       </c>
       <c r="Q105" s="2"/>
       <c r="S105" s="1" t="str">
-        <f>IF(ISBLANK(R105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T105" s="1" t="str">
-        <f>IF(ISBLANK(R105),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C105), "/", E105))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7882,11 +7882,11 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="S106" s="1" t="str">
-        <f>IF(ISBLANK(R106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T106" s="1" t="str">
-        <f>IF(ISBLANK(R106),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C106), "/", E106))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7918,11 +7918,11 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="S107" s="1" t="str">
-        <f>IF(ISBLANK(R107),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C107), "/", E107, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T107" s="1" t="str">
-        <f>IF(ISBLANK(R107),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C107), "/", E107))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7957,11 +7957,11 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="S108" s="1" t="str">
-        <f>IF(ISBLANK(R108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T108" s="1" t="str">
-        <f>IF(ISBLANK(R108),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C108), "/", E108))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7993,11 +7993,11 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="S109" s="1" t="str">
-        <f>IF(ISBLANK(R109),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C109), "/", E109, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T109" s="1" t="str">
-        <f>IF(ISBLANK(R109),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C109), "/", E109))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8032,11 +8032,11 @@
       </c>
       <c r="Q110" s="2"/>
       <c r="S110" s="1" t="str">
-        <f>IF(ISBLANK(R110),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C110), "/", E110, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T110" s="1" t="str">
-        <f>IF(ISBLANK(R110),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C110), "/", E110))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="S111" s="1" t="str">
-        <f>IF(ISBLANK(R111),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C111), "/", E111, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T111" s="1" t="str">
-        <f>IF(ISBLANK(R111),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C111), "/", E111))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8107,11 +8107,11 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="S112" s="1" t="str">
-        <f>IF(ISBLANK(R112),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C112), "/", E112, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T112" s="1" t="str">
-        <f>IF(ISBLANK(R112),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C112), "/", E112))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8143,11 +8143,11 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="S113" s="1" t="str">
-        <f>IF(ISBLANK(R113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T113" s="1" t="str">
-        <f>IF(ISBLANK(R113),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C113), "/", E113))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="S114" s="1" t="str">
-        <f>IF(ISBLANK(R114),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C114), "/", E114, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T114" s="1" t="str">
-        <f>IF(ISBLANK(R114),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C114), "/", E114))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8218,11 +8218,11 @@
       </c>
       <c r="Q115" s="2"/>
       <c r="S115" s="1" t="str">
-        <f>IF(ISBLANK(R115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T115" s="1" t="str">
-        <f>IF(ISBLANK(R115),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C115), "/", E115))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8257,11 +8257,11 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="S116" s="1" t="str">
-        <f>IF(ISBLANK(R116),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C116), "/", E116, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T116" s="1" t="str">
-        <f>IF(ISBLANK(R116),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C116), "/", E116))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8293,11 +8293,11 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="S117" s="1" t="str">
-        <f>IF(ISBLANK(R117),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C117), "/", E117, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T117" s="1" t="str">
-        <f>IF(ISBLANK(R117),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C117), "/", E117))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8332,11 +8332,11 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="S118" s="1" t="str">
-        <f>IF(ISBLANK(R118),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C118), "/", E118, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T118" s="1" t="str">
-        <f>IF(ISBLANK(R118),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C118), "/", E118))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8368,11 +8368,11 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="S119" s="1" t="str">
-        <f>IF(ISBLANK(R119),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C119), "/", E119, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T119" s="1" t="str">
-        <f>IF(ISBLANK(R119),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C119), "/", E119))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8407,11 +8407,11 @@
       </c>
       <c r="Q120" s="2"/>
       <c r="S120" s="1" t="str">
-        <f>IF(ISBLANK(R120),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C120), "/", E120, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T120" s="1" t="str">
-        <f>IF(ISBLANK(R120),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C120), "/", E120))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8443,11 +8443,11 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="S121" s="1" t="str">
-        <f>IF(ISBLANK(R121),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C121), "/", E121, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T121" s="1" t="str">
-        <f>IF(ISBLANK(R121),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C121), "/", E121))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8482,11 +8482,11 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="S122" s="1" t="str">
-        <f>IF(ISBLANK(R122),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C122), "/", E122, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T122" s="1" t="str">
-        <f>IF(ISBLANK(R122),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C122), "/", E122))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8497,11 +8497,11 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="S123" s="1" t="str">
-        <f>IF(ISBLANK(R123),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C123), "/", E123, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T123" s="1" t="str">
-        <f>IF(ISBLANK(R123),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C123), "/", E123))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8539,11 +8539,11 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="1" t="str">
-        <f>IF(ISBLANK(R124),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C124), "/", E124, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T124" s="1" t="str">
-        <f>IF(ISBLANK(R124),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C124), "/", E124))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8581,11 +8581,11 @@
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="1" t="str">
-        <f>IF(ISBLANK(R125),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C125), "/", E125, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T125" s="1" t="str">
-        <f>IF(ISBLANK(R125),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C125), "/", E125))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8623,11 +8623,11 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="S126" s="1" t="str">
-        <f>IF(ISBLANK(R126),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C126), "/", E126, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T126" s="1" t="str">
-        <f>IF(ISBLANK(R126),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C126), "/", E126))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8665,11 +8665,11 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="S127" s="1" t="str">
-        <f>IF(ISBLANK(R127),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C127), "/", E127, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T127" s="1" t="str">
-        <f>IF(ISBLANK(R127),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C127), "/", E127))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8707,11 +8707,11 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="S128" s="1" t="str">
-        <f>IF(ISBLANK(R128),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C128), "/", E128, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T128" s="1" t="str">
-        <f>IF(ISBLANK(R128),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C128), "/", E128))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8745,15 +8745,15 @@
         <v>166</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="S129" s="1" t="str">
-        <f>IF(ISBLANK(R129),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C129), "/", E129, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T129" s="1" t="str">
-        <f>IF(ISBLANK(R129),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C129), "/", E129))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8791,11 +8791,11 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="S130" s="1" t="str">
-        <f>IF(ISBLANK(R130),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C130), "/", E130, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T130" s="1" t="str">
-        <f>IF(ISBLANK(R130),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C130), "/", E130))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8833,11 +8833,11 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="S131" s="1" t="str">
-        <f>IF(ISBLANK(R131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131, "/config"))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T131" s="1" t="str">
-        <f>IF(ISBLANK(R131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8875,11 +8875,11 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="S132" s="1" t="str">
-        <f>IF(ISBLANK(R132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132, "/config"))</f>
+        <f t="shared" ref="S132:S195" si="4">IF(ISBLANK(R132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132, "/config"))</f>
         <v/>
       </c>
       <c r="T132" s="1" t="str">
-        <f>IF(ISBLANK(R132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132))</f>
+        <f t="shared" ref="T132:T195" si="5">IF(ISBLANK(R132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132))</f>
         <v/>
       </c>
     </row>
@@ -8917,11 +8917,11 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="S133" s="1" t="str">
-        <f>IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T133" s="1" t="str">
-        <f>IF(ISBLANK(R133),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C133), "/", E133))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8959,11 +8959,11 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="S134" s="1" t="str">
-        <f>IF(ISBLANK(R134),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C134), "/", E134, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T134" s="1" t="str">
-        <f>IF(ISBLANK(R134),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C134), "/", E134))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9001,11 +9001,11 @@
       </c>
       <c r="Q135" s="2"/>
       <c r="S135" s="1" t="str">
-        <f>IF(ISBLANK(R135),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C135), "/", E135, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T135" s="1" t="str">
-        <f>IF(ISBLANK(R135),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C135), "/", E135))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9043,11 +9043,11 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="S136" s="1" t="str">
-        <f>IF(ISBLANK(R136),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C136), "/", E136, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T136" s="1" t="str">
-        <f>IF(ISBLANK(R136),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C136), "/", E136))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9058,11 +9058,11 @@
       </c>
       <c r="Q137" s="2"/>
       <c r="S137" s="1" t="str">
-        <f>IF(ISBLANK(R137),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C137), "/", E137, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T137" s="1" t="str">
-        <f>IF(ISBLANK(R137),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C137), "/", E137))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9073,11 +9073,11 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="S138" s="1" t="str">
-        <f>IF(ISBLANK(R138),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C138), "/", E138, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T138" s="1" t="str">
-        <f>IF(ISBLANK(R138),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C138), "/", E138))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9088,11 +9088,11 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="S139" s="1" t="str">
-        <f>IF(ISBLANK(R139),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C139), "/", E139, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T139" s="1" t="str">
-        <f>IF(ISBLANK(R139),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C139), "/", E139))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9103,11 +9103,11 @@
       </c>
       <c r="Q140" s="2"/>
       <c r="S140" s="1" t="str">
-        <f>IF(ISBLANK(R140),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C140), "/", E140, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T140" s="1" t="str">
-        <f>IF(ISBLANK(R140),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C140), "/", E140))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9118,11 +9118,11 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="S141" s="1" t="str">
-        <f>IF(ISBLANK(R141),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C141), "/", E141, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T141" s="1" t="str">
-        <f>IF(ISBLANK(R141),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C141), "/", E141))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9157,11 +9157,11 @@
       </c>
       <c r="Q142" s="2"/>
       <c r="S142" s="1" t="str">
-        <f>IF(ISBLANK(R142),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C142), "/", E142, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T142" s="1" t="str">
-        <f>IF(ISBLANK(R142),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C142), "/", E142))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9172,11 +9172,11 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="S143" s="1" t="str">
-        <f>IF(ISBLANK(R143),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C143), "/", E143, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T143" s="1" t="str">
-        <f>IF(ISBLANK(R143),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C143), "/", E143))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9187,11 +9187,11 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="S144" s="1" t="str">
-        <f>IF(ISBLANK(R144),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C144), "/", E144, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T144" s="1" t="str">
-        <f>IF(ISBLANK(R144),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C144), "/", E144))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9202,11 +9202,11 @@
       </c>
       <c r="Q145" s="2"/>
       <c r="S145" s="1" t="str">
-        <f>IF(ISBLANK(R145),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C145), "/", E145, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T145" s="1" t="str">
-        <f>IF(ISBLANK(R145),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C145), "/", E145))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9217,11 +9217,11 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="S146" s="1" t="str">
-        <f>IF(ISBLANK(R146),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C146), "/", E146, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T146" s="1" t="str">
-        <f>IF(ISBLANK(R146),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C146), "/", E146))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9232,11 +9232,11 @@
       </c>
       <c r="Q147" s="2"/>
       <c r="S147" s="1" t="str">
-        <f>IF(ISBLANK(R147),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C147), "/", E147, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T147" s="1" t="str">
-        <f>IF(ISBLANK(R147),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C147), "/", E147))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9247,11 +9247,11 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="S148" s="1" t="str">
-        <f>IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T148" s="1" t="str">
-        <f>IF(ISBLANK(R148),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C148), "/", E148))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="S149" s="1" t="str">
-        <f>IF(ISBLANK(R149),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C149), "/", E149, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T149" s="1" t="str">
-        <f>IF(ISBLANK(R149),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C149), "/", E149))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9277,11 +9277,11 @@
       </c>
       <c r="Q150" s="2"/>
       <c r="S150" s="1" t="str">
-        <f>IF(ISBLANK(R150),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C150), "/", E150, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T150" s="1" t="str">
-        <f>IF(ISBLANK(R150),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C150), "/", E150))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9292,11 +9292,11 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="S151" s="1" t="str">
-        <f>IF(ISBLANK(R151),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C151), "/", E151, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T151" s="1" t="str">
-        <f>IF(ISBLANK(R151),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C151), "/", E151))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9307,11 +9307,11 @@
       </c>
       <c r="Q152" s="2"/>
       <c r="S152" s="1" t="str">
-        <f>IF(ISBLANK(R152),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C152), "/", E152, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T152" s="1" t="str">
-        <f>IF(ISBLANK(R152),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C152), "/", E152))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9322,11 +9322,11 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="S153" s="1" t="str">
-        <f>IF(ISBLANK(R153),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C153), "/", E153, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T153" s="1" t="str">
-        <f>IF(ISBLANK(R153),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C153), "/", E153))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9337,11 +9337,11 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="S154" s="1" t="str">
-        <f>IF(ISBLANK(R154),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C154), "/", E154, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T154" s="1" t="str">
-        <f>IF(ISBLANK(R154),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C154), "/", E154))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9352,11 +9352,11 @@
       </c>
       <c r="Q155" s="2"/>
       <c r="S155" s="1" t="str">
-        <f>IF(ISBLANK(R155),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C155), "/", E155, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T155" s="1" t="str">
-        <f>IF(ISBLANK(R155),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C155), "/", E155))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9367,11 +9367,11 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="S156" s="1" t="str">
-        <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T156" s="1" t="str">
-        <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9382,11 +9382,11 @@
       </c>
       <c r="Q157" s="2"/>
       <c r="S157" s="1" t="str">
-        <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T157" s="1" t="str">
-        <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9421,11 +9421,11 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="S158" s="1" t="str">
-        <f>IF(ISBLANK(R158),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C158), "/", E158, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T158" s="1" t="str">
-        <f>IF(ISBLANK(R158),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C158), "/", E158))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9460,11 +9460,11 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="S159" s="1" t="str">
-        <f>IF(ISBLANK(R159),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C159), "/", E159, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T159" s="1" t="str">
-        <f>IF(ISBLANK(R159),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C159), "/", E159))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9499,11 +9499,11 @@
       </c>
       <c r="Q160" s="2"/>
       <c r="S160" s="1" t="str">
-        <f>IF(ISBLANK(R160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T160" s="1" t="str">
-        <f>IF(ISBLANK(R160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9538,11 +9538,11 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="S161" s="1" t="str">
-        <f>IF(ISBLANK(R161),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C161), "/", E161, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T161" s="1" t="str">
-        <f>IF(ISBLANK(R161),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C161), "/", E161))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9577,11 +9577,11 @@
       </c>
       <c r="Q162" s="2"/>
       <c r="S162" s="1" t="str">
-        <f>IF(ISBLANK(R162),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C162), "/", E162, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T162" s="1" t="str">
-        <f>IF(ISBLANK(R162),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C162), "/", E162))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9616,11 +9616,11 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="S163" s="1" t="str">
-        <f>IF(ISBLANK(R163),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C163), "/", E163, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T163" s="1" t="str">
-        <f>IF(ISBLANK(R163),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C163), "/", E163))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9652,11 +9652,11 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="S164" s="1" t="str">
-        <f>IF(ISBLANK(R164),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C164), "/", E164, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T164" s="1" t="str">
-        <f>IF(ISBLANK(R164),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C164), "/", E164))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9688,11 +9688,11 @@
       </c>
       <c r="Q165" s="2"/>
       <c r="S165" s="1" t="str">
-        <f>IF(ISBLANK(R165),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C165), "/", E165, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T165" s="1" t="str">
-        <f>IF(ISBLANK(R165),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C165), "/", E165))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="S166" s="1" t="str">
-        <f>IF(ISBLANK(R166),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C166), "/", E166, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T166" s="1" t="str">
-        <f>IF(ISBLANK(R166),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C166), "/", E166))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9760,11 +9760,11 @@
       </c>
       <c r="Q167" s="2"/>
       <c r="S167" s="1" t="str">
-        <f>IF(ISBLANK(R167),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C167), "/", E167, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T167" s="1" t="str">
-        <f>IF(ISBLANK(R167),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C167), "/", E167))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9796,11 +9796,11 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="S168" s="1" t="str">
-        <f>IF(ISBLANK(R168),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C168), "/", E168, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T168" s="1" t="str">
-        <f>IF(ISBLANK(R168),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C168), "/", E168))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9811,11 +9811,11 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="S169" s="1" t="str">
-        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T169" s="1" t="str">
-        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9826,11 +9826,11 @@
       </c>
       <c r="Q170" s="2"/>
       <c r="S170" s="1" t="str">
-        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T170" s="1" t="str">
-        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9841,11 +9841,11 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="S171" s="1" t="str">
-        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T171" s="1" t="str">
-        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9856,11 +9856,11 @@
       </c>
       <c r="Q172" s="2"/>
       <c r="S172" s="1" t="str">
-        <f>IF(ISBLANK(R172),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C172), "/", E172, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T172" s="1" t="str">
-        <f>IF(ISBLANK(R172),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C172), "/", E172))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9871,11 +9871,11 @@
       </c>
       <c r="Q173" s="2"/>
       <c r="S173" s="1" t="str">
-        <f>IF(ISBLANK(R173),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C173), "/", E173, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T173" s="1" t="str">
-        <f>IF(ISBLANK(R173),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C173), "/", E173))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9886,11 +9886,11 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="S174" s="1" t="str">
-        <f>IF(ISBLANK(R174),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C174), "/", E174, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T174" s="1" t="str">
-        <f>IF(ISBLANK(R174),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C174), "/", E174))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9901,11 +9901,11 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="S175" s="1" t="str">
-        <f>IF(ISBLANK(R175),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C175), "/", E175, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T175" s="1" t="str">
-        <f>IF(ISBLANK(R175),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C175), "/", E175))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9916,11 +9916,11 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="S176" s="1" t="str">
-        <f>IF(ISBLANK(R176),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C176), "/", E176, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T176" s="1" t="str">
-        <f>IF(ISBLANK(R176),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C176), "/", E176))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9931,11 +9931,11 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="S177" s="1" t="str">
-        <f>IF(ISBLANK(R177),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C177), "/", E177, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T177" s="1" t="str">
-        <f>IF(ISBLANK(R177),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C177), "/", E177))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9946,11 +9946,11 @@
       </c>
       <c r="Q178" s="2"/>
       <c r="S178" s="1" t="str">
-        <f>IF(ISBLANK(R178),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C178), "/", E178, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T178" s="1" t="str">
-        <f>IF(ISBLANK(R178),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C178), "/", E178))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9961,11 +9961,11 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="S179" s="1" t="str">
-        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T179" s="1" t="str">
-        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9976,11 +9976,11 @@
       </c>
       <c r="Q180" s="2"/>
       <c r="S180" s="1" t="str">
-        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T180" s="1" t="str">
-        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9991,11 +9991,11 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="S181" s="1" t="str">
-        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T181" s="1" t="str">
-        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10006,11 +10006,11 @@
       </c>
       <c r="Q182" s="2"/>
       <c r="S182" s="1" t="str">
-        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T182" s="1" t="str">
-        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10021,11 +10021,11 @@
       </c>
       <c r="Q183" s="2"/>
       <c r="S183" s="1" t="str">
-        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T183" s="1" t="str">
-        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10054,11 +10054,11 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="S184" s="1" t="str">
-        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T184" s="1" t="str">
-        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10107,11 +10107,11 @@
         <v>94</v>
       </c>
       <c r="S185" s="1" t="str">
-        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185, "/config"))</f>
+        <f t="shared" si="4"/>
         <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T185" s="1" t="str">
-        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185))</f>
+        <f t="shared" si="5"/>
         <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
       </c>
       <c r="U185" s="1" t="s">
@@ -10187,11 +10187,11 @@
         <v>96</v>
       </c>
       <c r="S186" s="1" t="str">
-        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186, "/config"))</f>
+        <f t="shared" si="4"/>
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T186" s="1" t="str">
-        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186))</f>
+        <f t="shared" si="5"/>
         <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
       </c>
       <c r="U186" s="1" t="s">
@@ -10253,11 +10253,11 @@
       </c>
       <c r="Q187" s="2"/>
       <c r="S187" s="1" t="str">
-        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T187" s="1" t="str">
-        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10292,11 +10292,11 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="S188" s="1" t="str">
-        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T188" s="1" t="str">
-        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10328,11 +10328,11 @@
       </c>
       <c r="Q189" s="2"/>
       <c r="S189" s="1" t="str">
-        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T189" s="1" t="str">
-        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10367,11 +10367,11 @@
       </c>
       <c r="Q190" s="2"/>
       <c r="S190" s="1" t="str">
-        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T190" s="1" t="str">
-        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10406,11 +10406,11 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="S191" s="1" t="str">
-        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T191" s="1" t="str">
-        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10445,11 +10445,11 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="S192" s="1" t="str">
-        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T192" s="1" t="str">
-        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10484,11 +10484,11 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="S193" s="1" t="str">
-        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T193" s="1" t="str">
-        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10523,11 +10523,11 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="S194" s="1" t="str">
-        <f>IF(ISBLANK(R194),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C194), "/", E194, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T194" s="1" t="str">
-        <f>IF(ISBLANK(R194),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C194), "/", E194))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10562,11 +10562,11 @@
       </c>
       <c r="Q195" s="2"/>
       <c r="S195" s="1" t="str">
-        <f>IF(ISBLANK(R195),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C195), "/", E195, "/config"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T195" s="1" t="str">
-        <f>IF(ISBLANK(R195),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C195), "/", E195))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10601,11 +10601,11 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="S196" s="1" t="str">
-        <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196, "/config"))</f>
+        <f t="shared" ref="S196:S259" si="6">IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196, "/config"))</f>
         <v/>
       </c>
       <c r="T196" s="1" t="str">
-        <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196))</f>
+        <f t="shared" ref="T196:T259" si="7">IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196))</f>
         <v/>
       </c>
     </row>
@@ -10640,11 +10640,11 @@
       </c>
       <c r="Q197" s="2"/>
       <c r="S197" s="1" t="str">
-        <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T197" s="1" t="str">
-        <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10679,11 +10679,11 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="S198" s="1" t="str">
-        <f>IF(ISBLANK(R198),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C198), "/", E198, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T198" s="1" t="str">
-        <f>IF(ISBLANK(R198),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C198), "/", E198))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10718,11 +10718,11 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="S199" s="1" t="str">
-        <f>IF(ISBLANK(R199),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C199), "/", E199, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T199" s="1" t="str">
-        <f>IF(ISBLANK(R199),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C199), "/", E199))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10754,11 +10754,11 @@
       </c>
       <c r="Q200" s="2"/>
       <c r="S200" s="1" t="str">
-        <f>IF(ISBLANK(R200),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C200), "/", E200, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T200" s="1" t="str">
-        <f>IF(ISBLANK(R200),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C200), "/", E200))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10790,11 +10790,11 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="S201" s="1" t="str">
-        <f>IF(ISBLANK(R201),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C201), "/", E201, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T201" s="1" t="str">
-        <f>IF(ISBLANK(R201),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C201), "/", E201))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10804,11 +10804,11 @@
         <v/>
       </c>
       <c r="S202" s="1" t="str">
-        <f>IF(ISBLANK(R202),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C202), "/", E202, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T202" s="1" t="str">
-        <f>IF(ISBLANK(R202),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C202), "/", E202))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10818,11 +10818,11 @@
         <v/>
       </c>
       <c r="S203" s="1" t="str">
-        <f>IF(ISBLANK(R203),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C203), "/", E203, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T203" s="1" t="str">
-        <f>IF(ISBLANK(R203),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C203), "/", E203))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10832,11 +10832,11 @@
         <v/>
       </c>
       <c r="S204" s="1" t="str">
-        <f>IF(ISBLANK(R204),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C204), "/", E204, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T204" s="1" t="str">
-        <f>IF(ISBLANK(R204),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C204), "/", E204))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10846,11 +10846,11 @@
         <v/>
       </c>
       <c r="S205" s="1" t="str">
-        <f>IF(ISBLANK(R205),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C205), "/", E205, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T205" s="1" t="str">
-        <f>IF(ISBLANK(R205),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C205), "/", E205))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10860,11 +10860,11 @@
         <v/>
       </c>
       <c r="S206" s="1" t="str">
-        <f>IF(ISBLANK(R206),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C206), "/", E206, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T206" s="1" t="str">
-        <f>IF(ISBLANK(R206),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C206), "/", E206))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10875,11 +10875,11 @@
       </c>
       <c r="G207" s="6"/>
       <c r="S207" s="1" t="str">
-        <f>IF(ISBLANK(R207),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C207), "/", E207, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T207" s="1" t="str">
-        <f>IF(ISBLANK(R207),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C207), "/", E207))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10889,11 +10889,11 @@
         <v/>
       </c>
       <c r="S208" s="1" t="str">
-        <f>IF(ISBLANK(R208),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C208), "/", E208, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T208" s="1" t="str">
-        <f>IF(ISBLANK(R208),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C208), "/", E208))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10903,11 +10903,11 @@
         <v/>
       </c>
       <c r="S209" s="1" t="str">
-        <f>IF(ISBLANK(R209),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C209), "/", E209, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T209" s="1" t="str">
-        <f>IF(ISBLANK(R209),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C209), "/", E209))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10917,11 +10917,11 @@
         <v/>
       </c>
       <c r="S210" s="1" t="str">
-        <f>IF(ISBLANK(R210),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C210), "/", E210, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T210" s="1" t="str">
-        <f>IF(ISBLANK(R210),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C210), "/", E210))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10931,11 +10931,11 @@
         <v/>
       </c>
       <c r="S211" s="1" t="str">
-        <f>IF(ISBLANK(R211),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C211), "/", E211, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T211" s="1" t="str">
-        <f>IF(ISBLANK(R211),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C211), "/", E211))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10945,11 +10945,11 @@
         <v/>
       </c>
       <c r="S212" s="1" t="str">
-        <f>IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T212" s="1" t="str">
-        <f>IF(ISBLANK(R212),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C212), "/", E212))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10959,11 +10959,11 @@
         <v/>
       </c>
       <c r="S213" s="1" t="str">
-        <f>IF(ISBLANK(R213),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C213), "/", E213, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T213" s="1" t="str">
-        <f>IF(ISBLANK(R213),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C213), "/", E213))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10973,11 +10973,11 @@
         <v/>
       </c>
       <c r="S214" s="1" t="str">
-        <f>IF(ISBLANK(R214),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C214), "/", E214, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T214" s="1" t="str">
-        <f>IF(ISBLANK(R214),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C214), "/", E214))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10987,11 +10987,11 @@
         <v/>
       </c>
       <c r="S215" s="1" t="str">
-        <f>IF(ISBLANK(R215),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C215), "/", E215, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T215" s="1" t="str">
-        <f>IF(ISBLANK(R215),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C215), "/", E215))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11001,11 +11001,11 @@
         <v/>
       </c>
       <c r="S216" s="1" t="str">
-        <f>IF(ISBLANK(R216),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C216), "/", E216, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T216" s="1" t="str">
-        <f>IF(ISBLANK(R216),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C216), "/", E216))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11015,11 +11015,11 @@
         <v/>
       </c>
       <c r="S217" s="1" t="str">
-        <f>IF(ISBLANK(R217),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C217), "/", E217, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T217" s="1" t="str">
-        <f>IF(ISBLANK(R217),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C217), "/", E217))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11029,11 +11029,11 @@
         <v/>
       </c>
       <c r="S218" s="1" t="str">
-        <f>IF(ISBLANK(R218),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C218), "/", E218, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T218" s="1" t="str">
-        <f>IF(ISBLANK(R218),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C218), "/", E218))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11043,11 +11043,11 @@
         <v/>
       </c>
       <c r="S219" s="1" t="str">
-        <f>IF(ISBLANK(R219),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C219), "/", E219, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T219" s="1" t="str">
-        <f>IF(ISBLANK(R219),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C219), "/", E219))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11057,11 +11057,11 @@
         <v/>
       </c>
       <c r="S220" s="1" t="str">
-        <f>IF(ISBLANK(R220),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C220), "/", E220, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T220" s="1" t="str">
-        <f>IF(ISBLANK(R220),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C220), "/", E220))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11071,11 +11071,11 @@
         <v/>
       </c>
       <c r="S221" s="1" t="str">
-        <f>IF(ISBLANK(R221),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C221), "/", E221, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T221" s="1" t="str">
-        <f>IF(ISBLANK(R221),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C221), "/", E221))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11085,11 +11085,11 @@
         <v/>
       </c>
       <c r="S222" s="1" t="str">
-        <f>IF(ISBLANK(R222),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C222), "/", E222, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T222" s="1" t="str">
-        <f>IF(ISBLANK(R222),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C222), "/", E222))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11099,11 +11099,11 @@
         <v/>
       </c>
       <c r="S223" s="1" t="str">
-        <f>IF(ISBLANK(R223),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C223), "/", E223, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T223" s="1" t="str">
-        <f>IF(ISBLANK(R223),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C223), "/", E223))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11113,11 +11113,11 @@
         <v/>
       </c>
       <c r="S224" s="1" t="str">
-        <f>IF(ISBLANK(R224),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C224), "/", E224, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T224" s="1" t="str">
-        <f>IF(ISBLANK(R224),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C224), "/", E224))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11127,11 +11127,11 @@
         <v/>
       </c>
       <c r="S225" s="1" t="str">
-        <f>IF(ISBLANK(R225),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C225), "/", E225, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T225" s="1" t="str">
-        <f>IF(ISBLANK(R225),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C225), "/", E225))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11141,11 +11141,11 @@
         <v/>
       </c>
       <c r="S226" s="1" t="str">
-        <f>IF(ISBLANK(R226),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C226), "/", E226, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T226" s="1" t="str">
-        <f>IF(ISBLANK(R226),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C226), "/", E226))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11155,11 +11155,11 @@
         <v/>
       </c>
       <c r="S227" s="1" t="str">
-        <f>IF(ISBLANK(R227),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C227), "/", E227, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T227" s="1" t="str">
-        <f>IF(ISBLANK(R227),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C227), "/", E227))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11169,11 +11169,11 @@
         <v/>
       </c>
       <c r="S228" s="1" t="str">
-        <f>IF(ISBLANK(R228),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C228), "/", E228, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T228" s="1" t="str">
-        <f>IF(ISBLANK(R228),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C228), "/", E228))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11183,11 +11183,11 @@
         <v/>
       </c>
       <c r="S229" s="1" t="str">
-        <f>IF(ISBLANK(R229),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C229), "/", E229, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T229" s="1" t="str">
-        <f>IF(ISBLANK(R229),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C229), "/", E229))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11197,11 +11197,11 @@
         <v/>
       </c>
       <c r="S230" s="1" t="str">
-        <f>IF(ISBLANK(R230),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C230), "/", E230, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T230" s="1" t="str">
-        <f>IF(ISBLANK(R230),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C230), "/", E230))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11211,11 +11211,11 @@
         <v/>
       </c>
       <c r="S231" s="1" t="str">
-        <f>IF(ISBLANK(R231),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C231), "/", E231, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T231" s="1" t="str">
-        <f>IF(ISBLANK(R231),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C231), "/", E231))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11225,11 +11225,11 @@
         <v/>
       </c>
       <c r="S232" s="1" t="str">
-        <f>IF(ISBLANK(R232),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C232), "/", E232, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T232" s="1" t="str">
-        <f>IF(ISBLANK(R232),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C232), "/", E232))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11239,11 +11239,11 @@
         <v/>
       </c>
       <c r="S233" s="1" t="str">
-        <f>IF(ISBLANK(R233),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C233), "/", E233, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T233" s="1" t="str">
-        <f>IF(ISBLANK(R233),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C233), "/", E233))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11253,11 +11253,11 @@
         <v/>
       </c>
       <c r="S234" s="1" t="str">
-        <f>IF(ISBLANK(R234),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C234), "/", E234, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T234" s="1" t="str">
-        <f>IF(ISBLANK(R234),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C234), "/", E234))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11267,11 +11267,11 @@
         <v/>
       </c>
       <c r="S235" s="1" t="str">
-        <f>IF(ISBLANK(R235),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C235), "/", E235, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T235" s="1" t="str">
-        <f>IF(ISBLANK(R235),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C235), "/", E235))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11281,11 +11281,11 @@
         <v/>
       </c>
       <c r="S236" s="1" t="str">
-        <f>IF(ISBLANK(R236),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C236), "/", E236, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T236" s="1" t="str">
-        <f>IF(ISBLANK(R236),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C236), "/", E236))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11295,11 +11295,11 @@
         <v/>
       </c>
       <c r="S237" s="1" t="str">
-        <f>IF(ISBLANK(R237),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C237), "/", E237, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T237" s="1" t="str">
-        <f>IF(ISBLANK(R237),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C237), "/", E237))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11309,11 +11309,11 @@
         <v/>
       </c>
       <c r="S238" s="1" t="str">
-        <f>IF(ISBLANK(R238),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C238), "/", E238, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T238" s="1" t="str">
-        <f>IF(ISBLANK(R238),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C238), "/", E238))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11323,11 +11323,11 @@
         <v/>
       </c>
       <c r="S239" s="1" t="str">
-        <f>IF(ISBLANK(R239),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C239), "/", E239, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T239" s="1" t="str">
-        <f>IF(ISBLANK(R239),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C239), "/", E239))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11337,11 +11337,11 @@
         <v/>
       </c>
       <c r="S240" s="1" t="str">
-        <f>IF(ISBLANK(R240),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C240), "/", E240, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T240" s="1" t="str">
-        <f>IF(ISBLANK(R240),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C240), "/", E240))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11351,11 +11351,11 @@
         <v/>
       </c>
       <c r="S241" s="1" t="str">
-        <f>IF(ISBLANK(R241),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C241), "/", E241, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T241" s="1" t="str">
-        <f>IF(ISBLANK(R241),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C241), "/", E241))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11365,11 +11365,11 @@
         <v/>
       </c>
       <c r="S242" s="1" t="str">
-        <f>IF(ISBLANK(R242),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C242), "/", E242, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T242" s="1" t="str">
-        <f>IF(ISBLANK(R242),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C242), "/", E242))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11379,11 +11379,11 @@
         <v/>
       </c>
       <c r="S243" s="1" t="str">
-        <f>IF(ISBLANK(R243),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C243), "/", E243, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T243" s="1" t="str">
-        <f>IF(ISBLANK(R243),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C243), "/", E243))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11393,11 +11393,11 @@
         <v/>
       </c>
       <c r="S244" s="1" t="str">
-        <f>IF(ISBLANK(R244),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C244), "/", E244, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T244" s="1" t="str">
-        <f>IF(ISBLANK(R244),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C244), "/", E244))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11407,11 +11407,11 @@
         <v/>
       </c>
       <c r="S245" s="1" t="str">
-        <f>IF(ISBLANK(R245),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C245), "/", E245, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T245" s="1" t="str">
-        <f>IF(ISBLANK(R245),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C245), "/", E245))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11421,11 +11421,11 @@
         <v/>
       </c>
       <c r="S246" s="1" t="str">
-        <f>IF(ISBLANK(R246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T246" s="1" t="str">
-        <f>IF(ISBLANK(R246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11435,11 +11435,11 @@
         <v/>
       </c>
       <c r="S247" s="1" t="str">
-        <f>IF(ISBLANK(R247),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C247), "/", E247, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T247" s="1" t="str">
-        <f>IF(ISBLANK(R247),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C247), "/", E247))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11449,11 +11449,11 @@
         <v/>
       </c>
       <c r="S248" s="1" t="str">
-        <f>IF(ISBLANK(R248),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C248), "/", E248, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T248" s="1" t="str">
-        <f>IF(ISBLANK(R248),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C248), "/", E248))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11463,11 +11463,11 @@
         <v/>
       </c>
       <c r="S249" s="1" t="str">
-        <f>IF(ISBLANK(R249),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C249), "/", E249, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T249" s="1" t="str">
-        <f>IF(ISBLANK(R249),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C249), "/", E249))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11477,11 +11477,11 @@
         <v/>
       </c>
       <c r="S250" s="1" t="str">
-        <f>IF(ISBLANK(R250),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C250), "/", E250, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T250" s="1" t="str">
-        <f>IF(ISBLANK(R250),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C250), "/", E250))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11491,11 +11491,11 @@
         <v/>
       </c>
       <c r="S251" s="1" t="str">
-        <f>IF(ISBLANK(R251),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C251), "/", E251, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T251" s="1" t="str">
-        <f>IF(ISBLANK(R251),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C251), "/", E251))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11505,11 +11505,11 @@
         <v/>
       </c>
       <c r="S252" s="1" t="str">
-        <f>IF(ISBLANK(R252),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C252), "/", E252, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T252" s="1" t="str">
-        <f>IF(ISBLANK(R252),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C252), "/", E252))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11519,11 +11519,11 @@
         <v/>
       </c>
       <c r="S253" s="1" t="str">
-        <f>IF(ISBLANK(R253),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C253), "/", E253, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T253" s="1" t="str">
-        <f>IF(ISBLANK(R253),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C253), "/", E253))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11533,11 +11533,11 @@
         <v/>
       </c>
       <c r="S254" s="1" t="str">
-        <f>IF(ISBLANK(R254),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C254), "/", E254, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T254" s="1" t="str">
-        <f>IF(ISBLANK(R254),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C254), "/", E254))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11547,11 +11547,11 @@
         <v/>
       </c>
       <c r="S255" s="1" t="str">
-        <f>IF(ISBLANK(R255),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C255), "/", E255, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T255" s="1" t="str">
-        <f>IF(ISBLANK(R255),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C255), "/", E255))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11561,11 +11561,11 @@
         <v/>
       </c>
       <c r="S256" s="1" t="str">
-        <f>IF(ISBLANK(R256),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C256), "/", E256, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T256" s="1" t="str">
-        <f>IF(ISBLANK(R256),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C256), "/", E256))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11575,11 +11575,11 @@
         <v/>
       </c>
       <c r="S257" s="1" t="str">
-        <f>IF(ISBLANK(R257),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C257), "/", E257, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T257" s="1" t="str">
-        <f>IF(ISBLANK(R257),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C257), "/", E257))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11589,11 +11589,11 @@
         <v/>
       </c>
       <c r="S258" s="1" t="str">
-        <f>IF(ISBLANK(R258),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C258), "/", E258, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T258" s="1" t="str">
-        <f>IF(ISBLANK(R258),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C258), "/", E258))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11603,11 +11603,11 @@
         <v/>
       </c>
       <c r="S259" s="1" t="str">
-        <f>IF(ISBLANK(R259),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C259), "/", E259, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T259" s="1" t="str">
-        <f>IF(ISBLANK(R259),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C259), "/", E259))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -11617,11 +11617,11 @@
         <v/>
       </c>
       <c r="S260" s="1" t="str">
-        <f>IF(ISBLANK(R260),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C260), "/", E260, "/config"))</f>
+        <f t="shared" ref="S260:S323" si="8">IF(ISBLANK(R260),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C260), "/", E260, "/config"))</f>
         <v/>
       </c>
       <c r="T260" s="1" t="str">
-        <f>IF(ISBLANK(R260),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C260), "/", E260))</f>
+        <f t="shared" ref="T260:T323" si="9">IF(ISBLANK(R260),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C260), "/", E260))</f>
         <v/>
       </c>
     </row>
@@ -11631,11 +11631,11 @@
         <v/>
       </c>
       <c r="S261" s="1" t="str">
-        <f>IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T261" s="1" t="str">
-        <f>IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11645,11 +11645,11 @@
         <v/>
       </c>
       <c r="S262" s="1" t="str">
-        <f>IF(ISBLANK(R262),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C262), "/", E262, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T262" s="1" t="str">
-        <f>IF(ISBLANK(R262),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C262), "/", E262))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11659,11 +11659,11 @@
         <v/>
       </c>
       <c r="S263" s="1" t="str">
-        <f>IF(ISBLANK(R263),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C263), "/", E263, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T263" s="1" t="str">
-        <f>IF(ISBLANK(R263),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C263), "/", E263))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11673,11 +11673,11 @@
         <v/>
       </c>
       <c r="S264" s="1" t="str">
-        <f>IF(ISBLANK(R264),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C264), "/", E264, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T264" s="1" t="str">
-        <f>IF(ISBLANK(R264),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C264), "/", E264))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11687,11 +11687,11 @@
         <v/>
       </c>
       <c r="S265" s="1" t="str">
-        <f>IF(ISBLANK(R265),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C265), "/", E265, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T265" s="1" t="str">
-        <f>IF(ISBLANK(R265),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C265), "/", E265))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11701,11 +11701,11 @@
         <v/>
       </c>
       <c r="S266" s="1" t="str">
-        <f>IF(ISBLANK(R266),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C266), "/", E266, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T266" s="1" t="str">
-        <f>IF(ISBLANK(R266),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C266), "/", E266))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11715,11 +11715,11 @@
         <v/>
       </c>
       <c r="S267" s="1" t="str">
-        <f>IF(ISBLANK(R267),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C267), "/", E267, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T267" s="1" t="str">
-        <f>IF(ISBLANK(R267),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C267), "/", E267))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11729,11 +11729,11 @@
         <v/>
       </c>
       <c r="S268" s="1" t="str">
-        <f>IF(ISBLANK(R268),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C268), "/", E268, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T268" s="1" t="str">
-        <f>IF(ISBLANK(R268),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C268), "/", E268))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11743,11 +11743,11 @@
         <v/>
       </c>
       <c r="S269" s="1" t="str">
-        <f>IF(ISBLANK(R269),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C269), "/", E269, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T269" s="1" t="str">
-        <f>IF(ISBLANK(R269),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C269), "/", E269))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11757,11 +11757,11 @@
         <v/>
       </c>
       <c r="S270" s="1" t="str">
-        <f>IF(ISBLANK(R270),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C270), "/", E270, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T270" s="1" t="str">
-        <f>IF(ISBLANK(R270),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C270), "/", E270))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11771,11 +11771,11 @@
         <v/>
       </c>
       <c r="S271" s="1" t="str">
-        <f>IF(ISBLANK(R271),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C271), "/", E271, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T271" s="1" t="str">
-        <f>IF(ISBLANK(R271),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C271), "/", E271))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11785,11 +11785,11 @@
         <v/>
       </c>
       <c r="S272" s="1" t="str">
-        <f>IF(ISBLANK(R272),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C272), "/", E272, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T272" s="1" t="str">
-        <f>IF(ISBLANK(R272),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C272), "/", E272))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11799,11 +11799,11 @@
         <v/>
       </c>
       <c r="S273" s="1" t="str">
-        <f>IF(ISBLANK(R273),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C273), "/", E273, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T273" s="1" t="str">
-        <f>IF(ISBLANK(R273),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C273), "/", E273))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11813,11 +11813,11 @@
         <v/>
       </c>
       <c r="S274" s="1" t="str">
-        <f>IF(ISBLANK(R274),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C274), "/", E274, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T274" s="1" t="str">
-        <f>IF(ISBLANK(R274),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C274), "/", E274))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11827,11 +11827,11 @@
         <v/>
       </c>
       <c r="S275" s="1" t="str">
-        <f>IF(ISBLANK(R275),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C275), "/", E275, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T275" s="1" t="str">
-        <f>IF(ISBLANK(R275),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C275), "/", E275))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11841,11 +11841,11 @@
         <v/>
       </c>
       <c r="S276" s="1" t="str">
-        <f>IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T276" s="1" t="str">
-        <f>IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11855,11 +11855,11 @@
         <v/>
       </c>
       <c r="S277" s="1" t="str">
-        <f>IF(ISBLANK(R277),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C277), "/", E277, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T277" s="1" t="str">
-        <f>IF(ISBLANK(R277),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C277), "/", E277))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11869,11 +11869,11 @@
         <v/>
       </c>
       <c r="S278" s="1" t="str">
-        <f>IF(ISBLANK(R278),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C278), "/", E278, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T278" s="1" t="str">
-        <f>IF(ISBLANK(R278),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C278), "/", E278))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11883,11 +11883,11 @@
         <v/>
       </c>
       <c r="S279" s="1" t="str">
-        <f>IF(ISBLANK(R279),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C279), "/", E279, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T279" s="1" t="str">
-        <f>IF(ISBLANK(R279),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C279), "/", E279))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11897,11 +11897,11 @@
         <v/>
       </c>
       <c r="S280" s="1" t="str">
-        <f>IF(ISBLANK(R280),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C280), "/", E280, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T280" s="1" t="str">
-        <f>IF(ISBLANK(R280),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C280), "/", E280))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11911,11 +11911,11 @@
         <v/>
       </c>
       <c r="S281" s="1" t="str">
-        <f>IF(ISBLANK(R281),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C281), "/", E281, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T281" s="1" t="str">
-        <f>IF(ISBLANK(R281),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C281), "/", E281))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11925,11 +11925,11 @@
         <v/>
       </c>
       <c r="S282" s="1" t="str">
-        <f>IF(ISBLANK(R282),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C282), "/", E282, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T282" s="1" t="str">
-        <f>IF(ISBLANK(R282),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C282), "/", E282))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11939,11 +11939,11 @@
         <v/>
       </c>
       <c r="S283" s="1" t="str">
-        <f>IF(ISBLANK(R283),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C283), "/", E283, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T283" s="1" t="str">
-        <f>IF(ISBLANK(R283),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C283), "/", E283))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11953,11 +11953,11 @@
         <v/>
       </c>
       <c r="S284" s="1" t="str">
-        <f>IF(ISBLANK(R284),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C284), "/", E284, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T284" s="1" t="str">
-        <f>IF(ISBLANK(R284),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C284), "/", E284))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11967,11 +11967,11 @@
         <v/>
       </c>
       <c r="S285" s="1" t="str">
-        <f>IF(ISBLANK(R285),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C285), "/", E285, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T285" s="1" t="str">
-        <f>IF(ISBLANK(R285),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C285), "/", E285))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11981,11 +11981,11 @@
         <v/>
       </c>
       <c r="S286" s="1" t="str">
-        <f>IF(ISBLANK(R286),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C286), "/", E286, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T286" s="1" t="str">
-        <f>IF(ISBLANK(R286),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C286), "/", E286))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11995,11 +11995,11 @@
         <v/>
       </c>
       <c r="S287" s="1" t="str">
-        <f>IF(ISBLANK(R287),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C287), "/", E287, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T287" s="1" t="str">
-        <f>IF(ISBLANK(R287),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C287), "/", E287))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12009,11 +12009,11 @@
         <v/>
       </c>
       <c r="S288" s="1" t="str">
-        <f>IF(ISBLANK(R288),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C288), "/", E288, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T288" s="1" t="str">
-        <f>IF(ISBLANK(R288),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C288), "/", E288))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12023,11 +12023,11 @@
         <v/>
       </c>
       <c r="S289" s="1" t="str">
-        <f>IF(ISBLANK(R289),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C289), "/", E289, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T289" s="1" t="str">
-        <f>IF(ISBLANK(R289),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C289), "/", E289))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12037,11 +12037,11 @@
         <v/>
       </c>
       <c r="S290" s="1" t="str">
-        <f>IF(ISBLANK(R290),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C290), "/", E290, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T290" s="1" t="str">
-        <f>IF(ISBLANK(R290),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C290), "/", E290))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12051,11 +12051,11 @@
         <v/>
       </c>
       <c r="S291" s="1" t="str">
-        <f>IF(ISBLANK(R291),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C291), "/", E291, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T291" s="1" t="str">
-        <f>IF(ISBLANK(R291),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C291), "/", E291))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12065,11 +12065,11 @@
         <v/>
       </c>
       <c r="S292" s="1" t="str">
-        <f>IF(ISBLANK(R292),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C292), "/", E292, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T292" s="1" t="str">
-        <f>IF(ISBLANK(R292),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C292), "/", E292))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12079,11 +12079,11 @@
         <v/>
       </c>
       <c r="S293" s="1" t="str">
-        <f>IF(ISBLANK(R293),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C293), "/", E293, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T293" s="1" t="str">
-        <f>IF(ISBLANK(R293),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C293), "/", E293))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12093,11 +12093,11 @@
         <v/>
       </c>
       <c r="S294" s="1" t="str">
-        <f>IF(ISBLANK(R294),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C294), "/", E294, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T294" s="1" t="str">
-        <f>IF(ISBLANK(R294),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C294), "/", E294))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12107,11 +12107,11 @@
         <v/>
       </c>
       <c r="S295" s="1" t="str">
-        <f>IF(ISBLANK(R295),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C295), "/", E295, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T295" s="1" t="str">
-        <f>IF(ISBLANK(R295),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C295), "/", E295))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12121,11 +12121,11 @@
         <v/>
       </c>
       <c r="S296" s="1" t="str">
-        <f>IF(ISBLANK(R296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T296" s="1" t="str">
-        <f>IF(ISBLANK(R296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12135,11 +12135,11 @@
         <v/>
       </c>
       <c r="S297" s="1" t="str">
-        <f>IF(ISBLANK(R297),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C297), "/", E297, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T297" s="1" t="str">
-        <f>IF(ISBLANK(R297),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C297), "/", E297))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12149,11 +12149,11 @@
         <v/>
       </c>
       <c r="S298" s="1" t="str">
-        <f>IF(ISBLANK(R298),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C298), "/", E298, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T298" s="1" t="str">
-        <f>IF(ISBLANK(R298),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C298), "/", E298))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12163,11 +12163,11 @@
         <v/>
       </c>
       <c r="S299" s="1" t="str">
-        <f>IF(ISBLANK(R299),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C299), "/", E299, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T299" s="1" t="str">
-        <f>IF(ISBLANK(R299),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C299), "/", E299))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12177,11 +12177,11 @@
         <v/>
       </c>
       <c r="S300" s="1" t="str">
-        <f>IF(ISBLANK(R300),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C300), "/", E300, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T300" s="1" t="str">
-        <f>IF(ISBLANK(R300),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C300), "/", E300))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12191,11 +12191,11 @@
         <v/>
       </c>
       <c r="S301" s="1" t="str">
-        <f>IF(ISBLANK(R301),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C301), "/", E301, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T301" s="1" t="str">
-        <f>IF(ISBLANK(R301),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C301), "/", E301))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12205,11 +12205,11 @@
         <v/>
       </c>
       <c r="S302" s="1" t="str">
-        <f>IF(ISBLANK(R302),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C302), "/", E302, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T302" s="1" t="str">
-        <f>IF(ISBLANK(R302),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C302), "/", E302))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12219,11 +12219,11 @@
         <v/>
       </c>
       <c r="S303" s="1" t="str">
-        <f>IF(ISBLANK(R303),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C303), "/", E303, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T303" s="1" t="str">
-        <f>IF(ISBLANK(R303),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C303), "/", E303))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12233,11 +12233,11 @@
         <v/>
       </c>
       <c r="S304" s="1" t="str">
-        <f>IF(ISBLANK(R304),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C304), "/", E304, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T304" s="1" t="str">
-        <f>IF(ISBLANK(R304),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C304), "/", E304))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12247,11 +12247,11 @@
         <v/>
       </c>
       <c r="S305" s="1" t="str">
-        <f>IF(ISBLANK(R305),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C305), "/", E305, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T305" s="1" t="str">
-        <f>IF(ISBLANK(R305),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C305), "/", E305))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12261,11 +12261,11 @@
         <v/>
       </c>
       <c r="S306" s="1" t="str">
-        <f>IF(ISBLANK(R306),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C306), "/", E306, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T306" s="1" t="str">
-        <f>IF(ISBLANK(R306),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C306), "/", E306))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12275,11 +12275,11 @@
         <v/>
       </c>
       <c r="S307" s="1" t="str">
-        <f>IF(ISBLANK(R307),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C307), "/", E307, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T307" s="1" t="str">
-        <f>IF(ISBLANK(R307),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C307), "/", E307))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12289,11 +12289,11 @@
         <v/>
       </c>
       <c r="S308" s="1" t="str">
-        <f>IF(ISBLANK(R308),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C308), "/", E308, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T308" s="1" t="str">
-        <f>IF(ISBLANK(R308),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C308), "/", E308))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12303,11 +12303,11 @@
         <v/>
       </c>
       <c r="S309" s="1" t="str">
-        <f>IF(ISBLANK(R309),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C309), "/", E309, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T309" s="1" t="str">
-        <f>IF(ISBLANK(R309),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C309), "/", E309))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12317,11 +12317,11 @@
         <v/>
       </c>
       <c r="S310" s="1" t="str">
-        <f>IF(ISBLANK(R310),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C310), "/", E310, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T310" s="1" t="str">
-        <f>IF(ISBLANK(R310),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C310), "/", E310))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12331,11 +12331,11 @@
         <v/>
       </c>
       <c r="S311" s="1" t="str">
-        <f>IF(ISBLANK(R311),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C311), "/", E311, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T311" s="1" t="str">
-        <f>IF(ISBLANK(R311),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C311), "/", E311))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12345,11 +12345,11 @@
         <v/>
       </c>
       <c r="S312" s="1" t="str">
-        <f>IF(ISBLANK(R312),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C312), "/", E312, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T312" s="1" t="str">
-        <f>IF(ISBLANK(R312),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C312), "/", E312))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12359,11 +12359,11 @@
         <v/>
       </c>
       <c r="S313" s="1" t="str">
-        <f>IF(ISBLANK(R313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T313" s="1" t="str">
-        <f>IF(ISBLANK(R313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12373,11 +12373,11 @@
         <v/>
       </c>
       <c r="S314" s="1" t="str">
-        <f>IF(ISBLANK(R314),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C314), "/", E314, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T314" s="1" t="str">
-        <f>IF(ISBLANK(R314),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C314), "/", E314))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12387,11 +12387,11 @@
         <v/>
       </c>
       <c r="S315" s="1" t="str">
-        <f>IF(ISBLANK(R315),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C315), "/", E315, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T315" s="1" t="str">
-        <f>IF(ISBLANK(R315),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C315), "/", E315))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12401,11 +12401,11 @@
         <v/>
       </c>
       <c r="S316" s="1" t="str">
-        <f>IF(ISBLANK(R316),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C316), "/", E316, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T316" s="1" t="str">
-        <f>IF(ISBLANK(R316),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C316), "/", E316))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12415,11 +12415,11 @@
         <v/>
       </c>
       <c r="S317" s="1" t="str">
-        <f>IF(ISBLANK(R317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T317" s="1" t="str">
-        <f>IF(ISBLANK(R317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12429,11 +12429,11 @@
         <v/>
       </c>
       <c r="S318" s="1" t="str">
-        <f>IF(ISBLANK(R318),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C318), "/", E318, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T318" s="1" t="str">
-        <f>IF(ISBLANK(R318),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C318), "/", E318))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12443,11 +12443,11 @@
         <v/>
       </c>
       <c r="S319" s="1" t="str">
-        <f>IF(ISBLANK(R319),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C319), "/", E319, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T319" s="1" t="str">
-        <f>IF(ISBLANK(R319),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C319), "/", E319))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12457,11 +12457,11 @@
         <v/>
       </c>
       <c r="S320" s="1" t="str">
-        <f>IF(ISBLANK(R320),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C320), "/", E320, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T320" s="1" t="str">
-        <f>IF(ISBLANK(R320),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C320), "/", E320))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12471,11 +12471,11 @@
         <v/>
       </c>
       <c r="S321" s="1" t="str">
-        <f>IF(ISBLANK(R321),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C321), "/", E321, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T321" s="1" t="str">
-        <f>IF(ISBLANK(R321),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C321), "/", E321))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12485,11 +12485,11 @@
         <v/>
       </c>
       <c r="S322" s="1" t="str">
-        <f>IF(ISBLANK(R322),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C322), "/", E322, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T322" s="1" t="str">
-        <f>IF(ISBLANK(R322),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C322), "/", E322))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12499,11 +12499,11 @@
         <v/>
       </c>
       <c r="S323" s="1" t="str">
-        <f>IF(ISBLANK(R323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T323" s="1" t="str">
-        <f>IF(ISBLANK(R323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12513,11 +12513,11 @@
         <v/>
       </c>
       <c r="S324" s="1" t="str">
-        <f>IF(ISBLANK(R324),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C324), "/", E324, "/config"))</f>
+        <f t="shared" ref="S324:S387" si="10">IF(ISBLANK(R324),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C324), "/", E324, "/config"))</f>
         <v/>
       </c>
       <c r="T324" s="1" t="str">
-        <f>IF(ISBLANK(R324),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C324), "/", E324))</f>
+        <f t="shared" ref="T324:T387" si="11">IF(ISBLANK(R324),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C324), "/", E324))</f>
         <v/>
       </c>
     </row>
@@ -12527,11 +12527,11 @@
         <v/>
       </c>
       <c r="S325" s="1" t="str">
-        <f>IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T325" s="1" t="str">
-        <f>IF(ISBLANK(R325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12541,11 +12541,11 @@
         <v/>
       </c>
       <c r="S326" s="1" t="str">
-        <f>IF(ISBLANK(R326),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C326), "/", E326, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T326" s="1" t="str">
-        <f>IF(ISBLANK(R326),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C326), "/", E326))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12555,11 +12555,11 @@
         <v/>
       </c>
       <c r="S327" s="1" t="str">
-        <f>IF(ISBLANK(R327),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C327), "/", E327, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T327" s="1" t="str">
-        <f>IF(ISBLANK(R327),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C327), "/", E327))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12569,11 +12569,11 @@
         <v/>
       </c>
       <c r="S328" s="1" t="str">
-        <f>IF(ISBLANK(R328),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C328), "/", E328, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T328" s="1" t="str">
-        <f>IF(ISBLANK(R328),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C328), "/", E328))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12583,11 +12583,11 @@
         <v/>
       </c>
       <c r="S329" s="1" t="str">
-        <f>IF(ISBLANK(R329),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C329), "/", E329, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T329" s="1" t="str">
-        <f>IF(ISBLANK(R329),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C329), "/", E329))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12597,11 +12597,11 @@
         <v/>
       </c>
       <c r="S330" s="1" t="str">
-        <f>IF(ISBLANK(R330),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C330), "/", E330, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T330" s="1" t="str">
-        <f>IF(ISBLANK(R330),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C330), "/", E330))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12611,11 +12611,11 @@
         <v/>
       </c>
       <c r="S331" s="1" t="str">
-        <f>IF(ISBLANK(R331),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C331), "/", E331, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T331" s="1" t="str">
-        <f>IF(ISBLANK(R331),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C331), "/", E331))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12625,11 +12625,11 @@
         <v/>
       </c>
       <c r="S332" s="1" t="str">
-        <f>IF(ISBLANK(R332),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C332), "/", E332, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T332" s="1" t="str">
-        <f>IF(ISBLANK(R332),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C332), "/", E332))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12639,11 +12639,11 @@
         <v/>
       </c>
       <c r="S333" s="1" t="str">
-        <f>IF(ISBLANK(R333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T333" s="1" t="str">
-        <f>IF(ISBLANK(R333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         <v/>
       </c>
       <c r="S334" s="1" t="str">
-        <f>IF(ISBLANK(R334),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C334), "/", E334, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T334" s="1" t="str">
-        <f>IF(ISBLANK(R334),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C334), "/", E334))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12667,11 +12667,11 @@
         <v/>
       </c>
       <c r="S335" s="1" t="str">
-        <f>IF(ISBLANK(R335),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C335), "/", E335, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T335" s="1" t="str">
-        <f>IF(ISBLANK(R335),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C335), "/", E335))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12681,11 +12681,11 @@
         <v/>
       </c>
       <c r="S336" s="1" t="str">
-        <f>IF(ISBLANK(R336),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C336), "/", E336, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T336" s="1" t="str">
-        <f>IF(ISBLANK(R336),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C336), "/", E336))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12695,11 +12695,11 @@
         <v/>
       </c>
       <c r="S337" s="1" t="str">
-        <f>IF(ISBLANK(R337),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C337), "/", E337, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T337" s="1" t="str">
-        <f>IF(ISBLANK(R337),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C337), "/", E337))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12709,11 +12709,11 @@
         <v/>
       </c>
       <c r="S338" s="1" t="str">
-        <f>IF(ISBLANK(R338),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C338), "/", E338, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T338" s="1" t="str">
-        <f>IF(ISBLANK(R338),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C338), "/", E338))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12723,11 +12723,11 @@
         <v/>
       </c>
       <c r="S339" s="1" t="str">
-        <f>IF(ISBLANK(R339),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C339), "/", E339, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T339" s="1" t="str">
-        <f>IF(ISBLANK(R339),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C339), "/", E339))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12737,11 +12737,11 @@
         <v/>
       </c>
       <c r="S340" s="1" t="str">
-        <f>IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T340" s="1" t="str">
-        <f>IF(ISBLANK(R340),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C340), "/", E340))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12751,11 +12751,11 @@
         <v/>
       </c>
       <c r="S341" s="1" t="str">
-        <f>IF(ISBLANK(R341),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C341), "/", E341, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T341" s="1" t="str">
-        <f>IF(ISBLANK(R341),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C341), "/", E341))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12765,11 +12765,11 @@
         <v/>
       </c>
       <c r="S342" s="1" t="str">
-        <f>IF(ISBLANK(R342),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C342), "/", E342, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T342" s="1" t="str">
-        <f>IF(ISBLANK(R342),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C342), "/", E342))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12779,11 +12779,11 @@
         <v/>
       </c>
       <c r="S343" s="1" t="str">
-        <f>IF(ISBLANK(R343),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C343), "/", E343, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T343" s="1" t="str">
-        <f>IF(ISBLANK(R343),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C343), "/", E343))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12793,11 +12793,11 @@
         <v/>
       </c>
       <c r="S344" s="1" t="str">
-        <f>IF(ISBLANK(R344),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C344), "/", E344, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T344" s="1" t="str">
-        <f>IF(ISBLANK(R344),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C344), "/", E344))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12807,11 +12807,11 @@
         <v/>
       </c>
       <c r="S345" s="1" t="str">
-        <f>IF(ISBLANK(R345),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C345), "/", E345, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T345" s="1" t="str">
-        <f>IF(ISBLANK(R345),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C345), "/", E345))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12821,11 +12821,11 @@
         <v/>
       </c>
       <c r="S346" s="1" t="str">
-        <f>IF(ISBLANK(R346),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C346), "/", E346, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T346" s="1" t="str">
-        <f>IF(ISBLANK(R346),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C346), "/", E346))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12835,11 +12835,11 @@
         <v/>
       </c>
       <c r="S347" s="1" t="str">
-        <f>IF(ISBLANK(R347),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C347), "/", E347, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T347" s="1" t="str">
-        <f>IF(ISBLANK(R347),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C347), "/", E347))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12849,11 +12849,11 @@
         <v/>
       </c>
       <c r="S348" s="1" t="str">
-        <f>IF(ISBLANK(R348),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C348), "/", E348, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T348" s="1" t="str">
-        <f>IF(ISBLANK(R348),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C348), "/", E348))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12863,11 +12863,11 @@
         <v/>
       </c>
       <c r="S349" s="1" t="str">
-        <f>IF(ISBLANK(R349),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C349), "/", E349, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T349" s="1" t="str">
-        <f>IF(ISBLANK(R349),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C349), "/", E349))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12877,11 +12877,11 @@
         <v/>
       </c>
       <c r="S350" s="1" t="str">
-        <f>IF(ISBLANK(R350),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C350), "/", E350, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T350" s="1" t="str">
-        <f>IF(ISBLANK(R350),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C350), "/", E350))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12891,11 +12891,11 @@
         <v/>
       </c>
       <c r="S351" s="1" t="str">
-        <f>IF(ISBLANK(R351),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C351), "/", E351, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T351" s="1" t="str">
-        <f>IF(ISBLANK(R351),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C351), "/", E351))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12905,11 +12905,11 @@
         <v/>
       </c>
       <c r="S352" s="1" t="str">
-        <f>IF(ISBLANK(R352),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C352), "/", E352, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T352" s="1" t="str">
-        <f>IF(ISBLANK(R352),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C352), "/", E352))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12919,11 +12919,11 @@
         <v/>
       </c>
       <c r="S353" s="1" t="str">
-        <f>IF(ISBLANK(R353),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C353), "/", E353, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T353" s="1" t="str">
-        <f>IF(ISBLANK(R353),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C353), "/", E353))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12933,11 +12933,11 @@
         <v/>
       </c>
       <c r="S354" s="1" t="str">
-        <f>IF(ISBLANK(R354),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C354), "/", E354, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T354" s="1" t="str">
-        <f>IF(ISBLANK(R354),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C354), "/", E354))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12947,11 +12947,11 @@
         <v/>
       </c>
       <c r="S355" s="1" t="str">
-        <f>IF(ISBLANK(R355),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C355), "/", E355, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T355" s="1" t="str">
-        <f>IF(ISBLANK(R355),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C355), "/", E355))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12961,11 +12961,11 @@
         <v/>
       </c>
       <c r="S356" s="1" t="str">
-        <f>IF(ISBLANK(R356),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C356), "/", E356, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T356" s="1" t="str">
-        <f>IF(ISBLANK(R356),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C356), "/", E356))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12975,11 +12975,11 @@
         <v/>
       </c>
       <c r="S357" s="1" t="str">
-        <f>IF(ISBLANK(R357),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C357), "/", E357, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T357" s="1" t="str">
-        <f>IF(ISBLANK(R357),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C357), "/", E357))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12989,11 +12989,11 @@
         <v/>
       </c>
       <c r="S358" s="1" t="str">
-        <f>IF(ISBLANK(R358),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C358), "/", E358, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T358" s="1" t="str">
-        <f>IF(ISBLANK(R358),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C358), "/", E358))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13003,11 +13003,11 @@
         <v/>
       </c>
       <c r="S359" s="1" t="str">
-        <f>IF(ISBLANK(R359),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C359), "/", E359, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T359" s="1" t="str">
-        <f>IF(ISBLANK(R359),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C359), "/", E359))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13017,11 +13017,11 @@
         <v/>
       </c>
       <c r="S360" s="1" t="str">
-        <f>IF(ISBLANK(R360),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C360), "/", E360, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T360" s="1" t="str">
-        <f>IF(ISBLANK(R360),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C360), "/", E360))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13031,11 +13031,11 @@
         <v/>
       </c>
       <c r="S361" s="1" t="str">
-        <f>IF(ISBLANK(R361),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C361), "/", E361, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T361" s="1" t="str">
-        <f>IF(ISBLANK(R361),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C361), "/", E361))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13045,11 +13045,11 @@
         <v/>
       </c>
       <c r="S362" s="1" t="str">
-        <f>IF(ISBLANK(R362),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C362), "/", E362, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T362" s="1" t="str">
-        <f>IF(ISBLANK(R362),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C362), "/", E362))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13059,11 +13059,11 @@
         <v/>
       </c>
       <c r="S363" s="1" t="str">
-        <f>IF(ISBLANK(R363),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C363), "/", E363, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T363" s="1" t="str">
-        <f>IF(ISBLANK(R363),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C363), "/", E363))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13073,11 +13073,11 @@
         <v/>
       </c>
       <c r="S364" s="1" t="str">
-        <f>IF(ISBLANK(R364),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C364), "/", E364, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T364" s="1" t="str">
-        <f>IF(ISBLANK(R364),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C364), "/", E364))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13087,11 +13087,11 @@
         <v/>
       </c>
       <c r="S365" s="1" t="str">
-        <f>IF(ISBLANK(R365),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C365), "/", E365, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T365" s="1" t="str">
-        <f>IF(ISBLANK(R365),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C365), "/", E365))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13101,11 +13101,11 @@
         <v/>
       </c>
       <c r="S366" s="1" t="str">
-        <f>IF(ISBLANK(R366),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C366), "/", E366, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T366" s="1" t="str">
-        <f>IF(ISBLANK(R366),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C366), "/", E366))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13115,11 +13115,11 @@
         <v/>
       </c>
       <c r="S367" s="1" t="str">
-        <f>IF(ISBLANK(R367),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C367), "/", E367, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T367" s="1" t="str">
-        <f>IF(ISBLANK(R367),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C367), "/", E367))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13129,11 +13129,11 @@
         <v/>
       </c>
       <c r="S368" s="1" t="str">
-        <f>IF(ISBLANK(R368),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C368), "/", E368, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T368" s="1" t="str">
-        <f>IF(ISBLANK(R368),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C368), "/", E368))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13143,11 +13143,11 @@
         <v/>
       </c>
       <c r="S369" s="1" t="str">
-        <f>IF(ISBLANK(R369),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C369), "/", E369, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T369" s="1" t="str">
-        <f>IF(ISBLANK(R369),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C369), "/", E369))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13157,11 +13157,11 @@
         <v/>
       </c>
       <c r="S370" s="1" t="str">
-        <f>IF(ISBLANK(R370),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C370), "/", E370, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T370" s="1" t="str">
-        <f>IF(ISBLANK(R370),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C370), "/", E370))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13171,11 +13171,11 @@
         <v/>
       </c>
       <c r="S371" s="1" t="str">
-        <f>IF(ISBLANK(R371),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C371), "/", E371, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T371" s="1" t="str">
-        <f>IF(ISBLANK(R371),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C371), "/", E371))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13185,11 +13185,11 @@
         <v/>
       </c>
       <c r="S372" s="1" t="str">
-        <f>IF(ISBLANK(R372),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C372), "/", E372, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T372" s="1" t="str">
-        <f>IF(ISBLANK(R372),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C372), "/", E372))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13199,11 +13199,11 @@
         <v/>
       </c>
       <c r="S373" s="1" t="str">
-        <f>IF(ISBLANK(R373),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C373), "/", E373, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T373" s="1" t="str">
-        <f>IF(ISBLANK(R373),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C373), "/", E373))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13213,11 +13213,11 @@
         <v/>
       </c>
       <c r="S374" s="1" t="str">
-        <f>IF(ISBLANK(R374),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C374), "/", E374, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T374" s="1" t="str">
-        <f>IF(ISBLANK(R374),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C374), "/", E374))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13227,11 +13227,11 @@
         <v/>
       </c>
       <c r="S375" s="1" t="str">
-        <f>IF(ISBLANK(R375),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C375), "/", E375, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T375" s="1" t="str">
-        <f>IF(ISBLANK(R375),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C375), "/", E375))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13241,11 +13241,11 @@
         <v/>
       </c>
       <c r="S376" s="1" t="str">
-        <f>IF(ISBLANK(R376),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C376), "/", E376, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T376" s="1" t="str">
-        <f>IF(ISBLANK(R376),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C376), "/", E376))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13255,11 +13255,11 @@
         <v/>
       </c>
       <c r="S377" s="1" t="str">
-        <f>IF(ISBLANK(R377),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C377), "/", E377, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T377" s="1" t="str">
-        <f>IF(ISBLANK(R377),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C377), "/", E377))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13269,11 +13269,11 @@
         <v/>
       </c>
       <c r="S378" s="1" t="str">
-        <f>IF(ISBLANK(R378),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C378), "/", E378, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T378" s="1" t="str">
-        <f>IF(ISBLANK(R378),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C378), "/", E378))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13283,11 +13283,11 @@
         <v/>
       </c>
       <c r="S379" s="1" t="str">
-        <f>IF(ISBLANK(R379),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C379), "/", E379, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T379" s="1" t="str">
-        <f>IF(ISBLANK(R379),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C379), "/", E379))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13297,11 +13297,11 @@
         <v/>
       </c>
       <c r="S380" s="1" t="str">
-        <f>IF(ISBLANK(R380),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C380), "/", E380, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T380" s="1" t="str">
-        <f>IF(ISBLANK(R380),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C380), "/", E380))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13311,11 +13311,11 @@
         <v/>
       </c>
       <c r="S381" s="1" t="str">
-        <f>IF(ISBLANK(R381),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C381), "/", E381, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T381" s="1" t="str">
-        <f>IF(ISBLANK(R381),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C381), "/", E381))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13325,11 +13325,11 @@
         <v/>
       </c>
       <c r="S382" s="1" t="str">
-        <f>IF(ISBLANK(R382),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C382), "/", E382, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T382" s="1" t="str">
-        <f>IF(ISBLANK(R382),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C382), "/", E382))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13339,11 +13339,11 @@
         <v/>
       </c>
       <c r="S383" s="1" t="str">
-        <f>IF(ISBLANK(R383),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C383), "/", E383, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T383" s="1" t="str">
-        <f>IF(ISBLANK(R383),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C383), "/", E383))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13353,11 +13353,11 @@
         <v/>
       </c>
       <c r="S384" s="1" t="str">
-        <f>IF(ISBLANK(R384),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C384), "/", E384, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T384" s="1" t="str">
-        <f>IF(ISBLANK(R384),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C384), "/", E384))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13367,11 +13367,11 @@
         <v/>
       </c>
       <c r="S385" s="1" t="str">
-        <f>IF(ISBLANK(R385),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C385), "/", E385, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T385" s="1" t="str">
-        <f>IF(ISBLANK(R385),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C385), "/", E385))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13381,11 +13381,11 @@
         <v/>
       </c>
       <c r="S386" s="1" t="str">
-        <f>IF(ISBLANK(R386),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C386), "/", E386, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T386" s="1" t="str">
-        <f>IF(ISBLANK(R386),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C386), "/", E386))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13395,11 +13395,11 @@
         <v/>
       </c>
       <c r="S387" s="1" t="str">
-        <f>IF(ISBLANK(R387),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C387), "/", E387, "/config"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T387" s="1" t="str">
-        <f>IF(ISBLANK(R387),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C387), "/", E387))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13409,11 +13409,11 @@
         <v/>
       </c>
       <c r="S388" s="1" t="str">
-        <f>IF(ISBLANK(R388),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C388), "/", E388, "/config"))</f>
+        <f t="shared" ref="S388:S451" si="12">IF(ISBLANK(R388),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C388), "/", E388, "/config"))</f>
         <v/>
       </c>
       <c r="T388" s="1" t="str">
-        <f>IF(ISBLANK(R388),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C388), "/", E388))</f>
+        <f t="shared" ref="T388:T396" si="13">IF(ISBLANK(R388),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C388), "/", E388))</f>
         <v/>
       </c>
     </row>
@@ -13423,11 +13423,11 @@
         <v/>
       </c>
       <c r="S389" s="1" t="str">
-        <f>IF(ISBLANK(R389),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C389), "/", E389, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T389" s="1" t="str">
-        <f>IF(ISBLANK(R389),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C389), "/", E389))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13437,11 +13437,11 @@
         <v/>
       </c>
       <c r="S390" s="1" t="str">
-        <f>IF(ISBLANK(R390),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C390), "/", E390, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T390" s="1" t="str">
-        <f>IF(ISBLANK(R390),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C390), "/", E390))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13451,11 +13451,11 @@
         <v/>
       </c>
       <c r="S391" s="1" t="str">
-        <f>IF(ISBLANK(R391),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C391), "/", E391, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T391" s="1" t="str">
-        <f>IF(ISBLANK(R391),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C391), "/", E391))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13465,11 +13465,11 @@
         <v/>
       </c>
       <c r="S392" s="1" t="str">
-        <f>IF(ISBLANK(R392),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C392), "/", E392, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T392" s="1" t="str">
-        <f>IF(ISBLANK(R392),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C392), "/", E392))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13479,11 +13479,11 @@
         <v/>
       </c>
       <c r="S393" s="1" t="str">
-        <f>IF(ISBLANK(R393),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C393), "/", E393, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T393" s="1" t="str">
-        <f>IF(ISBLANK(R393),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C393), "/", E393))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13493,11 +13493,11 @@
         <v/>
       </c>
       <c r="S394" s="1" t="str">
-        <f>IF(ISBLANK(R394),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C394), "/", E394, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T394" s="1" t="str">
-        <f>IF(ISBLANK(R394),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C394), "/", E394))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13507,11 +13507,11 @@
         <v/>
       </c>
       <c r="S395" s="1" t="str">
-        <f>IF(ISBLANK(R395),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C395), "/", E395, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T395" s="1" t="str">
-        <f>IF(ISBLANK(R395),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C395), "/", E395))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -13521,11 +13521,11 @@
         <v/>
       </c>
       <c r="S396" s="1" t="str">
-        <f>IF(ISBLANK(R396),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C396), "/", E396, "/config"))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T396" s="1" t="str">
-        <f>IF(ISBLANK(R396),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C396), "/", E396))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158B053-65FA-C840-8861-DB47BACDAFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C26710A-73F5-4549-BC7C-64CC0020B331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,9 +1201,6 @@
     <t>Daily Energy Consumption</t>
   </si>
   <si>
-    <t>bathroom_towelrails_current_consumption</t>
-  </si>
-  <si>
     <t>deck_freezer_current_consumption</t>
   </si>
   <si>
@@ -1243,9 +1240,6 @@
     <t>Study Outlet</t>
   </si>
   <si>
-    <t>Bathroom Towel Rails</t>
-  </si>
-  <si>
     <t>Washing Machine</t>
   </si>
   <si>
@@ -1325,6 +1319,12 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>Bathroom Rails</t>
+  </si>
+  <si>
+    <t>bathroom_rails_current_consumption</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1421,12 +1421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1574,9 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1925,10 +1916,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC425" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
-  <autoFilter ref="A3:AC425" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC425">
-    <sortCondition ref="A3:A425"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC435" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
+  <autoFilter ref="A3:AC435" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC435">
+    <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="28"/>
@@ -2268,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC425"/>
+  <dimension ref="A1:AC435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5922,7 +5913,7 @@
         <v>66</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>231</v>
@@ -6008,7 +5999,7 @@
         <v>66</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>231</v>
@@ -6091,7 +6082,7 @@
         <v>66</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>231</v>
@@ -6718,7 +6709,7 @@
         <v>1900</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>153</v>
@@ -6757,7 +6748,7 @@
         <v>2000</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>158</v>
@@ -6914,7 +6905,7 @@
         <v>2004</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>158</v>
@@ -6953,7 +6944,7 @@
         <v>2005</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>158</v>
@@ -6989,7 +6980,7 @@
         <v>2006</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>158</v>
@@ -7025,7 +7016,7 @@
         <v>2007</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>158</v>
@@ -7061,7 +7052,7 @@
         <v>2008</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>158</v>
@@ -7097,7 +7088,7 @@
         <v>2009</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>158</v>
@@ -7136,7 +7127,7 @@
         <v>2010</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>158</v>
@@ -7172,7 +7163,7 @@
         <v>2011</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>158</v>
@@ -7208,7 +7199,7 @@
         <v>2012</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>158</v>
@@ -7244,7 +7235,7 @@
         <v>2013</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>158</v>
@@ -7280,7 +7271,7 @@
         <v>2014</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>158</v>
@@ -7316,7 +7307,7 @@
         <v>2015</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>158</v>
@@ -7352,7 +7343,7 @@
         <v>2016</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>158</v>
@@ -7391,7 +7382,7 @@
         <v>2017</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>158</v>
@@ -7427,7 +7418,7 @@
         <v>2018</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>158</v>
@@ -7463,7 +7454,7 @@
         <v>2019</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>158</v>
@@ -7499,7 +7490,7 @@
         <v>2020</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>158</v>
@@ -7538,7 +7529,7 @@
         <v>2021</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>158</v>
@@ -7574,7 +7565,7 @@
         <v>2022</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>158</v>
@@ -7610,7 +7601,7 @@
         <v>2023</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>158</v>
@@ -7646,7 +7637,7 @@
         <v>2024</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>158</v>
@@ -7685,7 +7676,7 @@
         <v>2025</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>158</v>
@@ -7721,7 +7712,7 @@
         <v>2026</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>158</v>
@@ -7757,7 +7748,7 @@
         <v>2027</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>158</v>
@@ -7793,7 +7784,7 @@
         <v>2028</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>158</v>
@@ -7829,7 +7820,7 @@
         <v>2029</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>158</v>
@@ -7868,7 +7859,7 @@
         <v>2030</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>158</v>
@@ -7904,7 +7895,7 @@
         <v>2031</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>158</v>
@@ -7943,7 +7934,7 @@
         <v>2032</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>158</v>
@@ -7979,7 +7970,7 @@
         <v>2033</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>158</v>
@@ -8018,7 +8009,7 @@
         <v>2034</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>158</v>
@@ -8054,7 +8045,7 @@
         <v>2035</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>158</v>
@@ -8093,7 +8084,7 @@
         <v>2036</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>158</v>
@@ -8129,7 +8120,7 @@
         <v>2037</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>158</v>
@@ -8168,7 +8159,7 @@
         <v>2038</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>158</v>
@@ -8204,7 +8195,7 @@
         <v>2039</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>158</v>
@@ -8243,7 +8234,7 @@
         <v>2040</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>158</v>
@@ -8279,7 +8270,7 @@
         <v>2041</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>158</v>
@@ -8318,7 +8309,7 @@
         <v>2042</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>158</v>
@@ -8354,7 +8345,7 @@
         <v>2043</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>158</v>
@@ -8393,7 +8384,7 @@
         <v>2044</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>158</v>
@@ -8429,7 +8420,7 @@
         <v>2044</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>158</v>
@@ -8468,7 +8459,7 @@
         <v>2044</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>158</v>
@@ -8504,7 +8495,7 @@
         <v>2080</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>153</v>
@@ -8539,9 +8530,36 @@
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F123" s="11" t="str">
         <f>IF(ISBLANK(E123), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>home_power</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="S123" s="1" t="str">
@@ -8554,9 +8572,36 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>2101</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="F124" s="11" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lights_power</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="1" t="str">
@@ -8569,9 +8614,36 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>2102</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="F125" s="11" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>kitchen_dishwasher_current_consumption</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="1" t="str">
@@ -8585,26 +8657,26 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="F126" s="11" t="str">
         <f>IF(ISBLANK(E126), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_power</v>
+        <v>laundry_clothes_dryer_current_consumption</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>240</v>
@@ -8627,26 +8699,26 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="F127" s="11" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_power</v>
+        <v>laundry_washing_machine_current_consumption</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>240</v>
@@ -8669,26 +8741,26 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F128" s="11" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan_current_consumption</v>
+        <v>kitchen_coffee_machine_current_consumption</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>395</v>
+        <v>155</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>240</v>
@@ -8711,26 +8783,26 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F129" s="11" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge_current_consumption</v>
+        <v>kitchen_fan_current_consumption</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>240</v>
@@ -8753,26 +8825,26 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F130" s="11" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer_current_consumption</v>
+        <v>kitchen_fridge_current_consumption</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>240</v>
@@ -8795,26 +8867,26 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="F131" s="11" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_lights_current_consumption</v>
+        <v>deck_freezer_current_consumption</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>240</v>
@@ -8837,26 +8909,26 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F132" s="11" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine_current_consumption</v>
+        <v>deck_lights_current_consumption</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>155</v>
+        <v>399</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>240</v>
@@ -8879,26 +8951,26 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="F133" s="11" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dishwasher_current_consumption</v>
+        <v>lounge_tv_current_consumption</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>405</v>
+        <v>239</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>240</v>
@@ -8921,26 +8993,26 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>28</v>
+        <v>384</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="F134" s="11" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv_current_consumption</v>
+        <v>roof_water_heater_booster_power</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>239</v>
+        <v>426</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>240</v>
@@ -8963,26 +9035,26 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F135" s="11" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer_current_consumption</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>406</v>
+        <v>bathroom_rails_current_consumption</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>240</v>
@@ -9005,26 +9077,26 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="F136" s="11" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine_current_consumption</v>
-      </c>
-      <c r="G136" s="26" t="s">
-        <v>404</v>
+        <v>study_outlet_current_consumption</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>240</v>
@@ -9047,26 +9119,26 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F137" s="11" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_water_heater_booster_power</v>
+        <v>office_outlet_current_consumption</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>240</v>
@@ -9089,26 +9161,26 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="F138" s="11" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_towelrails_current_consumption</v>
+        <v>rack_outlet_current_consumption</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>240</v>
@@ -9131,26 +9203,26 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F139" s="11" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet_current_consumption</v>
+        <v>roof_network_switch_current_consumption</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>240</v>
@@ -9159,7 +9231,7 @@
         <v>165</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="S139" s="1" t="str">
@@ -9173,26 +9245,26 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F140" s="11" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet_current_consumption</v>
+        <v>rack_internet_modem_current_consumption</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>240</v>
@@ -9201,7 +9273,7 @@
         <v>165</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="Q140" s="2"/>
       <c r="S140" s="1" t="str">
@@ -9215,26 +9287,26 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F141" s="11" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet_current_consumption</v>
+        <v>study_battery_charger_current_consumption</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>240</v>
@@ -9243,7 +9315,7 @@
         <v>165</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="S141" s="1" t="str">
@@ -9257,26 +9329,26 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F142" s="11" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch_current_consumption</v>
+        <v>laundry_vacuum_charger_current_consumption</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>240</v>
@@ -9299,26 +9371,26 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F143" s="11" t="str">
+        <v>420</v>
+      </c>
+      <c r="F143" s="1" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_internet_modem_current_consumption</v>
+        <v>various_adhoc_outlet_current_consumption</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>240</v>
@@ -9341,29 +9413,26 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>2118</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>28</v>
+        <v>2201</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F144" s="11" t="str">
+        <v>166</v>
+      </c>
+      <c r="F144" s="1" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger_current_consumption</v>
-      </c>
-      <c r="G144" s="26" t="s">
-        <v>408</v>
+        <v>kitchen_coffee_today_s_consumption</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>240</v>
+        <v>388</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>165</v>
@@ -9381,37 +9450,34 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>2119</v>
+        <v>2201</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>28</v>
+        <v>384</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="F145" s="11" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger_current_consumption</v>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>407</v>
+        <v>lights_energy</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>240</v>
+        <v>388</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="S145" s="1" t="str">
@@ -9423,37 +9489,34 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>2120</v>
+        <v>2202</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>28</v>
+        <v>384</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F146" s="1" t="str">
+        <v>386</v>
+      </c>
+      <c r="F146" s="11" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet_current_consumption</v>
+        <v>lights_energy_today</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>409</v>
+        <v>161</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>240</v>
+        <v>388</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="S146" s="1" t="str">
@@ -9465,10 +9528,34 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F147" s="11" t="str">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>2203</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F147" s="1" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>dining_lights_power</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="Q147" s="2"/>
       <c r="S147" s="1" t="str">
@@ -9480,10 +9567,34 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F148" s="11" t="str">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>2204</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="1" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>dining_lights_energy</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="S148" s="1" t="str">
@@ -9495,10 +9606,34 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F149" s="11" t="str">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>2205</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" s="1" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>dining_lights_energy_today</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="S149" s="1" t="str">
@@ -9510,10 +9645,31 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F150" s="11" t="str">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>2206</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F150" s="1" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>hue_color_candle_16_power</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="S150" s="1" t="str">
@@ -9525,10 +9681,31 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F151" s="11" t="str">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>2207</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F151" s="1" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>hue_color_candle_16_energy</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="S151" s="1" t="str">
@@ -9540,10 +9717,31 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F152" s="11" t="str">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>2208</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F152" s="1" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>hue_color_candle_16_energy_daily</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="Q152" s="2"/>
       <c r="S152" s="1" t="str">
@@ -9555,10 +9753,31 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F153" s="11" t="str">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>2209</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F153" s="1" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>hue_color_candle_16_energy_weekly</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="S153" s="1" t="str">
@@ -9570,34 +9789,31 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>2201</v>
+        <v>2210</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>417</v>
+        <v>240</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F154" s="1" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_today_s_consumption</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>155</v>
+        <v>hue_color_candle_16_energy_monthly</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>388</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q154" s="2"/>
       <c r="S154" s="1" t="str">
@@ -9609,34 +9825,28 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>2201</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>384</v>
+        <v>2400</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F155" s="11" t="str">
+        <v>176</v>
+      </c>
+      <c r="F155" s="1" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>161</v>
+        <v>withings_weight_kg_graham</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>388</v>
+        <v>216</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="S155" s="1" t="str">
@@ -9648,112 +9858,194 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>2202</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>384</v>
+        <v>2500</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F156" s="11" t="str">
+        <v>226</v>
+      </c>
+      <c r="F156" s="1" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_today</v>
+        <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>388</v>
+        <v>90</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q156" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P156" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="S156" s="1" t="str">
         <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T156" s="1" t="str">
         <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V156" s="1">
+        <v>1</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X156" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC156" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>2203</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>384</v>
+        <v>2501</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="F157" s="1" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_power</v>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>388</v>
+        <v>90</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q157" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P157" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="S157" s="1" t="str">
         <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T157" s="1" t="str">
         <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V157" s="1">
+        <v>1</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X157" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z157" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA157" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC157" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>2204</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>384</v>
+        <v>2600</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F158" s="1" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy</v>
+        <v>ada_home</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>388</v>
+        <v>218</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="S158" s="1" t="str">
@@ -9765,34 +10057,34 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>2205</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>384</v>
+        <v>2700</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F159" s="1" t="str">
         <f>IF(ISBLANK(E159), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy_today</v>
+        <v>kitchen_speaker</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q159" s="2"/>
       <c r="S159" s="1" t="str">
@@ -9804,31 +10096,31 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>2206</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>384</v>
+        <v>2800</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F160" s="1" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_power</v>
+        <v>parents_speaker_battery</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>388</v>
+        <v>90</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="S160" s="1" t="str">
@@ -9840,31 +10132,34 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>2207</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>384</v>
+        <v>3000</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F161" s="1" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy</v>
+        <v>uvc_ada_medium</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>388</v>
+        <v>219</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>165</v>
+        <v>334</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q161" s="2"/>
       <c r="S161" s="1" t="str">
@@ -9876,31 +10171,34 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>2208</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>384</v>
+        <v>3001</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="F162" s="1" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_daily</v>
+        <v>uvc_edwin_medium</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>388</v>
+        <v>219</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>165</v>
+        <v>334</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="S162" s="1" t="str">
@@ -9912,31 +10210,34 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>2209</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>384</v>
+        <v>3050</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="F163" s="1" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_weekly</v>
+        <v>ada_occupancy</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>388</v>
+        <v>220</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>165</v>
+        <v>334</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="S163" s="1" t="str">
@@ -9948,31 +10249,34 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>2210</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>384</v>
+        <v>3051</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F164" s="1" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_monthly</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>388</v>
+        <v>uvc_ada_motion</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>165</v>
+        <v>334</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q164" s="2"/>
       <c r="S164" s="1" t="str">
@@ -9984,28 +10288,34 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>2400</v>
+        <v>3052</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="F165" s="1" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
-        <v>withings_weight_kg_graham</v>
+        <v>edwin_occupancy</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>177</v>
+        <v>334</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="S165" s="1" t="str">
@@ -10017,191 +10327,109 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>2500</v>
+        <v>3053</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>226</v>
+        <v>328</v>
       </c>
       <c r="F166" s="1" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
+        <v>uvc_edwin_motion</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>90</v>
+        <v>335</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N166" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P166" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q166" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R166" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q166" s="2"/>
       <c r="S166" s="1" t="str">
         <f>IF(ISBLANK(R166),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C166), "/", E166, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="T166" s="1" t="str">
         <f>IF(ISBLANK(R166),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C166), "/", E166))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="U166" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="V166" s="1">
-        <v>1</v>
-      </c>
-      <c r="W166" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X166" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y166" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z166" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA166" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB166" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC166" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>2501</v>
+        <v>3054</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="F167" s="1" t="str">
         <f>IF(ISBLANK(E167), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
+        <v>parents_occupancy</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O167" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P167" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q167" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R167" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q167" s="2"/>
       <c r="S167" s="1" t="str">
         <f>IF(ISBLANK(R167),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C167), "/", E167, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
+        <v/>
       </c>
       <c r="T167" s="1" t="str">
         <f>IF(ISBLANK(R167),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C167), "/", E167))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="U167" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="V167" s="1">
-        <v>1</v>
-      </c>
-      <c r="W167" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X167" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y167" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z167" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA167" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB167" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC167" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>2600</v>
+        <v>3055</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>420</v>
+        <v>152</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="F168" s="1" t="str">
         <f>IF(ISBLANK(E168), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
+        <v>lounge_occupancy</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>157</v>
@@ -10216,31 +10444,31 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>2700</v>
+        <v>3056</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="F169" s="1" t="str">
         <f>IF(ISBLANK(E169), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
+        <v>deck2_occupancy</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>157</v>
@@ -10255,31 +10483,34 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>2800</v>
+        <v>3057</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="F170" s="1" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
+        <v>deck1_occupancy</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>179</v>
+        <v>334</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="S170" s="1" t="str">
@@ -10291,34 +10522,31 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F171" s="1" t="str">
         <f>IF(ISBLANK(E171), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>149</v>
+        <v>ada_energize</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="Q171" s="2"/>
       <c r="S171" s="1" t="str">
@@ -10330,34 +10558,31 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>3001</v>
+        <v>9000</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="F172" s="1" t="str">
         <f>IF(ISBLANK(E172), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>update_bom_icons</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="S172" s="1" t="str">
@@ -10369,34 +10594,10 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>3050</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F173" s="1" t="str">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F173" s="11" t="str">
         <f>IF(ISBLANK(E173), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_occupancy</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q173" s="2"/>
       <c r="S173" s="1" t="str">
@@ -10408,34 +10609,10 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>3051</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F174" s="1" t="str">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F174" s="11" t="str">
         <f>IF(ISBLANK(E174), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H174" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q174" s="2"/>
       <c r="S174" s="1" t="str">
@@ -10447,34 +10624,10 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>3052</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F175" s="1" t="str">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F175" s="11" t="str">
         <f>IF(ISBLANK(E175), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_occupancy</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q175" s="2"/>
       <c r="S175" s="1" t="str">
@@ -10486,34 +10639,10 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>3053</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F176" s="1" t="str">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F176" s="11" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H176" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q176" s="2"/>
       <c r="S176" s="1" t="str">
@@ -10525,34 +10654,10 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>3054</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F177" s="1" t="str">
+    <row r="177" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F177" s="11" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_occupancy</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q177" s="2"/>
       <c r="S177" s="1" t="str">
@@ -10564,34 +10669,10 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>3055</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F178" s="1" t="str">
+    <row r="178" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F178" s="11" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_occupancy</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q178" s="2"/>
       <c r="S178" s="1" t="str">
@@ -10603,34 +10684,10 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>3056</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F179" s="1" t="str">
+    <row r="179" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F179" s="11" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck2_occupancy</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q179" s="2"/>
       <c r="S179" s="1" t="str">
@@ -10642,34 +10699,10 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>3057</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F180" s="1" t="str">
+    <row r="180" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F180" s="11" t="str">
         <f>IF(ISBLANK(E180), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck1_occupancy</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q180" s="2"/>
       <c r="S180" s="1" t="str">
@@ -10681,31 +10714,10 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F181" s="1" t="str">
+    <row r="181" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F181" s="11" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_energize</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>190</v>
+        <v/>
       </c>
       <c r="Q181" s="2"/>
       <c r="S181" s="1" t="str">
@@ -10717,31 +10729,10 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>9000</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F182" s="1" t="str">
+    <row r="182" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F182" s="11" t="str">
         <f>IF(ISBLANK(E182), "", Table2[[#This Row],[unique_id]])</f>
-        <v>update_bom_icons</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>190</v>
+        <v/>
       </c>
       <c r="Q182" s="2"/>
       <c r="S182" s="1" t="str">
@@ -10753,7 +10744,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F183" s="11" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10768,7 +10759,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F184" s="11" t="str">
         <f>IF(ISBLANK(E184), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10783,7 +10774,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F185" s="11" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10798,7 +10789,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F186" s="11" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10813,7 +10804,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F187" s="11" t="str">
         <f>IF(ISBLANK(E187), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10828,7 +10819,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F188" s="11" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10843,7 +10834,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F189" s="11" t="str">
         <f>IF(ISBLANK(E189), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10858,7 +10849,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F190" s="11" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10873,7 +10864,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F191" s="11" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10888,7 +10879,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F192" s="11" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11403,7 +11394,6 @@
         <f>IF(ISBLANK(E226), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H226" s="6"/>
       <c r="Q226" s="2"/>
       <c r="S226" s="1" t="str">
         <f>IF(ISBLANK(R226),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C226), "/", E226, "/config"))</f>
@@ -11419,7 +11409,6 @@
         <f>IF(ISBLANK(E227), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H227" s="6"/>
       <c r="Q227" s="2"/>
       <c r="S227" s="1" t="str">
         <f>IF(ISBLANK(R227),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C227), "/", E227, "/config"))</f>
@@ -11480,6 +11469,7 @@
         <f>IF(ISBLANK(E231), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q231" s="2"/>
       <c r="S231" s="1" t="str">
         <f>IF(ISBLANK(R231),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C231), "/", E231, "/config"))</f>
         <v/>
@@ -11494,6 +11484,7 @@
         <f>IF(ISBLANK(E232), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q232" s="2"/>
       <c r="S232" s="1" t="str">
         <f>IF(ISBLANK(R232),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C232), "/", E232, "/config"))</f>
         <v/>
@@ -11508,6 +11499,7 @@
         <f>IF(ISBLANK(E233), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q233" s="2"/>
       <c r="S233" s="1" t="str">
         <f>IF(ISBLANK(R233),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C233), "/", E233, "/config"))</f>
         <v/>
@@ -11522,6 +11514,7 @@
         <f>IF(ISBLANK(E234), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q234" s="2"/>
       <c r="S234" s="1" t="str">
         <f>IF(ISBLANK(R234),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C234), "/", E234, "/config"))</f>
         <v/>
@@ -11536,6 +11529,7 @@
         <f>IF(ISBLANK(E235), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q235" s="2"/>
       <c r="S235" s="1" t="str">
         <f>IF(ISBLANK(R235),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C235), "/", E235, "/config"))</f>
         <v/>
@@ -11550,7 +11544,8 @@
         <f>IF(ISBLANK(E236), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="Q236" s="2"/>
       <c r="S236" s="1" t="str">
         <f>IF(ISBLANK(R236),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C236), "/", E236, "/config"))</f>
         <v/>
@@ -11565,6 +11560,8 @@
         <f>IF(ISBLANK(E237), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H237" s="6"/>
+      <c r="Q237" s="2"/>
       <c r="S237" s="1" t="str">
         <f>IF(ISBLANK(R237),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C237), "/", E237, "/config"))</f>
         <v/>
@@ -11575,10 +11572,11 @@
       </c>
     </row>
     <row r="238" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F238" s="1" t="str">
+      <c r="F238" s="11" t="str">
         <f>IF(ISBLANK(E238), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q238" s="2"/>
       <c r="S238" s="1" t="str">
         <f>IF(ISBLANK(R238),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C238), "/", E238, "/config"))</f>
         <v/>
@@ -11589,10 +11587,11 @@
       </c>
     </row>
     <row r="239" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F239" s="1" t="str">
+      <c r="F239" s="11" t="str">
         <f>IF(ISBLANK(E239), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q239" s="2"/>
       <c r="S239" s="1" t="str">
         <f>IF(ISBLANK(R239),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C239), "/", E239, "/config"))</f>
         <v/>
@@ -11603,10 +11602,11 @@
       </c>
     </row>
     <row r="240" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F240" s="1" t="str">
+      <c r="F240" s="11" t="str">
         <f>IF(ISBLANK(E240), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q240" s="2"/>
       <c r="S240" s="1" t="str">
         <f>IF(ISBLANK(R240),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C240), "/", E240, "/config"))</f>
         <v/>
@@ -11617,7 +11617,7 @@
       </c>
     </row>
     <row r="241" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F241" s="1" t="str">
+      <c r="F241" s="11" t="str">
         <f>IF(ISBLANK(E241), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -11631,7 +11631,7 @@
       </c>
     </row>
     <row r="242" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F242" s="1" t="str">
+      <c r="F242" s="11" t="str">
         <f>IF(ISBLANK(E242), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -11645,7 +11645,7 @@
       </c>
     </row>
     <row r="243" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F243" s="1" t="str">
+      <c r="F243" s="11" t="str">
         <f>IF(ISBLANK(E243), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -11659,7 +11659,7 @@
       </c>
     </row>
     <row r="244" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F244" s="1" t="str">
+      <c r="F244" s="11" t="str">
         <f>IF(ISBLANK(E244), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -11673,7 +11673,7 @@
       </c>
     </row>
     <row r="245" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F245" s="1" t="str">
+      <c r="F245" s="11" t="str">
         <f>IF(ISBLANK(E245), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -11687,10 +11687,11 @@
       </c>
     </row>
     <row r="246" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F246" s="1" t="str">
+      <c r="F246" s="11" t="str">
         <f>IF(ISBLANK(E246), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G246" s="6"/>
       <c r="S246" s="1" t="str">
         <f>IF(ISBLANK(R246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246, "/config"))</f>
         <v/>
@@ -11701,7 +11702,7 @@
       </c>
     </row>
     <row r="247" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F247" s="1" t="str">
+      <c r="F247" s="11" t="str">
         <f>IF(ISBLANK(E247), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -14203,6 +14204,146 @@
       </c>
       <c r="T425" s="1" t="str">
         <f>IF(ISBLANK(R425),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C425), "/", E425))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F426" s="1" t="str">
+        <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S426" s="1" t="str">
+        <f>IF(ISBLANK(R426),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C426), "/", E426, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T426" s="1" t="str">
+        <f>IF(ISBLANK(R426),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C426), "/", E426))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F427" s="1" t="str">
+        <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S427" s="1" t="str">
+        <f>IF(ISBLANK(R427),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C427), "/", E427, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T427" s="1" t="str">
+        <f>IF(ISBLANK(R427),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C427), "/", E427))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F428" s="1" t="str">
+        <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S428" s="1" t="str">
+        <f>IF(ISBLANK(R428),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C428), "/", E428, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T428" s="1" t="str">
+        <f>IF(ISBLANK(R428),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C428), "/", E428))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F429" s="1" t="str">
+        <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S429" s="1" t="str">
+        <f>IF(ISBLANK(R429),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C429), "/", E429, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T429" s="1" t="str">
+        <f>IF(ISBLANK(R429),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C429), "/", E429))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F430" s="1" t="str">
+        <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S430" s="1" t="str">
+        <f>IF(ISBLANK(R430),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C430), "/", E430, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T430" s="1" t="str">
+        <f>IF(ISBLANK(R430),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C430), "/", E430))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F431" s="1" t="str">
+        <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S431" s="1" t="str">
+        <f>IF(ISBLANK(R431),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C431), "/", E431, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T431" s="1" t="str">
+        <f>IF(ISBLANK(R431),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C431), "/", E431))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F432" s="1" t="str">
+        <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S432" s="1" t="str">
+        <f>IF(ISBLANK(R432),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C432), "/", E432, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T432" s="1" t="str">
+        <f>IF(ISBLANK(R432),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C432), "/", E432))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F433" s="1" t="str">
+        <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S433" s="1" t="str">
+        <f>IF(ISBLANK(R433),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C433), "/", E433, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T433" s="1" t="str">
+        <f>IF(ISBLANK(R433),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C433), "/", E433))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F434" s="1" t="str">
+        <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S434" s="1" t="str">
+        <f>IF(ISBLANK(R434),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C434), "/", E434, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T434" s="1" t="str">
+        <f>IF(ISBLANK(R434),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C434), "/", E434))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F435" s="1" t="str">
+        <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S435" s="1" t="str">
+        <f>IF(ISBLANK(R435),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C435), "/", E435, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T435" s="1" t="str">
+        <f>IF(ISBLANK(R435),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C435), "/", E435))</f>
         <v/>
       </c>
     </row>
@@ -14226,8 +14367,8 @@
     <hyperlink ref="AC31" r:id="rId12" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
     <hyperlink ref="AC42" r:id="rId13" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
     <hyperlink ref="AC56:AC79" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
-    <hyperlink ref="AC166" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
-    <hyperlink ref="AC167" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
+    <hyperlink ref="AC156" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
+    <hyperlink ref="AC157" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
     <hyperlink ref="AC64" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="AC65" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AC15" r:id="rId19" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C26710A-73F5-4549-BC7C-64CC0020B331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB82C0A-5EA7-1D4C-B907-E5868C3CF754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="470">
   <si>
     <t>index</t>
   </si>
@@ -532,36 +532,6 @@
     <t>Electricity</t>
   </si>
   <si>
-    <t>kitchen_coffee_today_s_consumption</t>
-  </si>
-  <si>
-    <t>dining_lights_power</t>
-  </si>
-  <si>
-    <t>Dining Lights</t>
-  </si>
-  <si>
-    <t>dining_lights_energy</t>
-  </si>
-  <si>
-    <t>dining_lights_energy_today</t>
-  </si>
-  <si>
-    <t>hue_color_candle_16_power</t>
-  </si>
-  <si>
-    <t>hue_color_candle_16_energy</t>
-  </si>
-  <si>
-    <t>hue_color_candle_16_energy_daily</t>
-  </si>
-  <si>
-    <t>hue_color_candle_16_energy_weekly</t>
-  </si>
-  <si>
-    <t>hue_color_candle_16_energy_monthly</t>
-  </si>
-  <si>
     <t>withings_weight_kg_graham</t>
   </si>
   <si>
@@ -754,9 +724,6 @@
     <t>Lounge TV</t>
   </si>
   <si>
-    <t>Power Consumption</t>
-  </si>
-  <si>
     <t>Withings</t>
   </si>
   <si>
@@ -1189,12 +1156,6 @@
     <t>Todo</t>
   </si>
   <si>
-    <t>lights_energy</t>
-  </si>
-  <si>
-    <t>lights_energy_today</t>
-  </si>
-  <si>
     <t>lights_power</t>
   </si>
   <si>
@@ -1243,7 +1204,7 @@
     <t>Washing Machine</t>
   </si>
   <si>
-    <t>Dishwasher</t>
+    <t>Dish Washer</t>
   </si>
   <si>
     <t>Clothes Dryer</t>
@@ -1309,9 +1270,6 @@
     <t>laundry_clothes_dryer_current_consumption</t>
   </si>
   <si>
-    <t>kitchen_dishwasher_current_consumption</t>
-  </si>
-  <si>
     <t>Water Heater Booster</t>
   </si>
   <si>
@@ -1325,6 +1283,165 @@
   </si>
   <si>
     <t>bathroom_rails_current_consumption</t>
+  </si>
+  <si>
+    <t>kitchen_dish_washer_current_consumption</t>
+  </si>
+  <si>
+    <t>kitchen_dish_washer_today_s_consumption</t>
+  </si>
+  <si>
+    <t>laundry_clothes_dryer_today_s_consumption</t>
+  </si>
+  <si>
+    <t>laundry_washing_machine_today_s_consumption</t>
+  </si>
+  <si>
+    <t>kitchen_coffee_machine_today_s_consumption</t>
+  </si>
+  <si>
+    <t>kitchen_fan_today_s_consumption</t>
+  </si>
+  <si>
+    <t>kitchen_fridge_today_s_consumption</t>
+  </si>
+  <si>
+    <t>deck_freezer_today_s_consumption</t>
+  </si>
+  <si>
+    <t>deck_lights_today_s_consumption</t>
+  </si>
+  <si>
+    <t>lounge_tv_today_s_consumption</t>
+  </si>
+  <si>
+    <t>bathroom_rails_today_s_consumption</t>
+  </si>
+  <si>
+    <t>study_outlet_today_s_consumption</t>
+  </si>
+  <si>
+    <t>office_outlet_today_s_consumption</t>
+  </si>
+  <si>
+    <t>rack_outlet_today_s_consumption</t>
+  </si>
+  <si>
+    <t>roof_network_switch_today_s_consumption</t>
+  </si>
+  <si>
+    <t>rack_internet_modem_today_s_consumption</t>
+  </si>
+  <si>
+    <t>study_battery_charger_today_s_consumption</t>
+  </si>
+  <si>
+    <t>laundry_vacuum_charger_today_s_consumption</t>
+  </si>
+  <si>
+    <t>various_adhoc_outlet_today_s_consumption</t>
+  </si>
+  <si>
+    <t>roof_weekly_rain</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>home_energy_daily</t>
+  </si>
+  <si>
+    <t>lights_energy_daily</t>
+  </si>
+  <si>
+    <t>Weekly Energy Consumption</t>
+  </si>
+  <si>
+    <t>Large Appliances</t>
+  </si>
+  <si>
+    <t>Servers and Network</t>
+  </si>
+  <si>
+    <t>Small Devices</t>
+  </si>
+  <si>
+    <t>Study &amp; Office Outlets</t>
+  </si>
+  <si>
+    <t>home_energy_weekly</t>
+  </si>
+  <si>
+    <t>lights_energy_weekly</t>
+  </si>
+  <si>
+    <t>small_devices_energy_weekly</t>
+  </si>
+  <si>
+    <t>large_appliances_energy_weekly</t>
+  </si>
+  <si>
+    <t>servers_network_energy_weekly</t>
+  </si>
+  <si>
+    <t>water_heater_booster_energy_weekly</t>
+  </si>
+  <si>
+    <t>study_office_outlets_energy_weekly</t>
+  </si>
+  <si>
+    <t>home_energy_monthly</t>
+  </si>
+  <si>
+    <t>lights_energy_monthly</t>
+  </si>
+  <si>
+    <t>small_devices_energy_monthly</t>
+  </si>
+  <si>
+    <t>large_appliances_energy_monthly</t>
+  </si>
+  <si>
+    <t>servers_network_energy_monthly</t>
+  </si>
+  <si>
+    <t>water_heater_booster_energy_monthly</t>
+  </si>
+  <si>
+    <t>study_office_outlets_energy_monthly</t>
+  </si>
+  <si>
+    <t>Monthly Energy Consumption</t>
+  </si>
+  <si>
+    <t>home_energy_yearly</t>
+  </si>
+  <si>
+    <t>lights_energy_yearly</t>
+  </si>
+  <si>
+    <t>small_devices_energy_yearly</t>
+  </si>
+  <si>
+    <t>large_appliances_energy_yearly</t>
+  </si>
+  <si>
+    <t>servers_network_energy_yearly</t>
+  </si>
+  <si>
+    <t>water_heater_booster_energy_yearly</t>
+  </si>
+  <si>
+    <t>study_office_outlets_energy_yearly</t>
+  </si>
+  <si>
+    <t>Yearly Energy Consumption</t>
+  </si>
+  <si>
+    <t>Current Power Consumption</t>
+  </si>
+  <si>
+    <t>roof_water_heater_booster_energy_daily</t>
   </si>
 </sst>
 </file>
@@ -1916,10 +2033,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC435" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
-  <autoFilter ref="A3:AC435" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC435">
-    <sortCondition ref="A3:A435"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AC475" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
+  <autoFilter ref="A3:AC475" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AC475">
+    <sortCondition ref="A3:A475"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="28"/>
@@ -2259,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC435"/>
+  <dimension ref="A1:AC475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2299,178 +2416,178 @@
   <sheetData>
     <row r="1" spans="1:29" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="O1" s="25"/>
       <c r="P1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AC1" s="18" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="R2" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="S2" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="T2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="V2" s="20">
         <v>1</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AC2" s="22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2493,7 +2610,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>5</v>
@@ -2621,7 +2738,7 @@
         <v>haas/entity/sensor/weewx/roof_temperature</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V4" s="1">
         <v>1</v>
@@ -2645,7 +2762,7 @@
         <v>43</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2662,7 +2779,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F5" s="11" t="str">
         <f>IF(ISBLANK(E5), "", Table2[[#This Row],[unique_id]])</f>
@@ -2748,14 +2865,14 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F7" s="11" t="str">
         <f>IF(ISBLANK(E7), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_temperature</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>98</v>
@@ -2791,14 +2908,14 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F8" s="11" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_temperature</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>98</v>
@@ -2834,14 +2951,14 @@
         <v>29</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F9" s="11" t="str">
         <f>IF(ISBLANK(E9), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_temperature</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>98</v>
@@ -2877,14 +2994,14 @@
         <v>29</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_temperature</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>98</v>
@@ -2920,14 +3037,14 @@
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IF(ISBLANK(E11), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_temperature</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>98</v>
@@ -2963,14 +3080,14 @@
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_temperature</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>98</v>
@@ -3006,14 +3123,14 @@
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F13" s="11" t="str">
         <f>IF(ISBLANK(E13), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_temperature</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>98</v>
@@ -3049,14 +3166,14 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F14" s="11" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_basement_temperature</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>98</v>
@@ -3092,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(ISBLANK(E15), "", Table2[[#This Row],[unique_id]])</f>
@@ -3126,7 +3243,7 @@
         <v>37</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="S15" s="1" t="str">
         <f>IF(ISBLANK(R15),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C15), "/", E15, "/config"))</f>
@@ -3137,7 +3254,7 @@
         <v>haas/entity/sensor/weewx/rack_temperature</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
@@ -3161,7 +3278,7 @@
         <v>43</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -3220,7 +3337,7 @@
         <v>haas/entity/sensor/weewx/roof_apparent_temperature</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V16" s="1">
         <v>1</v>
@@ -3244,7 +3361,7 @@
         <v>43</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -3303,7 +3420,7 @@
         <v>haas/entity/sensor/weewx/roof_dew_point</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
@@ -3327,7 +3444,7 @@
         <v>43</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -3386,7 +3503,7 @@
         <v>haas/entity/sensor/weewx/roof_heat_index</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
@@ -3410,7 +3527,7 @@
         <v>43</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3469,7 +3586,7 @@
         <v>haas/entity/sensor/weewx/roof_humidity_index</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
@@ -3493,7 +3610,7 @@
         <v>43</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -3552,7 +3669,7 @@
         <v>haas/entity/sensor/weewx/rack_dew_point</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V20" s="1">
         <v>1</v>
@@ -3576,7 +3693,7 @@
         <v>31</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -3635,7 +3752,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_chill_temperature</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V21" s="1">
         <v>1</v>
@@ -3659,7 +3776,7 @@
         <v>43</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -3676,7 +3793,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F22" s="11" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
@@ -3686,7 +3803,7 @@
         <v>149</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>33</v>
@@ -3716,7 +3833,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>IF(ISBLANK(E23), "", Table2[[#This Row],[unique_id]])</f>
@@ -3726,7 +3843,7 @@
         <v>145</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>33</v>
@@ -3757,17 +3874,17 @@
         <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F24" s="11" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_co2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>33</v>
@@ -3798,17 +3915,17 @@
         <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F25" s="11" t="str">
         <f>IF(ISBLANK(E25), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_co2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>33</v>
@@ -3839,17 +3956,17 @@
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F26" s="11" t="str">
         <f>IF(ISBLANK(E26), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_co2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>33</v>
@@ -3880,17 +3997,17 @@
         <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F27" s="11" t="str">
         <f>IF(ISBLANK(E27), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_co2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>33</v>
@@ -3921,17 +4038,17 @@
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F28" s="11" t="str">
         <f>IF(ISBLANK(E28), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_co2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>33</v>
@@ -3962,17 +4079,17 @@
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F29" s="11" t="str">
         <f>IF(ISBLANK(E29), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_co2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>33</v>
@@ -4003,17 +4120,17 @@
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F30" s="11" t="str">
         <f>IF(ISBLANK(E30), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_co2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>33</v>
@@ -4086,7 +4203,7 @@
         <v>haas/entity/sensor/weewx/roof_humidity</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V31" s="1">
         <v>1</v>
@@ -4110,7 +4227,7 @@
         <v>43</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -4127,7 +4244,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F32" s="11" t="str">
         <f>IF(ISBLANK(E32), "", Table2[[#This Row],[unique_id]])</f>
@@ -4170,7 +4287,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F33" s="11" t="str">
         <f>IF(ISBLANK(E33), "", Table2[[#This Row],[unique_id]])</f>
@@ -4213,14 +4330,14 @@
         <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F34" s="11" t="str">
         <f>IF(ISBLANK(E34), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_humidity</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>32</v>
@@ -4256,14 +4373,14 @@
         <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F35" s="11" t="str">
         <f>IF(ISBLANK(E35), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_humidity</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>32</v>
@@ -4299,14 +4416,14 @@
         <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F36" s="11" t="str">
         <f>IF(ISBLANK(E36), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_humidity</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>32</v>
@@ -4342,14 +4459,14 @@
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F37" s="11" t="str">
         <f>IF(ISBLANK(E37), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_pantry_humidity</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
@@ -4385,14 +4502,14 @@
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F38" s="11" t="str">
         <f>IF(ISBLANK(E38), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_lounge_humidity</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -4428,14 +4545,14 @@
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F39" s="11" t="str">
         <f>IF(ISBLANK(E39), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_dining_humidity</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
@@ -4471,14 +4588,14 @@
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F40" s="11" t="str">
         <f>IF(ISBLANK(E40), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_humidity</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
@@ -4514,14 +4631,14 @@
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F41" s="11" t="str">
         <f>IF(ISBLANK(E41), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_basement_humidity</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>32</v>
@@ -4602,7 +4719,7 @@
         <v>haas/entity/sensor/weewx/rack_humidity</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V42" s="1">
         <v>1</v>
@@ -4626,7 +4743,7 @@
         <v>31</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -4643,7 +4760,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F43" s="1" t="str">
         <f>IF(ISBLANK(E43), "", Table2[[#This Row],[unique_id]])</f>
@@ -4653,7 +4770,7 @@
         <v>149</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>33</v>
@@ -4685,7 +4802,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F44" s="11" t="str">
         <f>IF(ISBLANK(E44), "", Table2[[#This Row],[unique_id]])</f>
@@ -4695,7 +4812,7 @@
         <v>145</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>33</v>
@@ -4727,17 +4844,17 @@
         <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F45" s="11" t="str">
         <f>IF(ISBLANK(E45), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_parents_noise</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>33</v>
@@ -4769,17 +4886,17 @@
         <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F46" s="11" t="str">
         <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_office_noise</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>33</v>
@@ -4811,17 +4928,17 @@
         <v>29</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F47" s="11" t="str">
         <f>IF(ISBLANK(E47), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_bertram_2_kitchen_noise</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>33</v>
@@ -4853,17 +4970,17 @@
         <v>29</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F48" s="11" t="str">
         <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
         <v>netatmo_laundry_noise</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>33</v>
@@ -4917,7 +5034,7 @@
         <v>50</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P49" s="1">
         <v>300</v>
@@ -4937,7 +5054,7 @@
         <v>haas/entity/sensor/weewx/roof_cloud_base</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V49" s="1">
         <v>1</v>
@@ -4961,7 +5078,7 @@
         <v>43</v>
       </c>
       <c r="AC49" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
@@ -5000,7 +5117,7 @@
         <v>54</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="P50" s="1">
         <v>300</v>
@@ -5020,7 +5137,7 @@
         <v>haas/entity/sensor/weewx/roof_max_solar_radiation</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V50" s="1">
         <v>1</v>
@@ -5044,7 +5161,7 @@
         <v>43</v>
       </c>
       <c r="AC50" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -5103,7 +5220,7 @@
         <v>haas/entity/sensor/weewx/roof_barometer_pressure</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V51" s="1">
         <v>1</v>
@@ -5127,7 +5244,7 @@
         <v>43</v>
       </c>
       <c r="AC51" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -5186,7 +5303,7 @@
         <v>haas/entity/sensor/weewx/roof_pressure</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V52" s="1">
         <v>1</v>
@@ -5210,7 +5327,7 @@
         <v>43</v>
       </c>
       <c r="AC52" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -5246,10 +5363,10 @@
         <v>34</v>
       </c>
       <c r="M53" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="P53" s="1">
         <v>300</v>
@@ -5269,7 +5386,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_direction</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V53" s="1">
         <v>1</v>
@@ -5293,7 +5410,7 @@
         <v>43</v>
       </c>
       <c r="AC53" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -5329,10 +5446,10 @@
         <v>34</v>
       </c>
       <c r="M54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="P54" s="1">
         <v>300</v>
@@ -5352,7 +5469,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_direction</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="V54" s="1">
         <v>1</v>
@@ -5376,7 +5493,7 @@
         <v>43</v>
       </c>
       <c r="AC54" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -5412,10 +5529,10 @@
         <v>34</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P55" s="1">
         <v>300</v>
@@ -5435,7 +5552,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_gust_speed</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V55" s="1">
         <v>1</v>
@@ -5459,7 +5576,7 @@
         <v>43</v>
       </c>
       <c r="AC55" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -5495,10 +5612,10 @@
         <v>34</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P56" s="1">
         <v>300</v>
@@ -5518,7 +5635,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed_10min</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V56" s="1">
         <v>1</v>
@@ -5542,7 +5659,7 @@
         <v>43</v>
       </c>
       <c r="AC56" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -5578,7 +5695,7 @@
         <v>34</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P57" s="1">
         <v>300</v>
@@ -5598,7 +5715,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_samples</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="V57" s="1">
         <v>1</v>
@@ -5622,7 +5739,7 @@
         <v>43</v>
       </c>
       <c r="AC57" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -5661,7 +5778,7 @@
         <v>142</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P58" s="1">
         <v>300</v>
@@ -5681,7 +5798,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_run</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V58" s="1">
         <v>1</v>
@@ -5705,7 +5822,7 @@
         <v>43</v>
       </c>
       <c r="AC58" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -5741,10 +5858,10 @@
         <v>34</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P59" s="1">
         <v>300</v>
@@ -5764,7 +5881,7 @@
         <v>haas/entity/sensor/weewx/roof_wind_speed</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V59" s="1">
         <v>1</v>
@@ -5788,7 +5905,7 @@
         <v>43</v>
       </c>
       <c r="AC59" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -5818,7 +5935,7 @@
         <v>65</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>101</v>
@@ -5827,10 +5944,10 @@
         <v>34</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P60" s="1">
         <v>300</v>
@@ -5850,7 +5967,7 @@
         <v>haas/entity/sensor/weewx/roof_rain_rate</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="V60" s="1">
         <v>1</v>
@@ -5874,7 +5991,7 @@
         <v>43</v>
       </c>
       <c r="AC60" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -5904,7 +6021,7 @@
         <v>65</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>157</v>
@@ -5913,10 +6030,10 @@
         <v>66</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P61" s="1">
         <v>300</v>
@@ -5936,7 +6053,7 @@
         <v>haas/entity/sensor/weewx/roof_hourly_rain</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="V61" s="1">
         <v>1</v>
@@ -5960,7 +6077,7 @@
         <v>43</v>
       </c>
       <c r="AC61" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -5990,7 +6107,7 @@
         <v>65</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>157</v>
@@ -5999,10 +6116,10 @@
         <v>66</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P62" s="1">
         <v>300</v>
@@ -6022,7 +6139,7 @@
         <v>haas/entity/sensor/weewx/roof_daily_rain</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="V62" s="1">
         <v>1</v>
@@ -6046,7 +6163,7 @@
         <v>43</v>
       </c>
       <c r="AC62" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -6063,7 +6180,7 @@
         <v>29</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F63" s="1" t="str">
         <f>IF(ISBLANK(E63), "", Table2[[#This Row],[unique_id]])</f>
@@ -6076,16 +6193,16 @@
         <v>65</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P63" s="1">
         <v>300</v>
@@ -6105,7 +6222,7 @@
         <v>haas/entity/sensor/weewx/roof_24hour_rain</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="V63" s="1">
         <v>1</v>
@@ -6129,7 +6246,7 @@
         <v>43</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -6137,86 +6254,43 @@
         <v>1354</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>72</v>
+        <v>436</v>
       </c>
       <c r="F64" s="11" t="str">
         <f>IF(ISBLANK(E64), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_monthly_rain</v>
+        <v>roof_weekly_rain</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>73</v>
+        <v>437</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P64" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="S64" s="1" t="str">
         <f>IF(ISBLANK(R64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C64), "/", E64, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
+        <v/>
       </c>
       <c r="T64" s="1" t="str">
         <f>IF(ISBLANK(R64),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C64), "/", E64))</f>
-        <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="V64" s="1">
-        <v>1</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X64" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC64" s="7" t="s">
-        <v>244</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AC64" s="7"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
@@ -6232,20 +6306,20 @@
         <v>29</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F65" s="11" t="str">
         <f>IF(ISBLANK(E65), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_yearly_rain</v>
+        <v>roof_monthly_rain</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>157</v>
@@ -6257,7 +6331,7 @@
         <v>67</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P65" s="1">
         <v>300</v>
@@ -6266,18 +6340,18 @@
         <v>37</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="S65" s="1" t="str">
         <f>IF(ISBLANK(R65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C65), "/", E65, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
+        <v>haas/entity/sensor/weewx/roof_monthly_rain/config</v>
       </c>
       <c r="T65" s="1" t="str">
         <f>IF(ISBLANK(R65),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C65), "/", E65))</f>
-        <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
+        <v>haas/entity/sensor/weewx/roof_monthly_rain</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="V65" s="1">
         <v>1</v>
@@ -6301,7 +6375,7 @@
         <v>43</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
@@ -6318,29 +6392,32 @@
         <v>29</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="1" t="str">
+        <v>87</v>
+      </c>
+      <c r="F66" s="11" t="str">
         <f>IF(ISBLANK(E66), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_rain</v>
+        <v>roof_yearly_rain</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P66" s="1">
         <v>300</v>
@@ -6349,18 +6426,18 @@
         <v>37</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="S66" s="1" t="str">
         <f>IF(ISBLANK(R66),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C66), "/", E66, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_rain/config</v>
+        <v>haas/entity/sensor/weewx/roof_yearly_rain/config</v>
       </c>
       <c r="T66" s="1" t="str">
         <f>IF(ISBLANK(R66),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C66), "/", E66))</f>
-        <v>haas/entity/sensor/weewx/roof_rain</v>
+        <v>haas/entity/sensor/weewx/roof_yearly_rain</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="V66" s="1">
         <v>1</v>
@@ -6384,7 +6461,7 @@
         <v>43</v>
       </c>
       <c r="AC66" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
@@ -6401,29 +6478,29 @@
         <v>29</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="1" t="str">
         <f>IF(ISBLANK(E67), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_storm_rain</v>
+        <v>roof_rain</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P67" s="1">
         <v>300</v>
@@ -6432,18 +6509,18 @@
         <v>37</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S67" s="1" t="str">
         <f>IF(ISBLANK(R67),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C67), "/", E67, "/config"))</f>
-        <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
+        <v>haas/entity/sensor/weewx/roof_rain/config</v>
       </c>
       <c r="T67" s="1" t="str">
         <f>IF(ISBLANK(R67),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C67), "/", E67))</f>
-        <v>haas/entity/sensor/weewx/roof_storm_rain</v>
+        <v>haas/entity/sensor/weewx/roof_rain</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="V67" s="1">
         <v>1</v>
@@ -6467,51 +6544,95 @@
         <v>43</v>
       </c>
       <c r="AC67" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>1400</v>
+        <v>1358</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="F68" s="1" t="str">
         <f>IF(ISBLANK(E68), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada</v>
+        <v>roof_storm_rain</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q68" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P68" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="S68" s="1" t="str">
         <f>IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
       </c>
       <c r="T68" s="1" t="str">
         <f>IF(ISBLANK(R68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/roof_storm_rain</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V68" s="1">
+        <v>1</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X68" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC68" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>152</v>
@@ -6520,14 +6641,14 @@
         <v>147</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F69" s="11" t="str">
+        <v>148</v>
+      </c>
+      <c r="F69" s="1" t="str">
         <f>IF(ISBLANK(E69), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin</v>
+        <v>ada</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>150</v>
@@ -6550,7 +6671,7 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>152</v>
@@ -6559,14 +6680,14 @@
         <v>147</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F70" s="11" t="str">
         <f>IF(ISBLANK(E70), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents</v>
+        <v>edwin</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>150</v>
@@ -6589,7 +6710,7 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>152</v>
@@ -6598,14 +6719,14 @@
         <v>147</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F71" s="11" t="str">
         <f>IF(ISBLANK(E71), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge</v>
+        <v>parents</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>150</v>
@@ -6628,7 +6749,7 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>152</v>
@@ -6637,14 +6758,14 @@
         <v>147</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="F72" s="11" t="str">
         <f>IF(ISBLANK(E72), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck1</v>
+        <v>lounge</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>380</v>
+        <v>289</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>150</v>
@@ -6667,7 +6788,7 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>152</v>
@@ -6676,14 +6797,14 @@
         <v>147</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F73" s="11" t="str">
         <f>IF(ISBLANK(E73), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck2</v>
+        <v>deck1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>150</v>
@@ -6706,26 +6827,26 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>1900</v>
+        <v>1405</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="1" t="str">
+        <v>367</v>
+      </c>
+      <c r="F74" s="11" t="str">
         <f>IF(ISBLANK(E74), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee</v>
+        <v>deck2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>155</v>
+        <v>368</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>151</v>
@@ -6745,26 +6866,26 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F75" s="1" t="str">
         <f>IF(ISBLANK(E75), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
+        <v>kitchen_coffee</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>151</v>
@@ -6784,23 +6905,23 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F76" s="1" t="str">
         <f>IF(ISBLANK(E76), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_light</v>
+        <v>dining</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>161</v>
@@ -6823,7 +6944,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>152</v>
@@ -6832,14 +6953,14 @@
         <v>158</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F77" s="11" t="str">
+        <v>162</v>
+      </c>
+      <c r="F77" s="1" t="str">
         <f>IF(ISBLANK(E77), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_light</v>
+        <v>ada_light</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>161</v>
@@ -6862,7 +6983,7 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>152</v>
@@ -6871,14 +6992,14 @@
         <v>158</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F78" s="11" t="str">
         <f>IF(ISBLANK(E78), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_light</v>
+        <v>edwin_light</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>161</v>
@@ -6889,7 +7010,6 @@
       <c r="J78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M78" s="6"/>
       <c r="Q78" s="2"/>
       <c r="S78" s="1" t="str">
         <f>IF(ISBLANK(R78),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C78), "/", E78, "/config"))</f>
@@ -6902,23 +7022,23 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F79" s="11" t="str">
         <f>IF(ISBLANK(E79), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hallway</v>
+        <v>lounge_light</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>161</v>
@@ -6929,6 +7049,7 @@
       <c r="J79" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M79" s="6"/>
       <c r="Q79" s="2"/>
       <c r="S79" s="1" t="str">
         <f>IF(ISBLANK(R79),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C79), "/", E79, "/config"))</f>
@@ -6941,29 +7062,32 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="F80" s="11" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_2</v>
+        <v>hallway</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="S80" s="1" t="str">
@@ -6977,23 +7101,23 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="F81" s="11" t="str">
         <f>IF(ISBLANK(E81), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_3</v>
+        <v>hue_color_candle_2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>161</v>
@@ -7013,23 +7137,23 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F82" s="11" t="str">
         <f>IF(ISBLANK(E82), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_4</v>
+        <v>hue_color_candle_3</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>161</v>
@@ -7049,23 +7173,23 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F83" s="11" t="str">
         <f>IF(ISBLANK(E83), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_5</v>
+        <v>hue_color_candle_4</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>161</v>
@@ -7085,32 +7209,29 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="F84" s="11" t="str">
         <f>IF(ISBLANK(E84), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
+        <v>hue_color_candle_5</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="S84" s="1" t="str">
@@ -7124,20 +7245,20 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="F85" s="11" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_6</v>
+        <v>dining</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>160</v>
@@ -7147,6 +7268,9 @@
       </c>
       <c r="I85" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="S85" s="1" t="str">
@@ -7160,20 +7284,20 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F86" s="11" t="str">
         <f>IF(ISBLANK(E86), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_7</v>
+        <v>hue_color_candle_6</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>160</v>
@@ -7196,20 +7320,20 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F87" s="11" t="str">
         <f>IF(ISBLANK(E87), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_8</v>
+        <v>hue_color_candle_7</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>160</v>
@@ -7232,20 +7356,20 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F88" s="11" t="str">
         <f>IF(ISBLANK(E88), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_9</v>
+        <v>hue_color_candle_8</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>160</v>
@@ -7268,20 +7392,20 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F89" s="11" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_10</v>
+        <v>hue_color_candle_9</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>160</v>
@@ -7304,20 +7428,20 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F90" s="11" t="str">
         <f>IF(ISBLANK(E90), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_11</v>
+        <v>hue_color_candle_10</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>160</v>
@@ -7340,32 +7464,29 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="F91" s="11" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge</v>
+        <v>hue_color_candle_11</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="S91" s="1" t="str">
@@ -7379,29 +7500,32 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="F92" s="11" t="str">
         <f>IF(ISBLANK(E92), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_12</v>
+        <v>lounge</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="S92" s="1" t="str">
@@ -7415,23 +7539,23 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F93" s="11" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_13</v>
+        <v>hue_color_candle_12</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>161</v>
@@ -7451,23 +7575,23 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F94" s="11" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_14</v>
+        <v>hue_color_candle_13</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>161</v>
@@ -7487,32 +7611,29 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="F95" s="11" t="str">
         <f>IF(ISBLANK(E95), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents</v>
+        <v>hue_color_candle_14</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="S95" s="1" t="str">
@@ -7526,29 +7647,32 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="F96" s="11" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_15</v>
+        <v>parents</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="S96" s="1" t="str">
@@ -7562,23 +7686,23 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F97" s="11" t="str">
         <f>IF(ISBLANK(E97), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16</v>
+        <v>hue_color_candle_15</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>161</v>
@@ -7598,23 +7722,23 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F98" s="11" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_17</v>
+        <v>hue_color_candle_16</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>161</v>
@@ -7634,32 +7758,29 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="F99" s="11" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen</v>
+        <v>hue_color_candle_17</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="S99" s="1" t="str">
@@ -7673,29 +7794,32 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="F100" s="11" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_1</v>
+        <v>kitchen</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="S100" s="1" t="str">
@@ -7709,23 +7833,23 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F101" s="11" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_2</v>
+        <v>hue_ambiance_lamp_1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>161</v>
@@ -7745,23 +7869,23 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F102" s="11" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_3</v>
+        <v>hue_ambiance_lamp_2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>161</v>
@@ -7781,23 +7905,23 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F103" s="11" t="str">
         <f>IF(ISBLANK(E103), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_12</v>
+        <v>hue_ambiance_lamp_3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>161</v>
@@ -7817,32 +7941,29 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="F104" s="11" t="str">
         <f>IF(ISBLANK(E104), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry</v>
+        <v>hue_ambiance_lamp_12</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="S104" s="1" t="str">
@@ -7856,29 +7977,32 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="F105" s="11" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_4</v>
+        <v>laundry</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="S105" s="1" t="str">
@@ -7892,32 +8016,29 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="F106" s="11" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
-        <v>pantry</v>
+        <v>hue_ambiance_lamp_4</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="S106" s="1" t="str">
@@ -7931,29 +8052,32 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="F107" s="11" t="str">
         <f>IF(ISBLANK(E107), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_5</v>
+        <v>pantry</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="S107" s="1" t="str">
@@ -7967,32 +8091,29 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="F108" s="11" t="str">
         <f>IF(ISBLANK(E108), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office</v>
+        <v>hue_ambiance_lamp_5</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="S108" s="1" t="str">
@@ -8006,29 +8127,32 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="F109" s="11" t="str">
         <f>IF(ISBLANK(E109), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_6</v>
+        <v>office</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="S109" s="1" t="str">
@@ -8042,32 +8166,29 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="F110" s="11" t="str">
         <f>IF(ISBLANK(E110), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom</v>
+        <v>hue_ambiance_lamp_6</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="S110" s="1" t="str">
@@ -8081,29 +8202,32 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="F111" s="11" t="str">
         <f>IF(ISBLANK(E111), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_7</v>
+        <v>bathroom</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="S111" s="1" t="str">
@@ -8117,32 +8241,29 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="F112" s="11" t="str">
         <f>IF(ISBLANK(E112), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ensuite</v>
+        <v>hue_ambiance_lamp_7</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="S112" s="1" t="str">
@@ -8156,29 +8277,32 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="F113" s="11" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_8</v>
+        <v>ensuite</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="S113" s="1" t="str">
@@ -8192,32 +8316,29 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="F114" s="11" t="str">
         <f>IF(ISBLANK(E114), "", Table2[[#This Row],[unique_id]])</f>
-        <v>wardrobe</v>
+        <v>hue_ambiance_lamp_8</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="S114" s="1" t="str">
@@ -8231,29 +8352,32 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="F115" s="11" t="str">
         <f>IF(ISBLANK(E115), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_9</v>
+        <v>wardrobe</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q115" s="2"/>
       <c r="S115" s="1" t="str">
@@ -8267,32 +8391,29 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="F116" s="11" t="str">
         <f>IF(ISBLANK(E116), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin</v>
+        <v>hue_ambiance_lamp_9</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="S116" s="1" t="str">
@@ -8306,29 +8427,32 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F117" s="11" t="str">
         <f>IF(ISBLANK(E117), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_10</v>
+        <v>edwin</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="S117" s="1" t="str">
@@ -8342,32 +8466,29 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="F118" s="11" t="str">
         <f>IF(ISBLANK(E118), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada</v>
+        <v>hue_ambiance_lamp_10</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="S118" s="1" t="str">
@@ -8381,29 +8502,32 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="F119" s="11" t="str">
         <f>IF(ISBLANK(E119), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_11</v>
+        <v>ada</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="S119" s="1" t="str">
@@ -8420,29 +8544,26 @@
         <v>2044</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="F120" s="11" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lamp</v>
+        <v>hue_ambiance_lamp_11</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="S120" s="1" t="str">
@@ -8459,26 +8580,29 @@
         <v>2044</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="F121" s="11" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_13</v>
+        <v>lamp</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="S121" s="1" t="str">
@@ -8492,32 +8616,29 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>2080</v>
+        <v>2044</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F122" s="1" t="str">
+        <v>270</v>
+      </c>
+      <c r="F122" s="11" t="str">
         <f>IF(ISBLANK(E122), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>hue_ambiance_lamp_13</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="S122" s="1" t="str">
@@ -8531,35 +8652,32 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>2100</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>384</v>
+        <v>2080</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F123" s="11" t="str">
+        <v>228</v>
+      </c>
+      <c r="F123" s="1" t="str">
         <f>IF(ISBLANK(E123), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_power</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="S123" s="1" t="str">
@@ -8572,36 +8690,9 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>2101</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="F124" s="11" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_power</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>101</v>
+        <v/>
       </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="1" t="str">
@@ -8615,29 +8706,29 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="F125" s="11" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dishwasher_current_consumption</v>
+        <v>home_power</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>403</v>
+        <v>208</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>165</v>
@@ -8657,29 +8748,29 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="F126" s="11" t="str">
         <f>IF(ISBLANK(E126), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer_current_consumption</v>
+        <v>lights_power</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>165</v>
@@ -8699,29 +8790,29 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F127" s="11" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine_current_consumption</v>
+        <v>kitchen_dish_washer_current_consumption</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>165</v>
@@ -8741,35 +8832,35 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F128" s="11" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine_current_consumption</v>
+        <v>laundry_clothes_dryer_current_consumption</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>155</v>
+        <v>391</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="S128" s="1" t="str">
@@ -8783,35 +8874,35 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="F129" s="11" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan_current_consumption</v>
+        <v>laundry_washing_machine_current_consumption</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="S129" s="1" t="str">
@@ -8825,29 +8916,29 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F130" s="11" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge_current_consumption</v>
+        <v>kitchen_coffee_machine_current_consumption</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>397</v>
+        <v>155</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>165</v>
@@ -8867,29 +8958,29 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F131" s="11" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer_current_consumption</v>
+        <v>kitchen_fan_current_consumption</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>165</v>
@@ -8909,29 +9000,29 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="F132" s="11" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_lights_current_consumption</v>
+        <v>kitchen_fridge_current_consumption</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>165</v>
@@ -8951,29 +9042,29 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F133" s="11" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv_current_consumption</v>
+        <v>deck_freezer_current_consumption</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>239</v>
+        <v>385</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>165</v>
@@ -8993,29 +9084,29 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="F134" s="11" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_water_heater_booster_power</v>
+        <v>deck_lights_current_consumption</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>165</v>
@@ -9035,29 +9126,29 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="F135" s="11" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_rails_current_consumption</v>
+        <v>lounge_tv_current_consumption</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>429</v>
+        <v>229</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>165</v>
@@ -9077,29 +9168,29 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F136" s="11" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet_current_consumption</v>
+        <v>roof_water_heater_booster_power</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>165</v>
@@ -9119,29 +9210,29 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F137" s="11" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet_current_consumption</v>
+        <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>165</v>
@@ -9161,29 +9252,29 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="F138" s="11" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet_current_consumption</v>
+        <v>study_outlet_current_consumption</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>165</v>
@@ -9203,29 +9294,29 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="F139" s="11" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch_current_consumption</v>
+        <v>office_outlet_current_consumption</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>165</v>
@@ -9245,29 +9336,29 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="F140" s="11" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_internet_modem_current_consumption</v>
+        <v>rack_outlet_current_consumption</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>165</v>
@@ -9287,29 +9378,29 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="F141" s="11" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger_current_consumption</v>
+        <v>roof_network_switch_current_consumption</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>165</v>
@@ -9329,29 +9420,29 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F142" s="11" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger_current_consumption</v>
+        <v>rack_internet_modem_current_consumption</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>165</v>
@@ -9371,29 +9462,29 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F143" s="1" t="str">
+        <v>409</v>
+      </c>
+      <c r="F143" s="11" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet_current_consumption</v>
+        <v>study_battery_charger_current_consumption</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>165</v>
@@ -9413,26 +9504,29 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>2201</v>
+        <v>2119</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F144" s="1" t="str">
+        <v>408</v>
+      </c>
+      <c r="F144" s="11" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_today_s_consumption</v>
+        <v>laundry_vacuum_charger_current_consumption</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>155</v>
+        <v>392</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>165</v>
@@ -9450,34 +9544,37 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>2201</v>
+        <v>2120</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F145" s="11" t="str">
+        <v>407</v>
+      </c>
+      <c r="F145" s="1" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy</v>
+        <v>various_adhoc_outlet_current_consumption</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>161</v>
+        <v>394</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="S145" s="1" t="str">
@@ -9489,34 +9586,10 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>2202</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>386</v>
-      </c>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F146" s="11" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_today</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>165</v>
+        <v/>
       </c>
       <c r="Q146" s="2"/>
       <c r="S146" s="1" t="str">
@@ -9528,34 +9601,10 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>2203</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F147" s="1" t="str">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F147" s="11" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_power</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>165</v>
+        <v/>
       </c>
       <c r="Q147" s="2"/>
       <c r="S147" s="1" t="str">
@@ -9567,34 +9616,37 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>2204</v>
+        <v>2150</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F148" s="1" t="str">
+        <v>438</v>
+      </c>
+      <c r="F148" s="11" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy</v>
+        <v>home_energy_daily</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="S148" s="1" t="str">
@@ -9606,34 +9658,37 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>2205</v>
+        <v>2151</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F149" s="1" t="str">
+        <v>439</v>
+      </c>
+      <c r="F149" s="11" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining_lights_energy_today</v>
+        <v>lights_energy_daily</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="S149" s="1" t="str">
@@ -9645,31 +9700,37 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>2206</v>
+        <v>2152</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F150" s="1" t="str">
+        <v>418</v>
+      </c>
+      <c r="F150" s="11" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_power</v>
+        <v>kitchen_dish_washer_today_s_consumption</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="S150" s="1" t="str">
@@ -9681,31 +9742,37 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>2207</v>
+        <v>2153</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F151" s="1" t="str">
+        <v>419</v>
+      </c>
+      <c r="F151" s="11" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy</v>
+        <v>laundry_clothes_dryer_today_s_consumption</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="S151" s="1" t="str">
@@ -9717,31 +9784,37 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>2208</v>
+        <v>2154</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F152" s="1" t="str">
+        <v>420</v>
+      </c>
+      <c r="F152" s="11" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_daily</v>
+        <v>laundry_washing_machine_today_s_consumption</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q152" s="2"/>
       <c r="S152" s="1" t="str">
@@ -9753,31 +9826,37 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>2209</v>
+        <v>2155</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F153" s="1" t="str">
+        <v>421</v>
+      </c>
+      <c r="F153" s="11" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_weekly</v>
+        <v>kitchen_coffee_machine_today_s_consumption</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="S153" s="1" t="str">
@@ -9789,31 +9868,37 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>2210</v>
+        <v>2156</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F154" s="1" t="str">
+        <v>422</v>
+      </c>
+      <c r="F154" s="11" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16_energy_monthly</v>
+        <v>kitchen_fan_today_s_consumption</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q154" s="2"/>
       <c r="S154" s="1" t="str">
@@ -9825,28 +9910,37 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>2400</v>
+        <v>2157</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F155" s="1" t="str">
+        <v>423</v>
+      </c>
+      <c r="F155" s="11" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
-        <v>withings_weight_kg_graham</v>
+        <v>kitchen_fridge_today_s_consumption</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>216</v>
+        <v>375</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="S155" s="1" t="str">
@@ -9858,191 +9952,118 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>2500</v>
+        <v>2158</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F156" s="1" t="str">
+        <v>424</v>
+      </c>
+      <c r="F156" s="11" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
+        <v>deck_freezer_today_s_consumption</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N156" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P156" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q156" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R156" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q156" s="2"/>
       <c r="S156" s="1" t="str">
         <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="T156" s="1" t="str">
         <f>IF(ISBLANK(R156),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C156), "/", E156))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="U156" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="V156" s="1">
-        <v>1</v>
-      </c>
-      <c r="W156" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X156" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y156" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z156" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA156" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC156" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>2501</v>
+        <v>2159</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F157" s="1" t="str">
+        <v>425</v>
+      </c>
+      <c r="F157" s="11" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
+        <v>deck_lights_today_s_consumption</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>95</v>
+        <v>386</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M157" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P157" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q157" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R157" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q157" s="2"/>
       <c r="S157" s="1" t="str">
         <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
+        <v/>
       </c>
       <c r="T157" s="1" t="str">
         <f>IF(ISBLANK(R157),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C157), "/", E157))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="U157" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="V157" s="1">
-        <v>1</v>
-      </c>
-      <c r="W157" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X157" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y157" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z157" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA157" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB157" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC157" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>2600</v>
+        <v>2160</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F158" s="1" t="str">
+        <v>426</v>
+      </c>
+      <c r="F158" s="11" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
+        <v>lounge_tv_today_s_consumption</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>218</v>
+        <v>375</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>157</v>
@@ -10057,31 +10078,34 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>2700</v>
+        <v>2161</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F159" s="1" t="str">
+        <v>469</v>
+      </c>
+      <c r="F159" s="11" t="str">
         <f>IF(ISBLANK(E159), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
+        <v>roof_water_heater_booster_energy_daily</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>157</v>
@@ -10096,31 +10120,37 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>2800</v>
+        <v>2162</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F160" s="1" t="str">
+        <v>427</v>
+      </c>
+      <c r="F160" s="11" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
+        <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>256</v>
+        <v>415</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="S160" s="1" t="str">
@@ -10134,29 +10164,32 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>3000</v>
+        <v>2163</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F161" s="1" t="str">
+        <v>428</v>
+      </c>
+      <c r="F161" s="11" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>study_outlet_today_s_consumption</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>157</v>
@@ -10173,29 +10206,32 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>3001</v>
+        <v>2164</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F162" s="1" t="str">
+        <v>429</v>
+      </c>
+      <c r="F162" s="11" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>office_outlet_today_s_consumption</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>145</v>
+        <v>387</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>157</v>
@@ -10212,29 +10248,32 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>3050</v>
+        <v>2165</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F163" s="1" t="str">
+        <v>430</v>
+      </c>
+      <c r="F163" s="11" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_occupancy</v>
+        <v>rack_outlet_today_s_consumption</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>157</v>
@@ -10251,29 +10290,32 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>3051</v>
+        <v>2166</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F164" s="1" t="str">
+        <v>431</v>
+      </c>
+      <c r="F164" s="11" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
+        <v>roof_network_switch_today_s_consumption</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>220</v>
+        <v>380</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>157</v>
@@ -10290,29 +10332,32 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>3052</v>
+        <v>2167</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F165" s="1" t="str">
+        <v>432</v>
+      </c>
+      <c r="F165" s="11" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_occupancy</v>
+        <v>rack_internet_modem_today_s_consumption</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>157</v>
@@ -10329,29 +10374,32 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>3053</v>
+        <v>2168</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F166" s="1" t="str">
+        <v>433</v>
+      </c>
+      <c r="F166" s="11" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
+        <v>study_battery_charger_today_s_consumption</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>220</v>
+        <v>393</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>157</v>
@@ -10368,29 +10416,32 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>3054</v>
+        <v>2169</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F167" s="1" t="str">
+        <v>434</v>
+      </c>
+      <c r="F167" s="11" t="str">
         <f>IF(ISBLANK(E167), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_occupancy</v>
+        <v>laundry_vacuum_charger_today_s_consumption</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>157</v>
@@ -10407,29 +10458,32 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>3055</v>
+        <v>2170</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F168" s="1" t="str">
+        <v>435</v>
+      </c>
+      <c r="F168" s="11" t="str">
         <f>IF(ISBLANK(E168), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_occupancy</v>
+        <v>various_adhoc_outlet_today_s_consumption</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>157</v>
@@ -10445,144 +10499,135 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>3056</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F169" s="1" t="str">
+      <c r="F169" s="11" t="str">
         <f>IF(ISBLANK(E169), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck2_occupancy</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q169" s="2"/>
       <c r="S169" s="1" t="str">
-        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169, "/config"))</f>
+        <f t="shared" ref="S169:S193" si="0">IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169, "/config"))</f>
         <v/>
       </c>
       <c r="T169" s="1" t="str">
-        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169))</f>
+        <f t="shared" ref="T169:T193" si="1">IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>3057</v>
+        <v>2200</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F170" s="1" t="str">
+        <v>445</v>
+      </c>
+      <c r="F170" s="11" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck1_occupancy</v>
+        <v>home_energy_weekly</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="S170" s="1" t="str">
-        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T170" s="1" t="str">
-        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>8000</v>
+        <v>2201</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>416</v>
+        <v>180</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F171" s="1" t="str">
+        <v>446</v>
+      </c>
+      <c r="F171" s="11" t="str">
         <f>IF(ISBLANK(E171), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_energize</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>258</v>
+        <v>lights_energy_weekly</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>161</v>
+        <v>440</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q171" s="2"/>
       <c r="S171" s="1" t="str">
-        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T171" s="1" t="str">
-        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>9000</v>
+        <v>2202</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F172" s="1" t="str">
+        <v>447</v>
+      </c>
+      <c r="F172" s="11" t="str">
         <f>IF(ISBLANK(E172), "", Table2[[#This Row],[unique_id]])</f>
-        <v>update_bom_icons</v>
+        <v>small_devices_energy_weekly</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>259</v>
+        <v>443</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>90</v>
+        <v>440</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="S172" s="1" t="str">
@@ -10595,9 +10640,36 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>2203</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="F173" s="11" t="str">
         <f>IF(ISBLANK(E173), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>large_appliances_energy_weekly</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q173" s="2"/>
       <c r="S173" s="1" t="str">
@@ -10610,9 +10682,36 @@
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>2204</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="F174" s="11" t="str">
         <f>IF(ISBLANK(E174), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>servers_network_energy_weekly</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="S174" s="1" t="str">
@@ -10625,9 +10724,36 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>2205</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="F175" s="11" t="str">
         <f>IF(ISBLANK(E175), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>water_heater_booster_energy_weekly</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="S175" s="1" t="str">
@@ -10640,9 +10766,36 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>2206</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="F176" s="11" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>study_office_outlets_energy_weekly</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q176" s="2"/>
       <c r="S176" s="1" t="str">
@@ -10654,7 +10807,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F177" s="11" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10669,10 +10822,37 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="F178" s="11" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>home_energy_monthly</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q178" s="2"/>
       <c r="S178" s="1" t="str">
@@ -10684,232 +10864,580 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>2251</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="F179" s="11" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lights_energy_monthly</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q179" s="2"/>
       <c r="S179" s="1" t="str">
-        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T179" s="1" t="str">
-        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>2252</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="F180" s="11" t="str">
         <f>IF(ISBLANK(E180), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>small_devices_energy_monthly</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q180" s="2"/>
       <c r="S180" s="1" t="str">
-        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T180" s="1" t="str">
-        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>2253</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="F181" s="11" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>large_appliances_energy_monthly</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q181" s="2"/>
       <c r="S181" s="1" t="str">
-        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T181" s="1" t="str">
-        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>2254</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="F182" s="11" t="str">
         <f>IF(ISBLANK(E182), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>servers_network_energy_monthly</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q182" s="2"/>
       <c r="S182" s="1" t="str">
-        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T182" s="1" t="str">
-        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>2255</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="F183" s="11" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>water_heater_booster_energy_monthly</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q183" s="2"/>
       <c r="S183" s="1" t="str">
-        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T183" s="1" t="str">
-        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>2256</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="F184" s="11" t="str">
         <f>IF(ISBLANK(E184), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>study_office_outlets_energy_monthly</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q184" s="2"/>
       <c r="S184" s="1" t="str">
-        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T184" s="1" t="str">
-        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F185" s="11" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
       <c r="Q185" s="2"/>
       <c r="S185" s="1" t="str">
-        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T185" s="1" t="str">
-        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F186" s="11" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>home_energy_yearly</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q186" s="2"/>
       <c r="S186" s="1" t="str">
-        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T186" s="1" t="str">
-        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>2301</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="F187" s="11" t="str">
         <f>IF(ISBLANK(E187), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lights_energy_yearly</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q187" s="2"/>
       <c r="S187" s="1" t="str">
-        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T187" s="1" t="str">
-        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>2302</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="F188" s="11" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>small_devices_energy_yearly</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q188" s="2"/>
       <c r="S188" s="1" t="str">
-        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T188" s="1" t="str">
-        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>2303</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="F189" s="11" t="str">
         <f>IF(ISBLANK(E189), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>large_appliances_energy_yearly</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q189" s="2"/>
       <c r="S189" s="1" t="str">
-        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T189" s="1" t="str">
-        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>2304</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="F190" s="11" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>servers_network_energy_yearly</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q190" s="2"/>
       <c r="S190" s="1" t="str">
-        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T190" s="1" t="str">
-        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>2305</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="F191" s="11" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>water_heater_booster_energy_yearly</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q191" s="2"/>
       <c r="S191" s="1" t="str">
-        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T191" s="1" t="str">
-        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>2306</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="F192" s="11" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>study_office_outlets_energy_yearly</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q192" s="2"/>
       <c r="S192" s="1" t="str">
-        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T192" s="1" t="str">
-        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F193" s="11" t="str">
-        <f>IF(ISBLANK(E193), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="F193" s="11"/>
       <c r="Q193" s="2"/>
       <c r="S193" s="1" t="str">
-        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193, "/config"))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T193" s="1" t="str">
-        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="6:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="F194" s="11" t="str">
         <f>IF(ISBLANK(E194), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -10924,10 +11452,28 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F195" s="11" t="str">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F195" s="1" t="str">
         <f>IF(ISBLANK(E195), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>withings_weight_kg_graham</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="Q195" s="2"/>
       <c r="S195" s="1" t="str">
@@ -10939,40 +11485,194 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F196" s="11" t="str">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F196" s="1" t="str">
         <f>IF(ISBLANK(E196), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="Q196" s="2"/>
+        <v>weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P196" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="S196" s="1" t="str">
         <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T196" s="1" t="str">
         <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F197" s="11" t="str">
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="U196" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V196" s="1">
+        <v>1</v>
+      </c>
+      <c r="W196" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X196" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z196" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA196" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB196" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC196" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>2501</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F197" s="1" t="str">
         <f>IF(ISBLANK(E197), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="Q197" s="2"/>
+        <v>weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P197" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q197" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="S197" s="1" t="str">
         <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T197" s="1" t="str">
         <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F198" s="11" t="str">
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="U197" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V197" s="1">
+        <v>1</v>
+      </c>
+      <c r="W197" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X197" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z197" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA197" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC197" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F198" s="1" t="str">
         <f>IF(ISBLANK(E198), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>ada_home</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q198" s="2"/>
       <c r="S198" s="1" t="str">
@@ -10984,10 +11684,34 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F199" s="11" t="str">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F199" s="1" t="str">
         <f>IF(ISBLANK(E199), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>kitchen_speaker</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q199" s="2"/>
       <c r="S199" s="1" t="str">
@@ -10999,10 +11723,31 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F200" s="11" t="str">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F200" s="1" t="str">
         <f>IF(ISBLANK(E200), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>parents_speaker_battery</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="Q200" s="2"/>
       <c r="S200" s="1" t="str">
@@ -11014,10 +11759,34 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F201" s="11" t="str">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F201" s="1" t="str">
         <f>IF(ISBLANK(E201), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_ada_medium</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q201" s="2"/>
       <c r="S201" s="1" t="str">
@@ -11029,10 +11798,34 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F202" s="11" t="str">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>3001</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F202" s="1" t="str">
         <f>IF(ISBLANK(E202), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_edwin_medium</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q202" s="2"/>
       <c r="S202" s="1" t="str">
@@ -11044,10 +11837,34 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F203" s="11" t="str">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>3050</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F203" s="1" t="str">
         <f>IF(ISBLANK(E203), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>ada_occupancy</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q203" s="2"/>
       <c r="S203" s="1" t="str">
@@ -11059,10 +11876,34 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F204" s="11" t="str">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>3051</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F204" s="1" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_ada_motion</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q204" s="2"/>
       <c r="S204" s="1" t="str">
@@ -11074,10 +11915,34 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F205" s="11" t="str">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>3052</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F205" s="1" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>edwin_occupancy</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q205" s="2"/>
       <c r="S205" s="1" t="str">
@@ -11089,10 +11954,34 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F206" s="11" t="str">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>3053</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F206" s="1" t="str">
         <f>IF(ISBLANK(E206), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_edwin_motion</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q206" s="2"/>
       <c r="S206" s="1" t="str">
@@ -11104,10 +11993,34 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F207" s="11" t="str">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>3054</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F207" s="1" t="str">
         <f>IF(ISBLANK(E207), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>parents_occupancy</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q207" s="2"/>
       <c r="S207" s="1" t="str">
@@ -11119,10 +12032,34 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F208" s="11" t="str">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>3055</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F208" s="1" t="str">
         <f>IF(ISBLANK(E208), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lounge_occupancy</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q208" s="2"/>
       <c r="S208" s="1" t="str">
@@ -11134,10 +12071,34 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F209" s="11" t="str">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>3056</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F209" s="1" t="str">
         <f>IF(ISBLANK(E209), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck2_occupancy</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q209" s="2"/>
       <c r="S209" s="1" t="str">
@@ -11149,10 +12110,34 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F210" s="11" t="str">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>3057</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F210" s="1" t="str">
         <f>IF(ISBLANK(E210), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck1_occupancy</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q210" s="2"/>
       <c r="S210" s="1" t="str">
@@ -11164,10 +12149,31 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F211" s="11" t="str">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F211" s="1" t="str">
         <f>IF(ISBLANK(E211), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>ada_energize</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="Q211" s="2"/>
       <c r="S211" s="1" t="str">
@@ -11179,10 +12185,31 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F212" s="11" t="str">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F212" s="1" t="str">
         <f>IF(ISBLANK(E212), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>update_bom_icons</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="Q212" s="2"/>
       <c r="S212" s="1" t="str">
@@ -11194,7 +12221,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F213" s="11" t="str">
         <f>IF(ISBLANK(E213), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11209,7 +12236,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F214" s="11" t="str">
         <f>IF(ISBLANK(E214), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11224,7 +12251,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F215" s="11" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11239,7 +12266,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F216" s="11" t="str">
         <f>IF(ISBLANK(E216), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11254,7 +12281,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F217" s="11" t="str">
         <f>IF(ISBLANK(E217), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11269,7 +12296,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F218" s="11" t="str">
         <f>IF(ISBLANK(E218), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11284,7 +12311,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F219" s="11" t="str">
         <f>IF(ISBLANK(E219), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11299,7 +12326,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F220" s="11" t="str">
         <f>IF(ISBLANK(E220), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11314,7 +12341,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F221" s="11" t="str">
         <f>IF(ISBLANK(E221), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11329,7 +12356,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F222" s="11" t="str">
         <f>IF(ISBLANK(E222), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11344,7 +12371,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F223" s="11" t="str">
         <f>IF(ISBLANK(E223), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11359,7 +12386,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F224" s="11" t="str">
         <f>IF(ISBLANK(E224), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -11544,7 +12571,6 @@
         <f>IF(ISBLANK(E236), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H236" s="6"/>
       <c r="Q236" s="2"/>
       <c r="S236" s="1" t="str">
         <f>IF(ISBLANK(R236),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C236), "/", E236, "/config"))</f>
@@ -11560,7 +12586,6 @@
         <f>IF(ISBLANK(E237), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H237" s="6"/>
       <c r="Q237" s="2"/>
       <c r="S237" s="1" t="str">
         <f>IF(ISBLANK(R237),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C237), "/", E237, "/config"))</f>
@@ -11621,6 +12646,7 @@
         <f>IF(ISBLANK(E241), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q241" s="2"/>
       <c r="S241" s="1" t="str">
         <f>IF(ISBLANK(R241),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C241), "/", E241, "/config"))</f>
         <v/>
@@ -11635,6 +12661,7 @@
         <f>IF(ISBLANK(E242), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q242" s="2"/>
       <c r="S242" s="1" t="str">
         <f>IF(ISBLANK(R242),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C242), "/", E242, "/config"))</f>
         <v/>
@@ -11649,6 +12676,7 @@
         <f>IF(ISBLANK(E243), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q243" s="2"/>
       <c r="S243" s="1" t="str">
         <f>IF(ISBLANK(R243),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C243), "/", E243, "/config"))</f>
         <v/>
@@ -11663,6 +12691,7 @@
         <f>IF(ISBLANK(E244), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q244" s="2"/>
       <c r="S244" s="1" t="str">
         <f>IF(ISBLANK(R244),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C244), "/", E244, "/config"))</f>
         <v/>
@@ -11677,6 +12706,7 @@
         <f>IF(ISBLANK(E245), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q245" s="2"/>
       <c r="S245" s="1" t="str">
         <f>IF(ISBLANK(R245),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C245), "/", E245, "/config"))</f>
         <v/>
@@ -11691,7 +12721,7 @@
         <f>IF(ISBLANK(E246), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G246" s="6"/>
+      <c r="Q246" s="2"/>
       <c r="S246" s="1" t="str">
         <f>IF(ISBLANK(R246),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C246), "/", E246, "/config"))</f>
         <v/>
@@ -11706,6 +12736,7 @@
         <f>IF(ISBLANK(E247), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q247" s="2"/>
       <c r="S247" s="1" t="str">
         <f>IF(ISBLANK(R247),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C247), "/", E247, "/config"))</f>
         <v/>
@@ -11716,10 +12747,11 @@
       </c>
     </row>
     <row r="248" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F248" s="1" t="str">
+      <c r="F248" s="11" t="str">
         <f>IF(ISBLANK(E248), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q248" s="2"/>
       <c r="S248" s="1" t="str">
         <f>IF(ISBLANK(R248),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C248), "/", E248, "/config"))</f>
         <v/>
@@ -11730,10 +12762,11 @@
       </c>
     </row>
     <row r="249" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F249" s="1" t="str">
+      <c r="F249" s="11" t="str">
         <f>IF(ISBLANK(E249), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q249" s="2"/>
       <c r="S249" s="1" t="str">
         <f>IF(ISBLANK(R249),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C249), "/", E249, "/config"))</f>
         <v/>
@@ -11744,10 +12777,11 @@
       </c>
     </row>
     <row r="250" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F250" s="1" t="str">
+      <c r="F250" s="11" t="str">
         <f>IF(ISBLANK(E250), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q250" s="2"/>
       <c r="S250" s="1" t="str">
         <f>IF(ISBLANK(R250),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C250), "/", E250, "/config"))</f>
         <v/>
@@ -11758,10 +12792,11 @@
       </c>
     </row>
     <row r="251" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F251" s="1" t="str">
+      <c r="F251" s="11" t="str">
         <f>IF(ISBLANK(E251), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q251" s="2"/>
       <c r="S251" s="1" t="str">
         <f>IF(ISBLANK(R251),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C251), "/", E251, "/config"))</f>
         <v/>
@@ -11772,10 +12807,11 @@
       </c>
     </row>
     <row r="252" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F252" s="1" t="str">
+      <c r="F252" s="11" t="str">
         <f>IF(ISBLANK(E252), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q252" s="2"/>
       <c r="S252" s="1" t="str">
         <f>IF(ISBLANK(R252),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C252), "/", E252, "/config"))</f>
         <v/>
@@ -11786,10 +12822,11 @@
       </c>
     </row>
     <row r="253" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F253" s="1" t="str">
+      <c r="F253" s="11" t="str">
         <f>IF(ISBLANK(E253), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q253" s="2"/>
       <c r="S253" s="1" t="str">
         <f>IF(ISBLANK(R253),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C253), "/", E253, "/config"))</f>
         <v/>
@@ -11800,10 +12837,11 @@
       </c>
     </row>
     <row r="254" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F254" s="1" t="str">
+      <c r="F254" s="11" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q254" s="2"/>
       <c r="S254" s="1" t="str">
         <f>IF(ISBLANK(R254),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C254), "/", E254, "/config"))</f>
         <v/>
@@ -11814,10 +12852,11 @@
       </c>
     </row>
     <row r="255" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F255" s="1" t="str">
+      <c r="F255" s="11" t="str">
         <f>IF(ISBLANK(E255), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q255" s="2"/>
       <c r="S255" s="1" t="str">
         <f>IF(ISBLANK(R255),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C255), "/", E255, "/config"))</f>
         <v/>
@@ -11828,10 +12867,11 @@
       </c>
     </row>
     <row r="256" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F256" s="1" t="str">
+      <c r="F256" s="11" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q256" s="2"/>
       <c r="S256" s="1" t="str">
         <f>IF(ISBLANK(R256),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C256), "/", E256, "/config"))</f>
         <v/>
@@ -11842,10 +12882,11 @@
       </c>
     </row>
     <row r="257" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F257" s="1" t="str">
+      <c r="F257" s="11" t="str">
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q257" s="2"/>
       <c r="S257" s="1" t="str">
         <f>IF(ISBLANK(R257),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C257), "/", E257, "/config"))</f>
         <v/>
@@ -11856,10 +12897,11 @@
       </c>
     </row>
     <row r="258" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F258" s="1" t="str">
+      <c r="F258" s="11" t="str">
         <f>IF(ISBLANK(E258), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q258" s="2"/>
       <c r="S258" s="1" t="str">
         <f>IF(ISBLANK(R258),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C258), "/", E258, "/config"))</f>
         <v/>
@@ -11870,10 +12912,11 @@
       </c>
     </row>
     <row r="259" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F259" s="1" t="str">
+      <c r="F259" s="11" t="str">
         <f>IF(ISBLANK(E259), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q259" s="2"/>
       <c r="S259" s="1" t="str">
         <f>IF(ISBLANK(R259),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C259), "/", E259, "/config"))</f>
         <v/>
@@ -11884,10 +12927,11 @@
       </c>
     </row>
     <row r="260" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F260" s="1" t="str">
+      <c r="F260" s="11" t="str">
         <f>IF(ISBLANK(E260), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q260" s="2"/>
       <c r="S260" s="1" t="str">
         <f>IF(ISBLANK(R260),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C260), "/", E260, "/config"))</f>
         <v/>
@@ -11898,10 +12942,11 @@
       </c>
     </row>
     <row r="261" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F261" s="1" t="str">
+      <c r="F261" s="11" t="str">
         <f>IF(ISBLANK(E261), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q261" s="2"/>
       <c r="S261" s="1" t="str">
         <f>IF(ISBLANK(R261),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C261), "/", E261, "/config"))</f>
         <v/>
@@ -11912,10 +12957,11 @@
       </c>
     </row>
     <row r="262" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F262" s="1" t="str">
+      <c r="F262" s="11" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q262" s="2"/>
       <c r="S262" s="1" t="str">
         <f>IF(ISBLANK(R262),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C262), "/", E262, "/config"))</f>
         <v/>
@@ -11926,10 +12972,11 @@
       </c>
     </row>
     <row r="263" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F263" s="1" t="str">
+      <c r="F263" s="11" t="str">
         <f>IF(ISBLANK(E263), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q263" s="2"/>
       <c r="S263" s="1" t="str">
         <f>IF(ISBLANK(R263),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C263), "/", E263, "/config"))</f>
         <v/>
@@ -11940,10 +12987,11 @@
       </c>
     </row>
     <row r="264" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F264" s="1" t="str">
+      <c r="F264" s="11" t="str">
         <f>IF(ISBLANK(E264), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q264" s="2"/>
       <c r="S264" s="1" t="str">
         <f>IF(ISBLANK(R264),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C264), "/", E264, "/config"))</f>
         <v/>
@@ -11954,10 +13002,11 @@
       </c>
     </row>
     <row r="265" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F265" s="1" t="str">
+      <c r="F265" s="11" t="str">
         <f>IF(ISBLANK(E265), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q265" s="2"/>
       <c r="S265" s="1" t="str">
         <f>IF(ISBLANK(R265),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C265), "/", E265, "/config"))</f>
         <v/>
@@ -11968,10 +13017,11 @@
       </c>
     </row>
     <row r="266" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F266" s="1" t="str">
+      <c r="F266" s="11" t="str">
         <f>IF(ISBLANK(E266), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q266" s="2"/>
       <c r="S266" s="1" t="str">
         <f>IF(ISBLANK(R266),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C266), "/", E266, "/config"))</f>
         <v/>
@@ -11982,10 +13032,11 @@
       </c>
     </row>
     <row r="267" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F267" s="1" t="str">
+      <c r="F267" s="11" t="str">
         <f>IF(ISBLANK(E267), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q267" s="2"/>
       <c r="S267" s="1" t="str">
         <f>IF(ISBLANK(R267),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C267), "/", E267, "/config"))</f>
         <v/>
@@ -11996,10 +13047,11 @@
       </c>
     </row>
     <row r="268" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F268" s="1" t="str">
+      <c r="F268" s="11" t="str">
         <f>IF(ISBLANK(E268), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q268" s="2"/>
       <c r="S268" s="1" t="str">
         <f>IF(ISBLANK(R268),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C268), "/", E268, "/config"))</f>
         <v/>
@@ -12010,10 +13062,11 @@
       </c>
     </row>
     <row r="269" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F269" s="1" t="str">
+      <c r="F269" s="11" t="str">
         <f>IF(ISBLANK(E269), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q269" s="2"/>
       <c r="S269" s="1" t="str">
         <f>IF(ISBLANK(R269),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C269), "/", E269, "/config"))</f>
         <v/>
@@ -12024,10 +13077,11 @@
       </c>
     </row>
     <row r="270" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F270" s="1" t="str">
+      <c r="F270" s="11" t="str">
         <f>IF(ISBLANK(E270), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q270" s="2"/>
       <c r="S270" s="1" t="str">
         <f>IF(ISBLANK(R270),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C270), "/", E270, "/config"))</f>
         <v/>
@@ -12038,10 +13092,11 @@
       </c>
     </row>
     <row r="271" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F271" s="1" t="str">
+      <c r="F271" s="11" t="str">
         <f>IF(ISBLANK(E271), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q271" s="2"/>
       <c r="S271" s="1" t="str">
         <f>IF(ISBLANK(R271),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C271), "/", E271, "/config"))</f>
         <v/>
@@ -12052,10 +13107,11 @@
       </c>
     </row>
     <row r="272" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F272" s="1" t="str">
+      <c r="F272" s="11" t="str">
         <f>IF(ISBLANK(E272), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q272" s="2"/>
       <c r="S272" s="1" t="str">
         <f>IF(ISBLANK(R272),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C272), "/", E272, "/config"))</f>
         <v/>
@@ -12066,10 +13122,11 @@
       </c>
     </row>
     <row r="273" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F273" s="1" t="str">
+      <c r="F273" s="11" t="str">
         <f>IF(ISBLANK(E273), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q273" s="2"/>
       <c r="S273" s="1" t="str">
         <f>IF(ISBLANK(R273),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C273), "/", E273, "/config"))</f>
         <v/>
@@ -12080,10 +13137,11 @@
       </c>
     </row>
     <row r="274" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F274" s="1" t="str">
+      <c r="F274" s="11" t="str">
         <f>IF(ISBLANK(E274), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q274" s="2"/>
       <c r="S274" s="1" t="str">
         <f>IF(ISBLANK(R274),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C274), "/", E274, "/config"))</f>
         <v/>
@@ -12094,10 +13152,11 @@
       </c>
     </row>
     <row r="275" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F275" s="1" t="str">
+      <c r="F275" s="11" t="str">
         <f>IF(ISBLANK(E275), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q275" s="2"/>
       <c r="S275" s="1" t="str">
         <f>IF(ISBLANK(R275),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C275), "/", E275, "/config"))</f>
         <v/>
@@ -12108,10 +13167,12 @@
       </c>
     </row>
     <row r="276" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F276" s="1" t="str">
+      <c r="F276" s="11" t="str">
         <f>IF(ISBLANK(E276), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H276" s="6"/>
+      <c r="Q276" s="2"/>
       <c r="S276" s="1" t="str">
         <f>IF(ISBLANK(R276),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C276), "/", E276, "/config"))</f>
         <v/>
@@ -12122,10 +13183,12 @@
       </c>
     </row>
     <row r="277" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F277" s="1" t="str">
+      <c r="F277" s="11" t="str">
         <f>IF(ISBLANK(E277), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H277" s="6"/>
+      <c r="Q277" s="2"/>
       <c r="S277" s="1" t="str">
         <f>IF(ISBLANK(R277),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C277), "/", E277, "/config"))</f>
         <v/>
@@ -12136,10 +13199,11 @@
       </c>
     </row>
     <row r="278" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F278" s="1" t="str">
+      <c r="F278" s="11" t="str">
         <f>IF(ISBLANK(E278), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q278" s="2"/>
       <c r="S278" s="1" t="str">
         <f>IF(ISBLANK(R278),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C278), "/", E278, "/config"))</f>
         <v/>
@@ -12150,10 +13214,11 @@
       </c>
     </row>
     <row r="279" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F279" s="1" t="str">
+      <c r="F279" s="11" t="str">
         <f>IF(ISBLANK(E279), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q279" s="2"/>
       <c r="S279" s="1" t="str">
         <f>IF(ISBLANK(R279),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C279), "/", E279, "/config"))</f>
         <v/>
@@ -12164,10 +13229,11 @@
       </c>
     </row>
     <row r="280" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F280" s="1" t="str">
+      <c r="F280" s="11" t="str">
         <f>IF(ISBLANK(E280), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="Q280" s="2"/>
       <c r="S280" s="1" t="str">
         <f>IF(ISBLANK(R280),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C280), "/", E280, "/config"))</f>
         <v/>
@@ -12178,7 +13244,7 @@
       </c>
     </row>
     <row r="281" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F281" s="1" t="str">
+      <c r="F281" s="11" t="str">
         <f>IF(ISBLANK(E281), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -12192,7 +13258,7 @@
       </c>
     </row>
     <row r="282" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F282" s="1" t="str">
+      <c r="F282" s="11" t="str">
         <f>IF(ISBLANK(E282), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -12206,7 +13272,7 @@
       </c>
     </row>
     <row r="283" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F283" s="1" t="str">
+      <c r="F283" s="11" t="str">
         <f>IF(ISBLANK(E283), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -12220,7 +13286,7 @@
       </c>
     </row>
     <row r="284" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F284" s="1" t="str">
+      <c r="F284" s="11" t="str">
         <f>IF(ISBLANK(E284), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -12234,7 +13300,7 @@
       </c>
     </row>
     <row r="285" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F285" s="1" t="str">
+      <c r="F285" s="11" t="str">
         <f>IF(ISBLANK(E285), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -12248,10 +13314,11 @@
       </c>
     </row>
     <row r="286" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F286" s="1" t="str">
+      <c r="F286" s="11" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G286" s="6"/>
       <c r="S286" s="1" t="str">
         <f>IF(ISBLANK(R286),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C286), "/", E286, "/config"))</f>
         <v/>
@@ -12262,7 +13329,7 @@
       </c>
     </row>
     <row r="287" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F287" s="1" t="str">
+      <c r="F287" s="11" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
@@ -14344,6 +15411,566 @@
       </c>
       <c r="T435" s="1" t="str">
         <f>IF(ISBLANK(R435),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C435), "/", E435))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F436" s="1" t="str">
+        <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S436" s="1" t="str">
+        <f>IF(ISBLANK(R436),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C436), "/", E436, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T436" s="1" t="str">
+        <f>IF(ISBLANK(R436),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C436), "/", E436))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F437" s="1" t="str">
+        <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S437" s="1" t="str">
+        <f>IF(ISBLANK(R437),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C437), "/", E437, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T437" s="1" t="str">
+        <f>IF(ISBLANK(R437),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C437), "/", E437))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F438" s="1" t="str">
+        <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S438" s="1" t="str">
+        <f>IF(ISBLANK(R438),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C438), "/", E438, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T438" s="1" t="str">
+        <f>IF(ISBLANK(R438),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C438), "/", E438))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F439" s="1" t="str">
+        <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S439" s="1" t="str">
+        <f>IF(ISBLANK(R439),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C439), "/", E439, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T439" s="1" t="str">
+        <f>IF(ISBLANK(R439),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C439), "/", E439))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F440" s="1" t="str">
+        <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S440" s="1" t="str">
+        <f>IF(ISBLANK(R440),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C440), "/", E440, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T440" s="1" t="str">
+        <f>IF(ISBLANK(R440),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C440), "/", E440))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F441" s="1" t="str">
+        <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S441" s="1" t="str">
+        <f>IF(ISBLANK(R441),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C441), "/", E441, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T441" s="1" t="str">
+        <f>IF(ISBLANK(R441),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C441), "/", E441))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F442" s="1" t="str">
+        <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S442" s="1" t="str">
+        <f>IF(ISBLANK(R442),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C442), "/", E442, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T442" s="1" t="str">
+        <f>IF(ISBLANK(R442),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C442), "/", E442))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F443" s="1" t="str">
+        <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S443" s="1" t="str">
+        <f>IF(ISBLANK(R443),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C443), "/", E443, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T443" s="1" t="str">
+        <f>IF(ISBLANK(R443),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C443), "/", E443))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F444" s="1" t="str">
+        <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S444" s="1" t="str">
+        <f>IF(ISBLANK(R444),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C444), "/", E444, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T444" s="1" t="str">
+        <f>IF(ISBLANK(R444),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C444), "/", E444))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F445" s="1" t="str">
+        <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S445" s="1" t="str">
+        <f>IF(ISBLANK(R445),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C445), "/", E445, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T445" s="1" t="str">
+        <f>IF(ISBLANK(R445),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C445), "/", E445))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F446" s="1" t="str">
+        <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S446" s="1" t="str">
+        <f>IF(ISBLANK(R446),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C446), "/", E446, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T446" s="1" t="str">
+        <f>IF(ISBLANK(R446),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C446), "/", E446))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F447" s="1" t="str">
+        <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S447" s="1" t="str">
+        <f>IF(ISBLANK(R447),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C447), "/", E447, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T447" s="1" t="str">
+        <f>IF(ISBLANK(R447),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C447), "/", E447))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F448" s="1" t="str">
+        <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S448" s="1" t="str">
+        <f>IF(ISBLANK(R448),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C448), "/", E448, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T448" s="1" t="str">
+        <f>IF(ISBLANK(R448),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C448), "/", E448))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F449" s="1" t="str">
+        <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S449" s="1" t="str">
+        <f>IF(ISBLANK(R449),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C449), "/", E449, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T449" s="1" t="str">
+        <f>IF(ISBLANK(R449),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C449), "/", E449))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F450" s="1" t="str">
+        <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S450" s="1" t="str">
+        <f>IF(ISBLANK(R450),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C450), "/", E450, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T450" s="1" t="str">
+        <f>IF(ISBLANK(R450),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C450), "/", E450))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F451" s="1" t="str">
+        <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S451" s="1" t="str">
+        <f>IF(ISBLANK(R451),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C451), "/", E451, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T451" s="1" t="str">
+        <f>IF(ISBLANK(R451),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C451), "/", E451))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F452" s="1" t="str">
+        <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S452" s="1" t="str">
+        <f>IF(ISBLANK(R452),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C452), "/", E452, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T452" s="1" t="str">
+        <f>IF(ISBLANK(R452),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C452), "/", E452))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F453" s="1" t="str">
+        <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S453" s="1" t="str">
+        <f>IF(ISBLANK(R453),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C453), "/", E453, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T453" s="1" t="str">
+        <f>IF(ISBLANK(R453),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C453), "/", E453))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F454" s="1" t="str">
+        <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S454" s="1" t="str">
+        <f>IF(ISBLANK(R454),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C454), "/", E454, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T454" s="1" t="str">
+        <f>IF(ISBLANK(R454),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C454), "/", E454))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F455" s="1" t="str">
+        <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S455" s="1" t="str">
+        <f>IF(ISBLANK(R455),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C455), "/", E455, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T455" s="1" t="str">
+        <f>IF(ISBLANK(R455),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C455), "/", E455))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F456" s="1" t="str">
+        <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S456" s="1" t="str">
+        <f>IF(ISBLANK(R456),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C456), "/", E456, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T456" s="1" t="str">
+        <f>IF(ISBLANK(R456),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C456), "/", E456))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F457" s="1" t="str">
+        <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S457" s="1" t="str">
+        <f>IF(ISBLANK(R457),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C457), "/", E457, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T457" s="1" t="str">
+        <f>IF(ISBLANK(R457),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C457), "/", E457))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F458" s="1" t="str">
+        <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S458" s="1" t="str">
+        <f>IF(ISBLANK(R458),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C458), "/", E458, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T458" s="1" t="str">
+        <f>IF(ISBLANK(R458),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C458), "/", E458))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F459" s="1" t="str">
+        <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S459" s="1" t="str">
+        <f>IF(ISBLANK(R459),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C459), "/", E459, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T459" s="1" t="str">
+        <f>IF(ISBLANK(R459),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C459), "/", E459))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F460" s="1" t="str">
+        <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S460" s="1" t="str">
+        <f>IF(ISBLANK(R460),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C460), "/", E460, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T460" s="1" t="str">
+        <f>IF(ISBLANK(R460),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C460), "/", E460))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F461" s="1" t="str">
+        <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S461" s="1" t="str">
+        <f>IF(ISBLANK(R461),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C461), "/", E461, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T461" s="1" t="str">
+        <f>IF(ISBLANK(R461),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C461), "/", E461))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F462" s="1" t="str">
+        <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S462" s="1" t="str">
+        <f>IF(ISBLANK(R462),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C462), "/", E462, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T462" s="1" t="str">
+        <f>IF(ISBLANK(R462),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C462), "/", E462))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F463" s="1" t="str">
+        <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S463" s="1" t="str">
+        <f>IF(ISBLANK(R463),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C463), "/", E463, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T463" s="1" t="str">
+        <f>IF(ISBLANK(R463),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C463), "/", E463))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F464" s="1" t="str">
+        <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S464" s="1" t="str">
+        <f>IF(ISBLANK(R464),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C464), "/", E464, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T464" s="1" t="str">
+        <f>IF(ISBLANK(R464),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C464), "/", E464))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F465" s="1" t="str">
+        <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S465" s="1" t="str">
+        <f>IF(ISBLANK(R465),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C465), "/", E465, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T465" s="1" t="str">
+        <f>IF(ISBLANK(R465),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C465), "/", E465))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F466" s="1" t="str">
+        <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S466" s="1" t="str">
+        <f>IF(ISBLANK(R466),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C466), "/", E466, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T466" s="1" t="str">
+        <f>IF(ISBLANK(R466),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C466), "/", E466))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F467" s="1" t="str">
+        <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S467" s="1" t="str">
+        <f>IF(ISBLANK(R467),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C467), "/", E467, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T467" s="1" t="str">
+        <f>IF(ISBLANK(R467),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C467), "/", E467))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F468" s="1" t="str">
+        <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S468" s="1" t="str">
+        <f>IF(ISBLANK(R468),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C468), "/", E468, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T468" s="1" t="str">
+        <f>IF(ISBLANK(R468),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C468), "/", E468))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F469" s="1" t="str">
+        <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S469" s="1" t="str">
+        <f>IF(ISBLANK(R469),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C469), "/", E469, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T469" s="1" t="str">
+        <f>IF(ISBLANK(R469),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C469), "/", E469))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F470" s="1" t="str">
+        <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S470" s="1" t="str">
+        <f>IF(ISBLANK(R470),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C470), "/", E470, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T470" s="1" t="str">
+        <f>IF(ISBLANK(R470),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C470), "/", E470))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F471" s="1" t="str">
+        <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S471" s="1" t="str">
+        <f>IF(ISBLANK(R471),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C471), "/", E471, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T471" s="1" t="str">
+        <f>IF(ISBLANK(R471),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C471), "/", E471))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F472" s="1" t="str">
+        <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S472" s="1" t="str">
+        <f>IF(ISBLANK(R472),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C472), "/", E472, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T472" s="1" t="str">
+        <f>IF(ISBLANK(R472),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C472), "/", E472))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F473" s="1" t="str">
+        <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S473" s="1" t="str">
+        <f>IF(ISBLANK(R473),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C473), "/", E473, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T473" s="1" t="str">
+        <f>IF(ISBLANK(R473),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C473), "/", E473))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F474" s="1" t="str">
+        <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S474" s="1" t="str">
+        <f>IF(ISBLANK(R474),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C474), "/", E474, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T474" s="1" t="str">
+        <f>IF(ISBLANK(R474),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C474), "/", E474))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F475" s="1" t="str">
+        <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="S475" s="1" t="str">
+        <f>IF(ISBLANK(R475),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C475), "/", E475, "/config"))</f>
+        <v/>
+      </c>
+      <c r="T475" s="1" t="str">
+        <f>IF(ISBLANK(R475),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C475), "/", E475))</f>
         <v/>
       </c>
     </row>
@@ -14366,11 +15993,11 @@
     <hyperlink ref="AC21" r:id="rId11" xr:uid="{8EADE576-5626-AD41-A703-EDF78E53D186}"/>
     <hyperlink ref="AC31" r:id="rId12" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
     <hyperlink ref="AC42" r:id="rId13" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
-    <hyperlink ref="AC56:AC79" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
-    <hyperlink ref="AC156" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
-    <hyperlink ref="AC157" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
-    <hyperlink ref="AC64" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
-    <hyperlink ref="AC65" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
+    <hyperlink ref="AC56:AC80" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
+    <hyperlink ref="AC196" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
+    <hyperlink ref="AC197" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
+    <hyperlink ref="AC65" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
+    <hyperlink ref="AC66" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AC15" r:id="rId19" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB82C0A-5EA7-1D4C-B907-E5868C3CF754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3070B543-FD38-7C48-8433-A94EA25D6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="473">
   <si>
     <t>index</t>
   </si>
@@ -1442,6 +1442,15 @@
   </si>
   <si>
     <t>roof_water_heater_booster_energy_daily</t>
+  </si>
+  <si>
+    <t>mdi:home-lightning-bolt</t>
+  </si>
+  <si>
+    <t>mdi:battery-charging</t>
+  </si>
+  <si>
+    <t>mdi:molecule-co2</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3808,6 +3817,9 @@
       <c r="I22" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="O22" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="S22" s="1" t="str">
         <f>IF(ISBLANK(R22),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C22), "/", E22, "/config"))</f>
@@ -3851,6 +3863,9 @@
       <c r="J23" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O23" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="S23" s="1" t="str">
         <f>IF(ISBLANK(R23),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C23), "/", E23, "/config"))</f>
         <v/>
@@ -3892,6 +3907,9 @@
       <c r="J24" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O24" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="S24" s="1" t="str">
         <f>IF(ISBLANK(R24),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C24), "/", E24, "/config"))</f>
         <v/>
@@ -3933,6 +3951,9 @@
       <c r="J25" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="O25" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="S25" s="1" t="str">
         <f>IF(ISBLANK(R25),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C25), "/", E25, "/config"))</f>
         <v/>
@@ -3974,6 +3995,9 @@
       <c r="J26" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O26" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="S26" s="1" t="str">
         <f>IF(ISBLANK(R26),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C26), "/", E26, "/config"))</f>
         <v/>
@@ -4015,6 +4039,9 @@
       <c r="J27" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O27" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="S27" s="1" t="str">
         <f>IF(ISBLANK(R27),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C27), "/", E27, "/config"))</f>
         <v/>
@@ -4056,6 +4083,9 @@
       <c r="J28" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="O28" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="S28" s="1" t="str">
         <f>IF(ISBLANK(R28),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C28), "/", E28, "/config"))</f>
         <v/>
@@ -4097,6 +4127,9 @@
       <c r="J29" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="O29" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="S29" s="1" t="str">
         <f>IF(ISBLANK(R29),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C29), "/", E29, "/config"))</f>
         <v/>
@@ -4134,6 +4167,9 @@
       </c>
       <c r="I30" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="S30" s="1" t="str">
         <f>IF(ISBLANK(R30),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C30), "/", E30, "/config"))</f>
@@ -8690,9 +8726,39 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="F124" s="11" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>home_power</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="1" t="str">
@@ -8706,7 +8772,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>373</v>
@@ -8718,14 +8784,14 @@
         <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="F125" s="11" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_power</v>
+        <v>lights_power</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>468</v>
@@ -8735,6 +8801,9 @@
       </c>
       <c r="J125" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="1" t="str">
@@ -8748,26 +8817,26 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="F126" s="11" t="str">
         <f>IF(ISBLANK(E126), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_power</v>
+        <v>kitchen_dish_washer_current_consumption</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>161</v>
+        <v>390</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>468</v>
@@ -8777,6 +8846,9 @@
       </c>
       <c r="J126" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="S126" s="1" t="str">
@@ -8790,7 +8862,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>28</v>
@@ -8802,14 +8874,14 @@
         <v>29</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F127" s="11" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dish_washer_current_consumption</v>
+        <v>laundry_clothes_dryer_current_consumption</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>468</v>
@@ -8819,6 +8891,9 @@
       </c>
       <c r="J127" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="S127" s="1" t="str">
@@ -8832,7 +8907,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>28</v>
@@ -8844,14 +8919,14 @@
         <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F128" s="11" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer_current_consumption</v>
+        <v>laundry_washing_machine_current_consumption</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>468</v>
@@ -8861,6 +8936,9 @@
       </c>
       <c r="J128" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="S128" s="1" t="str">
@@ -8874,7 +8952,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>28</v>
@@ -8886,14 +8964,14 @@
         <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F129" s="11" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine_current_consumption</v>
+        <v>kitchen_coffee_machine_current_consumption</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>389</v>
+        <v>155</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>468</v>
@@ -8902,7 +8980,10 @@
         <v>165</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="S129" s="1" t="str">
@@ -8916,7 +8997,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>28</v>
@@ -8928,14 +9009,14 @@
         <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="F130" s="11" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine_current_consumption</v>
+        <v>kitchen_fan_current_consumption</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>468</v>
@@ -8945,6 +9026,9 @@
       </c>
       <c r="J130" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="S130" s="1" t="str">
@@ -8958,7 +9042,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>28</v>
@@ -8970,14 +9054,14 @@
         <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F131" s="11" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan_current_consumption</v>
+        <v>kitchen_fridge_current_consumption</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>468</v>
@@ -8987,6 +9071,9 @@
       </c>
       <c r="J131" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="S131" s="1" t="str">
@@ -9000,7 +9087,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>28</v>
@@ -9012,14 +9099,14 @@
         <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F132" s="11" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge_current_consumption</v>
+        <v>deck_freezer_current_consumption</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>468</v>
@@ -9029,6 +9116,9 @@
       </c>
       <c r="J132" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="S132" s="1" t="str">
@@ -9042,7 +9132,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>28</v>
@@ -9054,14 +9144,14 @@
         <v>29</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F133" s="11" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer_current_consumption</v>
+        <v>deck_lights_current_consumption</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>468</v>
@@ -9071,6 +9161,9 @@
       </c>
       <c r="J133" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="S133" s="1" t="str">
@@ -9084,7 +9177,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>28</v>
@@ -9096,14 +9189,14 @@
         <v>29</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F134" s="11" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_lights_current_consumption</v>
+        <v>lounge_tv_current_consumption</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>468</v>
@@ -9113,6 +9206,9 @@
       </c>
       <c r="J134" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="S134" s="1" t="str">
@@ -9126,26 +9222,26 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="F135" s="11" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv_current_consumption</v>
+        <v>roof_water_heater_booster_power</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>468</v>
@@ -9155,6 +9251,9 @@
       </c>
       <c r="J135" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="S135" s="1" t="str">
@@ -9168,26 +9267,26 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F136" s="11" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_water_heater_booster_power</v>
+        <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>468</v>
@@ -9197,6 +9296,9 @@
       </c>
       <c r="J136" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="S136" s="1" t="str">
@@ -9210,7 +9312,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>28</v>
@@ -9222,14 +9324,14 @@
         <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="F137" s="11" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_rails_current_consumption</v>
+        <v>study_outlet_current_consumption</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>468</v>
@@ -9239,6 +9341,9 @@
       </c>
       <c r="J137" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="S137" s="1" t="str">
@@ -9252,7 +9357,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>28</v>
@@ -9264,14 +9369,14 @@
         <v>29</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F138" s="11" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet_current_consumption</v>
+        <v>office_outlet_current_consumption</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>468</v>
@@ -9281,6 +9386,9 @@
       </c>
       <c r="J138" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="S138" s="1" t="str">
@@ -9294,7 +9402,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>28</v>
@@ -9306,14 +9414,14 @@
         <v>29</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F139" s="11" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet_current_consumption</v>
+        <v>rack_outlet_current_consumption</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>468</v>
@@ -9323,6 +9431,9 @@
       </c>
       <c r="J139" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="S139" s="1" t="str">
@@ -9336,7 +9447,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>28</v>
@@ -9348,14 +9459,14 @@
         <v>29</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F140" s="11" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet_current_consumption</v>
+        <v>roof_network_switch_current_consumption</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>468</v>
@@ -9365,6 +9476,9 @@
       </c>
       <c r="J140" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q140" s="2"/>
       <c r="S140" s="1" t="str">
@@ -9378,7 +9492,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>28</v>
@@ -9390,14 +9504,14 @@
         <v>29</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F141" s="11" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch_current_consumption</v>
+        <v>rack_internet_modem_current_consumption</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>468</v>
@@ -9407,6 +9521,9 @@
       </c>
       <c r="J141" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="S141" s="1" t="str">
@@ -9420,7 +9537,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>28</v>
@@ -9432,14 +9549,14 @@
         <v>29</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F142" s="11" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_internet_modem_current_consumption</v>
+        <v>study_battery_charger_current_consumption</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>468</v>
@@ -9449,6 +9566,9 @@
       </c>
       <c r="J142" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="S142" s="1" t="str">
@@ -9462,7 +9582,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>28</v>
@@ -9474,14 +9594,14 @@
         <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F143" s="11" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger_current_consumption</v>
+        <v>laundry_vacuum_charger_current_consumption</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>468</v>
@@ -9491,6 +9611,9 @@
       </c>
       <c r="J143" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="S143" s="1" t="str">
@@ -9504,7 +9627,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>28</v>
@@ -9516,14 +9639,14 @@
         <v>29</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F144" s="11" t="str">
+        <v>407</v>
+      </c>
+      <c r="F144" s="1" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger_current_consumption</v>
+        <v>various_adhoc_outlet_current_consumption</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>468</v>
@@ -9533,6 +9656,9 @@
       </c>
       <c r="J144" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="S144" s="1" t="str">
@@ -9546,35 +9672,38 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>2120</v>
+        <v>2150</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F145" s="1" t="str">
+        <v>438</v>
+      </c>
+      <c r="F145" s="11" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet_current_consumption</v>
+        <v>home_energy_daily</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>468</v>
+        <v>375</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="S145" s="1" t="str">
@@ -9587,9 +9716,39 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>2151</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="F146" s="11" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>lights_energy_daily</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="S146" s="1" t="str">
@@ -9602,9 +9761,39 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>2152</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="F147" s="11" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>kitchen_dish_washer_today_s_consumption</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q147" s="2"/>
       <c r="S147" s="1" t="str">
@@ -9618,26 +9807,26 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="F148" s="11" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_daily</v>
+        <v>laundry_clothes_dryer_today_s_consumption</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>208</v>
+        <v>391</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>375</v>
@@ -9647,6 +9836,9 @@
       </c>
       <c r="J148" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="S148" s="1" t="str">
@@ -9660,26 +9852,26 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="F149" s="11" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_daily</v>
+        <v>laundry_washing_machine_today_s_consumption</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>375</v>
@@ -9689,6 +9881,9 @@
       </c>
       <c r="J149" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="S149" s="1" t="str">
@@ -9702,7 +9897,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>28</v>
@@ -9714,14 +9909,14 @@
         <v>29</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F150" s="11" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dish_washer_today_s_consumption</v>
+        <v>kitchen_coffee_machine_today_s_consumption</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>375</v>
@@ -9730,7 +9925,10 @@
         <v>165</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="S150" s="1" t="str">
@@ -9744,7 +9942,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>28</v>
@@ -9756,14 +9954,14 @@
         <v>29</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F151" s="11" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer_today_s_consumption</v>
+        <v>kitchen_fan_today_s_consumption</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>375</v>
@@ -9772,7 +9970,10 @@
         <v>165</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="S151" s="1" t="str">
@@ -9786,7 +9987,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>28</v>
@@ -9798,14 +9999,14 @@
         <v>29</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F152" s="11" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine_today_s_consumption</v>
+        <v>kitchen_fridge_today_s_consumption</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>375</v>
@@ -9814,7 +10015,10 @@
         <v>165</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q152" s="2"/>
       <c r="S152" s="1" t="str">
@@ -9828,7 +10032,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>28</v>
@@ -9840,14 +10044,14 @@
         <v>29</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F153" s="11" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine_today_s_consumption</v>
+        <v>deck_freezer_today_s_consumption</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>155</v>
+        <v>385</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>375</v>
@@ -9857,6 +10061,9 @@
       </c>
       <c r="J153" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="S153" s="1" t="str">
@@ -9870,7 +10077,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>28</v>
@@ -9882,14 +10089,14 @@
         <v>29</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F154" s="11" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan_today_s_consumption</v>
+        <v>deck_lights_today_s_consumption</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>375</v>
@@ -9899,6 +10106,9 @@
       </c>
       <c r="J154" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q154" s="2"/>
       <c r="S154" s="1" t="str">
@@ -9912,7 +10122,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>28</v>
@@ -9924,14 +10134,14 @@
         <v>29</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F155" s="11" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge_today_s_consumption</v>
+        <v>lounge_tv_today_s_consumption</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>384</v>
+        <v>229</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>375</v>
@@ -9941,6 +10151,9 @@
       </c>
       <c r="J155" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="S155" s="1" t="str">
@@ -9954,10 +10167,10 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>402</v>
@@ -9966,14 +10179,14 @@
         <v>29</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="F156" s="11" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer_today_s_consumption</v>
+        <v>roof_water_heater_booster_energy_daily</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>375</v>
@@ -9983,6 +10196,9 @@
       </c>
       <c r="J156" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q156" s="2"/>
       <c r="S156" s="1" t="str">
@@ -9996,7 +10212,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>28</v>
@@ -10008,14 +10224,14 @@
         <v>29</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F157" s="11" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_lights_today_s_consumption</v>
+        <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>375</v>
@@ -10025,6 +10241,9 @@
       </c>
       <c r="J157" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="S157" s="1" t="str">
@@ -10038,7 +10257,7 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>28</v>
@@ -10050,14 +10269,14 @@
         <v>29</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F158" s="11" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv_today_s_consumption</v>
+        <v>study_outlet_today_s_consumption</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>229</v>
+        <v>388</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>375</v>
@@ -10067,6 +10286,9 @@
       </c>
       <c r="J158" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="S158" s="1" t="str">
@@ -10080,10 +10302,10 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>402</v>
@@ -10092,14 +10314,14 @@
         <v>29</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="F159" s="11" t="str">
         <f>IF(ISBLANK(E159), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_water_heater_booster_energy_daily</v>
+        <v>office_outlet_today_s_consumption</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>375</v>
@@ -10109,6 +10331,9 @@
       </c>
       <c r="J159" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q159" s="2"/>
       <c r="S159" s="1" t="str">
@@ -10122,7 +10347,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>28</v>
@@ -10134,14 +10359,14 @@
         <v>29</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F160" s="11" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_rails_today_s_consumption</v>
+        <v>rack_outlet_today_s_consumption</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>375</v>
@@ -10151,6 +10376,9 @@
       </c>
       <c r="J160" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="S160" s="1" t="str">
@@ -10164,7 +10392,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>28</v>
@@ -10176,14 +10404,14 @@
         <v>29</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F161" s="11" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet_today_s_consumption</v>
+        <v>roof_network_switch_today_s_consumption</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>375</v>
@@ -10193,6 +10421,9 @@
       </c>
       <c r="J161" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q161" s="2"/>
       <c r="S161" s="1" t="str">
@@ -10206,7 +10437,7 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>28</v>
@@ -10218,14 +10449,14 @@
         <v>29</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F162" s="11" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet_today_s_consumption</v>
+        <v>rack_internet_modem_today_s_consumption</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>375</v>
@@ -10235,6 +10466,9 @@
       </c>
       <c r="J162" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="S162" s="1" t="str">
@@ -10248,7 +10482,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>28</v>
@@ -10260,14 +10494,14 @@
         <v>29</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F163" s="11" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet_today_s_consumption</v>
+        <v>study_battery_charger_today_s_consumption</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>375</v>
@@ -10277,6 +10511,9 @@
       </c>
       <c r="J163" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="S163" s="1" t="str">
@@ -10290,7 +10527,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>28</v>
@@ -10302,14 +10539,14 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F164" s="11" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch_today_s_consumption</v>
+        <v>laundry_vacuum_charger_today_s_consumption</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>375</v>
@@ -10319,6 +10556,9 @@
       </c>
       <c r="J164" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q164" s="2"/>
       <c r="S164" s="1" t="str">
@@ -10332,7 +10572,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>28</v>
@@ -10344,14 +10584,14 @@
         <v>29</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F165" s="11" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_internet_modem_today_s_consumption</v>
+        <v>various_adhoc_outlet_today_s_consumption</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>375</v>
@@ -10361,6 +10601,9 @@
       </c>
       <c r="J165" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="S165" s="1" t="str">
@@ -10374,35 +10617,38 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>2168</v>
+        <v>2200</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F166" s="11" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger_today_s_consumption</v>
+        <v>home_energy_weekly</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>393</v>
+        <v>208</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="S166" s="1" t="str">
@@ -10416,35 +10662,38 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>2169</v>
+        <v>2201</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F167" s="11" t="str">
         <f>IF(ISBLANK(E167), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger_today_s_consumption</v>
+        <v>lights_energy_weekly</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>392</v>
+        <v>161</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="S167" s="1" t="str">
@@ -10458,35 +10707,38 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>2170</v>
+        <v>2202</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>402</v>
+        <v>180</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="F168" s="11" t="str">
         <f>IF(ISBLANK(E168), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet_today_s_consumption</v>
+        <v>small_devices_energy_weekly</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q168" s="2"/>
       <c r="S168" s="1" t="str">
@@ -10499,23 +10751,53 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>2203</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="F169" s="11" t="str">
         <f>IF(ISBLANK(E169), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>large_appliances_energy_weekly</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q169" s="2"/>
       <c r="S169" s="1" t="str">
-        <f t="shared" ref="S169:S193" si="0">IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169, "/config"))</f>
+        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169, "/config"))</f>
         <v/>
       </c>
       <c r="T169" s="1" t="str">
-        <f t="shared" ref="T169:T193" si="1">IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169))</f>
+        <f>IF(ISBLANK(R169),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C169), "/", E169))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>373</v>
@@ -10527,14 +10809,14 @@
         <v>29</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F170" s="11" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_weekly</v>
+        <v>servers_network_energy_weekly</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>208</v>
+        <v>442</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>440</v>
@@ -10545,19 +10827,22 @@
       <c r="J170" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O170" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q170" s="2"/>
       <c r="S170" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170, "/config"))</f>
         <v/>
       </c>
       <c r="T170" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R170),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C170), "/", E170))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>373</v>
@@ -10569,14 +10854,14 @@
         <v>29</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F171" s="11" t="str">
         <f>IF(ISBLANK(E171), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_weekly</v>
+        <v>water_heater_booster_energy_weekly</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>161</v>
+        <v>412</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>440</v>
@@ -10587,19 +10872,22 @@
       <c r="J171" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O171" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q171" s="2"/>
       <c r="S171" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171, "/config"))</f>
         <v/>
       </c>
       <c r="T171" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(R171),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C171), "/", E171))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>373</v>
@@ -10611,14 +10899,14 @@
         <v>29</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F172" s="11" t="str">
         <f>IF(ISBLANK(E172), "", Table2[[#This Row],[unique_id]])</f>
-        <v>small_devices_energy_weekly</v>
+        <v>study_office_outlets_energy_weekly</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>440</v>
@@ -10628,6 +10916,9 @@
       </c>
       <c r="J172" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="S172" s="1" t="str">
@@ -10641,7 +10932,7 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>2203</v>
+        <v>2250</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>373</v>
@@ -10653,23 +10944,26 @@
         <v>29</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F173" s="11" t="str">
         <f>IF(ISBLANK(E173), "", Table2[[#This Row],[unique_id]])</f>
-        <v>large_appliances_energy_weekly</v>
+        <v>home_energy_monthly</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>441</v>
+        <v>208</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q173" s="2"/>
       <c r="S173" s="1" t="str">
@@ -10683,7 +10977,7 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>2204</v>
+        <v>2251</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>373</v>
@@ -10695,23 +10989,26 @@
         <v>29</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F174" s="11" t="str">
         <f>IF(ISBLANK(E174), "", Table2[[#This Row],[unique_id]])</f>
-        <v>servers_network_energy_weekly</v>
+        <v>lights_energy_monthly</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>442</v>
+        <v>161</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="S174" s="1" t="str">
@@ -10725,7 +11022,7 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>2205</v>
+        <v>2252</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>373</v>
@@ -10737,23 +11034,26 @@
         <v>29</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F175" s="11" t="str">
         <f>IF(ISBLANK(E175), "", Table2[[#This Row],[unique_id]])</f>
-        <v>water_heater_booster_energy_weekly</v>
+        <v>small_devices_energy_monthly</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="S175" s="1" t="str">
@@ -10767,7 +11067,7 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>2206</v>
+        <v>2253</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>373</v>
@@ -10779,23 +11079,26 @@
         <v>29</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F176" s="11" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_office_outlets_energy_weekly</v>
+        <v>large_appliances_energy_monthly</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q176" s="2"/>
       <c r="S176" s="1" t="str">
@@ -10807,10 +11110,40 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>2254</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="F177" s="11" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>servers_network_energy_monthly</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q177" s="2"/>
       <c r="S177" s="1" t="str">
@@ -10822,9 +11155,9 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>2250</v>
+        <v>2255</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>373</v>
@@ -10836,14 +11169,14 @@
         <v>29</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F178" s="11" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_monthly</v>
+        <v>water_heater_booster_energy_monthly</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>459</v>
@@ -10853,6 +11186,9 @@
       </c>
       <c r="J178" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q178" s="2"/>
       <c r="S178" s="1" t="str">
@@ -10864,9 +11200,9 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>2251</v>
+        <v>2256</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>373</v>
@@ -10878,14 +11214,14 @@
         <v>29</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F179" s="11" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_monthly</v>
+        <v>study_office_outlets_energy_monthly</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>161</v>
+        <v>444</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>459</v>
@@ -10896,19 +11232,22 @@
       <c r="J179" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O179" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q179" s="2"/>
       <c r="S179" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179, "/config"))</f>
         <v/>
       </c>
       <c r="T179" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R179),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C179), "/", E179))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>2252</v>
+        <v>2300</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>373</v>
@@ -10920,17 +11259,17 @@
         <v>29</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F180" s="11" t="str">
         <f>IF(ISBLANK(E180), "", Table2[[#This Row],[unique_id]])</f>
-        <v>small_devices_energy_monthly</v>
+        <v>home_energy_yearly</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>443</v>
+        <v>208</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>165</v>
@@ -10938,19 +11277,22 @@
       <c r="J180" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O180" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q180" s="2"/>
       <c r="S180" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180, "/config"))</f>
         <v/>
       </c>
       <c r="T180" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R180),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C180), "/", E180))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>2253</v>
+        <v>2301</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>373</v>
@@ -10962,17 +11304,17 @@
         <v>29</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F181" s="11" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
-        <v>large_appliances_energy_monthly</v>
+        <v>lights_energy_yearly</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>441</v>
+        <v>161</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>165</v>
@@ -10980,19 +11322,22 @@
       <c r="J181" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O181" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q181" s="2"/>
       <c r="S181" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181, "/config"))</f>
         <v/>
       </c>
       <c r="T181" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R181),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C181), "/", E181))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>2254</v>
+        <v>2302</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>373</v>
@@ -11004,17 +11349,17 @@
         <v>29</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F182" s="11" t="str">
         <f>IF(ISBLANK(E182), "", Table2[[#This Row],[unique_id]])</f>
-        <v>servers_network_energy_monthly</v>
+        <v>small_devices_energy_yearly</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>165</v>
@@ -11022,19 +11367,22 @@
       <c r="J182" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O182" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q182" s="2"/>
       <c r="S182" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182, "/config"))</f>
         <v/>
       </c>
       <c r="T182" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R182),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C182), "/", E182))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>2255</v>
+        <v>2303</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>373</v>
@@ -11046,17 +11394,17 @@
         <v>29</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F183" s="11" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
-        <v>water_heater_booster_energy_monthly</v>
+        <v>large_appliances_energy_yearly</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>165</v>
@@ -11064,19 +11412,22 @@
       <c r="J183" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O183" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q183" s="2"/>
       <c r="S183" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183, "/config"))</f>
         <v/>
       </c>
       <c r="T183" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R183),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C183), "/", E183))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>2256</v>
+        <v>2304</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>373</v>
@@ -11088,17 +11439,17 @@
         <v>29</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F184" s="11" t="str">
         <f>IF(ISBLANK(E184), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_office_outlets_energy_monthly</v>
+        <v>servers_network_energy_yearly</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>165</v>
@@ -11106,34 +11457,67 @@
       <c r="J184" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O184" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q184" s="2"/>
       <c r="S184" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184, "/config"))</f>
         <v/>
       </c>
       <c r="T184" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R184),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C184), "/", E184))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>2305</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="F185" s="11" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>water_heater_booster_energy_yearly</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="Q185" s="2"/>
       <c r="S185" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185, "/config"))</f>
         <v/>
       </c>
       <c r="T185" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R185),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C185), "/", E185))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>2300</v>
+        <v>2306</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>373</v>
@@ -11145,14 +11529,14 @@
         <v>29</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F186" s="11" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_yearly</v>
+        <v>study_office_outlets_energy_yearly</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>208</v>
+        <v>444</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>467</v>
@@ -11163,284 +11547,393 @@
       <c r="J186" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="O186" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="Q186" s="2"/>
       <c r="S186" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186, "/config"))</f>
         <v/>
       </c>
       <c r="T186" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R186),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C186), "/", E186))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>2301</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>373</v>
+        <v>2400</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F187" s="11" t="str">
+        <v>166</v>
+      </c>
+      <c r="F187" s="1" t="str">
         <f>IF(ISBLANK(E187), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_yearly</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>161</v>
+        <v>withings_weight_kg_graham</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>467</v>
+        <v>206</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="Q187" s="2"/>
       <c r="S187" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187, "/config"))</f>
         <v/>
       </c>
       <c r="T187" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R187),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C187), "/", E187))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>2302</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>373</v>
+        <v>2500</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F188" s="11" t="str">
+        <v>216</v>
+      </c>
+      <c r="F188" s="1" t="str">
         <f>IF(ISBLANK(E188), "", Table2[[#This Row],[unique_id]])</f>
-        <v>small_devices_energy_yearly</v>
+        <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>443</v>
+        <v>89</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>467</v>
+        <v>90</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q188" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P188" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q188" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="S188" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188, "/config"))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="T188" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R188),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C188), "/", E188))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V188" s="1">
+        <v>1</v>
+      </c>
+      <c r="W188" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X188" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z188" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA188" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC188" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>2303</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>373</v>
+        <v>2501</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F189" s="11" t="str">
+        <v>217</v>
+      </c>
+      <c r="F189" s="1" t="str">
         <f>IF(ISBLANK(E189), "", Table2[[#This Row],[unique_id]])</f>
-        <v>large_appliances_energy_yearly</v>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>441</v>
+        <v>95</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>467</v>
+        <v>90</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q189" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P189" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q189" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="S189" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189, "/config"))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="T189" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R189),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C189), "/", E189))</f>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V189" s="1">
+        <v>1</v>
+      </c>
+      <c r="W189" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X189" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="Y189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z189" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC189" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>2304</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>373</v>
+        <v>2600</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F190" s="11" t="str">
+        <v>171</v>
+      </c>
+      <c r="F190" s="1" t="str">
         <f>IF(ISBLANK(E190), "", Table2[[#This Row],[unique_id]])</f>
-        <v>servers_network_energy_yearly</v>
+        <v>ada_home</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="Q190" s="2"/>
       <c r="S190" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190, "/config"))</f>
         <v/>
       </c>
       <c r="T190" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R190),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C190), "/", E190))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>2305</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>373</v>
+        <v>2700</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F191" s="11" t="str">
+        <v>172</v>
+      </c>
+      <c r="F191" s="1" t="str">
         <f>IF(ISBLANK(E191), "", Table2[[#This Row],[unique_id]])</f>
-        <v>water_heater_booster_energy_yearly</v>
+        <v>kitchen_speaker</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>412</v>
+        <v>244</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>467</v>
+        <v>207</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="Q191" s="2"/>
       <c r="S191" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191, "/config"))</f>
         <v/>
       </c>
       <c r="T191" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+        <f>IF(ISBLANK(R191),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C191), "/", E191))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>2306</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>373</v>
+        <v>2800</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F192" s="11" t="str">
+        <v>168</v>
+      </c>
+      <c r="F192" s="1" t="str">
         <f>IF(ISBLANK(E192), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_office_outlets_energy_yearly</v>
+        <v>parents_speaker_battery</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>444</v>
+        <v>245</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>467</v>
+        <v>90</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="Q192" s="2"/>
       <c r="S192" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192, "/config"))</f>
         <v/>
       </c>
       <c r="T192" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="F193" s="11"/>
+        <f>IF(ISBLANK(R192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F193" s="1" t="str">
+        <f>IF(ISBLANK(E193), "", Table2[[#This Row],[unique_id]])</f>
+        <v>uvc_ada_medium</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="Q193" s="2"/>
       <c r="S193" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193, "/config"))</f>
         <v/>
       </c>
       <c r="T193" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="F194" s="11" t="str">
+        <f>IF(ISBLANK(R193),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C193), "/", E193))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>3001</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F194" s="1" t="str">
         <f>IF(ISBLANK(E194), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>uvc_edwin_medium</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q194" s="2"/>
       <c r="S194" s="1" t="str">
@@ -11452,28 +11945,34 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>2400</v>
+        <v>3050</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F195" s="1" t="str">
         <f>IF(ISBLANK(E195), "", Table2[[#This Row],[unique_id]])</f>
-        <v>withings_weight_kg_graham</v>
+        <v>ada_occupancy</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>167</v>
+        <v>323</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q195" s="2"/>
       <c r="S195" s="1" t="str">
@@ -11485,191 +11984,109 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>2500</v>
+        <v>3051</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="F196" s="1" t="str">
         <f>IF(ISBLANK(E196), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
+        <v>uvc_ada_motion</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>90</v>
+        <v>246</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M196" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P196" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q196" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R196" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q196" s="2"/>
       <c r="S196" s="1" t="str">
         <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="T196" s="1" t="str">
         <f>IF(ISBLANK(R196),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C196), "/", E196))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="U196" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="V196" s="1">
-        <v>1</v>
-      </c>
-      <c r="W196" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X196" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y196" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z196" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA196" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB196" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC196" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>2501</v>
+        <v>3052</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="F197" s="1" t="str">
         <f>IF(ISBLANK(E197), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
+        <v>edwin_occupancy</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>95</v>
+        <v>326</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M197" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O197" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P197" s="1">
-        <v>300</v>
-      </c>
-      <c r="Q197" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R197" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q197" s="2"/>
       <c r="S197" s="1" t="str">
         <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
+        <v/>
       </c>
       <c r="T197" s="1" t="str">
         <f>IF(ISBLANK(R197),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C197), "/", E197))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="U197" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V197" s="1">
-        <v>1</v>
-      </c>
-      <c r="W197" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X197" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="Y197" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z197" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA197" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB197" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC197" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>2600</v>
+        <v>3053</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="F198" s="1" t="str">
         <f>IF(ISBLANK(E198), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
+        <v>uvc_edwin_motion</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>208</v>
+        <v>324</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>157</v>
@@ -11684,31 +12101,31 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>2700</v>
+        <v>3054</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F199" s="1" t="str">
         <f>IF(ISBLANK(E199), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
+        <v>parents_occupancy</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>157</v>
@@ -11723,31 +12140,34 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>2800</v>
+        <v>3055</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="F200" s="1" t="str">
         <f>IF(ISBLANK(E200), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
+        <v>lounge_occupancy</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>169</v>
+        <v>323</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="Q200" s="2"/>
       <c r="S200" s="1" t="str">
@@ -11759,28 +12179,28 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>3000</v>
+        <v>3056</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>404</v>
+        <v>152</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="F201" s="1" t="str">
         <f>IF(ISBLANK(E201), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>deck2_occupancy</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>323</v>
@@ -11798,28 +12218,28 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>3001</v>
+        <v>3057</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>404</v>
+        <v>152</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F202" s="1" t="str">
         <f>IF(ISBLANK(E202), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>deck1_occupancy</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>145</v>
+        <v>328</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>323</v>
@@ -11837,34 +12257,31 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>3050</v>
+        <v>8000</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="F203" s="1" t="str">
         <f>IF(ISBLANK(E203), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_occupancy</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>325</v>
+        <v>ada_energize</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J203" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="Q203" s="2"/>
       <c r="S203" s="1" t="str">
@@ -11876,34 +12293,31 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>3051</v>
+        <v>9000</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F204" s="1" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
+        <v>update_bom_icons</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H204" s="5" t="s">
-        <v>210</v>
+        <v>248</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="Q204" s="2"/>
       <c r="S204" s="1" t="str">
@@ -11915,34 +12329,10 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>3052</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F205" s="1" t="str">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F205" s="11" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_occupancy</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J205" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q205" s="2"/>
       <c r="S205" s="1" t="str">
@@ -11954,34 +12344,10 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>3053</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F206" s="1" t="str">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F206" s="11" t="str">
         <f>IF(ISBLANK(E206), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H206" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q206" s="2"/>
       <c r="S206" s="1" t="str">
@@ -11993,34 +12359,10 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>3054</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F207" s="1" t="str">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F207" s="11" t="str">
         <f>IF(ISBLANK(E207), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_occupancy</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J207" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q207" s="2"/>
       <c r="S207" s="1" t="str">
@@ -12032,34 +12374,10 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>3055</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F208" s="1" t="str">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F208" s="11" t="str">
         <f>IF(ISBLANK(E208), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_occupancy</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J208" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q208" s="2"/>
       <c r="S208" s="1" t="str">
@@ -12071,34 +12389,10 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>3056</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F209" s="1" t="str">
+    <row r="209" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F209" s="11" t="str">
         <f>IF(ISBLANK(E209), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck2_occupancy</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J209" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q209" s="2"/>
       <c r="S209" s="1" t="str">
@@ -12110,34 +12404,10 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>3057</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F210" s="1" t="str">
+    <row r="210" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F210" s="11" t="str">
         <f>IF(ISBLANK(E210), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck1_occupancy</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>157</v>
+        <v/>
       </c>
       <c r="Q210" s="2"/>
       <c r="S210" s="1" t="str">
@@ -12149,32 +12419,8 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F211" s="1" t="str">
-        <f>IF(ISBLANK(E211), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_energize</v>
-      </c>
-      <c r="G211" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>180</v>
-      </c>
+    <row r="211" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F211" s="11"/>
       <c r="Q211" s="2"/>
       <c r="S211" s="1" t="str">
         <f>IF(ISBLANK(R211),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C211), "/", E211, "/config"))</f>
@@ -12185,31 +12431,10 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>9000</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F212" s="1" t="str">
+    <row r="212" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F212" s="11" t="str">
         <f>IF(ISBLANK(E212), "", Table2[[#This Row],[unique_id]])</f>
-        <v>update_bom_icons</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>180</v>
+        <v/>
       </c>
       <c r="Q212" s="2"/>
       <c r="S212" s="1" t="str">
@@ -12221,7 +12446,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F213" s="11" t="str">
         <f>IF(ISBLANK(E213), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12236,7 +12461,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F214" s="11" t="str">
         <f>IF(ISBLANK(E214), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12251,7 +12476,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F215" s="11" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12266,7 +12491,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F216" s="11" t="str">
         <f>IF(ISBLANK(E216), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12281,7 +12506,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F217" s="11" t="str">
         <f>IF(ISBLANK(E217), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12296,7 +12521,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F218" s="11" t="str">
         <f>IF(ISBLANK(E218), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12311,7 +12536,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F219" s="11" t="str">
         <f>IF(ISBLANK(E219), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12326,7 +12551,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F220" s="11" t="str">
         <f>IF(ISBLANK(E220), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12341,7 +12566,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F221" s="11" t="str">
         <f>IF(ISBLANK(E221), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12356,7 +12581,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F222" s="11" t="str">
         <f>IF(ISBLANK(E222), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12371,7 +12596,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F223" s="11" t="str">
         <f>IF(ISBLANK(E223), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -12386,7 +12611,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F224" s="11" t="str">
         <f>IF(ISBLANK(E224), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -15994,8 +16219,8 @@
     <hyperlink ref="AC31" r:id="rId12" xr:uid="{838C2324-17CA-6D43-8365-CEC03ABF99DC}"/>
     <hyperlink ref="AC42" r:id="rId13" xr:uid="{5280AB01-47B5-BC42-9649-47D3083D5A9D}"/>
     <hyperlink ref="AC56:AC80" r:id="rId14" display="https://weewx.janeandgraham.com" xr:uid="{F2567C9E-755B-EB4B-A145-A6BBABE92D07}"/>
-    <hyperlink ref="AC196" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
-    <hyperlink ref="AC197" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
+    <hyperlink ref="AC188" r:id="rId15" xr:uid="{15AF2227-E1B5-C140-A6C6-9F218935A759}"/>
+    <hyperlink ref="AC189" r:id="rId16" xr:uid="{245EC8C0-E509-1040-B618-DD0A2BDC1072}"/>
     <hyperlink ref="AC65" r:id="rId17" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="AC66" r:id="rId18" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AC15" r:id="rId19" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>

--- a/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821AC420-6447-6944-9D97-94E40BEDC056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB4F018-ACC3-E14C-B724-289FADACD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1940" windowWidth="54900" windowHeight="28480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="531">
   <si>
     <t>index</t>
   </si>
@@ -2234,10 +2234,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AD519" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31">
-  <autoFilter ref="A3:AD519" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AD519">
-    <sortCondition ref="A3:A519"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AD518" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31">
+  <autoFilter ref="A3:AD518" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AD518">
+    <sortCondition ref="A3:A518"/>
   </sortState>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="29"/>
@@ -2578,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD519"/>
+  <dimension ref="A1:AD518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6834,11 +6834,11 @@
         <v>86</v>
       </c>
       <c r="T68" s="1" t="str">
-        <f t="shared" ref="T68:T99" si="4">IF(ISBLANK(S68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68, "/config"))</f>
+        <f t="shared" ref="T68:T98" si="4">IF(ISBLANK(S68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68, "/config"))</f>
         <v>haas/entity/sensor/weewx/roof_storm_rain/config</v>
       </c>
       <c r="U68" s="1" t="str">
-        <f t="shared" ref="U68:U99" si="5">IF(ISBLANK(S68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68))</f>
+        <f t="shared" ref="U68:U98" si="5">IF(ISBLANK(S68),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C68), "/", E68))</f>
         <v>haas/entity/sensor/weewx/roof_storm_rain</v>
       </c>
       <c r="V68" s="1" t="s">
@@ -7192,20 +7192,20 @@
         <v>28</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>379</v>
+        <v>147</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F76" s="1" t="str">
         <f>IF(ISBLANK(E76), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
+        <v>ada_light</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>155</v>
@@ -7240,14 +7240,14 @@
         <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F77" s="1" t="str">
+        <v>269</v>
+      </c>
+      <c r="F77" s="11" t="str">
         <f>IF(ISBLANK(E77), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_light</v>
+        <v>edwin_light</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>155</v>
@@ -7282,14 +7282,14 @@
         <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F78" s="11" t="str">
         <f>IF(ISBLANK(E78), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_light</v>
+        <v>lounge_light</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>155</v>
@@ -7318,20 +7318,20 @@
         <v>28</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F79" s="11" t="str">
         <f>IF(ISBLANK(E79), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_light</v>
+        <v>hallway</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>155</v>
@@ -7366,11 +7366,11 @@
         <v>152</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>288</v>
+        <v>158</v>
       </c>
       <c r="F80" s="11" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hallway</v>
+        <v>hue_color_candle_2</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>281</v>
@@ -7380,9 +7380,6 @@
       </c>
       <c r="I80" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R80" s="2"/>
       <c r="T80" s="1" t="str">
@@ -7408,11 +7405,11 @@
         <v>152</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="F81" s="11" t="str">
         <f>IF(ISBLANK(E81), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_2</v>
+        <v>hue_color_candle_3</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>281</v>
@@ -7447,11 +7444,11 @@
         <v>152</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F82" s="11" t="str">
         <f>IF(ISBLANK(E82), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_3</v>
+        <v>hue_color_candle_4</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>281</v>
@@ -7486,11 +7483,11 @@
         <v>152</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F83" s="11" t="str">
         <f>IF(ISBLANK(E83), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_4</v>
+        <v>hue_color_candle_5</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>281</v>
@@ -7525,20 +7522,23 @@
         <v>152</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="F84" s="11" t="str">
         <f>IF(ISBLANK(E84), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_5</v>
+        <v>dining</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R84" s="2"/>
       <c r="T84" s="1" t="str">
@@ -7564,11 +7564,11 @@
         <v>152</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="F85" s="11" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
-        <v>dining</v>
+        <v>hue_color_candle_6</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>154</v>
@@ -7578,9 +7578,6 @@
       </c>
       <c r="I85" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R85" s="2"/>
       <c r="T85" s="1" t="str">
@@ -7606,11 +7603,11 @@
         <v>152</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F86" s="11" t="str">
         <f>IF(ISBLANK(E86), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_6</v>
+        <v>hue_color_candle_7</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>154</v>
@@ -7645,11 +7642,11 @@
         <v>152</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F87" s="11" t="str">
         <f>IF(ISBLANK(E87), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_7</v>
+        <v>hue_color_candle_8</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>154</v>
@@ -7684,11 +7681,11 @@
         <v>152</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F88" s="11" t="str">
         <f>IF(ISBLANK(E88), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_8</v>
+        <v>hue_color_candle_9</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>154</v>
@@ -7723,11 +7720,11 @@
         <v>152</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F89" s="11" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_9</v>
+        <v>hue_color_candle_10</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>154</v>
@@ -7762,11 +7759,11 @@
         <v>152</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F90" s="11" t="str">
         <f>IF(ISBLANK(E90), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_10</v>
+        <v>hue_color_candle_11</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>154</v>
@@ -7801,20 +7798,23 @@
         <v>152</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="F91" s="11" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_11</v>
+        <v>lounge</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R91" s="2"/>
       <c r="T91" s="1" t="str">
@@ -7840,11 +7840,11 @@
         <v>152</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="F92" s="11" t="str">
         <f>IF(ISBLANK(E92), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge</v>
+        <v>hue_color_candle_12</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>300</v>
@@ -7854,9 +7854,6 @@
       </c>
       <c r="I92" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R92" s="2"/>
       <c r="T92" s="1" t="str">
@@ -7882,11 +7879,11 @@
         <v>152</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F93" s="11" t="str">
         <f>IF(ISBLANK(E93), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_12</v>
+        <v>hue_color_candle_13</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>300</v>
@@ -7921,11 +7918,11 @@
         <v>152</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F94" s="11" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_13</v>
+        <v>hue_color_candle_14</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>300</v>
@@ -7960,20 +7957,23 @@
         <v>152</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="F95" s="11" t="str">
         <f>IF(ISBLANK(E95), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_14</v>
+        <v>parents</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R95" s="2"/>
       <c r="T95" s="1" t="str">
@@ -7999,11 +7999,11 @@
         <v>152</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="F96" s="11" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents</v>
+        <v>hue_color_candle_15</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>277</v>
@@ -8013,9 +8013,6 @@
       </c>
       <c r="I96" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R96" s="2"/>
       <c r="T96" s="1" t="str">
@@ -8041,11 +8038,11 @@
         <v>152</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F97" s="11" t="str">
         <f>IF(ISBLANK(E97), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_15</v>
+        <v>hue_color_candle_16</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>277</v>
@@ -8080,11 +8077,11 @@
         <v>152</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F98" s="11" t="str">
         <f>IF(ISBLANK(E98), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_16</v>
+        <v>hue_color_candle_17</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>277</v>
@@ -8119,14 +8116,14 @@
         <v>152</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="F99" s="11" t="str">
         <f>IF(ISBLANK(E99), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_color_candle_17</v>
+        <v>kitchen</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>155</v>
@@ -8134,13 +8131,16 @@
       <c r="I99" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="J99" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="R99" s="2"/>
       <c r="T99" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="T99:T128" si="6">IF(ISBLANK(S99),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C99), "/", E99, "/config"))</f>
         <v/>
       </c>
       <c r="U99" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U99:U128" si="7">IF(ISBLANK(S99),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C99), "/", E99))</f>
         <v/>
       </c>
     </row>
@@ -8158,11 +8158,11 @@
         <v>152</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="F100" s="11" t="str">
         <f>IF(ISBLANK(E100), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen</v>
+        <v>hue_ambiance_lamp_1</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>283</v>
@@ -8173,16 +8173,14 @@
       <c r="I100" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="N100" s="6"/>
       <c r="R100" s="2"/>
       <c r="T100" s="1" t="str">
-        <f t="shared" ref="T100:T129" si="6">IF(ISBLANK(S100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100, "/config"))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U100" s="1" t="str">
-        <f t="shared" ref="U100:U129" si="7">IF(ISBLANK(S100),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C100), "/", E100))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8200,11 +8198,11 @@
         <v>152</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F101" s="11" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_1</v>
+        <v>hue_ambiance_lamp_2</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>283</v>
@@ -8215,7 +8213,6 @@
       <c r="I101" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N101" s="6"/>
       <c r="R101" s="2"/>
       <c r="T101" s="1" t="str">
         <f t="shared" si="6"/>
@@ -8240,11 +8237,11 @@
         <v>152</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F102" s="11" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_2</v>
+        <v>hue_ambiance_lamp_3</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>283</v>
@@ -8279,11 +8276,11 @@
         <v>152</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F103" s="11" t="str">
         <f>IF(ISBLANK(E103), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_3</v>
+        <v>hue_ambiance_lamp_12</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>283</v>
@@ -8318,20 +8315,23 @@
         <v>152</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="F104" s="11" t="str">
         <f>IF(ISBLANK(E104), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_12</v>
+        <v>laundry</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R104" s="2"/>
       <c r="T104" s="1" t="str">
@@ -8357,11 +8357,11 @@
         <v>152</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="F105" s="11" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry</v>
+        <v>hue_ambiance_lamp_4</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>285</v>
@@ -8371,9 +8371,6 @@
       </c>
       <c r="I105" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R105" s="2"/>
       <c r="T105" s="1" t="str">
@@ -8399,20 +8396,23 @@
         <v>152</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="F106" s="11" t="str">
         <f>IF(ISBLANK(E106), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_4</v>
+        <v>pantry</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R106" s="2"/>
       <c r="T106" s="1" t="str">
@@ -8438,11 +8438,11 @@
         <v>152</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="F107" s="11" t="str">
         <f>IF(ISBLANK(E107), "", Table2[[#This Row],[unique_id]])</f>
-        <v>pantry</v>
+        <v>hue_ambiance_lamp_5</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>284</v>
@@ -8452,9 +8452,6 @@
       </c>
       <c r="I107" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R107" s="2"/>
       <c r="T107" s="1" t="str">
@@ -8480,20 +8477,23 @@
         <v>152</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="F108" s="11" t="str">
         <f>IF(ISBLANK(E108), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_5</v>
+        <v>office</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R108" s="2"/>
       <c r="T108" s="1" t="str">
@@ -8519,11 +8519,11 @@
         <v>152</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="F109" s="11" t="str">
         <f>IF(ISBLANK(E109), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office</v>
+        <v>hue_ambiance_lamp_6</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>280</v>
@@ -8533,9 +8533,6 @@
       </c>
       <c r="I109" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R109" s="2"/>
       <c r="T109" s="1" t="str">
@@ -8561,20 +8558,23 @@
         <v>152</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="F110" s="11" t="str">
         <f>IF(ISBLANK(E110), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_6</v>
+        <v>bathroom</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R110" s="2"/>
       <c r="T110" s="1" t="str">
@@ -8600,11 +8600,11 @@
         <v>152</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="F111" s="11" t="str">
         <f>IF(ISBLANK(E111), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom</v>
+        <v>hue_ambiance_lamp_7</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>279</v>
@@ -8614,9 +8614,6 @@
       </c>
       <c r="I111" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R111" s="2"/>
       <c r="T111" s="1" t="str">
@@ -8642,20 +8639,23 @@
         <v>152</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F112" s="11" t="str">
         <f>IF(ISBLANK(E112), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_7</v>
+        <v>ensuite</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R112" s="2"/>
       <c r="T112" s="1" t="str">
@@ -8681,11 +8681,11 @@
         <v>152</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F113" s="11" t="str">
         <f>IF(ISBLANK(E113), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ensuite</v>
+        <v>hue_ambiance_lamp_8</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>278</v>
@@ -8695,9 +8695,6 @@
       </c>
       <c r="I113" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R113" s="2"/>
       <c r="T113" s="1" t="str">
@@ -8723,20 +8720,23 @@
         <v>152</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="F114" s="11" t="str">
         <f>IF(ISBLANK(E114), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_8</v>
+        <v>wardrobe</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R114" s="2"/>
       <c r="T114" s="1" t="str">
@@ -8762,11 +8762,11 @@
         <v>152</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="F115" s="11" t="str">
         <f>IF(ISBLANK(E115), "", Table2[[#This Row],[unique_id]])</f>
-        <v>wardrobe</v>
+        <v>hue_ambiance_lamp_9</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>282</v>
@@ -8776,9 +8776,6 @@
       </c>
       <c r="I115" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R115" s="2"/>
       <c r="T115" s="1" t="str">
@@ -8804,20 +8801,23 @@
         <v>152</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="F116" s="11" t="str">
         <f>IF(ISBLANK(E116), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_9</v>
+        <v>edwin</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R116" s="2"/>
       <c r="T116" s="1" t="str">
@@ -8843,11 +8843,11 @@
         <v>152</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="F117" s="11" t="str">
         <f>IF(ISBLANK(E117), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin</v>
+        <v>hue_ambiance_lamp_10</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>286</v>
@@ -8857,9 +8857,6 @@
       </c>
       <c r="I117" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R117" s="2"/>
       <c r="T117" s="1" t="str">
@@ -8885,20 +8882,23 @@
         <v>152</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="F118" s="11" t="str">
         <f>IF(ISBLANK(E118), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_10</v>
+        <v>ada</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R118" s="2"/>
       <c r="T118" s="1" t="str">
@@ -8924,11 +8924,11 @@
         <v>152</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="F119" s="11" t="str">
         <f>IF(ISBLANK(E119), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada</v>
+        <v>hue_ambiance_lamp_11</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>276</v>
@@ -8938,9 +8938,6 @@
       </c>
       <c r="I119" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R119" s="2"/>
       <c r="T119" s="1" t="str">
@@ -8966,20 +8963,23 @@
         <v>152</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="F120" s="11" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_11</v>
+        <v>lamp</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>155</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="R120" s="2"/>
       <c r="T120" s="1" t="str">
@@ -9005,11 +9005,11 @@
         <v>152</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="F121" s="11" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lamp</v>
+        <v>hue_ambiance_lamp_13</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>287</v>
@@ -9019,9 +9019,6 @@
       </c>
       <c r="I121" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R121" s="2"/>
       <c r="T121" s="1" t="str">
@@ -9035,32 +9032,38 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>1546</v>
+        <v>1600</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>256</v>
+        <v>453</v>
       </c>
       <c r="F122" s="11" t="str">
         <f>IF(ISBLANK(E122), "", Table2[[#This Row],[unique_id]])</f>
-        <v>hue_ambiance_lamp_13</v>
+        <v>kitchen_dish_washer</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="R122" s="2"/>
       <c r="T122" s="1" t="str">
@@ -9074,7 +9077,7 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>28</v>
@@ -9086,14 +9089,14 @@
         <v>148</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F123" s="11" t="str">
         <f>IF(ISBLANK(E123), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dish_washer</v>
+        <v>laundry_clothes_dryer</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>150</v>
@@ -9105,7 +9108,7 @@
         <v>151</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R123" s="2"/>
       <c r="T123" s="1" t="str">
@@ -9119,7 +9122,7 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>28</v>
@@ -9131,14 +9134,14 @@
         <v>148</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F124" s="11" t="str">
         <f>IF(ISBLANK(E124), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer</v>
+        <v>laundry_washing_machine</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>150</v>
@@ -9150,7 +9153,7 @@
         <v>151</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R124" s="2"/>
       <c r="T124" s="1" t="str">
@@ -9164,7 +9167,7 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>28</v>
@@ -9176,14 +9179,14 @@
         <v>148</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F125" s="11" t="str">
         <f>IF(ISBLANK(E125), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine</v>
+        <v>kitchen_coffee_machine</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>365</v>
+        <v>149</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>150</v>
@@ -9195,7 +9198,7 @@
         <v>151</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="R125" s="2"/>
       <c r="T125" s="1" t="str">
@@ -9209,7 +9212,7 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>28</v>
@@ -9221,14 +9224,14 @@
         <v>148</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F126" s="11" t="str">
         <f>IF(ISBLANK(E126), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine</v>
+        <v>kitchen_fridge</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>150</v>
@@ -9236,11 +9239,8 @@
       <c r="I126" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="P126" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R126" s="2"/>
       <c r="T126" s="1" t="str">
@@ -9254,7 +9254,7 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>28</v>
@@ -9266,14 +9266,14 @@
         <v>148</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F127" s="11" t="str">
         <f>IF(ISBLANK(E127), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge</v>
+        <v>deck_freezer</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>150</v>
@@ -9282,7 +9282,7 @@
         <v>146</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R127" s="2"/>
       <c r="T127" s="1" t="str">
@@ -9296,7 +9296,7 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>28</v>
@@ -9308,14 +9308,14 @@
         <v>148</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F128" s="11" t="str">
         <f>IF(ISBLANK(E128), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer</v>
+        <v>deck_lights</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>150</v>
@@ -9323,8 +9323,11 @@
       <c r="I128" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="J128" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="P128" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R128" s="2"/>
       <c r="T128" s="1" t="str">
@@ -9338,10 +9341,10 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>378</v>
@@ -9350,14 +9353,14 @@
         <v>148</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="F129" s="11" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_lights</v>
+        <v>roof_water_heater_booster_power</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>150</v>
@@ -9369,24 +9372,24 @@
         <v>151</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="R129" s="2"/>
       <c r="T129" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(S129),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(#REF!), "/", E129, "/config"))</f>
         <v/>
       </c>
       <c r="U129" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(S129),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(#REF!), "/", E129))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>378</v>
@@ -9395,14 +9398,14 @@
         <v>148</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="F130" s="11" t="str">
         <f>IF(ISBLANK(E130), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_water_heater_booster_power</v>
+        <v>bathroom_rails</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>150</v>
@@ -9414,7 +9417,7 @@
         <v>151</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="R130" s="2"/>
       <c r="T130" s="1" t="str">
@@ -9428,7 +9431,7 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>28</v>
@@ -9440,14 +9443,14 @@
         <v>148</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F131" s="11" t="str">
         <f>IF(ISBLANK(E131), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_rails</v>
+        <v>study_battery_charger</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>150</v>
@@ -9459,21 +9462,21 @@
         <v>151</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R131" s="2"/>
       <c r="T131" s="1" t="str">
-        <f>IF(ISBLANK(S131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(#REF!), "/", E131, "/config"))</f>
+        <f t="shared" ref="T131:T194" si="8">IF(ISBLANK(S131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131, "/config"))</f>
         <v/>
       </c>
       <c r="U131" s="1" t="str">
-        <f>IF(ISBLANK(S131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(#REF!), "/", E131))</f>
+        <f t="shared" ref="U131:U194" si="9">IF(ISBLANK(S131),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C131), "/", E131))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>28</v>
@@ -9485,14 +9488,14 @@
         <v>148</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F132" s="11" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger</v>
+        <v>laundry_vacuum_charger</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>150</v>
@@ -9508,17 +9511,17 @@
       </c>
       <c r="R132" s="2"/>
       <c r="T132" s="1" t="str">
-        <f t="shared" ref="T132:T195" si="8">IF(ISBLANK(S132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132, "/config"))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U132" s="1" t="str">
-        <f t="shared" ref="U132:U195" si="9">IF(ISBLANK(S132),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C132), "/", E132))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>28</v>
@@ -9530,14 +9533,14 @@
         <v>148</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F133" s="11" t="str">
         <f>IF(ISBLANK(E133), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger</v>
+        <v>various_adhoc_outlet</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>150</v>
@@ -9549,7 +9552,7 @@
         <v>151</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R133" s="2"/>
       <c r="T133" s="1" t="str">
@@ -9563,7 +9566,7 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>28</v>
@@ -9575,23 +9578,23 @@
         <v>148</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F134" s="11" t="str">
         <f>IF(ISBLANK(E134), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet</v>
+        <v>study_outlet</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>150</v>
+        <v>469</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>479</v>
@@ -9608,7 +9611,7 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>28</v>
@@ -9620,14 +9623,14 @@
         <v>148</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F135" s="11" t="str">
         <f>IF(ISBLANK(E135), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet</v>
+        <v>office_outlet</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>469</v>
@@ -9653,7 +9656,7 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>28</v>
@@ -9665,14 +9668,14 @@
         <v>148</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>462</v>
+        <v>219</v>
       </c>
       <c r="F136" s="11" t="str">
         <f>IF(ISBLANK(E136), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>469</v>
@@ -9684,7 +9687,7 @@
         <v>486</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R136" s="2"/>
       <c r="T136" s="1" t="str">
@@ -9698,7 +9701,7 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>28</v>
@@ -9710,14 +9713,14 @@
         <v>148</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>219</v>
+        <v>463</v>
       </c>
       <c r="F137" s="11" t="str">
         <f>IF(ISBLANK(E137), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>rack_outlet</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>469</v>
@@ -9729,7 +9732,7 @@
         <v>486</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="R137" s="2"/>
       <c r="T137" s="1" t="str">
@@ -9743,7 +9746,7 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>28</v>
@@ -9755,14 +9758,14 @@
         <v>148</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F138" s="11" t="str">
         <f>IF(ISBLANK(E138), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet</v>
+        <v>roof_network_switch</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>469</v>
@@ -9774,7 +9777,7 @@
         <v>486</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R138" s="2"/>
       <c r="T138" s="1" t="str">
@@ -9788,7 +9791,7 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>28</v>
@@ -9800,14 +9803,14 @@
         <v>148</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F139" s="11" t="str">
         <f>IF(ISBLANK(E139), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch</v>
+        <v>rack_internet_modem</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>469</v>
@@ -9819,7 +9822,7 @@
         <v>486</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R139" s="2"/>
       <c r="T139" s="1" t="str">
@@ -9833,38 +9836,38 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>1617</v>
+        <v>2100</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="F140" s="11" t="str">
         <f>IF(ISBLANK(E140), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_internet_modem</v>
+        <v>home_power</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>358</v>
+        <v>200</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>486</v>
+        <v>96</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="R140" s="2"/>
       <c r="T140" s="1" t="str">
@@ -9878,7 +9881,7 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>349</v>
@@ -9890,14 +9893,14 @@
         <v>29</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="F141" s="11" t="str">
         <f>IF(ISBLANK(E141), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_power</v>
+        <v>lights_power</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>444</v>
@@ -9923,26 +9926,26 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="F142" s="11" t="str">
         <f>IF(ISBLANK(E142), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_power</v>
+        <v>kitchen_dish_washer_current_consumption</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>444</v>
@@ -9968,7 +9971,7 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>28</v>
@@ -9980,14 +9983,14 @@
         <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F143" s="11" t="str">
         <f>IF(ISBLANK(E143), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dish_washer_current_consumption</v>
+        <v>laundry_clothes_dryer_current_consumption</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>444</v>
@@ -10013,7 +10016,7 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>28</v>
@@ -10025,14 +10028,14 @@
         <v>29</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F144" s="11" t="str">
         <f>IF(ISBLANK(E144), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer_current_consumption</v>
+        <v>laundry_washing_machine_current_consumption</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>444</v>
@@ -10058,7 +10061,7 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>28</v>
@@ -10070,14 +10073,14 @@
         <v>29</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F145" s="11" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine_current_consumption</v>
+        <v>kitchen_coffee_machine_current_consumption</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>365</v>
+        <v>149</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>444</v>
@@ -10086,7 +10089,7 @@
         <v>159</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>446</v>
@@ -10103,7 +10106,7 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>28</v>
@@ -10115,14 +10118,14 @@
         <v>29</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="F146" s="11" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine_current_consumption</v>
+        <v>kitchen_fan_current_consumption</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>444</v>
@@ -10148,7 +10151,7 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>28</v>
@@ -10160,14 +10163,14 @@
         <v>29</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F147" s="11" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan_current_consumption</v>
+        <v>kitchen_fridge_current_consumption</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>444</v>
@@ -10193,7 +10196,7 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>28</v>
@@ -10205,14 +10208,14 @@
         <v>29</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F148" s="11" t="str">
         <f>IF(ISBLANK(E148), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge_current_consumption</v>
+        <v>deck_freezer_current_consumption</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>444</v>
@@ -10238,7 +10241,7 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>28</v>
@@ -10250,14 +10253,14 @@
         <v>29</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="F149" s="11" t="str">
         <f>IF(ISBLANK(E149), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer_current_consumption</v>
+        <v>deck_lights_current_consumption</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>444</v>
@@ -10283,7 +10286,7 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>28</v>
@@ -10295,14 +10298,14 @@
         <v>29</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F150" s="11" t="str">
         <f>IF(ISBLANK(E150), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_lights_current_consumption</v>
+        <v>lounge_tv_current_consumption</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>444</v>
@@ -10328,26 +10331,26 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="F151" s="11" t="str">
         <f>IF(ISBLANK(E151), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv_current_consumption</v>
+        <v>roof_water_heater_booster_power</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>444</v>
@@ -10373,26 +10376,26 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F152" s="11" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_water_heater_booster_power</v>
+        <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>444</v>
@@ -10418,7 +10421,7 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>28</v>
@@ -10430,14 +10433,14 @@
         <v>29</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F153" s="11" t="str">
         <f>IF(ISBLANK(E153), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_rails_current_consumption</v>
+        <v>study_outlet_current_consumption</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>444</v>
@@ -10463,7 +10466,7 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>28</v>
@@ -10475,14 +10478,14 @@
         <v>29</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F154" s="11" t="str">
         <f>IF(ISBLANK(E154), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet_current_consumption</v>
+        <v>office_outlet_current_consumption</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>444</v>
@@ -10508,7 +10511,7 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>28</v>
@@ -10520,14 +10523,14 @@
         <v>29</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F155" s="11" t="str">
         <f>IF(ISBLANK(E155), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet_current_consumption</v>
+        <v>rack_outlet_current_consumption</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>444</v>
@@ -10553,7 +10556,7 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>28</v>
@@ -10565,14 +10568,14 @@
         <v>29</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F156" s="11" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet_current_consumption</v>
+        <v>roof_network_switch_current_consumption</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>444</v>
@@ -10598,7 +10601,7 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>28</v>
@@ -10610,14 +10613,14 @@
         <v>29</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F157" s="11" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch_current_consumption</v>
+        <v>rack_internet_modem_current_consumption</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>444</v>
@@ -10643,7 +10646,7 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>28</v>
@@ -10655,14 +10658,14 @@
         <v>29</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F158" s="11" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_internet_modem_current_consumption</v>
+        <v>study_battery_charger_current_consumption</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>444</v>
@@ -10688,7 +10691,7 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>28</v>
@@ -10700,14 +10703,14 @@
         <v>29</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F159" s="11" t="str">
         <f>IF(ISBLANK(E159), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger_current_consumption</v>
+        <v>laundry_vacuum_charger_current_consumption</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>444</v>
@@ -10733,7 +10736,7 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>28</v>
@@ -10745,14 +10748,14 @@
         <v>29</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F160" s="11" t="str">
+        <v>383</v>
+      </c>
+      <c r="F160" s="1" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger_current_consumption</v>
+        <v>various_adhoc_outlet_current_consumption</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>444</v>
@@ -10778,38 +10781,38 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>2120</v>
+        <v>2150</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F161" s="1" t="str">
+        <v>414</v>
+      </c>
+      <c r="F161" s="11" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet_current_consumption</v>
+        <v>home_energy_daily</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R161" s="2"/>
       <c r="T161" s="1" t="str">
@@ -10823,7 +10826,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>349</v>
@@ -10835,14 +10838,14 @@
         <v>29</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F162" s="11" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_daily</v>
+        <v>lights_energy_daily</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>351</v>
@@ -10868,26 +10871,26 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F163" s="11" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_daily</v>
+        <v>kitchen_dish_washer_today_s_consumption</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>351</v>
@@ -10913,7 +10916,7 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>28</v>
@@ -10925,14 +10928,14 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F164" s="11" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_dish_washer_today_s_consumption</v>
+        <v>laundry_clothes_dryer_today_s_consumption</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>351</v>
@@ -10958,7 +10961,7 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>28</v>
@@ -10970,14 +10973,14 @@
         <v>29</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F165" s="11" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_clothes_dryer_today_s_consumption</v>
+        <v>laundry_washing_machine_today_s_consumption</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>351</v>
@@ -11003,7 +11006,7 @@
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>28</v>
@@ -11015,14 +11018,14 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F166" s="11" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_washing_machine_today_s_consumption</v>
+        <v>kitchen_coffee_machine_today_s_consumption</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>365</v>
+        <v>149</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>351</v>
@@ -11031,7 +11034,7 @@
         <v>159</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="P166" s="1" t="s">
         <v>447</v>
@@ -11048,7 +11051,7 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>28</v>
@@ -11060,14 +11063,14 @@
         <v>29</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F167" s="11" t="str">
         <f>IF(ISBLANK(E167), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_coffee_machine_today_s_consumption</v>
+        <v>kitchen_fan_today_s_consumption</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>351</v>
@@ -11093,7 +11096,7 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>28</v>
@@ -11105,14 +11108,14 @@
         <v>29</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F168" s="11" t="str">
         <f>IF(ISBLANK(E168), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fan_today_s_consumption</v>
+        <v>kitchen_fridge_today_s_consumption</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>351</v>
@@ -11138,7 +11141,7 @@
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>28</v>
@@ -11150,14 +11153,14 @@
         <v>29</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F169" s="11" t="str">
         <f>IF(ISBLANK(E169), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_fridge_today_s_consumption</v>
+        <v>deck_freezer_today_s_consumption</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>351</v>
@@ -11183,7 +11186,7 @@
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>28</v>
@@ -11195,14 +11198,14 @@
         <v>29</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F170" s="11" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_freezer_today_s_consumption</v>
+        <v>deck_lights_today_s_consumption</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>351</v>
@@ -11228,7 +11231,7 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>28</v>
@@ -11240,14 +11243,14 @@
         <v>29</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F171" s="11" t="str">
         <f>IF(ISBLANK(E171), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_lights_today_s_consumption</v>
+        <v>lounge_tv_today_s_consumption</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>351</v>
@@ -11273,10 +11276,10 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>378</v>
@@ -11285,14 +11288,14 @@
         <v>29</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="F172" s="11" t="str">
         <f>IF(ISBLANK(E172), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv_today_s_consumption</v>
+        <v>roof_water_heater_booster_energy_daily</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>351</v>
@@ -11318,10 +11321,10 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>378</v>
@@ -11330,14 +11333,14 @@
         <v>29</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="F173" s="11" t="str">
         <f>IF(ISBLANK(E173), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_water_heater_booster_energy_daily</v>
+        <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>351</v>
@@ -11363,7 +11366,7 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>28</v>
@@ -11375,14 +11378,14 @@
         <v>29</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F174" s="11" t="str">
         <f>IF(ISBLANK(E174), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bathroom_rails_today_s_consumption</v>
+        <v>study_outlet_today_s_consumption</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>351</v>
@@ -11408,7 +11411,7 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>28</v>
@@ -11420,14 +11423,14 @@
         <v>29</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F175" s="11" t="str">
         <f>IF(ISBLANK(E175), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_outlet_today_s_consumption</v>
+        <v>office_outlet_today_s_consumption</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>351</v>
@@ -11453,7 +11456,7 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>28</v>
@@ -11465,14 +11468,14 @@
         <v>29</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F176" s="11" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_outlet_today_s_consumption</v>
+        <v>rack_outlet_today_s_consumption</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>351</v>
@@ -11498,7 +11501,7 @@
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>28</v>
@@ -11510,14 +11513,14 @@
         <v>29</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F177" s="11" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_outlet_today_s_consumption</v>
+        <v>roof_network_switch_today_s_consumption</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>351</v>
@@ -11543,7 +11546,7 @@
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>28</v>
@@ -11555,14 +11558,14 @@
         <v>29</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F178" s="11" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
-        <v>roof_network_switch_today_s_consumption</v>
+        <v>rack_internet_modem_today_s_consumption</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>351</v>
@@ -11588,7 +11591,7 @@
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>28</v>
@@ -11600,14 +11603,14 @@
         <v>29</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F179" s="11" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
-        <v>rack_internet_modem_today_s_consumption</v>
+        <v>study_battery_charger_today_s_consumption</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>351</v>
@@ -11633,7 +11636,7 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>28</v>
@@ -11645,14 +11648,14 @@
         <v>29</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F180" s="11" t="str">
         <f>IF(ISBLANK(E180), "", Table2[[#This Row],[unique_id]])</f>
-        <v>study_battery_charger_today_s_consumption</v>
+        <v>laundry_vacuum_charger_today_s_consumption</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>351</v>
@@ -11678,7 +11681,7 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>28</v>
@@ -11690,14 +11693,14 @@
         <v>29</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F181" s="11" t="str">
         <f>IF(ISBLANK(E181), "", Table2[[#This Row],[unique_id]])</f>
-        <v>laundry_vacuum_charger_today_s_consumption</v>
+        <v>various_adhoc_outlet_today_s_consumption</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>351</v>
@@ -11723,35 +11726,35 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>2170</v>
+        <v>2200</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F182" s="11" t="str">
         <f>IF(ISBLANK(E182), "", Table2[[#This Row],[unique_id]])</f>
-        <v>various_adhoc_outlet_today_s_consumption</v>
+        <v>home_energy_weekly</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="P182" s="1" t="s">
         <v>447</v>
@@ -11768,7 +11771,7 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>349</v>
@@ -11780,14 +11783,14 @@
         <v>29</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F183" s="11" t="str">
         <f>IF(ISBLANK(E183), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_energy_weekly</v>
+        <v>lights_energy_weekly</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>416</v>
@@ -11813,7 +11816,7 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>349</v>
@@ -11825,14 +11828,14 @@
         <v>29</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F184" s="11" t="str">
         <f>IF(ISBLANK(E184), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lights_energy_weekly</v>
+        <v>small_devices_energy_weekly</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>155</v>
+        <v>419</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>416</v>
@@ -11858,7 +11861,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>349</v>
@@ -11870,14 +11873,14 @@
         <v>29</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F185" s="11" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
-        <v>small_devices_energy_weekly</v>
+        <v>large_appliances_energy_weekly</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>416</v>
@@ -11903,7 +11906,7 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>349</v>
@@ -11915,14 +11918,14 @@
         <v>29</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F186" s="11" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
-        <v>large_appliances_energy_weekly</v>
+        <v>servers_network_energy_weekly</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>416</v>
@@ -11948,7 +11951,7 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>349</v>
@@ -11960,14 +11963,14 @@
         <v>29</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F187" s="11" t="str">
         <f>IF(ISBLANK(E187), "", Table2[[#This Row],[unique_id]])</f>
-        <v>servers_network_energy_weekly</v>
+        <v>water_heater_booster_energy_weekly</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>416</v>
@@ -11993,7 +11996,7 @@
     </row>
     <row r